--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D35F55E-EEB2-45DC-914A-E747FB7EC960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E2BF1-D3B4-4090-93D4-35260DA7C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -514,3142 +514,6 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$AH$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e_yearly_var_m2_per</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="336699"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4382C1"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="336699"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$AH$2:$AH$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>12.031232436078113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.539860581506602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1317058770848263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3671618541188479</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3009364763536837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3965430152960749</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8843369601740108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3264321224737756</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7957601402850543</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.299375374695785</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2765611929800684</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.924097127523851</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.629437037257361</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4240399805434691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2653112270305229</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5639300773913476</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4101255562240311</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.404781665475682</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.4260040253403332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.4407042609229137</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.65524801143095601</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.2988975591292302</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.8622931800965432</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.42317633989016201</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8597828533567196</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.9335523854449548</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.1203025001660762</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2039298836209724</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1450396616647538</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1107204128499859</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.515919100851079</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.2376384717154139</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.3647700701480971</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27383619616627186</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Monitor!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="35"/>
-                      <c:pt idx="0">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1991</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1992</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1994</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1996</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2003</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2004</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2005</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2006</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2007</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2018</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2019</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2021</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2022</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2023</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D992-44F1-AB12-D2525FD8874F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$W$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d_yearly_var_m2_per</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="548235"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="548235">
-                  <a:alpha val="50196"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:srgbClr val="548235"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$W$2:$W$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>3.8177339901477723</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8439334489156636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1209038211285929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6320084232692835</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50361161472272897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4525254839079054</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8438827818744983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7914553155885642</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.5588591483156478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.9944449503688162</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6284339626694475</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6227061217090011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4369717015803047</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6682664917217664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.7482639747967141</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6683928125779772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7372774010878658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.5852300753998918</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.285912597773574</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2184837335398981</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.5016990894774693</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.247113608810437</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.6143592694983795</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6765222706088849</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.023170908039333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.1872980966749225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5612457858404127</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3915814212754469</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1577671304046646</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.7026450334612662</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.580414359080891</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.53908692933085</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.6578679262758271</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7470333396119884</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Monitor!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="35"/>
-                      <c:pt idx="0">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1991</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1992</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1994</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1996</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2003</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2004</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2005</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2006</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2007</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2018</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2019</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2021</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2022</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2023</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D992-44F1-AB12-D2525FD8874F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="530186832"/>
-        <c:axId val="530188144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="530186832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530188144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530188144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="high"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530186832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>b10y_us</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$C$2:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>8.5555833333333293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7799166666666704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0122499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8289999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1234999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4805000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2140833333333303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6967499999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9609166666666704</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9640000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5318333333333296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.99108333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2634166666666697</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2649166666666698</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7810833333333296</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5747499999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5862500000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.27233333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7317499999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7354166666666699</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3605</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4787499999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.82325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.3335833333333298</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8922500000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0796666666666699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.82083333333333297</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22AA-4C7A-A4DD-1A365BD6DE6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>inflation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$L$2:$L$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22AA-4C7A-A4DD-1A365BD6DE6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="67000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="49817690"/>
-        <c:axId val="66726528"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="49817690"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66726528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66726528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49817690"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>b10y_us</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$C$2:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>8.5555833333333293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7799166666666704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0122499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8289999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1234999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4805000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2140833333333303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6967499999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9609166666666704</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9640000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5318333333333296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.99108333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2634166666666697</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2649166666666698</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7810833333333296</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5747499999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5862500000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.27233333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7317499999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7354166666666699</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3605</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4787499999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.82325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.3335833333333298</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8922500000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0796666666666699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.82083333333333297</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.5740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E1C-439F-9BA5-D5CE3E4EA849}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$E$2:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>8.0991666666666706</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5216666666666665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0225</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2016666666666671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8366666666666669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2983333333333329</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2358333333333329</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8875000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1274999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3491666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2133333333333334</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.9641666666666664</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0191666666666697</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9275</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1075</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.9166666666666672E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.13250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.39500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0016666666666667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8316666666666668</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.1583333333333332</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.37583333333333335</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E1C-439F-9BA5-D5CE3E4EA849}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="67000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="49817690"/>
-        <c:axId val="66726528"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="49817690"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66726528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66726528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49817690"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>change_m2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$I$2:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>6.0110580785407297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8439334489156636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1209038211285929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6320084232692835</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50361161472272897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4525254839079054</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8438827818744983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7914553155885642</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.5588591483156478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.9944449503688162</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6284339626694475</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6227061217090011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4369717015803047</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6682664917217664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.7482639747967141</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.6683928125779772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7372774010878658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.5852300753998918</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.285912597773574</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2184837335398981</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.5016990894774693</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.247113608810437</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.6143592694983795</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6765222706088849</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.023170908039333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.1872980966749225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5612457858404127</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3915814212754469</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1577671304046646</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.7026450334612662</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.580414359080891</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.53908692933085</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.6578679262758271</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7470333396119884</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0F2-4FD4-85E2-7E18CA7694B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>inflation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Monitor!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$L$2:$L$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0F2-4FD4-85E2-7E18CA7694B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="49817690"/>
-        <c:axId val="66726528"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="49817690"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66726528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66726528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49817690"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
       <c:areaChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4454,809 +1318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$AF$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d_market_money</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$AF$2:$AF$36</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>338.29728989871302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>411.27706139832014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>430.14341005917748</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>479.25503851429784</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>481.46833123353576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>619.91099902226858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>739.01148704003913</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>860.77127769127469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>956.38147709680379</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1004.870015966092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>978.85502487762608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>803.59977949283336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>607.45184699227127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>745.97786464776436</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>736.68008069212203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>703.89687802697267</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>765.56268057219359</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>773.50436477215089</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>454.12107862122383</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>545.13144756108625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>584.88879321089075</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>550.84152938073169</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>558.64784679247191</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>680.80839117023334</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>699.42209834556468</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>654.86782255043613</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>687.57752434327153</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>824.89609190094097</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>749.78315990744466</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>881.70747279050693</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>820.83385449239097</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>875.99950603562706</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>744.83581339863122</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>905.61546449396928</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>949.0694144899752</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Monitor!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="35"/>
-                      <c:pt idx="0">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1991</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1992</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1994</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1996</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2003</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2004</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2005</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2006</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2007</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2018</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2019</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2021</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2022</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2023</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2887-4B84-964E-575C78037F87}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monitor!$AP$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e_market_money</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:blipFill dpi="0" rotWithShape="1">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect l="5000"/>
-                </a:stretch>
-              </a:blipFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Monitor!$AP$2:$AP$36</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>487.59223731681317</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521.43256341677818</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>494.43984553087552</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>619.28805013672809</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>532.41622474870837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>524.58435166529819</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>635.03200830247818</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>846.20033552745508</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000.4559520979722</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1371.4318721361697</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1258.4699026215765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>898.15241675887785</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>512.67040587483268</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>608.48527129124102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>614.85867613778919</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>709.82109675528386</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>777.84578311708697</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>787.03883211974437</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>425.89067232044886</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>527.2190068713802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>574.95237518952297</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>474.9321109796312</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>573.66622729601067</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>702.93100960833135</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>681.48792773449145</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>709.56145595736348</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>717.26371201240943</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>767.76060795487422</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>618.26557418179902</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>739.75669557336403</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>664.81328127808649</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>750.71447129124442</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>634.67762011451327</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>753.91012909632582</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>787.76688182720966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Monitor!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="35"/>
-                      <c:pt idx="0">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1991</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1992</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1993</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1994</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1996</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2003</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2004</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2005</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2006</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>2007</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>2008</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>2009</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2011</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2018</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2019</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2021</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2022</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2023</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2887-4B84-964E-575C78037F87}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="530186832"/>
-        <c:axId val="530188144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="530186832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530188144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530188144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="high"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530186832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ca-ES"/>
@@ -6136,197 +2198,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6367,33 +2238,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6408,7 +2273,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6416,7 +2281,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6424,17 +2289,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -6443,9 +2305,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6468,35 +2329,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6505,33 +2366,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6547,21 +2407,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6595,17 +2450,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6614,14 +2469,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6633,26 +2487,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6666,17 +2514,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6685,17 +2532,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6704,17 +2551,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6723,27 +2569,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6751,11 +2594,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6763,17 +2614,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6782,12 +2633,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6796,14 +2644,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6812,10 +2660,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6824,7 +2669,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6845,10 +2690,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6857,14 +2699,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7337,2547 +3173,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>386584</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>13362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>214648</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gràfic 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C310F837-BEF2-4213-8446-E79D133BE379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>301095</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>37110</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>116878</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gràfic 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE21FC1-D5FE-4794-91CD-27CEB28C7090}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>214430</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57709</xdr:rowOff>
+      <xdr:colOff>426007</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45358</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gràfic 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED4EB12-09B9-4242-B8C7-1558097582A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>178027</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>530525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114683</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gràfic 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC84DD63-C16F-4CDD-B0CC-28C472F9092A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>494392</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>140606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>131536</xdr:rowOff>
+      <xdr:colOff>67686</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102229</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9898,45 +3207,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>460994</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>49793</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gràfic 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B5E678-873C-49D7-B21A-56EE0268D96E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9945,15 +3216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>11340</xdr:rowOff>
+      <xdr:colOff>475379</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>292554</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>2269</xdr:rowOff>
+      <xdr:colOff>185093</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9974,7 +3245,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10282,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
   <dimension ref="A1:AP66"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="S1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16078,10 +9349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B1CF9D-80AE-46CE-A257-3B35A0F880A1}">
-  <dimension ref="B48:J403"/>
+  <dimension ref="B4:J359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16094,87 +9365,351 @@
     <col min="11" max="13" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C48"/>
-      <c r="D48" s="10"/>
-      <c r="E48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C50"/>
-      <c r="D50" s="14"/>
-      <c r="E50"/>
-      <c r="H50"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C51"/>
-      <c r="D51" s="14"/>
-      <c r="E51"/>
-      <c r="H51"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C4"/>
+      <c r="D4" s="10"/>
+      <c r="E4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C6"/>
+      <c r="D6" s="14"/>
+      <c r="E6"/>
+      <c r="H6"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C7"/>
+      <c r="D7" s="14"/>
+      <c r="E7"/>
+      <c r="H7"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="12"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="12"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="12"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="12"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" s="12"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="13"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B98" s="12"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="12"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="13"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B102" s="12"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B103" s="12"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B107" s="12"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="12"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="12"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
@@ -17662,276 +11197,9 @@
       <c r="G359" s="13"/>
       <c r="H359" s="13"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B360" s="13"/>
-      <c r="F360" s="13"/>
-      <c r="G360" s="13"/>
-      <c r="H360" s="13"/>
-    </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B361" s="13"/>
-      <c r="F361" s="13"/>
-      <c r="G361" s="13"/>
-      <c r="H361" s="13"/>
-    </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B362" s="12"/>
-      <c r="F362" s="13"/>
-      <c r="G362" s="13"/>
-      <c r="H362" s="13"/>
-    </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B363" s="12"/>
-      <c r="F363" s="13"/>
-      <c r="G363" s="13"/>
-      <c r="H363" s="13"/>
-    </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B364" s="13"/>
-      <c r="F364" s="13"/>
-      <c r="G364" s="13"/>
-      <c r="H364" s="13"/>
-    </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B365" s="13"/>
-      <c r="F365" s="13"/>
-      <c r="G365" s="13"/>
-      <c r="H365" s="13"/>
-    </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B366" s="12"/>
-      <c r="F366" s="13"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="13"/>
-    </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B367" s="12"/>
-      <c r="F367" s="13"/>
-      <c r="G367" s="13"/>
-      <c r="H367" s="13"/>
-    </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B368" s="13"/>
-      <c r="F368" s="13"/>
-      <c r="G368" s="13"/>
-      <c r="H368" s="13"/>
-    </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B369" s="13"/>
-      <c r="F369" s="13"/>
-      <c r="G369" s="13"/>
-      <c r="H369" s="13"/>
-    </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B370" s="12"/>
-      <c r="F370" s="13"/>
-      <c r="G370" s="13"/>
-      <c r="H370" s="13"/>
-    </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B371" s="12"/>
-      <c r="F371" s="13"/>
-      <c r="G371" s="13"/>
-      <c r="H371" s="13"/>
-    </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B372" s="13"/>
-      <c r="F372" s="13"/>
-      <c r="G372" s="13"/>
-      <c r="H372" s="13"/>
-    </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B373" s="13"/>
-      <c r="F373" s="13"/>
-      <c r="G373" s="13"/>
-      <c r="H373" s="13"/>
-    </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B374" s="12"/>
-      <c r="F374" s="13"/>
-      <c r="G374" s="13"/>
-      <c r="H374" s="13"/>
-    </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B375" s="12"/>
-      <c r="F375" s="13"/>
-      <c r="G375" s="13"/>
-      <c r="H375" s="13"/>
-    </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B376" s="13"/>
-      <c r="F376" s="13"/>
-      <c r="G376" s="13"/>
-      <c r="H376" s="13"/>
-    </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B377" s="13"/>
-      <c r="F377" s="13"/>
-      <c r="G377" s="13"/>
-      <c r="H377" s="13"/>
-    </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B378" s="12"/>
-      <c r="F378" s="13"/>
-      <c r="G378" s="13"/>
-      <c r="H378" s="13"/>
-    </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B379" s="12"/>
-      <c r="F379" s="13"/>
-      <c r="G379" s="13"/>
-      <c r="H379" s="13"/>
-    </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B380" s="13"/>
-      <c r="F380" s="13"/>
-      <c r="G380" s="13"/>
-      <c r="H380" s="13"/>
-    </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B381" s="13"/>
-      <c r="F381" s="13"/>
-      <c r="G381" s="13"/>
-      <c r="H381" s="13"/>
-    </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B382" s="12"/>
-      <c r="F382" s="13"/>
-      <c r="G382" s="13"/>
-      <c r="H382" s="13"/>
-    </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B383" s="12"/>
-      <c r="F383" s="13"/>
-      <c r="G383" s="13"/>
-      <c r="H383" s="13"/>
-    </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B384" s="13"/>
-      <c r="F384" s="13"/>
-      <c r="G384" s="13"/>
-      <c r="H384" s="13"/>
-    </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B385" s="13"/>
-      <c r="F385" s="13"/>
-      <c r="G385" s="13"/>
-      <c r="H385" s="13"/>
-    </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B386" s="12"/>
-      <c r="F386" s="13"/>
-      <c r="G386" s="13"/>
-      <c r="H386" s="13"/>
-    </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B387" s="12"/>
-      <c r="F387" s="13"/>
-      <c r="G387" s="13"/>
-      <c r="H387" s="13"/>
-    </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B388" s="13"/>
-      <c r="F388" s="13"/>
-      <c r="G388" s="13"/>
-      <c r="H388" s="13"/>
-    </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B389" s="13"/>
-      <c r="F389" s="13"/>
-      <c r="G389" s="13"/>
-      <c r="H389" s="13"/>
-    </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B390" s="12"/>
-      <c r="F390" s="13"/>
-      <c r="G390" s="13"/>
-      <c r="H390" s="13"/>
-    </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B391" s="12"/>
-      <c r="F391" s="13"/>
-      <c r="G391" s="13"/>
-      <c r="H391" s="13"/>
-    </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B392" s="13"/>
-      <c r="F392" s="13"/>
-      <c r="G392" s="13"/>
-      <c r="H392" s="13"/>
-    </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B393" s="13"/>
-      <c r="F393" s="13"/>
-      <c r="G393" s="13"/>
-      <c r="H393" s="13"/>
-    </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B394" s="12"/>
-      <c r="F394" s="13"/>
-      <c r="G394" s="13"/>
-      <c r="H394" s="13"/>
-    </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B395" s="12"/>
-      <c r="F395" s="13"/>
-      <c r="G395" s="13"/>
-      <c r="H395" s="13"/>
-    </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B396" s="13"/>
-      <c r="F396" s="13"/>
-      <c r="G396" s="13"/>
-      <c r="H396" s="13"/>
-    </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B397" s="13"/>
-      <c r="F397" s="13"/>
-      <c r="G397" s="13"/>
-      <c r="H397" s="13"/>
-    </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B398" s="12"/>
-      <c r="F398" s="13"/>
-      <c r="G398" s="13"/>
-      <c r="H398" s="13"/>
-    </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B399" s="12"/>
-      <c r="F399" s="13"/>
-      <c r="G399" s="13"/>
-      <c r="H399" s="13"/>
-    </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B400" s="13"/>
-      <c r="F400" s="13"/>
-      <c r="G400" s="13"/>
-      <c r="H400" s="13"/>
-    </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B401" s="13"/>
-      <c r="F401" s="13"/>
-      <c r="G401" s="13"/>
-      <c r="H401" s="13"/>
-    </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B402" s="12"/>
-      <c r="F402" s="13"/>
-      <c r="G402" s="13"/>
-      <c r="H402" s="13"/>
-    </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B403" s="12"/>
-      <c r="F403" s="13"/>
-      <c r="G403" s="13"/>
-      <c r="H403" s="13"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q8:R43">
-    <sortCondition descending="1" ref="Q43"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301C74F-24A3-4220-B24A-E02A87A3774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB292B8C-8A7C-4262-8BB2-CA3D8211F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,7 +392,6 @@
     <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
   <dimension ref="A1:AP66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1163,7 @@
         <v>586</v>
       </c>
       <c r="AD3" s="11">
-        <f t="shared" ref="AD3:AD36" si="12">AVERAGE(AA3:AC3)</f>
+        <f t="shared" ref="AD3:AD34" si="12">AVERAGE(AA3:AC3)</f>
         <v>1390.61</v>
       </c>
       <c r="AE3" s="15">
@@ -1200,7 +1199,7 @@
         <v>1577</v>
       </c>
       <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AN36" si="17">AVERAGE(AL3:AM3)</f>
+        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AL3:AM3)</f>
         <v>1671</v>
       </c>
       <c r="AO3" s="4">
@@ -2335,8 +2334,8 @@
         <v>142.73721817700169</v>
       </c>
       <c r="K11" s="6">
-        <f ca="1">AVERAGE(OFFSET(J11,-10,0,10,1))</f>
-        <v>83.909664961402001</v>
+        <f>AVERAGE($J$2:J11)</f>
+        <v>89.792420282961956</v>
       </c>
       <c r="L11" s="4">
         <v>2.2000000000000002</v>
@@ -2490,8 +2489,8 @@
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="6">
-        <f ca="1">AVERAGE(OFFSET(J12,-10,0,10,1))</f>
-        <v>89.792420282961956</v>
+        <f>AVERAGE($J$2:J12)</f>
+        <v>94.269646342951305</v>
       </c>
       <c r="L12" s="4">
         <v>3.4</v>
@@ -2645,8 +2644,8 @@
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13:K26" ca="1" si="24">AVERAGE(OFFSET(J13,-10,0,10,1))</f>
-        <v>98.891251745730614</v>
+        <f>AVERAGE($J$2:J13)</f>
+        <v>95.926150476929237</v>
       </c>
       <c r="L13" s="4">
         <v>2.8</v>
@@ -2800,8 +2799,8 @@
         <v>86.285773720493083</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" ca="1" si="24"/>
-        <v>104.46401762775494</v>
+        <f>AVERAGE($J$2:J14)</f>
+        <v>95.184583034126462</v>
       </c>
       <c r="L14" s="4">
         <v>1.6</v>
@@ -2955,8 +2954,8 @@
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ca="1" si="24"/>
-        <v>106.98260337964548</v>
+        <f>AVERAGE($J$2:J15)</f>
+        <v>95.954453164884512</v>
       </c>
       <c r="L15" s="4">
         <v>2.2999999999999998</v>
@@ -3110,8 +3109,8 @@
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" ca="1" si="24"/>
-        <v>110.77127988722313</v>
+        <f ca="1">AVERAGE(OFFSET(J17,-14,0,14,1))</f>
+        <v>99.996486350694255</v>
       </c>
       <c r="L16" s="4">
         <v>2.7</v>
@@ -3265,8 +3264,8 @@
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f ca="1">AVERAGE(OFFSET(J17,-10,0,10,1))</f>
-        <v>114.39644678294169</v>
+        <f t="shared" ref="K17:K36" ca="1" si="24">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
         <v>3.4</v>
@@ -3420,8 +3419,8 @@
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ref="K18:K36" ca="1" si="25">AVERAGE(OFFSET(J18,-10,0,10,1))</f>
-        <v>115.58942801880396</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>106.36863617964786</v>
       </c>
       <c r="L18" s="4">
         <v>3.2</v>
@@ -3575,8 +3574,8 @@
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>115.96657565420389</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>109.35412041521862</v>
       </c>
       <c r="L19" s="4">
         <v>2.8</v>
@@ -3730,8 +3729,8 @@
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>114.72698882296633</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>109.07665234894111</v>
       </c>
       <c r="L20" s="4">
         <v>3.8</v>
@@ -3885,8 +3884,8 @@
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>107.59260816280184</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>108.3179312505119</v>
       </c>
       <c r="L21" s="4">
         <v>-0.4</v>
@@ -4040,8 +4039,8 @@
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>101.06223077068528</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>106.75418638617396</v>
       </c>
       <c r="L22" s="4">
         <v>1.6</v>
@@ -4195,8 +4194,8 @@
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>95.466119525419174</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>103.60960695932185</v>
       </c>
       <c r="L23" s="4">
         <v>3.2</v>
@@ -4350,8 +4349,8 @@
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>91.875803472690436</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>99.57416022327952</v>
       </c>
       <c r="L24" s="4">
         <v>2.1</v>
@@ -4505,8 +4504,8 @@
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>91.182564833488755</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>96.286197309360503</v>
       </c>
       <c r="L25" s="4">
         <v>1.5</v>
@@ -4660,8 +4659,8 @@
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>90.256862085228377</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>93.451041804773851</v>
       </c>
       <c r="L26" s="4">
         <v>1.6</v>
@@ -4815,8 +4814,8 @@
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>89.727629381442028</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>91.941991916965421</v>
       </c>
       <c r="L27" s="4">
         <v>0.1</v>
@@ -4970,8 +4969,8 @@
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>89.031193934332151</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>92.754955364114394</v>
       </c>
       <c r="L28" s="4">
         <v>1.3</v>
@@ -5125,8 +5124,8 @@
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>87.923450237898606</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>93.555667897121467</v>
       </c>
       <c r="L29" s="4">
         <v>2.1</v>
@@ -5280,8 +5279,8 @@
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>88.653446361887092</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>93.688613100198992</v>
       </c>
       <c r="L30" s="4">
         <v>2.4</v>
@@ -5435,8 +5434,8 @@
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
-        <f ca="1">AVERAGE(OFFSET(J31,-10,0,10,1))</f>
-        <v>92.853191834702713</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>95.492697868497842</v>
       </c>
       <c r="L31" s="4">
         <v>1.8</v>
@@ -5590,8 +5589,8 @@
         <v>116.59571796766917</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>97.634101283984265</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>96.053484941551801</v>
       </c>
       <c r="L32" s="4">
         <v>1.17</v>
@@ -5745,8 +5744,8 @@
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>100.98559363173285</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>97.093411293656871</v>
       </c>
       <c r="L33" s="15">
         <v>4.7</v>
@@ -5900,8 +5899,8 @@
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>105.60431489103534</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>100.04303319683673</v>
       </c>
       <c r="L34" s="15">
         <v>8</v>
@@ -6054,8 +6053,8 @@
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>108.24903032578193</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>103.70054148552263</v>
       </c>
       <c r="L35" s="15">
         <v>4.0999999999999996</v>
@@ -6209,8 +6208,8 @@
         <v>140.35484245764621</v>
       </c>
       <c r="K36" s="6">
-        <f ca="1">AVERAGE(OFFSET(J36,-10,0,10,1))</f>
-        <v>111.44231261731227</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>107.79154491176999</v>
       </c>
       <c r="L36" s="15">
         <v>3.3</v>
@@ -6328,7 +6327,7 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="J37" s="10"/>
-      <c r="K37" s="42"/>
+      <c r="K37" s="18"/>
       <c r="R37" s="18"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.35">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB292B8C-8A7C-4262-8BB2-CA3D8211F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269D380-E19D-4DB8-96E5-34C4F2F40137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -191,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +219,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +402,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -773,8 +794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
   <dimension ref="A1:AP66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,6 +807,24 @@
     <col min="8" max="8" width="9.54296875" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" style="32" customWidth="1"/>
     <col min="12" max="12" width="5.7265625" style="32" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" customWidth="1"/>
+    <col min="24" max="24" width="9.90625" customWidth="1"/>
+    <col min="25" max="25" width="9.6328125" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="29" width="9.90625" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="32" width="9.453125" customWidth="1"/>
+    <col min="33" max="33" width="9.36328125" customWidth="1"/>
+    <col min="34" max="34" width="9.7265625" customWidth="1"/>
+    <col min="35" max="35" width="10.6328125" customWidth="1"/>
+    <col min="36" max="36" width="9.90625" customWidth="1"/>
+    <col min="37" max="37" width="9.453125" customWidth="1"/>
+    <col min="38" max="39" width="9.7265625" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
@@ -851,67 +891,67 @@
       <c r="U1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="42" t="s">
         <v>22</v>
       </c>
     </row>
@@ -974,7 +1014,7 @@
       </c>
       <c r="Q2" s="8">
         <f t="shared" ref="Q2:Q36" si="4">(F2*100/MAX($F$2:$F$36))</f>
-        <v>5.3947615198059822</v>
+        <v>5.3939766242583937</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" ref="R2:R36" si="5">(H2*MAX($Q$2:$Q$36)/MAX($H$2:$H$36))</f>
@@ -1117,7 +1157,7 @@
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="4"/>
-        <v>6.7450767987065481</v>
+        <v>6.7440954428619921</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="5"/>
@@ -1272,7 +1312,7 @@
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="4"/>
-        <v>7.1335650767987078</v>
+        <v>7.1325271989524577</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="5"/>
@@ -1427,7 +1467,7 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="4"/>
-        <v>8.0777526273241715</v>
+        <v>8.0765773775845062</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="5"/>
@@ -1582,7 +1622,7 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="4"/>
-        <v>8.1559256265157654</v>
+        <v>8.154739003216994</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="5"/>
@@ -1737,7 +1777,7 @@
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>10.968666127728374</v>
+        <v>10.967070272716985</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="5"/>
@@ -1892,7 +1932,7 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="4"/>
-        <v>13.709409862570737</v>
+        <v>13.707415250812332</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="5"/>
@@ -2047,7 +2087,7 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="4"/>
-        <v>16.892966855295064</v>
+        <v>16.890509060928885</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="5"/>
@@ -2202,7 +2242,7 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="4"/>
-        <v>20.37579628132579</v>
+        <v>20.372831762556785</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="5"/>
@@ -2357,7 +2397,7 @@
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="4"/>
-        <v>22.692190784155216</v>
+        <v>22.68888924812881</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="5"/>
@@ -2512,7 +2552,7 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="4"/>
-        <v>23.569911075181889</v>
+        <v>23.566481837727736</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="5"/>
@@ -2667,7 +2707,7 @@
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="4"/>
-        <v>21.21191592562651</v>
+        <v>21.208829757998025</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="5"/>
@@ -2822,7 +2862,7 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="4"/>
-        <v>17.06649959579628</v>
+        <v>17.06401655377552</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="5"/>
@@ -2977,7 +3017,7 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
-        <v>21.93681487469685</v>
+        <v>21.933623239948918</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="5"/>
@@ -3132,7 +3172,7 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="4"/>
-        <v>22.908666127728374</v>
+        <v>22.905333096234983</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="5"/>
@@ -3287,7 +3327,7 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="4"/>
-        <v>22.911075181891672</v>
+        <v>22.907741799899771</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="5"/>
@@ -3442,7 +3482,7 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="4"/>
-        <v>26.347857720291024</v>
+        <v>26.344024313357796</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="5"/>
@@ -3597,7 +3637,7 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="4"/>
-        <v>28.108035569927242</v>
+        <v>28.103946070903181</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="5"/>
@@ -3752,7 +3792,7 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="4"/>
-        <v>18.199498787388841</v>
+        <v>18.196850902859726</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="5"/>
@@ -3907,7 +3947,7 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="4"/>
-        <v>22.331527890056584</v>
+        <v>22.32827882765644</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="5"/>
@@ -4062,7 +4102,7 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="4"/>
-        <v>25.038819725141469</v>
+        <v>25.035176772983718</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="5"/>
@@ -4217,7 +4257,7 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="4"/>
-        <v>25.997671786580437</v>
+        <v>25.993889328957792</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="5"/>
@@ -4372,7 +4412,7 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="4"/>
-        <v>28.373710590137424</v>
+        <v>28.369582437478776</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="5"/>
@@ -4527,7 +4567,7 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="4"/>
-        <v>36.541083265966044</v>
+        <v>36.53576682455261</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="5"/>
@@ -4682,7 +4722,7 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="4"/>
-        <v>39.801244947453512</v>
+        <v>39.795454178050079</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="5"/>
@@ -4837,7 +4877,7 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="4"/>
-        <v>39.571592562651574</v>
+        <v>39.565835205871416</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="5"/>
@@ -4992,7 +5032,7 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="4"/>
-        <v>44.274211802748582</v>
+        <v>44.267770251701442</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="5"/>
@@ -5147,7 +5187,7 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="4"/>
-        <v>55.449021827000806</v>
+        <v>55.440954428619925</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="5"/>
@@ -5302,7 +5342,7 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="4"/>
-        <v>52.495489086499596</v>
+        <v>52.487851403999414</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="5"/>
@@ -5457,7 +5497,7 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="4"/>
-        <v>65.86974939369442</v>
+        <v>65.860165861071152</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="5"/>
@@ -5612,7 +5652,7 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="4"/>
-        <v>76.39527890056587</v>
+        <v>76.38416398583874</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="5"/>
@@ -5767,7 +5807,7 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="4"/>
-        <v>91.752627324171371</v>
+        <v>91.739278035532408</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="5"/>
@@ -5922,7 +5962,7 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="4"/>
-        <v>76.721099434114791</v>
+        <v>76.709937115051972</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="5"/>
@@ -6076,7 +6116,7 @@
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="4"/>
-        <v>91.654001616814867</v>
+        <v>91.640666677443861</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="5"/>
@@ -6175,59 +6215,59 @@
         <v>2024</v>
       </c>
       <c r="B36" s="22">
-        <v>5.34</v>
+        <v>4.8550000000000004</v>
       </c>
       <c r="C36" s="23">
-        <v>4.2699999999999996</v>
+        <v>3.7919999999999998</v>
       </c>
       <c r="D36" s="23">
         <f>C36-B36</f>
-        <v>-1.0700000000000003</v>
+        <v>-1.0630000000000006</v>
       </c>
       <c r="E36" s="34">
         <v>5.33</v>
       </c>
       <c r="F36" s="12">
         <f>Monitor!AD36</f>
-        <v>20616.666666666668</v>
+        <v>20619.666666666668</v>
       </c>
       <c r="G36" s="28">
         <f>(F36*100/F35)-100</f>
-        <v>9.1059836296923606</v>
+        <v>9.1218600056449333</v>
       </c>
       <c r="H36" s="23">
         <f>Monitor!V36</f>
-        <v>20.864999999999998</v>
+        <v>21.024000000000001</v>
       </c>
       <c r="I36" s="15">
         <f>(H36*100/H35)-100</f>
-        <v>0</v>
+        <v>0.76204169662115362</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" si="22"/>
-        <v>140.35484245764621</v>
+        <f>AE36</f>
+        <v>139.31363794912596</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>107.79154491176999</v>
+        <v>107.7171731611614</v>
       </c>
       <c r="L36" s="15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M36" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="1"/>
-        <v>-3.3</v>
+        <v>-2.4879583033788464</v>
       </c>
       <c r="O36" s="23">
         <f t="shared" si="2"/>
-        <v>3.4007754168070337</v>
+        <v>3.3755471978553944</v>
       </c>
       <c r="P36" s="23">
         <f t="shared" si="3"/>
-        <v>1.4266312499999998</v>
+        <v>1.4050156249999999</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="4"/>
@@ -6235,94 +6275,94 @@
       </c>
       <c r="R36" s="12">
         <f t="shared" si="5"/>
-        <v>96.624062239510977</v>
+        <v>97.360377882745212</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="6"/>
-        <v>11.335983629692361</v>
+        <v>10.546818309023779</v>
       </c>
       <c r="T36" s="39">
         <f t="shared" si="7"/>
-        <v>2.4966312500000001</v>
+        <v>2.4680156250000005</v>
       </c>
       <c r="U36" s="41">
-        <f t="shared" si="8"/>
-        <v>-1.0600000000000005</v>
+        <f>C36-E36</f>
+        <v>-1.5380000000000003</v>
       </c>
       <c r="V36" s="15">
-        <v>20.864999999999998</v>
+        <v>21.024000000000001</v>
       </c>
       <c r="W36" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.76204169662115362</v>
       </c>
       <c r="X36" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.15900000000000247</v>
       </c>
       <c r="Y36" s="25">
         <v>333</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="11"/>
-        <v>62657.657657657655</v>
+        <f>(V36*1000000000000)/(Y36*1000000)</f>
+        <v>63135.135135135133</v>
       </c>
       <c r="AA36" s="25">
-        <v>38755</v>
+        <v>39737</v>
       </c>
       <c r="AB36" s="25">
-        <v>5430</v>
+        <v>5346</v>
       </c>
       <c r="AC36" s="25">
-        <v>17665</v>
+        <v>16776</v>
       </c>
       <c r="AD36" s="12">
         <f>AVERAGE(AA36:AC36)</f>
-        <v>20616.666666666668</v>
+        <v>20619.666666666668</v>
       </c>
       <c r="AE36" s="15">
-        <f t="shared" si="23"/>
-        <v>140.35484245764621</v>
+        <f>((AD36/V36)/100)*100/7.04</f>
+        <v>139.31363794912596</v>
       </c>
       <c r="AF36" s="30">
         <f t="shared" si="13"/>
-        <v>988.09809090182932</v>
+        <v>980.76801116184674</v>
       </c>
       <c r="AG36" s="15">
-        <v>16.206</v>
+        <v>16.376000000000001</v>
       </c>
       <c r="AH36" s="15">
-        <f t="shared" si="14"/>
-        <v>0.58341608738828654</v>
+        <f>(AG36*100/AG35)-100</f>
+        <v>1.6385302879841248</v>
       </c>
       <c r="AI36" s="23">
         <f t="shared" si="15"/>
-        <v>9.4000000000001194E-2</v>
+        <v>0.2640000000000029</v>
       </c>
       <c r="AJ36" s="29">
         <v>343</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="16"/>
-        <v>47247.813411078714</v>
+        <v>47743.440233236157</v>
       </c>
       <c r="AL36" s="25">
-        <v>7864</v>
+        <v>7251</v>
       </c>
       <c r="AM36" s="25">
-        <v>18644</v>
+        <v>17661</v>
       </c>
       <c r="AN36" s="12">
         <f>AVERAGE(AL36:AM36)</f>
-        <v>13254</v>
+        <v>12456</v>
       </c>
       <c r="AO36" s="15">
         <f t="shared" si="18"/>
-        <v>115.22192765606886</v>
+        <v>107.16051075301009</v>
       </c>
       <c r="AP36" s="12">
         <f t="shared" si="19"/>
-        <v>817.84524250277673</v>
+        <v>760.62530532486562</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.35">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269D380-E19D-4DB8-96E5-34C4F2F40137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EEB195-331D-45EC-B093-5A0745834E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
         <v>1.1266819444444507</v>
       </c>
       <c r="U2" s="40">
-        <f t="shared" ref="U2:U36" si="8">C2-E2</f>
+        <f t="shared" ref="U2:U35" si="8">C2-E2</f>
         <v>0.4564166666666587</v>
       </c>
       <c r="V2" s="4">
@@ -1190,7 +1190,7 @@
         <v>252</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" ref="Z3:Z36" si="11">(V3*1000000000000)/(Y3*1000000)</f>
+        <f t="shared" ref="Z3:Z35" si="11">(V3*1000000000000)/(Y3*1000000)</f>
         <v>13417.460317460318</v>
       </c>
       <c r="AA3" s="8">
@@ -1218,7 +1218,7 @@
         <v>3.2046329999999998</v>
       </c>
       <c r="AH3" s="4">
-        <f t="shared" ref="AH3:AH36" si="14">(AG3*100/AG2)-100</f>
+        <f t="shared" ref="AH3:AH35" si="14">(AG3*100/AG2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AI3" s="6">
@@ -1285,7 +1285,7 @@
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J36" si="22">AE4</f>
+        <f t="shared" ref="J4:J35" si="22">AE4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="6">
@@ -1362,7 +1362,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="AE4" s="15">
-        <f t="shared" ref="AE4:AE36" si="23">((AD4/V4)/100)*100/7.04</f>
+        <f t="shared" ref="AE4:AE35" si="23">((AD4/V4)/100)*100/7.04</f>
         <v>61.099916201587703</v>
       </c>
       <c r="AF4" s="7">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75098D71-D679-4606-B915-D10AD926F9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CF009-18A8-4BDA-B68D-35D998549027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="14" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Monitor!$U$2:$U$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Monitor!$U$2:$U$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Monitor!$U$2:$U$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>spread_6m_10y</t>
   </si>
@@ -157,6 +162,9 @@
   </si>
   <si>
     <t>market_avg</t>
+  </si>
+  <si>
+    <t>i3</t>
   </si>
 </sst>
 </file>
@@ -296,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,11 +410,259 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF820000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF820000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF820000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF9597"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF9597"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6699"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -449,6 +705,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -461,16 +757,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF820000"/>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FFDF9597"/>
+      <color rgb="FFFF6699"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF548235"/>
       <color rgb="FF4382C1"/>
       <color rgb="FF336699"/>
       <color rgb="FF8FAADC"/>
       <color rgb="FF000000"/>
-      <color rgb="FFDDEBF7"/>
-      <color rgb="FFFF9900"/>
-      <color rgb="FFFFF1E5"/>
-      <color rgb="FFFFCD2F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -781,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,27 +1092,27 @@
     <col min="8" max="8" width="9.54296875" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" style="30" customWidth="1"/>
     <col min="12" max="12" width="5.7265625" style="30" customWidth="1"/>
-    <col min="21" max="21" width="9.54296875" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" customWidth="1"/>
-    <col min="23" max="23" width="9.90625" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" customWidth="1"/>
-    <col min="25" max="25" width="9.54296875" customWidth="1"/>
-    <col min="26" max="27" width="9.7265625" customWidth="1"/>
-    <col min="28" max="28" width="9.90625" customWidth="1"/>
-    <col min="29" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="9.453125" customWidth="1"/>
-    <col min="32" max="32" width="9.36328125" customWidth="1"/>
-    <col min="33" max="33" width="9.7265625" customWidth="1"/>
-    <col min="34" max="34" width="10.6328125" customWidth="1"/>
-    <col min="35" max="35" width="9.90625" customWidth="1"/>
-    <col min="36" max="36" width="9.453125" customWidth="1"/>
-    <col min="37" max="38" width="9.7265625" customWidth="1"/>
-    <col min="39" max="39" width="9.453125" customWidth="1"/>
-    <col min="40" max="40" width="10" customWidth="1"/>
-    <col min="41" max="41" width="11.08984375" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" customWidth="1"/>
+    <col min="24" max="24" width="9.90625" customWidth="1"/>
+    <col min="25" max="25" width="9.6328125" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="29" width="9.90625" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="32" width="9.453125" customWidth="1"/>
+    <col min="33" max="33" width="9.36328125" customWidth="1"/>
+    <col min="34" max="34" width="9.7265625" customWidth="1"/>
+    <col min="35" max="35" width="10.6328125" customWidth="1"/>
+    <col min="36" max="36" width="9.90625" customWidth="1"/>
+    <col min="37" max="37" width="9.453125" customWidth="1"/>
+    <col min="38" max="39" width="9.7265625" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -877,71 +1173,74 @@
       <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="W1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="X1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AK1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AL1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="38" t="s">
+      <c r="AM1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AN1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AO1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AP1" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1990</v>
       </c>
@@ -959,21 +1258,21 @@
         <v>8.0991666666666706</v>
       </c>
       <c r="F2" s="8">
-        <f>Monitor!AC2</f>
+        <f>Monitor!AD2</f>
         <v>1112.22</v>
       </c>
       <c r="G2" s="17">
         <v>10</v>
       </c>
       <c r="H2" s="6">
-        <f>Monitor!U2</f>
+        <f>Monitor!V2</f>
         <v>3.2876999999999996</v>
       </c>
       <c r="I2" s="4">
         <v>6.0110580785407297</v>
       </c>
       <c r="J2" s="8">
-        <f>AD2</f>
+        <f>AE2</f>
         <v>48.053592315158156</v>
       </c>
       <c r="K2" s="6">
@@ -1011,74 +1310,78 @@
         <v>10.596747477014819</v>
       </c>
       <c r="T2" s="36">
-        <f>C2-E2</f>
+        <f t="shared" ref="T2:T36" si="7">C2-E2</f>
         <v>0.4564166666666587</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="41">
+        <f t="shared" ref="U2:U7" si="8">S2*T2</f>
+        <v>4.8365321609674297</v>
+      </c>
+      <c r="V2" s="4">
         <v>3.2876999999999996</v>
       </c>
-      <c r="V2" s="14">
+      <c r="W2" s="14">
         <v>3.8177339901477723</v>
       </c>
-      <c r="W2" s="14">
+      <c r="X2" s="14">
         <v>0.12089999999999934</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>249</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Z2" s="8">
         <v>13203.614457831323</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="AA2" s="8">
         <v>2633.66</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>330</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>373</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AD2" s="10">
         <v>1112.22</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AE2" s="14">
         <v>48.053592315158156</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AF2" s="7">
         <v>338.29728989871302</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <v>2.979949</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AH2" s="4">
         <v>12.031232436078113</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="6">
         <v>0.32002199999999981</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AJ2" s="7">
         <v>317.68</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AK2" s="8">
         <v>9380.3481490808354</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AL2" s="8">
         <v>1517</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>1389</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AN2" s="8">
         <v>1453</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>68.694313513216855</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AP2" s="8">
         <v>487.59223731681317</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1991</v>
       </c>
@@ -1096,7 +1399,7 @@
         <v>5.6875</v>
       </c>
       <c r="F3" s="8">
-        <f>Monitor!AC3</f>
+        <f>Monitor!AD3</f>
         <v>1390.61</v>
       </c>
       <c r="G3" s="18">
@@ -1104,7 +1407,7 @@
         <v>25.030119940299585</v>
       </c>
       <c r="H3" s="6">
-        <f>Monitor!U3</f>
+        <f>Monitor!V3</f>
         <v>3.3811999999999998</v>
       </c>
       <c r="I3" s="4">
@@ -1112,7 +1415,7 @@
         <v>2.8439334489156636</v>
       </c>
       <c r="J3" s="8">
-        <f>AD3</f>
+        <f>AE3</f>
         <v>58.420037130443205</v>
       </c>
       <c r="K3" s="6">
@@ -1150,86 +1453,90 @@
         <v>28.81776982471726</v>
       </c>
       <c r="T3" s="36">
-        <f>C3-E3</f>
+        <f t="shared" si="7"/>
         <v>2.0924166666666704</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="41">
+        <f t="shared" si="8"/>
+        <v>60.298781877402249</v>
+      </c>
+      <c r="V3" s="4">
         <v>3.3811999999999998</v>
       </c>
-      <c r="V3" s="14">
-        <f t="shared" ref="V3:V36" si="7">(U3*100/U2)-100</f>
+      <c r="W3" s="14">
+        <f t="shared" ref="W3:W36" si="9">(V3*100/V2)-100</f>
         <v>2.8439334489156636</v>
       </c>
-      <c r="W3" s="14">
-        <f t="shared" ref="W3:W36" si="8">U3-U2</f>
+      <c r="X3" s="14">
+        <f t="shared" ref="X3:X36" si="10">V3-V2</f>
         <v>9.3500000000000139E-2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>252</v>
       </c>
-      <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y35" si="9">(U3*1000000000000)/(X3*1000000)</f>
+      <c r="Z3" s="8">
+        <f t="shared" ref="Z3:Z35" si="11">(V3*1000000000000)/(Y3*1000000)</f>
         <v>13417.460317460318</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>3168.83</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>417</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>586</v>
       </c>
-      <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC34" si="10">AVERAGE(Z3:AB3)</f>
+      <c r="AD3" s="10">
+        <f t="shared" ref="AD3:AD34" si="12">AVERAGE(AA3:AC3)</f>
         <v>1390.61</v>
       </c>
-      <c r="AD3" s="14">
-        <f>((AC3/U3)/100)*100/7.04</f>
+      <c r="AE3" s="14">
+        <f>((AD3/V3)/100)*100/7.04</f>
         <v>58.420037130443205</v>
       </c>
-      <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE36" si="11">AC3/U3</f>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AF36" si="13">AD3/V3</f>
         <v>411.27706139832014</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AG3" s="4">
         <v>3.2046329999999998</v>
       </c>
-      <c r="AG3" s="4">
-        <f t="shared" ref="AG3:AG35" si="12">(AF3*100/AF2)-100</f>
+      <c r="AH3" s="4">
+        <f t="shared" ref="AH3:AH35" si="14">(AG3*100/AG2)-100</f>
         <v>7.539860581506602</v>
       </c>
-      <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH36" si="13">AF3-AF2</f>
+      <c r="AI3" s="6">
+        <f t="shared" ref="AI3:AI36" si="15">AG3-AG2</f>
         <v>0.22468399999999988</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AJ3" s="7">
         <v>318.44</v>
       </c>
-      <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3:AJ36" si="14">((AF3*1000000000000)/(AI3*1000000))</f>
+      <c r="AK3" s="8">
+        <f t="shared" ref="AK3:AK36" si="16">((AG3*1000000000000)/(AJ3*1000000))</f>
         <v>10063.537872126617</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AL3" s="8">
         <v>1765</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>1577</v>
       </c>
-      <c r="AM3" s="8">
-        <f t="shared" ref="AM3:AM35" si="15">AVERAGE(AK3:AL3)</f>
+      <c r="AN3" s="8">
+        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AL3:AM3)</f>
         <v>1671</v>
       </c>
-      <c r="AN3" s="4">
-        <f t="shared" ref="AN3:AN36" si="16">((AM3/AF3)/100)*100/7.098</f>
+      <c r="AO3" s="4">
+        <f t="shared" ref="AO3:AO36" si="18">((AN3/AG3)/100)*100/7.098</f>
         <v>73.46189960788648</v>
       </c>
-      <c r="AO3" s="8">
-        <f t="shared" ref="AO3:AO35" si="17">AM3/AF3</f>
+      <c r="AP3" s="8">
+        <f t="shared" ref="AP3:AP35" si="19">AN3/AG3</f>
         <v>521.43256341677818</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1992</v>
       </c>
@@ -1247,23 +1554,23 @@
         <v>3.5216666666666665</v>
       </c>
       <c r="F4" s="8">
-        <f>Monitor!AC4</f>
+        <f>Monitor!AD4</f>
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G32" si="18">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="20">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="6">
-        <f>Monitor!U4</f>
+        <f>Monitor!V4</f>
         <v>3.4190999999999998</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I32" si="19">(H4*100/H3)-100</f>
+        <f t="shared" ref="I4:I32" si="21">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J35" si="20">AD4</f>
+        <f t="shared" ref="J4:J35" si="22">AE4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="6">
@@ -1301,86 +1608,90 @@
         <v>11.097178903958522</v>
       </c>
       <c r="T4" s="36">
-        <f>C4-E4</f>
+        <f t="shared" si="7"/>
         <v>3.4905833333333334</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="41">
+        <f t="shared" si="8"/>
+        <v>38.735627729175881</v>
+      </c>
+      <c r="V4" s="4">
         <v>3.4190999999999998</v>
       </c>
-      <c r="V4" s="14">
-        <f t="shared" si="7"/>
+      <c r="W4" s="14">
+        <f t="shared" si="9"/>
         <v>1.1209038211285929</v>
       </c>
-      <c r="W4" s="14">
-        <f t="shared" si="8"/>
+      <c r="X4" s="14">
+        <f t="shared" si="10"/>
         <v>3.7900000000000045E-2</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>256</v>
       </c>
-      <c r="Y4" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z4" s="8">
+        <f t="shared" si="11"/>
         <v>13355.859375</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>3301.11</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>435</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>676</v>
       </c>
-      <c r="AC4" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD4" s="10">
+        <f t="shared" si="12"/>
         <v>1470.7033333333336</v>
       </c>
-      <c r="AD4" s="14">
-        <f t="shared" ref="AD4:AD35" si="21">((AC4/U4)/100)*100/7.04</f>
+      <c r="AE4" s="14">
+        <f t="shared" ref="AE4:AE35" si="23">((AD4/V4)/100)*100/7.04</f>
         <v>61.099916201587703</v>
       </c>
-      <c r="AE4" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF4" s="7">
+        <f t="shared" si="13"/>
         <v>430.14341005917748</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>3.4331779999999998</v>
       </c>
-      <c r="AG4" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH4" s="4">
+        <f t="shared" si="14"/>
         <v>7.1317058770848263</v>
       </c>
-      <c r="AH4" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI4" s="6">
+        <f t="shared" si="15"/>
         <v>0.228545</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AJ4" s="7">
         <v>319.95999999999998</v>
       </c>
-      <c r="AJ4" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK4" s="8">
+        <f t="shared" si="16"/>
         <v>10730.022502812852</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AL4" s="8">
         <v>1857</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>1538</v>
       </c>
-      <c r="AM4" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN4" s="8">
+        <f t="shared" si="17"/>
         <v>1697.5</v>
       </c>
-      <c r="AN4" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO4" s="4">
+        <f t="shared" si="18"/>
         <v>69.65903712748316</v>
       </c>
-      <c r="AO4" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP4" s="8">
+        <f t="shared" si="19"/>
         <v>494.43984553087552</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1993</v>
       </c>
@@ -1398,23 +1709,23 @@
         <v>3.0225</v>
       </c>
       <c r="F5" s="8">
-        <f>Monitor!AC5</f>
+        <f>Monitor!AD5</f>
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.235844074603747</v>
       </c>
       <c r="H5" s="6">
-        <f>Monitor!U5</f>
+        <f>Monitor!V5</f>
         <v>3.4748999999999999</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="6">
@@ -1452,86 +1763,90 @@
         <v>17.315335651334465</v>
       </c>
       <c r="T5" s="36">
-        <f>C5-E5</f>
+        <f t="shared" si="7"/>
         <v>2.8064999999999998</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="41">
+        <f t="shared" si="8"/>
+        <v>48.595489505470169</v>
+      </c>
+      <c r="V5" s="4">
         <v>3.4748999999999999</v>
       </c>
-      <c r="V5" s="14">
-        <f t="shared" si="7"/>
+      <c r="W5" s="14">
+        <f t="shared" si="9"/>
         <v>1.6320084232692835</v>
       </c>
-      <c r="W5" s="14">
-        <f t="shared" si="8"/>
+      <c r="X5" s="14">
+        <f t="shared" si="10"/>
         <v>5.5800000000000072E-2</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>259</v>
       </c>
-      <c r="Y5" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z5" s="8">
+        <f t="shared" si="11"/>
         <v>13416.602316602317</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>3754.09</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>466</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>776</v>
       </c>
-      <c r="AC5" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD5" s="10">
+        <f t="shared" si="12"/>
         <v>1665.3633333333335</v>
       </c>
-      <c r="AD5" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE5" s="14">
+        <f t="shared" si="23"/>
         <v>68.075999788962761</v>
       </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF5" s="7">
+        <f t="shared" si="13"/>
         <v>479.25503851429784</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>3.6517740000000001</v>
       </c>
-      <c r="AG5" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH5" s="4">
+        <f t="shared" si="14"/>
         <v>6.3671618541188479</v>
       </c>
-      <c r="AH5" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI5" s="6">
+        <f t="shared" si="15"/>
         <v>0.21859600000000023</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AJ5" s="7">
         <v>320.72000000000003</v>
       </c>
-      <c r="AJ5" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK5" s="8">
+        <f t="shared" si="16"/>
         <v>11386.174856572712</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AL5" s="8">
         <v>2268</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>2255</v>
       </c>
-      <c r="AM5" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN5" s="8">
+        <f t="shared" si="17"/>
         <v>2261.5</v>
       </c>
-      <c r="AN5" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO5" s="4">
+        <f t="shared" si="18"/>
         <v>87.248246004047346</v>
       </c>
-      <c r="AO5" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP5" s="8">
+        <f t="shared" si="19"/>
         <v>619.28805013672809</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1994</v>
       </c>
@@ -1549,15 +1864,15 @@
         <v>4.2016666666666671</v>
       </c>
       <c r="F6" s="8">
-        <f>Monitor!AC6</f>
+        <f>Monitor!AD6</f>
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="6">
-        <f>Monitor!U6</f>
+        <f>Monitor!V6</f>
         <v>3.4923999999999999</v>
       </c>
       <c r="I6" s="4">
@@ -1565,7 +1880,7 @@
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="6">
@@ -1599,90 +1914,94 @@
         <v>16.173011021580066</v>
       </c>
       <c r="S6" s="34">
-        <f t="shared" si="6"/>
+        <f>D6+(G6-N6)</f>
         <v>5.7538118377504563</v>
       </c>
       <c r="T6" s="36">
-        <f>C6-E6</f>
+        <f t="shared" si="7"/>
         <v>2.9218333333333328</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="41">
+        <f t="shared" si="8"/>
+        <v>16.811679221267205</v>
+      </c>
+      <c r="V6" s="4">
         <v>3.4923999999999999</v>
       </c>
-      <c r="V6" s="14">
-        <f t="shared" si="7"/>
+      <c r="W6" s="14">
+        <f t="shared" si="9"/>
         <v>0.50361161472272897</v>
       </c>
-      <c r="W6" s="14">
-        <f t="shared" si="8"/>
+      <c r="X6" s="14">
+        <f t="shared" si="10"/>
         <v>1.7500000000000071E-2</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>263</v>
       </c>
-      <c r="Y6" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z6" s="8">
+        <f t="shared" si="11"/>
         <v>13279.087452471484</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <v>3834.44</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>459</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>751</v>
       </c>
-      <c r="AC6" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD6" s="10">
+        <f t="shared" si="12"/>
         <v>1681.4800000000002</v>
       </c>
-      <c r="AD6" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE6" s="14">
+        <f t="shared" si="23"/>
         <v>68.390387959309066</v>
       </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF6" s="7">
+        <f t="shared" si="13"/>
         <v>481.46833123353576</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AG6" s="4">
         <v>3.7357990000000001</v>
       </c>
-      <c r="AG6" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH6" s="4">
+        <f t="shared" si="14"/>
         <v>2.3009364763536837</v>
       </c>
-      <c r="AH6" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI6" s="6">
+        <f t="shared" si="15"/>
         <v>8.4025000000000016E-2</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AJ6" s="7">
         <v>321.48</v>
       </c>
-      <c r="AJ6" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK6" s="8">
+        <f t="shared" si="16"/>
         <v>11620.626477541371</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AL6" s="8">
         <v>1881</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>2097</v>
       </c>
-      <c r="AM6" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN6" s="8">
+        <f t="shared" si="17"/>
         <v>1989</v>
       </c>
-      <c r="AN6" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO6" s="4">
+        <f t="shared" si="18"/>
         <v>75.009330057580783</v>
       </c>
-      <c r="AO6" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP6" s="8">
+        <f t="shared" si="19"/>
         <v>532.41622474870837</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1995</v>
       </c>
@@ -1700,23 +2019,23 @@
         <v>5.8366666666666669</v>
       </c>
       <c r="F7" s="8">
-        <f>Monitor!AC7</f>
+        <f>Monitor!AD7</f>
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>34.48707884324125</v>
       </c>
       <c r="H7" s="6">
-        <f>Monitor!U7</f>
+        <f>Monitor!V7</f>
         <v>3.6478999999999999</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="6">
@@ -1754,86 +2073,90 @@
         <v>33.681470026000014</v>
       </c>
       <c r="T7" s="36">
-        <f>C7-E7</f>
+        <f t="shared" si="7"/>
         <v>0.64383333333333326</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="41">
+        <f t="shared" si="8"/>
+        <v>21.68525311840634</v>
+      </c>
+      <c r="V7" s="4">
         <v>3.6478999999999999</v>
       </c>
-      <c r="V7" s="14">
-        <f t="shared" si="7"/>
+      <c r="W7" s="14">
+        <f t="shared" si="9"/>
         <v>4.4525254839079054</v>
       </c>
-      <c r="W7" s="14">
-        <f t="shared" si="8"/>
+      <c r="X7" s="14">
+        <f t="shared" si="10"/>
         <v>0.15549999999999997</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>266</v>
       </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z7" s="8">
+        <f t="shared" si="11"/>
         <v>13713.90977443609</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <v>5117.12</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>615</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>1052</v>
       </c>
-      <c r="AC7" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD7" s="10">
+        <f t="shared" si="12"/>
         <v>2261.3733333333334</v>
       </c>
-      <c r="AD7" s="14">
-        <f>((AC7/U7)/100)*100/7.04</f>
+      <c r="AE7" s="14">
+        <f>((AD7/V7)/100)*100/7.04</f>
         <v>88.055539633844973</v>
       </c>
-      <c r="AE7" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF7" s="7">
+        <f t="shared" si="13"/>
         <v>619.91099902226858</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AG7" s="4">
         <v>3.9374030000000002</v>
       </c>
-      <c r="AG7" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH7" s="4">
+        <f t="shared" si="14"/>
         <v>5.3965430152960749</v>
       </c>
-      <c r="AH7" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI7" s="6">
+        <f t="shared" si="15"/>
         <v>0.20160400000000012</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AJ7" s="7">
         <v>322.24</v>
       </c>
-      <c r="AJ7" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK7" s="8">
+        <f t="shared" si="16"/>
         <v>12218.852408142999</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AL7" s="8">
         <v>1871</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>2260</v>
       </c>
-      <c r="AM7" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN7" s="8">
+        <f t="shared" si="17"/>
         <v>2065.5</v>
       </c>
-      <c r="AN7" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO7" s="4">
+        <f t="shared" si="18"/>
         <v>73.905938527091891</v>
       </c>
-      <c r="AO7" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP7" s="8">
+        <f t="shared" si="19"/>
         <v>524.58435166529819</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1996</v>
       </c>
@@ -1851,23 +2174,23 @@
         <v>5.2983333333333329</v>
       </c>
       <c r="F8" s="8">
-        <f>Monitor!AC8</f>
+        <f>Monitor!AD8</f>
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24.987028531334957</v>
       </c>
       <c r="H8" s="6">
-        <f>Monitor!U8</f>
+        <f>Monitor!V8</f>
         <v>3.8245999999999998</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="6">
@@ -1905,86 +2228,90 @@
         <v>24.451979082793788</v>
       </c>
       <c r="T8" s="36">
-        <f>C8-E8</f>
+        <f t="shared" si="7"/>
         <v>1.1616666666666671</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="41">
+        <f>S8*T8</f>
+        <v>28.405049034512125</v>
+      </c>
+      <c r="V8" s="4">
         <v>3.8245999999999998</v>
       </c>
-      <c r="V8" s="14">
-        <f t="shared" si="7"/>
+      <c r="W8" s="14">
+        <f t="shared" si="9"/>
         <v>4.8438827818744983</v>
       </c>
-      <c r="W8" s="14">
-        <f t="shared" si="8"/>
+      <c r="X8" s="14">
+        <f t="shared" si="10"/>
         <v>0.17669999999999986</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>269</v>
       </c>
-      <c r="Y8" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z8" s="8">
+        <f t="shared" si="11"/>
         <v>14217.843866171004</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <v>6448.27</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>740</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>1291</v>
       </c>
-      <c r="AC8" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD8" s="10">
+        <f t="shared" si="12"/>
         <v>2826.4233333333336</v>
       </c>
-      <c r="AD8" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE8" s="14">
+        <f t="shared" si="23"/>
         <v>104.97322259091465</v>
       </c>
-      <c r="AE8" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF8" s="7">
+        <f t="shared" si="13"/>
         <v>739.01148704003913</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AG8" s="4">
         <v>4.0903450000000001</v>
       </c>
-      <c r="AG8" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH8" s="4">
+        <f t="shared" si="14"/>
         <v>3.8843369601740108</v>
       </c>
-      <c r="AH8" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI8" s="6">
+        <f t="shared" si="15"/>
         <v>0.15294199999999991</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AJ8" s="7">
         <v>322.24</v>
       </c>
-      <c r="AJ8" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK8" s="8">
+        <f t="shared" si="16"/>
         <v>12693.473808341609</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AL8" s="8">
         <v>2315</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>2880</v>
       </c>
-      <c r="AM8" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN8" s="8">
+        <f t="shared" si="17"/>
         <v>2597.5</v>
       </c>
-      <c r="AN8" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO8" s="4">
+        <f t="shared" si="18"/>
         <v>89.46632971294423</v>
       </c>
-      <c r="AO8" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP8" s="8">
+        <f t="shared" si="19"/>
         <v>635.03200830247818</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1997</v>
       </c>
@@ -2002,23 +2329,23 @@
         <v>5.46</v>
       </c>
       <c r="F9" s="8">
-        <f>Monitor!AC9</f>
+        <f>Monitor!AD9</f>
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23.2216924334288</v>
       </c>
       <c r="H9" s="6">
-        <f>Monitor!U9</f>
+        <f>Monitor!V9</f>
         <v>4.0461</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="6">
@@ -2056,86 +2383,90 @@
         <v>20.838153784506908</v>
       </c>
       <c r="T9" s="36">
-        <f>C9-E9</f>
+        <f t="shared" si="7"/>
         <v>0.85299999999999976</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="41">
+        <f t="shared" ref="U9:U36" si="24">S9*T9</f>
+        <v>17.774945178184389</v>
+      </c>
+      <c r="V9" s="4">
         <v>4.0461</v>
       </c>
-      <c r="V9" s="14">
-        <f t="shared" si="7"/>
+      <c r="W9" s="14">
+        <f t="shared" si="9"/>
         <v>5.7914553155885642</v>
       </c>
-      <c r="W9" s="14">
-        <f t="shared" si="8"/>
+      <c r="X9" s="14">
+        <f t="shared" si="10"/>
         <v>0.22150000000000025</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>272</v>
       </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z9" s="8">
+        <f t="shared" si="11"/>
         <v>14875.367647058823</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <v>7908.3</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>970</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>1570</v>
       </c>
-      <c r="AC9" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD9" s="10">
+        <f t="shared" si="12"/>
         <v>3482.7666666666664</v>
       </c>
-      <c r="AD9" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE9" s="14">
+        <f t="shared" si="23"/>
         <v>122.26864739932878</v>
       </c>
-      <c r="AE9" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF9" s="7">
+        <f t="shared" si="13"/>
         <v>860.77127769127469</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AG9" s="4">
         <v>4.2673110000000003</v>
       </c>
-      <c r="AG9" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH9" s="4">
+        <f t="shared" si="14"/>
         <v>4.3264321224737756</v>
       </c>
-      <c r="AH9" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI9" s="6">
+        <f t="shared" si="15"/>
         <v>0.17696600000000018</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AJ9" s="7">
         <v>323</v>
       </c>
-      <c r="AJ9" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK9" s="8">
+        <f t="shared" si="16"/>
         <v>13211.489164086688</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AL9" s="8">
         <v>2998</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>4224</v>
       </c>
-      <c r="AM9" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN9" s="8">
+        <f t="shared" si="17"/>
         <v>3611</v>
       </c>
-      <c r="AN9" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO9" s="4">
+        <f t="shared" si="18"/>
         <v>119.21672802584602</v>
       </c>
-      <c r="AO9" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP9" s="8">
+        <f t="shared" si="19"/>
         <v>846.20033552745508</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1998</v>
       </c>
@@ -2153,23 +2484,23 @@
         <v>5.3533333333333335</v>
       </c>
       <c r="F10" s="8">
-        <f>Monitor!AC10</f>
+        <f>Monitor!AD10</f>
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.61703817845968</v>
       </c>
       <c r="H10" s="6">
-        <f>Monitor!U10</f>
+        <f>Monitor!V10</f>
         <v>4.3923999999999994</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="6">
@@ -2207,86 +2538,90 @@
         <v>14.000512363477362</v>
       </c>
       <c r="T10" s="36">
-        <f>C10-E10</f>
+        <f t="shared" si="7"/>
         <v>-0.1392500000000032</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="41">
+        <f t="shared" si="24"/>
+        <v>-1.9495713466142677</v>
+      </c>
+      <c r="V10" s="4">
         <v>4.3923999999999994</v>
       </c>
-      <c r="V10" s="14">
-        <f t="shared" si="7"/>
+      <c r="W10" s="14">
+        <f t="shared" si="9"/>
         <v>8.5588591483156478</v>
       </c>
-      <c r="W10" s="14">
-        <f t="shared" si="8"/>
+      <c r="X10" s="14">
+        <f t="shared" si="10"/>
         <v>0.34629999999999939</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>275</v>
       </c>
-      <c r="Y10" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z10" s="8">
+        <f t="shared" si="11"/>
         <v>15972.363636363634</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <v>9181.43</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>1229</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>2192</v>
       </c>
-      <c r="AC10" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD10" s="10">
+        <f t="shared" si="12"/>
         <v>4200.8100000000004</v>
       </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE10" s="14">
+        <f t="shared" si="23"/>
         <v>135.84964163306873</v>
       </c>
-      <c r="AE10" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF10" s="7">
+        <f t="shared" si="13"/>
         <v>956.38147709680379</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AG10" s="4">
         <v>4.4719610000000003</v>
       </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH10" s="4">
+        <f t="shared" si="14"/>
         <v>4.7957601402850543</v>
       </c>
-      <c r="AH10" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI10" s="6">
+        <f t="shared" si="15"/>
         <v>0.20465</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AJ10" s="7">
         <v>324.52</v>
       </c>
-      <c r="AJ10" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK10" s="8">
+        <f t="shared" si="16"/>
         <v>13780.232343152964</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AL10" s="8">
         <v>3942</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>5006</v>
       </c>
-      <c r="AM10" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN10" s="8">
+        <f t="shared" si="17"/>
         <v>4474</v>
       </c>
-      <c r="AN10" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO10" s="4">
+        <f t="shared" si="18"/>
         <v>140.94899296956498</v>
       </c>
-      <c r="AO10" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP10" s="8">
+        <f t="shared" si="19"/>
         <v>1000.4559520979722</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1999</v>
       </c>
@@ -2304,15 +2639,15 @@
         <v>4.97</v>
       </c>
       <c r="F11" s="8">
-        <f>Monitor!AC11</f>
+        <f>Monitor!AD11</f>
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="6">
-        <f>Monitor!U11</f>
+        <f>Monitor!V11</f>
         <v>4.6556999999999995</v>
       </c>
       <c r="I11" s="4">
@@ -2320,7 +2655,7 @@
         <v>5.9944449503688162</v>
       </c>
       <c r="J11" s="8">
-        <f>AD11</f>
+        <f>AE11</f>
         <v>142.73721817700169</v>
       </c>
       <c r="K11" s="6">
@@ -2354,90 +2689,94 @@
         <v>21.560155598777435</v>
       </c>
       <c r="S11" s="34">
-        <f t="shared" si="6"/>
+        <f>D11+(G11-N11)</f>
         <v>8.4510014684964254</v>
       </c>
       <c r="T11" s="36">
-        <f>C11-E11</f>
+        <f t="shared" si="7"/>
         <v>0.72675000000000001</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="41">
+        <f>S11*T11</f>
+        <v>6.141765317229777</v>
+      </c>
+      <c r="V11" s="4">
         <v>4.6556999999999995</v>
       </c>
-      <c r="V11" s="14">
-        <f t="shared" si="7"/>
+      <c r="W11" s="14">
+        <f t="shared" si="9"/>
         <v>5.9944449503688162</v>
       </c>
-      <c r="W11" s="14">
-        <f t="shared" si="8"/>
+      <c r="X11" s="14">
+        <f t="shared" si="10"/>
         <v>0.26330000000000009</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>279</v>
       </c>
-      <c r="Y11" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z11" s="8">
+        <f t="shared" si="11"/>
         <v>16687.096774193546</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <v>11497.12</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>1469</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>1069</v>
       </c>
-      <c r="AC11" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD11" s="10">
+        <f t="shared" si="12"/>
         <v>4678.3733333333339</v>
       </c>
-      <c r="AD11" s="14">
-        <f>((AC11/U11)/100)*100/7.04</f>
+      <c r="AE11" s="14">
+        <f>((AD11/V11)/100)*100/7.04</f>
         <v>142.73721817700169</v>
       </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF11" s="7">
+        <f t="shared" si="13"/>
         <v>1004.870015966092</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AG11" s="4">
         <v>4.7089470000000002</v>
       </c>
-      <c r="AG11" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH11" s="4">
+        <f t="shared" si="14"/>
         <v>5.299375374695785</v>
       </c>
-      <c r="AH11" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI11" s="6">
+        <f t="shared" si="15"/>
         <v>0.23698599999999992</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AJ11" s="7">
         <v>325.28000000000003</v>
       </c>
-      <c r="AJ11" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK11" s="8">
+        <f t="shared" si="16"/>
         <v>14476.595548450565</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AL11" s="8">
         <v>5958</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>6958</v>
       </c>
-      <c r="AM11" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN11" s="8">
+        <f t="shared" si="17"/>
         <v>6458</v>
       </c>
-      <c r="AN11" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO11" s="4">
+        <f t="shared" si="18"/>
         <v>193.21384504595233</v>
       </c>
-      <c r="AO11" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP11" s="8">
+        <f t="shared" si="19"/>
         <v>1371.4318721361697</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2000</v>
       </c>
@@ -2455,23 +2794,23 @@
         <v>6.2358333333333329</v>
       </c>
       <c r="F12" s="8">
-        <f>Monitor!AC12</f>
+        <f>Monitor!AD12</f>
         <v>4859.33</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.8679398537383207</v>
       </c>
       <c r="H12" s="6">
-        <f>Monitor!U12</f>
+        <f>Monitor!V12</f>
         <v>4.9643000000000006</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="6">
@@ -2505,90 +2844,94 @@
         <v>22.989256274891176</v>
       </c>
       <c r="S12" s="34">
-        <f t="shared" si="6"/>
+        <f>D12+(G12-N12)</f>
         <v>0.61442255773554377</v>
       </c>
       <c r="T12" s="36">
-        <f>C12-E12</f>
+        <f t="shared" si="7"/>
         <v>-0.27491666666666248</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="41">
+        <f t="shared" si="24"/>
+        <v>-0.16891500149746067</v>
+      </c>
+      <c r="V12" s="4">
         <v>4.9643000000000006</v>
       </c>
-      <c r="V12" s="14">
-        <f t="shared" si="7"/>
+      <c r="W12" s="14">
+        <f t="shared" si="9"/>
         <v>6.6284339626694475</v>
       </c>
-      <c r="W12" s="14">
-        <f t="shared" si="8"/>
+      <c r="X12" s="14">
+        <f t="shared" si="10"/>
         <v>0.3086000000000011</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>285</v>
       </c>
-      <c r="Y12" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z12" s="8">
+        <f t="shared" si="11"/>
         <v>17418.596491228072</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <v>10787.99</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>1320</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>2470</v>
       </c>
-      <c r="AC12" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD12" s="10">
+        <f t="shared" si="12"/>
         <v>4859.33</v>
       </c>
-      <c r="AD12" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE12" s="14">
+        <f t="shared" si="23"/>
         <v>139.04190694284461</v>
       </c>
-      <c r="AE12" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF12" s="7">
+        <f t="shared" si="13"/>
         <v>978.85502487762608</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AG12" s="4">
         <v>4.9103279999999998</v>
       </c>
-      <c r="AG12" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH12" s="4">
+        <f t="shared" si="14"/>
         <v>4.2765611929800684</v>
       </c>
-      <c r="AH12" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI12" s="6">
+        <f t="shared" si="15"/>
         <v>0.20138099999999959</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AJ12" s="7">
         <v>325.28000000000003</v>
       </c>
-      <c r="AJ12" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK12" s="8">
+        <f t="shared" si="16"/>
         <v>15095.696015740285</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AL12" s="8">
         <v>5926</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>6433</v>
       </c>
-      <c r="AM12" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN12" s="8">
+        <f t="shared" si="17"/>
         <v>6179.5</v>
       </c>
-      <c r="AN12" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO12" s="4">
+        <f t="shared" si="18"/>
         <v>177.29922550318068</v>
       </c>
-      <c r="AO12" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP12" s="8">
+        <f t="shared" si="19"/>
         <v>1258.4699026215765</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2001</v>
       </c>
@@ -2606,7 +2949,7 @@
         <v>3.8875000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f>Monitor!AC13</f>
+        <f>Monitor!AD13</f>
         <v>4373.1899999999996</v>
       </c>
       <c r="G13" s="19">
@@ -2614,15 +2957,15 @@
         <v>-10.004259846522061</v>
       </c>
       <c r="H13" s="6">
-        <f>Monitor!U13</f>
+        <f>Monitor!V13</f>
         <v>5.4420000000000002</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="6">
@@ -2656,90 +2999,94 @@
         <v>25.201444845790498</v>
       </c>
       <c r="S13" s="34">
-        <f t="shared" si="6"/>
+        <f>D13+(G13-N13)</f>
         <v>-15.211965968231061</v>
       </c>
       <c r="T13" s="36">
-        <f>C13-E13</f>
+        <f t="shared" si="7"/>
         <v>1.0765000000000002</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="41">
+        <f t="shared" si="24"/>
+        <v>-16.375681364800741</v>
+      </c>
+      <c r="V13" s="4">
         <v>5.4420000000000002</v>
       </c>
-      <c r="V13" s="14">
-        <f t="shared" si="7"/>
+      <c r="W13" s="14">
+        <f t="shared" si="9"/>
         <v>9.6227061217090011</v>
       </c>
-      <c r="W13" s="14">
-        <f t="shared" si="8"/>
+      <c r="X13" s="14">
+        <f t="shared" si="10"/>
         <v>0.47769999999999957</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>285</v>
       </c>
-      <c r="Y13" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z13" s="8">
+        <f t="shared" si="11"/>
         <v>19094.736842105263</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="AA13" s="8">
         <v>10021.57</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>1148</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>1950</v>
       </c>
-      <c r="AC13" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD13" s="10">
+        <f t="shared" si="12"/>
         <v>4373.1899999999996</v>
       </c>
-      <c r="AD13" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE13" s="14">
+        <f t="shared" si="23"/>
         <v>114.14769595068654</v>
       </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF13" s="7">
+        <f t="shared" si="13"/>
         <v>803.59977949283336</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AG13" s="4">
         <v>5.4467369999999997</v>
       </c>
-      <c r="AG13" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH13" s="4">
+        <f t="shared" si="14"/>
         <v>10.924097127523851</v>
       </c>
-      <c r="AH13" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI13" s="6">
+        <f t="shared" si="15"/>
         <v>0.53640899999999991</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AJ13" s="7">
         <v>326.04000000000002</v>
       </c>
-      <c r="AJ13" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK13" s="8">
+        <f t="shared" si="16"/>
         <v>16705.732425469268</v>
       </c>
-      <c r="AK13" s="8">
+      <c r="AL13" s="8">
         <v>4624</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>5160</v>
       </c>
-      <c r="AM13" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN13" s="8">
+        <f t="shared" si="17"/>
         <v>4892</v>
       </c>
-      <c r="AN13" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO13" s="4">
+        <f t="shared" si="18"/>
         <v>126.53598432782162</v>
       </c>
-      <c r="AO13" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP13" s="8">
+        <f t="shared" si="19"/>
         <v>898.15241675887785</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2002</v>
       </c>
@@ -2757,7 +3104,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F14" s="8">
-        <f>Monitor!AC14</f>
+        <f>Monitor!AD14</f>
         <v>3518.5433333333331</v>
       </c>
       <c r="G14" s="19">
@@ -2765,15 +3112,15 @@
         <v>-19.542866115276638</v>
       </c>
       <c r="H14" s="6">
-        <f>Monitor!U14</f>
+        <f>Monitor!V14</f>
         <v>5.7923</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>86.285773720493083</v>
       </c>
       <c r="K14" s="6">
@@ -2807,90 +3154,94 @@
         <v>26.823654718903398</v>
       </c>
       <c r="S14" s="34">
-        <f t="shared" si="6"/>
+        <f>D14+(G14-N14)</f>
         <v>-21.468171150190283</v>
       </c>
       <c r="T14" s="36">
-        <f>C14-E14</f>
+        <f t="shared" si="7"/>
         <v>2.8651666666666626</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="41">
+        <f t="shared" si="24"/>
+        <v>-61.509888373820104</v>
+      </c>
+      <c r="V14" s="4">
         <v>5.7923</v>
       </c>
-      <c r="V14" s="14">
-        <f t="shared" si="7"/>
+      <c r="W14" s="14">
+        <f t="shared" si="9"/>
         <v>6.4369717015803047</v>
       </c>
-      <c r="W14" s="14">
-        <f t="shared" si="8"/>
+      <c r="X14" s="14">
+        <f t="shared" si="10"/>
         <v>0.35029999999999983</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>287</v>
       </c>
-      <c r="Y14" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z14" s="8">
+        <f t="shared" si="11"/>
         <v>20182.229965156796</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AA14" s="8">
         <v>8341.6299999999992</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>879</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>1335</v>
       </c>
-      <c r="AC14" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD14" s="10">
+        <f t="shared" si="12"/>
         <v>3518.5433333333331</v>
       </c>
-      <c r="AD14" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE14" s="14">
+        <f t="shared" si="23"/>
         <v>86.285773720493083</v>
       </c>
-      <c r="AE14" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF14" s="7">
+        <f t="shared" si="13"/>
         <v>607.45184699227127</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AG14" s="4">
         <v>5.8078250000000002</v>
       </c>
-      <c r="AG14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH14" s="4">
+        <f t="shared" si="14"/>
         <v>6.629437037257361</v>
       </c>
-      <c r="AH14" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI14" s="6">
+        <f t="shared" si="15"/>
         <v>0.36108800000000052</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AJ14" s="7">
         <v>326.8</v>
       </c>
-      <c r="AJ14" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK14" s="8">
+        <f t="shared" si="16"/>
         <v>17771.802325581397</v>
       </c>
-      <c r="AK14" s="8">
+      <c r="AL14" s="8">
         <v>3063</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>2892</v>
       </c>
-      <c r="AM14" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN14" s="8">
+        <f t="shared" si="17"/>
         <v>2977.5</v>
       </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO14" s="4">
+        <f t="shared" si="18"/>
         <v>72.227445178195651</v>
       </c>
-      <c r="AO14" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP14" s="8">
+        <f t="shared" si="19"/>
         <v>512.67040587483268</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -2908,23 +3259,23 @@
         <v>1.1274999999999999</v>
       </c>
       <c r="F15" s="8">
-        <f>Monitor!AC15</f>
+        <f>Monitor!AD15</f>
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.537282947583435</v>
       </c>
       <c r="H15" s="6">
-        <f>Monitor!U15</f>
+        <f>Monitor!V15</f>
         <v>6.0626999999999995</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="6">
@@ -2962,86 +3313,90 @@
         <v>29.082099789194999</v>
       </c>
       <c r="T15" s="36">
-        <f>C15-E15</f>
+        <f t="shared" si="7"/>
         <v>2.86358333333333</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="41">
+        <f t="shared" si="24"/>
+        <v>83.279016254675554</v>
+      </c>
+      <c r="V15" s="4">
         <v>6.0626999999999995</v>
       </c>
-      <c r="V15" s="14">
-        <f t="shared" si="7"/>
+      <c r="W15" s="14">
+        <f t="shared" si="9"/>
         <v>4.6682664917217664</v>
       </c>
-      <c r="W15" s="14">
-        <f t="shared" si="8"/>
+      <c r="X15" s="14">
+        <f t="shared" si="10"/>
         <v>0.27039999999999953</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>290</v>
       </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z15" s="8">
+        <f t="shared" si="11"/>
         <v>20905.862068965518</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AA15" s="8">
         <v>10453.92</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>1111</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>2003</v>
       </c>
-      <c r="AC15" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD15" s="10">
+        <f t="shared" si="12"/>
         <v>4522.6400000000003</v>
       </c>
-      <c r="AD15" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE15" s="14">
+        <f t="shared" si="23"/>
         <v>105.96276486473926</v>
       </c>
-      <c r="AE15" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF15" s="7">
+        <f t="shared" si="13"/>
         <v>745.97786464776436</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AG15" s="4">
         <v>6.1809219999999998</v>
       </c>
-      <c r="AG15" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH15" s="4">
+        <f t="shared" si="14"/>
         <v>6.4240399805434691</v>
       </c>
-      <c r="AH15" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI15" s="6">
+        <f t="shared" si="15"/>
         <v>0.37309699999999957</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AJ15" s="7">
         <v>327.56</v>
       </c>
-      <c r="AJ15" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK15" s="8">
+        <f t="shared" si="16"/>
         <v>18869.58725119062</v>
       </c>
-      <c r="AK15" s="8">
+      <c r="AL15" s="8">
         <v>3557</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>3965</v>
       </c>
-      <c r="AM15" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN15" s="8">
+        <f t="shared" si="17"/>
         <v>3761</v>
       </c>
-      <c r="AN15" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO15" s="4">
+        <f t="shared" si="18"/>
         <v>85.726299139368976</v>
       </c>
-      <c r="AO15" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP15" s="8">
+        <f t="shared" si="19"/>
         <v>608.48527129124102</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2004</v>
       </c>
@@ -3059,7 +3414,7 @@
         <v>1.3491666666666666</v>
       </c>
       <c r="F16" s="8">
-        <f>Monitor!AC16</f>
+        <f>Monitor!AD16</f>
         <v>4723.0033333333331</v>
       </c>
       <c r="G16" s="18">
@@ -3067,15 +3422,15 @@
         <v>4.4302295414477584</v>
       </c>
       <c r="H16" s="6">
-        <f>Monitor!U16</f>
+        <f>Monitor!V16</f>
         <v>6.4112</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="6">
@@ -3113,86 +3468,90 @@
         <v>3.9942155666510439</v>
       </c>
       <c r="T16" s="36">
-        <f>C16-E16</f>
+        <f t="shared" si="7"/>
         <v>2.9142500000000031</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="41">
+        <f t="shared" si="24"/>
+        <v>11.640142715112818</v>
+      </c>
+      <c r="V16" s="4">
         <v>6.4112</v>
       </c>
-      <c r="V16" s="14">
-        <f t="shared" si="7"/>
+      <c r="W16" s="14">
+        <f t="shared" si="9"/>
         <v>5.7482639747967141</v>
       </c>
-      <c r="W16" s="14">
-        <f t="shared" si="8"/>
+      <c r="X16" s="14">
+        <f t="shared" si="10"/>
         <v>0.34850000000000048</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>293</v>
       </c>
-      <c r="Y16" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z16" s="8">
+        <f t="shared" si="11"/>
         <v>21881.228668941978</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AA16" s="8">
         <v>10783.01</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>1211</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>2175</v>
       </c>
-      <c r="AC16" s="10">
-        <f t="shared" si="10"/>
+      <c r="AD16" s="10">
+        <f t="shared" si="12"/>
         <v>4723.0033333333331</v>
       </c>
-      <c r="AD16" s="14">
-        <f>((AC16/U16)/100)*100/7.04</f>
+      <c r="AE16" s="14">
+        <f>((AD16/V16)/100)*100/7.04</f>
         <v>104.64205691649461</v>
       </c>
-      <c r="AE16" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF16" s="7">
+        <f t="shared" si="13"/>
         <v>736.68008069212203</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AG16" s="4">
         <v>6.5681760000000002</v>
       </c>
-      <c r="AG16" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH16" s="4">
+        <f t="shared" si="14"/>
         <v>6.2653112270305229</v>
       </c>
-      <c r="AH16" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI16" s="6">
+        <f t="shared" si="15"/>
         <v>0.38725400000000043</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AJ16" s="7">
         <v>329.08</v>
       </c>
-      <c r="AJ16" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK16" s="8">
+        <f t="shared" si="16"/>
         <v>19959.207487541022</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>3821</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>4256</v>
       </c>
-      <c r="AM16" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN16" s="8">
+        <f t="shared" si="17"/>
         <v>4038.5</v>
       </c>
-      <c r="AN16" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO16" s="4">
+        <f t="shared" si="18"/>
         <v>86.624214727780952</v>
       </c>
-      <c r="AO16" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP16" s="8">
+        <f t="shared" si="19"/>
         <v>614.85867613778919</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2005</v>
       </c>
@@ -3210,27 +3569,27 @@
         <v>3.2133333333333334</v>
       </c>
       <c r="F17" s="8">
-        <f>Monitor!AC17</f>
+        <f>Monitor!AD17</f>
         <v>4723.5</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0515907603988239E-2</v>
       </c>
       <c r="H17" s="6">
-        <f>Monitor!U17</f>
+        <f>Monitor!V17</f>
         <v>6.7104999999999997</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K34" ca="1" si="22">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K34" ca="1" si="25">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
@@ -3260,90 +3619,94 @@
         <v>31.075761785681205</v>
       </c>
       <c r="S17" s="34">
-        <f t="shared" si="6"/>
+        <f>D17+(G17-N17)</f>
         <v>-0.52437690497398926</v>
       </c>
       <c r="T17" s="36">
-        <f>C17-E17</f>
+        <f t="shared" si="7"/>
         <v>1.0515833333333364</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="41">
+        <f t="shared" si="24"/>
+        <v>-0.55142601365556587</v>
+      </c>
+      <c r="V17" s="4">
         <v>6.7104999999999997</v>
       </c>
-      <c r="V17" s="14">
-        <f t="shared" si="7"/>
+      <c r="W17" s="14">
+        <f t="shared" si="9"/>
         <v>4.6683928125779772</v>
       </c>
-      <c r="W17" s="14">
-        <f t="shared" si="8"/>
+      <c r="X17" s="14">
+        <f t="shared" si="10"/>
         <v>0.29929999999999968</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>295</v>
       </c>
-      <c r="Y17" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z17" s="8">
+        <f t="shared" si="11"/>
         <v>22747.457627118645</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="AA17" s="8">
         <v>10717.5</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>1248</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>2205</v>
       </c>
-      <c r="AC17" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD17" s="8">
+        <f t="shared" si="12"/>
         <v>4723.5</v>
       </c>
-      <c r="AD17" s="14">
-        <f>((AC17/U17)/100)*100/7.04</f>
+      <c r="AE17" s="14">
+        <f>((AD17/V17)/100)*100/7.04</f>
         <v>99.985351992467713</v>
       </c>
-      <c r="AE17" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF17" s="7">
+        <f t="shared" si="13"/>
         <v>703.89687802697267</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AG17" s="4">
         <v>7.1306700000000003</v>
       </c>
-      <c r="AG17" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH17" s="4">
+        <f t="shared" si="14"/>
         <v>8.5639300773913476</v>
       </c>
-      <c r="AH17" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI17" s="6">
+        <f t="shared" si="15"/>
         <v>0.56249400000000005</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AJ17" s="7">
         <v>330.6</v>
       </c>
-      <c r="AJ17" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK17" s="8">
+        <f t="shared" si="16"/>
         <v>21568.874773139745</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>4715</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>5408</v>
       </c>
-      <c r="AM17" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN17" s="8">
+        <f t="shared" si="17"/>
         <v>5061.5</v>
       </c>
-      <c r="AN17" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO17" s="4">
+        <f t="shared" si="18"/>
         <v>100.00297221122624</v>
       </c>
-      <c r="AO17" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP17" s="8">
+        <f t="shared" si="19"/>
         <v>709.82109675528386</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -3361,27 +3724,27 @@
         <v>4.9641666666666664</v>
       </c>
       <c r="F18" s="8">
-        <f>Monitor!AC18</f>
+        <f>Monitor!AD18</f>
         <v>5432.05</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15.000529268550864</v>
       </c>
       <c r="H18" s="6">
-        <f>Monitor!U18</f>
+        <f>Monitor!V18</f>
         <v>7.0955000000000004</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>106.36863617964786</v>
       </c>
       <c r="L18" s="4">
@@ -3415,86 +3778,90 @@
         <v>12.267335200796326</v>
       </c>
       <c r="T18" s="36">
-        <f>C18-E18</f>
+        <f t="shared" si="7"/>
         <v>-0.18308333333333682</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="41">
+        <f t="shared" si="24"/>
+        <v>-2.2459446196791704</v>
+      </c>
+      <c r="V18" s="4">
         <v>7.0955000000000004</v>
       </c>
-      <c r="V18" s="14">
-        <f t="shared" si="7"/>
+      <c r="W18" s="14">
+        <f t="shared" si="9"/>
         <v>5.7372774010878658</v>
       </c>
-      <c r="W18" s="14">
-        <f t="shared" si="8"/>
+      <c r="X18" s="14">
+        <f t="shared" si="10"/>
         <v>0.38500000000000068</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>298</v>
       </c>
-      <c r="Y18" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z18" s="8">
+        <f t="shared" si="11"/>
         <v>23810.40268456376</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AA18" s="8">
         <v>12463.15</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>1418</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>2415</v>
       </c>
-      <c r="AC18" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD18" s="8">
+        <f t="shared" si="12"/>
         <v>5432.05</v>
       </c>
-      <c r="AD18" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE18" s="14">
+        <f t="shared" si="23"/>
         <v>108.74469894491386</v>
       </c>
-      <c r="AE18" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF18" s="7">
+        <f t="shared" si="13"/>
         <v>765.56268057219359</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AG18" s="4">
         <v>7.8016750000000004</v>
       </c>
-      <c r="AG18" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH18" s="4">
+        <f t="shared" si="14"/>
         <v>9.4101255562240311</v>
       </c>
-      <c r="AH18" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI18" s="6">
+        <f t="shared" si="15"/>
         <v>0.67100500000000007</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AJ18" s="7">
         <v>331.36</v>
       </c>
-      <c r="AJ18" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK18" s="8">
+        <f t="shared" si="16"/>
         <v>23544.407894736843</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>5541</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>6596</v>
       </c>
-      <c r="AM18" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN18" s="8">
+        <f t="shared" si="17"/>
         <v>6068.5</v>
       </c>
-      <c r="AN18" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO18" s="4">
+        <f t="shared" si="18"/>
         <v>109.58661356960933</v>
       </c>
-      <c r="AO18" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP18" s="8">
+        <f t="shared" si="19"/>
         <v>777.84578311708697</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2007</v>
       </c>
@@ -3512,27 +3879,27 @@
         <v>5.0191666666666697</v>
       </c>
       <c r="F19" s="8">
-        <f>Monitor!AC19</f>
+        <f>Monitor!AD19</f>
         <v>5794.94</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.6805349729844181</v>
       </c>
       <c r="H19" s="6">
-        <f>Monitor!U19</f>
+        <f>Monitor!V19</f>
         <v>7.4917999999999996</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>109.35412041521862</v>
       </c>
       <c r="L19" s="4">
@@ -3566,86 +3933,90 @@
         <v>3.986054897584526</v>
       </c>
       <c r="T19" s="36">
-        <f>C19-E19</f>
+        <f t="shared" si="7"/>
         <v>-0.44441666666666979</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="41">
+        <f t="shared" si="24"/>
+        <v>-1.7714692307348689</v>
+      </c>
+      <c r="V19" s="4">
         <v>7.4917999999999996</v>
       </c>
-      <c r="V19" s="14">
-        <f t="shared" si="7"/>
+      <c r="W19" s="14">
+        <f t="shared" si="9"/>
         <v>5.5852300753998918</v>
       </c>
-      <c r="W19" s="14">
-        <f t="shared" si="8"/>
+      <c r="X19" s="14">
+        <f t="shared" si="10"/>
         <v>0.39629999999999921</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>301</v>
       </c>
-      <c r="Y19" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z19" s="8">
+        <f t="shared" si="11"/>
         <v>24889.70099667774</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="AA19" s="8">
         <v>13264.82</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>1468</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>2652</v>
       </c>
-      <c r="AC19" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD19" s="8">
+        <f t="shared" si="12"/>
         <v>5794.94</v>
       </c>
-      <c r="AD19" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE19" s="14">
+        <f t="shared" si="23"/>
         <v>109.87277908695326</v>
       </c>
-      <c r="AE19" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF19" s="7">
+        <f t="shared" si="13"/>
         <v>773.50436477215089</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AG19" s="4">
         <v>8.6914390000000008</v>
       </c>
-      <c r="AG19" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH19" s="4">
+        <f t="shared" si="14"/>
         <v>11.404781665475682</v>
       </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI19" s="6">
+        <f t="shared" si="15"/>
         <v>0.88976400000000044</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AJ19" s="7">
         <v>332.12</v>
       </c>
-      <c r="AJ19" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK19" s="8">
+        <f t="shared" si="16"/>
         <v>26169.574250270991</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>5614</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>8067</v>
       </c>
-      <c r="AM19" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN19" s="8">
+        <f t="shared" si="17"/>
         <v>6840.5</v>
       </c>
-      <c r="AN19" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO19" s="4">
+        <f t="shared" si="18"/>
         <v>110.8817740377211</v>
       </c>
-      <c r="AO19" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP19" s="8">
+        <f t="shared" si="19"/>
         <v>787.03883211974437</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2008</v>
       </c>
@@ -3663,27 +4034,27 @@
         <v>1.9275</v>
       </c>
       <c r="F20" s="8">
-        <f>Monitor!AC20</f>
+        <f>Monitor!AD20</f>
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-35.251616065049859</v>
       </c>
       <c r="H20" s="6">
-        <f>Monitor!U20</f>
+        <f>Monitor!V20</f>
         <v>8.2623999999999995</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10.285912597773574</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>109.07665234894111</v>
       </c>
       <c r="L20" s="4">
@@ -3713,90 +4084,94 @@
         <v>38.262480318607018</v>
       </c>
       <c r="S20" s="34">
-        <f t="shared" si="6"/>
+        <f>D20+(G20-N20)</f>
         <v>-39.666861996156769</v>
       </c>
       <c r="T20" s="36">
-        <f>C20-E20</f>
+        <f t="shared" si="7"/>
         <v>1.6587500000000002</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="41">
+        <f t="shared" si="24"/>
+        <v>-65.797407336125048</v>
+      </c>
+      <c r="V20" s="4">
         <v>8.2623999999999995</v>
       </c>
-      <c r="V20" s="14">
-        <f t="shared" si="7"/>
+      <c r="W20" s="14">
+        <f t="shared" si="9"/>
         <v>10.285912597773574</v>
       </c>
-      <c r="W20" s="14">
-        <f t="shared" si="8"/>
+      <c r="X20" s="14">
+        <f t="shared" si="10"/>
         <v>0.77059999999999995</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>304</v>
       </c>
-      <c r="Y20" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z20" s="8">
+        <f t="shared" si="11"/>
         <v>27178.947368421053</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="AA20" s="8">
         <v>8776.39</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>903</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>1577</v>
       </c>
-      <c r="AC20" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD20" s="8">
+        <f t="shared" si="12"/>
         <v>3752.1299999999997</v>
       </c>
-      <c r="AD20" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE20" s="14">
+        <f t="shared" si="23"/>
         <v>64.505835031423828</v>
       </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF20" s="7">
+        <f t="shared" si="13"/>
         <v>454.12107862122383</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AG20" s="4">
         <v>9.4237800000000007</v>
       </c>
-      <c r="AG20" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH20" s="4">
+        <f t="shared" si="14"/>
         <v>8.4260040253403332</v>
       </c>
-      <c r="AH20" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI20" s="6">
+        <f t="shared" si="15"/>
         <v>0.73234099999999991</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AJ20" s="7">
         <v>333.64</v>
       </c>
-      <c r="AJ20" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK20" s="8">
+        <f t="shared" si="16"/>
         <v>28245.354274067857</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>3217</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>4810</v>
       </c>
-      <c r="AM20" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN20" s="8">
+        <f t="shared" si="17"/>
         <v>4013.5</v>
       </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO20" s="4">
+        <f t="shared" si="18"/>
         <v>60.001503567265267</v>
       </c>
-      <c r="AO20" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP20" s="8">
+        <f t="shared" si="19"/>
         <v>425.89067232044886</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2009</v>
       </c>
@@ -3814,7 +4189,7 @@
         <v>0.16</v>
       </c>
       <c r="F21" s="8">
-        <f>Monitor!AC21</f>
+        <f>Monitor!AD21</f>
         <v>4604.0166666666664</v>
       </c>
       <c r="G21" s="18">
@@ -3822,19 +4197,19 @@
         <v>22.7040818592817</v>
       </c>
       <c r="H21" s="6">
-        <f>Monitor!U21</f>
+        <f>Monitor!V21</f>
         <v>8.4457000000000004</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="4">
@@ -3868,86 +4243,90 @@
         <v>23.0803481257418</v>
       </c>
       <c r="T21" s="36">
-        <f>C21-E21</f>
+        <f t="shared" si="7"/>
         <v>3.1123333333333298</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="41">
+        <f t="shared" si="24"/>
+        <v>71.833736816683654</v>
+      </c>
+      <c r="V21" s="4">
         <v>8.4457000000000004</v>
       </c>
-      <c r="V21" s="14">
-        <f t="shared" si="7"/>
+      <c r="W21" s="14">
+        <f t="shared" si="9"/>
         <v>2.2184837335398981</v>
       </c>
-      <c r="W21" s="14">
-        <f t="shared" si="8"/>
+      <c r="X21" s="14">
+        <f t="shared" si="10"/>
         <v>0.18330000000000091</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>307</v>
       </c>
-      <c r="Y21" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z21" s="8">
+        <f t="shared" si="11"/>
         <v>27510.423452768729</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="AA21" s="8">
         <v>10428.049999999999</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>1115</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>2269</v>
       </c>
-      <c r="AC21" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD21" s="8">
+        <f t="shared" si="12"/>
         <v>4604.0166666666664</v>
       </c>
-      <c r="AD21" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE21" s="14">
+        <f t="shared" si="23"/>
         <v>77.433444255836108</v>
       </c>
-      <c r="AE21" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF21" s="7">
+        <f t="shared" si="13"/>
         <v>545.13144756108625</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AG21" s="4">
         <v>9.3822489999999998</v>
       </c>
-      <c r="AG21" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH21" s="4">
+        <f t="shared" si="14"/>
         <v>-0.4407042609229137</v>
       </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI21" s="6">
+        <f t="shared" si="15"/>
         <v>-4.1531000000000873E-2</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="AJ21" s="7">
         <v>334.4</v>
       </c>
-      <c r="AJ21" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK21" s="8">
+        <f t="shared" si="16"/>
         <v>28056.96471291866</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>3936</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>5957</v>
       </c>
-      <c r="AM21" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN21" s="8">
+        <f t="shared" si="17"/>
         <v>4946.5</v>
       </c>
-      <c r="AN21" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO21" s="4">
+        <f t="shared" si="18"/>
         <v>74.27712128365458</v>
       </c>
-      <c r="AO21" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP21" s="8">
+        <f t="shared" si="19"/>
         <v>527.2190068713802</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2010</v>
       </c>
@@ -3965,27 +4344,27 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="F22" s="8">
-        <f>Monitor!AC22</f>
+        <f>Monitor!AD22</f>
         <v>5162.17</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12.123182293721797</v>
       </c>
       <c r="H22" s="6">
-        <f>Monitor!U22</f>
+        <f>Monitor!V22</f>
         <v>8.825899999999999</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>106.75418638617396</v>
       </c>
       <c r="L22" s="4">
@@ -4019,86 +4398,90 @@
         <v>12.14756653757766</v>
       </c>
       <c r="T22" s="36">
-        <f>C22-E22</f>
+        <f t="shared" si="7"/>
         <v>2.9510000000000001</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="41">
+        <f t="shared" si="24"/>
+        <v>35.847468852391678</v>
+      </c>
+      <c r="V22" s="4">
         <v>8.825899999999999</v>
       </c>
-      <c r="V22" s="14">
-        <f t="shared" si="7"/>
+      <c r="W22" s="14">
+        <f t="shared" si="9"/>
         <v>4.5016990894774693</v>
       </c>
-      <c r="W22" s="14">
-        <f t="shared" si="8"/>
+      <c r="X22" s="14">
+        <f t="shared" si="10"/>
         <v>0.38019999999999854</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>309</v>
       </c>
-      <c r="Y22" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z22" s="8">
+        <f t="shared" si="11"/>
         <v>28562.78317152103</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AA22" s="8">
         <v>11577.51</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1257</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>2652</v>
       </c>
-      <c r="AC22" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD22" s="8">
+        <f t="shared" si="12"/>
         <v>5162.17</v>
       </c>
-      <c r="AD22" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE22" s="14">
+        <f t="shared" si="23"/>
         <v>83.080794490183351</v>
       </c>
-      <c r="AE22" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF22" s="7">
+        <f t="shared" si="13"/>
         <v>584.88879321089075</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AG22" s="4">
         <v>9.3207719999999998</v>
       </c>
-      <c r="AG22" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH22" s="4">
+        <f t="shared" si="14"/>
         <v>-0.65524801143095601</v>
       </c>
-      <c r="AH22" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI22" s="6">
+        <f t="shared" si="15"/>
         <v>-6.1477000000000004E-2</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ22" s="3">
         <v>335</v>
       </c>
-      <c r="AJ22" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK22" s="8">
+        <f t="shared" si="16"/>
         <v>27823.200000000001</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <v>3804</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>6914</v>
       </c>
-      <c r="AM22" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN22" s="8">
+        <f t="shared" si="17"/>
         <v>5359</v>
       </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO22" s="4">
+        <f t="shared" si="18"/>
         <v>81.002025245072275</v>
       </c>
-      <c r="AO22" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP22" s="8">
+        <f t="shared" si="19"/>
         <v>574.95237518952297</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2011</v>
       </c>
@@ -4116,27 +4499,27 @@
         <v>0.10166666666666667</v>
       </c>
       <c r="F23" s="8">
-        <f>Monitor!AC23</f>
+        <f>Monitor!AD23</f>
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.8294618994208633</v>
       </c>
       <c r="H23" s="6">
-        <f>Monitor!U23</f>
+        <f>Monitor!V23</f>
         <v>9.7302999999999997</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10.247113608810437</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>103.60960695932185</v>
       </c>
       <c r="L23" s="4">
@@ -4170,86 +4553,90 @@
         <v>-0.59181837605624077</v>
       </c>
       <c r="T23" s="36">
-        <f>C23-E23</f>
+        <f t="shared" si="7"/>
         <v>2.6300833333333333</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="41">
+        <f t="shared" si="24"/>
+        <v>-1.5565316472259179</v>
+      </c>
+      <c r="V23" s="4">
         <v>9.7302999999999997</v>
       </c>
-      <c r="V23" s="14">
-        <f t="shared" si="7"/>
+      <c r="W23" s="14">
+        <f t="shared" si="9"/>
         <v>10.247113608810437</v>
       </c>
-      <c r="W23" s="14">
-        <f t="shared" si="8"/>
+      <c r="X23" s="14">
+        <f t="shared" si="10"/>
         <v>0.90440000000000076</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>311</v>
       </c>
-      <c r="Y23" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z23" s="8">
+        <f t="shared" si="11"/>
         <v>31287.138263665594</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="AA23" s="8">
         <v>12217.56</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>1257</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>2605</v>
       </c>
-      <c r="AC23" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD23" s="8">
+        <f t="shared" si="12"/>
         <v>5359.8533333333335</v>
       </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE23" s="14">
+        <f t="shared" si="23"/>
         <v>78.244535423399384</v>
       </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF23" s="7">
+        <f t="shared" si="13"/>
         <v>550.84152938073169</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AG23" s="4">
         <v>9.5350470000000005</v>
       </c>
-      <c r="AG23" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH23" s="4">
+        <f t="shared" si="14"/>
         <v>2.2988975591292302</v>
       </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI23" s="6">
+        <f t="shared" si="15"/>
         <v>0.21427500000000066</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AJ23" s="3">
         <v>334</v>
       </c>
-      <c r="AJ23" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK23" s="8">
+        <f t="shared" si="16"/>
         <v>28548.04491017964</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AL23" s="1">
         <v>3159</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>5898</v>
       </c>
-      <c r="AM23" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN23" s="8">
+        <f t="shared" si="17"/>
         <v>4528.5</v>
       </c>
-      <c r="AN23" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO23" s="4">
+        <f t="shared" si="18"/>
         <v>66.910694699863498</v>
       </c>
-      <c r="AO23" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP23" s="8">
+        <f t="shared" si="19"/>
         <v>474.9321109796312</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2012</v>
       </c>
@@ -4267,27 +4654,27 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F24" s="8">
-        <f>Monitor!AC24</f>
+        <f>Monitor!AD24</f>
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.1394291883608645</v>
       </c>
       <c r="H24" s="6">
-        <f>Monitor!U24</f>
+        <f>Monitor!V24</f>
         <v>10.471200000000001</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>99.57416022327952</v>
       </c>
       <c r="L24" s="4">
@@ -4321,86 +4708,90 @@
         <v>5.2281532521958214</v>
       </c>
       <c r="T24" s="36">
-        <f>C24-E24</f>
+        <f t="shared" si="7"/>
         <v>1.59541666666667</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="41">
+        <f t="shared" si="24"/>
+        <v>8.3410828344407673</v>
+      </c>
+      <c r="V24" s="4">
         <v>10.471200000000001</v>
       </c>
-      <c r="V24" s="14">
-        <f t="shared" si="7"/>
+      <c r="W24" s="14">
+        <f t="shared" si="9"/>
         <v>7.6143592694983795</v>
       </c>
-      <c r="W24" s="14">
-        <f t="shared" si="8"/>
+      <c r="X24" s="14">
+        <f t="shared" si="10"/>
         <v>0.74090000000000167</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>313</v>
       </c>
-      <c r="Y24" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z24" s="8">
+        <f t="shared" si="11"/>
         <v>33454.313099041537</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AA24" s="8">
         <v>13104.14</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>1426</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>3019</v>
       </c>
-      <c r="AC24" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD24" s="8">
+        <f t="shared" si="12"/>
         <v>5849.7133333333331</v>
       </c>
-      <c r="AD24" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE24" s="14">
+        <f t="shared" si="23"/>
         <v>79.353387328476117</v>
       </c>
-      <c r="AE24" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF24" s="7">
+        <f t="shared" si="13"/>
         <v>558.64784679247191</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AG24" s="4">
         <v>9.8079680000000007</v>
       </c>
-      <c r="AG24" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH24" s="4">
+        <f t="shared" si="14"/>
         <v>2.8622931800965432</v>
       </c>
-      <c r="AH24" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI24" s="6">
+        <f t="shared" si="15"/>
         <v>0.27292100000000019</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AJ24" s="3">
         <v>335</v>
       </c>
-      <c r="AJ24" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK24" s="8">
+        <f t="shared" si="16"/>
         <v>29277.516417910447</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AL24" s="1">
         <v>3641</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>7612</v>
       </c>
-      <c r="AM24" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN24" s="8">
+        <f t="shared" si="17"/>
         <v>5626.5</v>
       </c>
-      <c r="AN24" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO24" s="4">
+        <f t="shared" si="18"/>
         <v>80.820826612568425</v>
       </c>
-      <c r="AO24" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP24" s="8">
+        <f t="shared" si="19"/>
         <v>573.66622729601067</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2013</v>
       </c>
@@ -4418,27 +4809,27 @@
         <v>0.1075</v>
       </c>
       <c r="F25" s="8">
-        <f>Monitor!AC25</f>
+        <f>Monitor!AD25</f>
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.785000290612544</v>
       </c>
       <c r="H25" s="6">
-        <f>Monitor!U25</f>
+        <f>Monitor!V25</f>
         <v>11.0656</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>96.286197309360503</v>
       </c>
       <c r="L25" s="4">
@@ -4472,86 +4863,90 @@
         <v>26.88397802000366</v>
       </c>
       <c r="T25" s="36">
-        <f>C25-E25</f>
+        <f t="shared" si="7"/>
         <v>2.2530000000000001</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="41">
+        <f t="shared" si="24"/>
+        <v>60.569602479068251</v>
+      </c>
+      <c r="V25" s="4">
         <v>11.0656</v>
       </c>
-      <c r="V25" s="14">
-        <f t="shared" si="7"/>
+      <c r="W25" s="14">
+        <f t="shared" si="9"/>
         <v>5.6765222706088849</v>
       </c>
-      <c r="W25" s="14">
-        <f t="shared" si="8"/>
+      <c r="X25" s="14">
+        <f t="shared" si="10"/>
         <v>0.59439999999999849</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>316</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="11"/>
         <v>35017.721518987339</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="AA25" s="8">
         <v>16576.66</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>1848</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>4176</v>
       </c>
-      <c r="AC25" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD25" s="8">
+        <f t="shared" si="12"/>
         <v>7533.5533333333333</v>
       </c>
-      <c r="AD25" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE25" s="14">
+        <f t="shared" si="23"/>
         <v>96.70573738213541</v>
       </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF25" s="7">
+        <f t="shared" si="13"/>
         <v>680.80839117023334</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AG25" s="4">
         <v>9.8494729999999997</v>
       </c>
-      <c r="AG25" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH25" s="4">
+        <f t="shared" si="14"/>
         <v>0.42317633989016201</v>
       </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI25" s="6">
+        <f t="shared" si="15"/>
         <v>4.1504999999999015E-2</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AJ25" s="3">
         <v>336</v>
       </c>
-      <c r="AJ25" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK25" s="8">
+        <f t="shared" si="16"/>
         <v>29313.907738095237</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AL25" s="1">
         <v>4295</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <v>9552</v>
       </c>
-      <c r="AM25" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN25" s="8">
+        <f t="shared" si="17"/>
         <v>6923.5</v>
       </c>
-      <c r="AN25" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO25" s="4">
+        <f t="shared" si="18"/>
         <v>99.032263962853108</v>
       </c>
-      <c r="AO25" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP25" s="8">
+        <f t="shared" si="19"/>
         <v>702.93100960833135</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2014</v>
       </c>
@@ -4569,27 +4964,27 @@
         <v>8.9166666666666672E-2</v>
       </c>
       <c r="F26" s="8">
-        <f>Monitor!AC26</f>
+        <f>Monitor!AD26</f>
         <v>8205.69</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.921907590309317</v>
       </c>
       <c r="H26" s="6">
-        <f>Monitor!U26</f>
+        <f>Monitor!V26</f>
         <v>11.732100000000001</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.023170908039333</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>93.451041804773851</v>
       </c>
       <c r="L26" s="4">
@@ -4623,86 +5018,90 @@
         <v>6.9147366822699841</v>
       </c>
       <c r="T26" s="36">
-        <f>C26-E26</f>
+        <f t="shared" si="7"/>
         <v>2.3895833333333329</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="41">
+        <f t="shared" si="24"/>
+        <v>16.52333953034098</v>
+      </c>
+      <c r="V26" s="4">
         <v>11.732100000000001</v>
       </c>
-      <c r="V26" s="14">
-        <f t="shared" si="7"/>
+      <c r="W26" s="14">
+        <f t="shared" si="9"/>
         <v>6.023170908039333</v>
       </c>
-      <c r="W26" s="14">
-        <f t="shared" si="8"/>
+      <c r="X26" s="14">
+        <f t="shared" si="10"/>
         <v>0.66650000000000098</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>319</v>
       </c>
-      <c r="Y26" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="11"/>
         <v>36777.742946708466</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AA26" s="8">
         <v>17823.07</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>2058</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>4736</v>
       </c>
-      <c r="AC26" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD26" s="8">
+        <f t="shared" si="12"/>
         <v>8205.69</v>
       </c>
-      <c r="AD26" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE26" s="14">
+        <f t="shared" si="23"/>
         <v>99.349729878631351</v>
       </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF26" s="7">
+        <f t="shared" si="13"/>
         <v>699.42209834556468</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AG26" s="4">
         <v>10.328136000000001</v>
       </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH26" s="4">
+        <f t="shared" si="14"/>
         <v>4.8597828533567196</v>
       </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI26" s="6">
+        <f t="shared" si="15"/>
         <v>0.47866300000000095</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AJ26" s="3">
         <v>337</v>
       </c>
-      <c r="AJ26" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK26" s="8">
+        <f t="shared" si="16"/>
         <v>30647.287833827893</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AL26" s="1">
         <v>4272</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>9805</v>
       </c>
-      <c r="AM26" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN26" s="8">
+        <f t="shared" si="17"/>
         <v>7038.5</v>
       </c>
-      <c r="AN26" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO26" s="4">
+        <f t="shared" si="18"/>
         <v>96.011260599392998</v>
       </c>
-      <c r="AO26" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP26" s="8">
+        <f t="shared" si="19"/>
         <v>681.48792773449145</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2015</v>
       </c>
@@ -4720,27 +5119,27 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="F27" s="8">
-        <f>Monitor!AC27</f>
+        <f>Monitor!AD27</f>
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.57699799366862692</v>
       </c>
       <c r="H27" s="6">
-        <f>Monitor!U27</f>
+        <f>Monitor!V27</f>
         <v>12.458</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>91.941991916965421</v>
       </c>
       <c r="L27" s="4">
@@ -4774,86 +5173,90 @@
         <v>-4.74229609034355</v>
       </c>
       <c r="T27" s="36">
-        <f>C27-E27</f>
+        <f t="shared" si="7"/>
         <v>1.9614999999999998</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="41">
+        <f t="shared" si="24"/>
+        <v>-9.3020137812088723</v>
+      </c>
+      <c r="V27" s="4">
         <v>12.458</v>
       </c>
-      <c r="V27" s="14">
-        <f t="shared" si="7"/>
+      <c r="W27" s="14">
+        <f t="shared" si="9"/>
         <v>6.1872980966749225</v>
       </c>
-      <c r="W27" s="14">
-        <f t="shared" si="8"/>
+      <c r="X27" s="14">
+        <f t="shared" si="10"/>
         <v>0.72589999999999932</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>321</v>
       </c>
-      <c r="Y27" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z27" s="8">
+        <f t="shared" si="11"/>
         <v>38809.968847352022</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="AA27" s="8">
         <v>17425.03</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>2043</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>5007</v>
       </c>
-      <c r="AC27" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD27" s="8">
+        <f t="shared" si="12"/>
         <v>8158.3433333333332</v>
       </c>
-      <c r="AD27" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE27" s="14">
+        <f t="shared" si="23"/>
         <v>93.02099752136877</v>
       </c>
-      <c r="AE27" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF27" s="7">
+        <f t="shared" si="13"/>
         <v>654.86782255043613</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AG27" s="4">
         <v>10.837680000000001</v>
       </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH27" s="4">
+        <f t="shared" si="14"/>
         <v>4.9335523854449548</v>
       </c>
-      <c r="AH27" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI27" s="6">
+        <f t="shared" si="15"/>
         <v>0.509544</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AJ27" s="3">
         <v>338</v>
       </c>
-      <c r="AJ27" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK27" s="8">
+        <f t="shared" si="16"/>
         <v>32064.142011834319</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AL27" s="1">
         <v>4637</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>10743</v>
       </c>
-      <c r="AM27" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN27" s="8">
+        <f t="shared" si="17"/>
         <v>7690</v>
       </c>
-      <c r="AN27" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO27" s="4">
+        <f t="shared" si="18"/>
         <v>99.966392780693639</v>
       </c>
-      <c r="AO27" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP27" s="8">
+        <f t="shared" si="19"/>
         <v>709.56145595736348</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2016</v>
       </c>
@@ -4871,27 +5274,27 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="F28" s="8">
-        <f>Monitor!AC28</f>
+        <f>Monitor!AD28</f>
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.883826087240749</v>
       </c>
       <c r="H28" s="6">
-        <f>Monitor!U28</f>
+        <f>Monitor!V28</f>
         <v>13.275399999999999</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>92.754955364114394</v>
       </c>
       <c r="L28" s="4">
@@ -4921,90 +5324,94 @@
         <v>61.477262202463642</v>
       </c>
       <c r="S28" s="34">
-        <f t="shared" si="6"/>
+        <f>D28+(G28-N28)</f>
         <v>7.9864136347336689</v>
       </c>
       <c r="T28" s="36">
-        <f>C28-E28</f>
+        <f t="shared" si="7"/>
         <v>1.42825</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="41">
+        <f t="shared" si="24"/>
+        <v>11.406595273808362</v>
+      </c>
+      <c r="V28" s="4">
         <v>13.275399999999999</v>
       </c>
-      <c r="V28" s="14">
-        <f t="shared" si="7"/>
+      <c r="W28" s="14">
+        <f t="shared" si="9"/>
         <v>6.5612457858404127</v>
       </c>
-      <c r="W28" s="14">
-        <f t="shared" si="8"/>
+      <c r="X28" s="14">
+        <f t="shared" si="10"/>
         <v>0.81739999999999924</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>323</v>
       </c>
-      <c r="Y28" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z28" s="8">
+        <f t="shared" si="11"/>
         <v>41100.309597523221</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="AA28" s="8">
         <v>19762.599999999999</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>2238</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5383</v>
       </c>
-      <c r="AC28" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD28" s="8">
+        <f t="shared" si="12"/>
         <v>9127.8666666666668</v>
       </c>
-      <c r="AD28" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE28" s="14">
+        <f t="shared" si="23"/>
         <v>97.667261980578346</v>
       </c>
-      <c r="AE28" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF28" s="7">
+        <f t="shared" si="13"/>
         <v>687.57752434327153</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AG28" s="4">
         <v>11.392602</v>
       </c>
-      <c r="AG28" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH28" s="4">
+        <f t="shared" si="14"/>
         <v>5.1203025001660762</v>
       </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI28" s="6">
+        <f t="shared" si="15"/>
         <v>0.55492199999999947</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AJ28" s="3">
         <v>339</v>
       </c>
-      <c r="AJ28" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK28" s="8">
+        <f t="shared" si="16"/>
         <v>33606.495575221241</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AL28" s="1">
         <v>4862</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <v>11481</v>
       </c>
-      <c r="AM28" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN28" s="8">
+        <f t="shared" si="17"/>
         <v>8171.5</v>
       </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO28" s="4">
+        <f t="shared" si="18"/>
         <v>101.05152324773309</v>
       </c>
-      <c r="AO28" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP28" s="8">
+        <f t="shared" si="19"/>
         <v>717.26371201240943</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2017</v>
       </c>
@@ -5022,27 +5429,27 @@
         <v>1.0016666666666667</v>
       </c>
       <c r="F29" s="8">
-        <f>Monitor!AC29</f>
+        <f>Monitor!AD29</f>
         <v>11431.74</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25.239997662834682</v>
       </c>
       <c r="H29" s="6">
-        <f>Monitor!U29</f>
+        <f>Monitor!V29</f>
         <v>13.8584</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>93.555667897121467</v>
       </c>
       <c r="L29" s="4">
@@ -5076,86 +5483,90 @@
         <v>24.188082908225898</v>
       </c>
       <c r="T29" s="36">
-        <f>C29-E29</f>
+        <f t="shared" si="7"/>
         <v>1.3319166666666631</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="41">
+        <f t="shared" si="24"/>
+        <v>32.216510760181123</v>
+      </c>
+      <c r="V29" s="4">
         <v>13.8584</v>
       </c>
-      <c r="V29" s="14">
-        <f t="shared" si="7"/>
+      <c r="W29" s="14">
+        <f t="shared" si="9"/>
         <v>4.3915814212754469</v>
       </c>
-      <c r="W29" s="14">
-        <f t="shared" si="8"/>
+      <c r="X29" s="14">
+        <f t="shared" si="10"/>
         <v>0.58300000000000018</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>325</v>
       </c>
-      <c r="Y29" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z29" s="8">
+        <f t="shared" si="11"/>
         <v>42641.230769230766</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="AA29" s="8">
         <v>24719.22</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>2673</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>6903</v>
       </c>
-      <c r="AC29" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD29" s="8">
+        <f t="shared" si="12"/>
         <v>11431.74</v>
       </c>
-      <c r="AD29" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE29" s="14">
+        <f t="shared" si="23"/>
         <v>117.17274032683821</v>
       </c>
-      <c r="AE29" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF29" s="7">
+        <f t="shared" si="13"/>
         <v>824.89609190094097</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AG29" s="4">
         <v>11.871539</v>
       </c>
-      <c r="AG29" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH29" s="4">
+        <f t="shared" si="14"/>
         <v>4.2039298836209724</v>
       </c>
-      <c r="AH29" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI29" s="6">
+        <f t="shared" si="15"/>
         <v>0.47893700000000017</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AJ29" s="3">
         <v>340</v>
       </c>
-      <c r="AJ29" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK29" s="8">
+        <f t="shared" si="16"/>
         <v>34916.291176470586</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AL29" s="1">
         <v>5312</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>12917</v>
       </c>
-      <c r="AM29" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN29" s="8">
+        <f t="shared" si="17"/>
         <v>9114.5</v>
       </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO29" s="4">
+        <f t="shared" si="18"/>
         <v>108.16576612494706</v>
       </c>
-      <c r="AO29" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP29" s="8">
+        <f t="shared" si="19"/>
         <v>767.76060795487422</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -5173,27 +5584,27 @@
         <v>1.8316666666666668</v>
       </c>
       <c r="F30" s="8">
-        <f>Monitor!AC30</f>
+        <f>Monitor!AD30</f>
         <v>10822.82</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-5.3265732075781926</v>
       </c>
       <c r="H30" s="6">
-        <f>Monitor!U30</f>
+        <f>Monitor!V30</f>
         <v>14.4346</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>93.688613100198992</v>
       </c>
       <c r="L30" s="4">
@@ -5223,90 +5634,94 @@
         <v>66.845420024080767</v>
       </c>
       <c r="S30" s="34">
-        <f t="shared" si="6"/>
+        <f>D30+(G30-N30)</f>
         <v>-6.3600903379828573</v>
       </c>
       <c r="T30" s="36">
-        <f>C30-E30</f>
+        <f t="shared" si="7"/>
         <v>1.0605833333333334</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="41">
+        <f t="shared" si="24"/>
+        <v>-6.7454058109589861</v>
+      </c>
+      <c r="V30" s="4">
         <v>14.4346</v>
       </c>
-      <c r="V30" s="14">
-        <f t="shared" si="7"/>
+      <c r="W30" s="14">
+        <f t="shared" si="9"/>
         <v>4.1577671304046646</v>
       </c>
-      <c r="W30" s="14">
-        <f t="shared" si="8"/>
+      <c r="X30" s="14">
+        <f t="shared" si="10"/>
         <v>0.57620000000000005</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>326</v>
       </c>
-      <c r="Y30" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z30" s="8">
+        <f t="shared" si="11"/>
         <v>44277.914110429447</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="AA30" s="8">
         <v>23327.46</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>2506</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>6635</v>
       </c>
-      <c r="AC30" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD30" s="8">
+        <f t="shared" si="12"/>
         <v>10822.82</v>
       </c>
-      <c r="AD30" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE30" s="14">
+        <f t="shared" si="23"/>
         <v>106.50328975958021</v>
       </c>
-      <c r="AE30" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF30" s="7">
+        <f t="shared" si="13"/>
         <v>749.78315990744466</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AG30" s="4">
         <v>12.363619</v>
       </c>
-      <c r="AG30" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH30" s="4">
+        <f t="shared" si="14"/>
         <v>4.1450396616647538</v>
       </c>
-      <c r="AH30" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI30" s="6">
+        <f t="shared" si="15"/>
         <v>0.49207999999999963</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AJ30" s="3">
         <v>341</v>
       </c>
-      <c r="AJ30" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK30" s="8">
+        <f t="shared" si="16"/>
         <v>36256.947214076245</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AL30" s="1">
         <v>4730</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>10558</v>
       </c>
-      <c r="AM30" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN30" s="8">
+        <f t="shared" si="17"/>
         <v>7644</v>
       </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO30" s="4">
+        <f t="shared" si="18"/>
         <v>87.104194728345874</v>
       </c>
-      <c r="AO30" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP30" s="8">
+        <f t="shared" si="19"/>
         <v>618.26557418179902</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2019</v>
       </c>
@@ -5324,7 +5739,7 @@
         <v>2.1583333333333332</v>
       </c>
       <c r="F31" s="8">
-        <f>Monitor!AC31</f>
+        <f>Monitor!AD31</f>
         <v>13580.146666666667</v>
       </c>
       <c r="G31" s="18">
@@ -5332,19 +5747,19 @@
         <v>25.476970573904651</v>
       </c>
       <c r="H31" s="6">
-        <f>Monitor!U31</f>
+        <f>Monitor!V31</f>
         <v>15.402100000000001</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>95.492697868497842</v>
       </c>
       <c r="L31" s="4">
@@ -5378,86 +5793,90 @@
         <v>20.581575540443385</v>
       </c>
       <c r="T31" s="36">
-        <f>C31-E31</f>
+        <f t="shared" si="7"/>
         <v>-7.8666666666663332E-2</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="41">
+        <f t="shared" si="24"/>
+        <v>-1.6190839425148109</v>
+      </c>
+      <c r="V31" s="4">
         <v>15.402100000000001</v>
       </c>
-      <c r="V31" s="14">
-        <f t="shared" si="7"/>
+      <c r="W31" s="14">
+        <f t="shared" si="9"/>
         <v>6.7026450334612662</v>
       </c>
-      <c r="W31" s="14">
-        <f t="shared" si="8"/>
+      <c r="X31" s="14">
+        <f t="shared" si="10"/>
         <v>0.96750000000000114</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>328</v>
       </c>
-      <c r="Y31" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z31" s="8">
+        <f t="shared" si="11"/>
         <v>46957.621951219509</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="AA31" s="8">
         <v>28538.44</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>3230</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>8972</v>
       </c>
-      <c r="AC31" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD31" s="8">
+        <f t="shared" si="12"/>
         <v>13580.146666666667</v>
       </c>
-      <c r="AD31" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE31" s="14">
+        <f t="shared" si="23"/>
         <v>125.24253874865155</v>
       </c>
-      <c r="AE31" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF31" s="7">
+        <f t="shared" si="13"/>
         <v>881.70747279050693</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AG31" s="4">
         <v>12.995488999999999</v>
       </c>
-      <c r="AG31" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH31" s="4">
+        <f t="shared" si="14"/>
         <v>5.1107204128499859</v>
       </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI31" s="6">
+        <f t="shared" si="15"/>
         <v>0.63186999999999927</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AJ31" s="3">
         <v>341</v>
       </c>
-      <c r="AJ31" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK31" s="8">
+        <f t="shared" si="16"/>
         <v>38109.938416422287</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>5978</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>13249</v>
       </c>
-      <c r="AM31" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN31" s="8">
+        <f t="shared" si="17"/>
         <v>9613.5</v>
       </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO31" s="4">
+        <f t="shared" si="18"/>
         <v>104.22044175448916</v>
       </c>
-      <c r="AO31" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP31" s="8">
+        <f t="shared" si="19"/>
         <v>739.75669557336403</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
@@ -5475,27 +5894,27 @@
         <v>0.37583333333333335</v>
       </c>
       <c r="F32" s="8">
-        <f>Monitor!AC32</f>
+        <f>Monitor!AD32</f>
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="6">
-        <f>Monitor!U32</f>
+        <f>Monitor!V32</f>
         <v>19.187999999999999</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="8">
-        <f>AD32</f>
+        <f>AE32</f>
         <v>116.59571796766917</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>96.053484941551801</v>
       </c>
       <c r="L32" s="4">
@@ -5525,90 +5944,94 @@
         <v>88.85801611558766</v>
       </c>
       <c r="S32" s="34">
-        <f t="shared" si="6"/>
+        <f>D32+(G32-N32)</f>
         <v>-6.9320239784992008</v>
       </c>
       <c r="T32" s="36">
-        <f>C32-E32</f>
+        <f t="shared" si="7"/>
         <v>0.44499999999999962</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="41">
+        <f t="shared" si="24"/>
+        <v>-3.0847506704321419</v>
+      </c>
+      <c r="V32" s="4">
         <v>19.187999999999999</v>
       </c>
-      <c r="V32" s="14">
-        <f t="shared" si="7"/>
+      <c r="W32" s="14">
+        <f t="shared" si="9"/>
         <v>24.580414359080891</v>
       </c>
-      <c r="W32" s="14">
-        <f t="shared" si="8"/>
+      <c r="X32" s="14">
+        <f t="shared" si="10"/>
         <v>3.785899999999998</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>330</v>
       </c>
-      <c r="Y32" s="8">
-        <f t="shared" si="9"/>
+      <c r="Z32" s="8">
+        <f t="shared" si="11"/>
         <v>58145.454545454544</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="AA32" s="8">
         <v>30606.48</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>3756</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>12888</v>
       </c>
-      <c r="AC32" s="8">
-        <f t="shared" si="10"/>
+      <c r="AD32" s="8">
+        <f t="shared" si="12"/>
         <v>15750.159999999998</v>
       </c>
-      <c r="AD32" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE32" s="14">
+        <f t="shared" si="23"/>
         <v>116.59571796766917</v>
       </c>
-      <c r="AE32" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF32" s="7">
+        <f t="shared" si="13"/>
         <v>820.83385449239097</v>
       </c>
-      <c r="AF32" s="4">
+      <c r="AG32" s="4">
         <v>14.492039</v>
       </c>
-      <c r="AG32" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH32" s="4">
+        <f t="shared" si="14"/>
         <v>11.515919100851079</v>
       </c>
-      <c r="AH32" s="6">
-        <f t="shared" si="13"/>
+      <c r="AI32" s="6">
+        <f t="shared" si="15"/>
         <v>1.4965500000000009</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AJ32" s="3">
         <v>342</v>
       </c>
-      <c r="AJ32" s="8">
-        <f t="shared" si="14"/>
+      <c r="AK32" s="8">
+        <f t="shared" si="16"/>
         <v>42374.383040935674</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AL32" s="1">
         <v>5551</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AM32" s="8">
         <v>13718</v>
       </c>
-      <c r="AM32" s="8">
-        <f t="shared" si="15"/>
+      <c r="AN32" s="8">
+        <f t="shared" si="17"/>
         <v>9634.5</v>
       </c>
-      <c r="AN32" s="4">
-        <f t="shared" si="16"/>
+      <c r="AO32" s="4">
+        <f t="shared" si="18"/>
         <v>93.662057097504444</v>
       </c>
-      <c r="AO32" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP32" s="8">
+        <f t="shared" si="19"/>
         <v>664.81328127808649</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2021</v>
       </c>
@@ -5626,7 +6049,7 @@
         <v>0.08</v>
       </c>
       <c r="F33" s="11">
-        <f>Monitor!AC33</f>
+        <f>Monitor!AD33</f>
         <v>18916.333333333332</v>
       </c>
       <c r="G33" s="22">
@@ -5634,7 +6057,7 @@
         <v>20.102483614981281</v>
       </c>
       <c r="H33" s="6">
-        <f>Monitor!U33</f>
+        <f>Monitor!V33</f>
         <v>21.594000000000001</v>
       </c>
       <c r="I33" s="14">
@@ -5642,11 +6065,11 @@
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>97.093411293656871</v>
       </c>
       <c r="L33" s="14">
@@ -5680,86 +6103,90 @@
         <v>13.637396685650431</v>
       </c>
       <c r="T33" s="36">
-        <f>C33-E33</f>
+        <f t="shared" si="7"/>
         <v>1.494</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="41">
+        <f t="shared" si="24"/>
+        <v>20.374270648361744</v>
+      </c>
+      <c r="V33" s="14">
         <v>21.594000000000001</v>
       </c>
-      <c r="V33" s="14">
-        <f t="shared" si="7"/>
+      <c r="W33" s="14">
+        <f t="shared" si="9"/>
         <v>12.53908692933085</v>
       </c>
-      <c r="W33" s="14">
-        <f t="shared" si="8"/>
+      <c r="X33" s="14">
+        <f t="shared" si="10"/>
         <v>2.4060000000000024</v>
       </c>
-      <c r="X33" s="23">
+      <c r="Y33" s="23">
         <v>331</v>
       </c>
-      <c r="Y33" s="11">
-        <f t="shared" si="9"/>
+      <c r="Z33" s="11">
+        <f t="shared" si="11"/>
         <v>65238.670694864049</v>
       </c>
-      <c r="Z33" s="23">
+      <c r="AA33" s="23">
         <v>36338</v>
       </c>
-      <c r="AA33" s="23">
+      <c r="AB33" s="23">
         <v>4766</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AC33" s="23">
         <v>15645</v>
       </c>
-      <c r="AC33" s="11">
-        <f t="shared" si="10"/>
+      <c r="AD33" s="11">
+        <f t="shared" si="12"/>
         <v>18916.333333333332</v>
       </c>
-      <c r="AD33" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE33" s="14">
+        <f t="shared" si="23"/>
         <v>124.43174801642429</v>
       </c>
-      <c r="AE33" s="7">
-        <f t="shared" si="11"/>
+      <c r="AF33" s="7">
+        <f t="shared" si="13"/>
         <v>875.99950603562706</v>
       </c>
-      <c r="AF33" s="14">
+      <c r="AG33" s="14">
         <v>15.396000000000001</v>
       </c>
-      <c r="AG33" s="14">
-        <f t="shared" si="12"/>
+      <c r="AH33" s="14">
+        <f t="shared" si="14"/>
         <v>6.2376384717154139</v>
       </c>
-      <c r="AH33" s="21">
-        <f t="shared" si="13"/>
+      <c r="AI33" s="21">
+        <f t="shared" si="15"/>
         <v>0.90396100000000068</v>
       </c>
-      <c r="AI33" s="27">
+      <c r="AJ33" s="27">
         <v>342</v>
       </c>
-      <c r="AJ33" s="11">
-        <f t="shared" si="14"/>
+      <c r="AK33" s="11">
+        <f t="shared" si="16"/>
         <v>45017.543859649122</v>
       </c>
-      <c r="AK33" s="11">
+      <c r="AL33" s="11">
         <v>7170</v>
       </c>
-      <c r="AL33" s="11">
+      <c r="AM33" s="11">
         <v>15946</v>
       </c>
-      <c r="AM33" s="11">
-        <f t="shared" si="15"/>
+      <c r="AN33" s="11">
+        <f t="shared" si="17"/>
         <v>11558</v>
       </c>
-      <c r="AN33" s="14">
-        <f t="shared" si="16"/>
+      <c r="AO33" s="14">
+        <f t="shared" si="18"/>
         <v>105.76422531575717</v>
       </c>
-      <c r="AO33" s="8">
-        <f t="shared" si="17"/>
+      <c r="AP33" s="8">
+        <f t="shared" si="19"/>
         <v>750.71447129124442</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2022</v>
       </c>
@@ -5777,7 +6204,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F34" s="11">
-        <f>Monitor!AC34</f>
+        <f>Monitor!AD34</f>
         <v>15817.333333333334</v>
       </c>
       <c r="G34" s="26">
@@ -5785,7 +6212,7 @@
         <v>-16.382667535991814</v>
       </c>
       <c r="H34" s="6">
-        <f>Monitor!U34</f>
+        <f>Monitor!V34</f>
         <v>21.236000000000001</v>
       </c>
       <c r="I34" s="14">
@@ -5793,11 +6220,11 @@
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="25"/>
         <v>100.04303319683673</v>
       </c>
       <c r="L34" s="14">
@@ -5807,7 +6234,7 @@
         <v>103</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="1"/>
+        <f>I34-L34</f>
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="21">
@@ -5827,90 +6254,94 @@
         <v>98.342132073724173</v>
       </c>
       <c r="S34" s="34">
-        <f t="shared" si="6"/>
+        <f>D34+(G34-N34)</f>
         <v>-7.6147996097159867</v>
       </c>
       <c r="T34" s="36">
         <f>C34-E34</f>
         <v>-0.22999999999999954</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="41">
+        <f t="shared" si="24"/>
+        <v>1.7514039102346735</v>
+      </c>
+      <c r="V34" s="14">
         <v>21.236000000000001</v>
       </c>
-      <c r="V34" s="14">
-        <f t="shared" si="7"/>
+      <c r="W34" s="14">
+        <f t="shared" si="9"/>
         <v>-1.6578679262758271</v>
       </c>
-      <c r="W34" s="14">
-        <f t="shared" si="8"/>
+      <c r="X34" s="14">
+        <f t="shared" si="10"/>
         <v>-0.35800000000000054</v>
       </c>
-      <c r="X34" s="23">
+      <c r="Y34" s="23">
         <v>333</v>
       </c>
-      <c r="Y34" s="11">
-        <f t="shared" si="9"/>
+      <c r="Z34" s="11">
+        <f t="shared" si="11"/>
         <v>63771.771771771775</v>
       </c>
-      <c r="Z34" s="23">
+      <c r="AA34" s="23">
         <v>33147</v>
       </c>
-      <c r="AA34" s="23">
+      <c r="AB34" s="23">
         <v>3839</v>
       </c>
-      <c r="AB34" s="23">
+      <c r="AC34" s="23">
         <v>10466</v>
       </c>
-      <c r="AC34" s="11">
-        <f t="shared" si="10"/>
+      <c r="AD34" s="11">
+        <f t="shared" si="12"/>
         <v>15817.333333333334</v>
       </c>
-      <c r="AD34" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE34" s="14">
+        <f t="shared" si="23"/>
         <v>105.80054167594193</v>
       </c>
-      <c r="AE34" s="28">
-        <f t="shared" si="11"/>
+      <c r="AF34" s="28">
+        <f t="shared" si="13"/>
         <v>744.83581339863122</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AG34" s="14">
         <v>16.068000000000001</v>
       </c>
-      <c r="AG34" s="14">
-        <f t="shared" si="12"/>
+      <c r="AH34" s="14">
+        <f t="shared" si="14"/>
         <v>4.3647700701480971</v>
       </c>
-      <c r="AH34" s="21">
-        <f t="shared" si="13"/>
+      <c r="AI34" s="21">
+        <f t="shared" si="15"/>
         <v>0.6720000000000006</v>
       </c>
-      <c r="AI34" s="27">
+      <c r="AJ34" s="27">
         <v>342</v>
       </c>
-      <c r="AJ34" s="11">
-        <f t="shared" si="14"/>
+      <c r="AK34" s="11">
+        <f t="shared" si="16"/>
         <v>46982.456140350885</v>
       </c>
-      <c r="AK34" s="11">
+      <c r="AL34" s="11">
         <v>6473</v>
       </c>
-      <c r="AL34" s="11">
+      <c r="AM34" s="11">
         <v>13923</v>
       </c>
-      <c r="AM34" s="11">
-        <f t="shared" si="15"/>
+      <c r="AN34" s="11">
+        <f t="shared" si="17"/>
         <v>10198</v>
       </c>
-      <c r="AN34" s="14">
-        <f t="shared" si="16"/>
+      <c r="AO34" s="14">
+        <f t="shared" si="18"/>
         <v>89.416401819458059</v>
       </c>
-      <c r="AO34" s="11">
-        <f t="shared" si="17"/>
+      <c r="AP34" s="11">
+        <f t="shared" si="19"/>
         <v>634.67762011451327</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2023</v>
       </c>
@@ -5935,7 +6366,7 @@
         <v>19.463879288544206</v>
       </c>
       <c r="H35" s="6">
-        <f>Monitor!U35</f>
+        <f>Monitor!V35</f>
         <v>20.864999999999998</v>
       </c>
       <c r="I35" s="14">
@@ -5943,7 +6374,7 @@
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="6">
@@ -5981,86 +6412,90 @@
         <v>23.910912628156197</v>
       </c>
       <c r="T35" s="36">
-        <f>C35-E35</f>
+        <f t="shared" si="7"/>
         <v>-1.4700000000000002</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="41">
+        <f t="shared" si="24"/>
+        <v>-35.149041563389616</v>
+      </c>
+      <c r="V35" s="14">
         <v>20.864999999999998</v>
       </c>
-      <c r="V35" s="14">
-        <f t="shared" si="7"/>
+      <c r="W35" s="14">
+        <f t="shared" si="9"/>
         <v>-1.7470333396119884</v>
       </c>
-      <c r="W35" s="14">
-        <f t="shared" si="8"/>
+      <c r="X35" s="14">
+        <f t="shared" si="10"/>
         <v>-0.37100000000000222</v>
       </c>
-      <c r="X35" s="23">
+      <c r="Y35" s="23">
         <v>333</v>
       </c>
-      <c r="Y35" s="11">
-        <f t="shared" si="9"/>
+      <c r="Z35" s="11">
+        <f t="shared" si="11"/>
         <v>62657.657657657655</v>
       </c>
-      <c r="Z35" s="23">
+      <c r="AA35" s="23">
         <v>37466</v>
       </c>
-      <c r="AA35" s="23">
+      <c r="AB35" s="23">
         <v>4697</v>
       </c>
-      <c r="AB35" s="23">
+      <c r="AC35" s="23">
         <v>14524</v>
       </c>
-      <c r="AC35" s="11">
-        <f>AVERAGE(Z35:AB35)</f>
+      <c r="AD35" s="11">
+        <f>AVERAGE(AA35:AC35)</f>
         <v>18895.666666666668</v>
       </c>
-      <c r="AD35" s="14">
-        <f t="shared" si="21"/>
+      <c r="AE35" s="14">
+        <f t="shared" si="23"/>
         <v>128.6385602974388</v>
       </c>
-      <c r="AE35" s="28">
-        <f t="shared" si="11"/>
+      <c r="AF35" s="28">
+        <f t="shared" si="13"/>
         <v>905.61546449396928</v>
       </c>
-      <c r="AF35" s="14">
+      <c r="AG35" s="14">
         <v>16.111999999999998</v>
       </c>
-      <c r="AG35" s="14">
-        <f t="shared" si="12"/>
+      <c r="AH35" s="14">
+        <f t="shared" si="14"/>
         <v>0.27383619616627186</v>
       </c>
-      <c r="AH35" s="21">
-        <f t="shared" si="13"/>
+      <c r="AI35" s="21">
+        <f t="shared" si="15"/>
         <v>4.399999999999693E-2</v>
       </c>
-      <c r="AI35" s="27">
+      <c r="AJ35" s="27">
         <v>342</v>
       </c>
-      <c r="AJ35" s="11">
-        <f t="shared" si="14"/>
+      <c r="AK35" s="11">
+        <f t="shared" si="16"/>
         <v>47111.111111111102</v>
       </c>
-      <c r="AK35" s="23">
+      <c r="AL35" s="23">
         <v>7543</v>
       </c>
-      <c r="AL35" s="23">
+      <c r="AM35" s="23">
         <v>16751</v>
       </c>
-      <c r="AM35" s="23">
-        <f t="shared" si="15"/>
+      <c r="AN35" s="23">
+        <f t="shared" si="17"/>
         <v>12147</v>
       </c>
-      <c r="AN35" s="14">
-        <f t="shared" si="16"/>
+      <c r="AO35" s="14">
+        <f t="shared" si="18"/>
         <v>106.21444478674638</v>
       </c>
-      <c r="AO35" s="11">
-        <f t="shared" si="17"/>
+      <c r="AP35" s="11">
+        <f t="shared" si="19"/>
         <v>753.91012909632582</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>2024</v>
       </c>
@@ -6078,7 +6513,7 @@
         <v>5.33</v>
       </c>
       <c r="F36" s="11">
-        <f>Monitor!AC36</f>
+        <f>Monitor!AD36</f>
         <v>20528.666666666668</v>
       </c>
       <c r="G36" s="26">
@@ -6086,7 +6521,7 @@
         <v>8.6402766017499317</v>
       </c>
       <c r="H36" s="21">
-        <f>Monitor!U36</f>
+        <f>Monitor!V36</f>
         <v>21.024000000000001</v>
       </c>
       <c r="I36" s="14">
@@ -6094,7 +6529,7 @@
         <v>0.76204169662115362</v>
       </c>
       <c r="J36" s="11">
-        <f>AD36</f>
+        <f>AE36</f>
         <v>138.69881030625893</v>
       </c>
       <c r="K36" s="6">
@@ -6128,88 +6563,95 @@
         <v>97.360377882745212</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="6"/>
+        <f>D36+(G36-N36)</f>
         <v>10.078234905128777</v>
       </c>
       <c r="T36" s="37">
         <f>C36-E36</f>
         <v>-1.3900000000000001</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="41">
+        <f>S36*T36</f>
+        <v>-14.008746518129001</v>
+      </c>
+      <c r="V36" s="14">
         <v>21.024000000000001</v>
       </c>
-      <c r="V36" s="14">
-        <f t="shared" si="7"/>
+      <c r="W36" s="14">
+        <f t="shared" si="9"/>
         <v>0.76204169662115362</v>
       </c>
-      <c r="W36" s="14">
-        <f t="shared" si="8"/>
+      <c r="X36" s="14">
+        <f t="shared" si="10"/>
         <v>0.15900000000000247</v>
       </c>
-      <c r="X36" s="23">
+      <c r="Y36" s="23">
         <v>333</v>
       </c>
-      <c r="Y36" s="11">
-        <f>(U36*1000000000000)/(X36*1000000)</f>
+      <c r="Z36" s="11">
+        <f>(V36*1000000000000)/(Y36*1000000)</f>
         <v>63135.135135135133</v>
       </c>
-      <c r="Z36" s="23">
+      <c r="AA36" s="23">
         <v>39497</v>
       </c>
-      <c r="AA36" s="23">
+      <c r="AB36" s="23">
         <v>5344</v>
       </c>
-      <c r="AB36" s="23">
+      <c r="AC36" s="23">
         <v>16745</v>
       </c>
-      <c r="AC36" s="11">
-        <f>AVERAGE(Z36:AB36)</f>
+      <c r="AD36" s="11">
+        <f>AVERAGE(AA36:AC36)</f>
         <v>20528.666666666668</v>
       </c>
-      <c r="AD36" s="14">
-        <f>((AC36/U36)/100)*100/7.04</f>
+      <c r="AE36" s="14">
+        <f>((AD36/V36)/100)*100/7.04</f>
         <v>138.69881030625893</v>
       </c>
-      <c r="AE36" s="28">
-        <f t="shared" si="11"/>
+      <c r="AF36" s="28">
+        <f t="shared" si="13"/>
         <v>976.43962455606288</v>
       </c>
-      <c r="AF36" s="14">
+      <c r="AG36" s="14">
         <v>16.376000000000001</v>
       </c>
-      <c r="AG36" s="14">
-        <f>(AF36*100/AF35)-100</f>
+      <c r="AH36" s="14">
+        <f>(AG36*100/AG35)-100</f>
         <v>1.6385302879841248</v>
       </c>
-      <c r="AH36" s="21">
-        <f t="shared" si="13"/>
+      <c r="AI36" s="21">
+        <f t="shared" si="15"/>
         <v>0.2640000000000029</v>
       </c>
-      <c r="AI36" s="27">
+      <c r="AJ36" s="27">
         <v>343</v>
       </c>
-      <c r="AJ36" s="11">
-        <f t="shared" si="14"/>
+      <c r="AK36" s="11">
+        <f t="shared" si="16"/>
         <v>47743.440233236157</v>
       </c>
-      <c r="AK36" s="23">
+      <c r="AL36" s="23">
         <v>7269</v>
       </c>
-      <c r="AL36" s="23">
+      <c r="AM36" s="23">
         <v>17722</v>
       </c>
-      <c r="AM36" s="11">
-        <f>AVERAGE(AK36:AL36)</f>
+      <c r="AN36" s="11">
+        <f>AVERAGE(AL36:AM36)</f>
         <v>12495.5</v>
       </c>
-      <c r="AN36" s="14">
-        <f t="shared" si="16"/>
+      <c r="AO36" s="14">
+        <f t="shared" si="18"/>
         <v>107.50033414533057</v>
       </c>
-      <c r="AO36" s="11">
-        <f>AM36/AF36</f>
+      <c r="AP36" s="11">
+        <f>AN36/AG36</f>
         <v>763.03737176355639</v>
       </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="H37" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C37:D43">
@@ -6217,7 +6659,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D36">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6231,7 +6673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6243,7 +6685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G36">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6257,7 +6699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J36">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6269,6 +6711,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6280,42 +6746,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L36">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M36">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S2:S36">
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T36">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>-2</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CF009-18A8-4BDA-B68D-35D998549027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7713AE-E512-4301-8B42-0EACD1D6630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="14" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Monitor!$U$2:$U$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Monitor!$U$2:$U$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Monitor!$U$2:$U$36</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,7 +413,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF820000"/>
@@ -426,300 +421,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF820000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF820000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF9597"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDF9597"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,8 +781,8 @@
   <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,11 +1007,11 @@
         <v>15.225062517365933</v>
       </c>
       <c r="S2" s="34">
-        <f t="shared" ref="S2:S36" si="6">D2+(G2-N2)</f>
+        <f t="shared" ref="S2:S35" si="6">D2+(G2-N2)</f>
         <v>10.596747477014819</v>
       </c>
       <c r="T2" s="36">
-        <f t="shared" ref="T2:T36" si="7">C2-E2</f>
+        <f t="shared" ref="T2:T35" si="7">C2-E2</f>
         <v>0.4564166666666587</v>
       </c>
       <c r="U2" s="41">
@@ -2387,7 +2088,7 @@
         <v>0.85299999999999976</v>
       </c>
       <c r="U9" s="41">
-        <f t="shared" ref="U9:U36" si="24">S9*T9</f>
+        <f t="shared" ref="U9:U35" si="24">S9*T9</f>
         <v>17.774945178184389</v>
       </c>
       <c r="V9" s="4">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7713AE-E512-4301-8B42-0EACD1D6630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CE6EF-B020-45A7-8BED-082DBCA97588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>spread_6m_10y</t>
   </si>
@@ -158,17 +158,13 @@
   <si>
     <t>market_avg</t>
   </si>
-  <si>
-    <t>i3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -384,18 +380,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,48 +393,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF820000"/>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFD5C9FD"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFD5C9FD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,16 +432,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD5C9FD"/>
+      <color rgb="FFBD92DE"/>
+      <color rgb="FFFFC7CE"/>
       <color rgb="FF820000"/>
-      <color rgb="FFFFC7CE"/>
       <color rgb="FFDF9597"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFFF5050"/>
       <color rgb="FF548235"/>
       <color rgb="FF4382C1"/>
       <color rgb="FF336699"/>
-      <color rgb="FF8FAADC"/>
-      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -778,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,27 +767,28 @@
     <col min="8" max="8" width="9.54296875" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" style="30" customWidth="1"/>
     <col min="12" max="12" width="5.7265625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="9.54296875" customWidth="1"/>
-    <col min="23" max="23" width="9.7265625" customWidth="1"/>
-    <col min="24" max="24" width="9.90625" customWidth="1"/>
-    <col min="25" max="25" width="9.6328125" customWidth="1"/>
-    <col min="26" max="26" width="9.54296875" customWidth="1"/>
-    <col min="27" max="28" width="9.7265625" customWidth="1"/>
-    <col min="29" max="29" width="9.90625" customWidth="1"/>
-    <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="32" width="9.453125" customWidth="1"/>
-    <col min="33" max="33" width="9.36328125" customWidth="1"/>
-    <col min="34" max="34" width="9.7265625" customWidth="1"/>
-    <col min="35" max="35" width="10.6328125" customWidth="1"/>
-    <col min="36" max="36" width="9.90625" customWidth="1"/>
-    <col min="37" max="37" width="9.453125" customWidth="1"/>
-    <col min="38" max="39" width="9.7265625" customWidth="1"/>
-    <col min="40" max="40" width="9.453125" customWidth="1"/>
-    <col min="41" max="41" width="10" customWidth="1"/>
-    <col min="42" max="42" width="11.08984375" customWidth="1"/>
+    <col min="20" max="20" width="9.26953125" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" customWidth="1"/>
+    <col min="22" max="22" width="9.7265625" customWidth="1"/>
+    <col min="23" max="23" width="9.90625" customWidth="1"/>
+    <col min="24" max="24" width="9.6328125" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" customWidth="1"/>
+    <col min="26" max="27" width="9.7265625" customWidth="1"/>
+    <col min="28" max="28" width="9.90625" customWidth="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="9.453125" customWidth="1"/>
+    <col min="32" max="32" width="9.36328125" customWidth="1"/>
+    <col min="33" max="33" width="9.7265625" customWidth="1"/>
+    <col min="34" max="34" width="10.6328125" customWidth="1"/>
+    <col min="35" max="35" width="9.90625" customWidth="1"/>
+    <col min="36" max="36" width="9.453125" customWidth="1"/>
+    <col min="37" max="38" width="9.7265625" customWidth="1"/>
+    <col min="39" max="39" width="9.453125" customWidth="1"/>
+    <col min="40" max="40" width="10" customWidth="1"/>
+    <col min="41" max="41" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -868,80 +843,77 @@
       <c r="R1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="39" t="s">
+      <c r="U1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="W1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Y1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="Z1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AA1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AB1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AC1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AD1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AE1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AF1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AG1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AH1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AI1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="38" t="s">
+      <c r="AK1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AL1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AM1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AN1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AO1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1990</v>
       </c>
@@ -959,21 +931,21 @@
         <v>8.0991666666666706</v>
       </c>
       <c r="F2" s="8">
-        <f>Monitor!AD2</f>
+        <f>Monitor!AC2</f>
         <v>1112.22</v>
       </c>
       <c r="G2" s="17">
         <v>10</v>
       </c>
       <c r="H2" s="6">
-        <f>Monitor!V2</f>
+        <f>Monitor!U2</f>
         <v>3.2876999999999996</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="40">
         <v>6.0110580785407297</v>
       </c>
       <c r="J2" s="8">
-        <f>AE2</f>
+        <f>AD2</f>
         <v>48.053592315158156</v>
       </c>
       <c r="K2" s="6">
@@ -1006,83 +978,76 @@
         <f t="shared" ref="R2:R36" si="5">(H2*MAX($Q$2:$Q$36)/MAX($H$2:$H$36))</f>
         <v>15.225062517365933</v>
       </c>
-      <c r="S2" s="34">
-        <f t="shared" ref="S2:S35" si="6">D2+(G2-N2)</f>
-        <v>10.596747477014819</v>
-      </c>
-      <c r="T2" s="36">
-        <f t="shared" ref="T2:T35" si="7">C2-E2</f>
-        <v>0.4564166666666587</v>
-      </c>
-      <c r="U2" s="41">
-        <f t="shared" ref="U2:U7" si="8">S2*T2</f>
-        <v>4.8365321609674297</v>
-      </c>
-      <c r="V2" s="4">
+      <c r="S2" s="39"/>
+      <c r="T2" s="37">
+        <f>D2</f>
+        <v>1.2078055555555496</v>
+      </c>
+      <c r="U2" s="4">
         <v>3.2876999999999996</v>
       </c>
+      <c r="V2" s="14">
+        <v>3.8177339901477723</v>
+      </c>
       <c r="W2" s="14">
-        <v>3.8177339901477723</v>
-      </c>
-      <c r="X2" s="14">
         <v>0.12089999999999934</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="X2" s="1">
         <v>249</v>
       </c>
+      <c r="Y2" s="8">
+        <v>13203.614457831323</v>
+      </c>
       <c r="Z2" s="8">
-        <v>13203.614457831323</v>
-      </c>
-      <c r="AA2" s="8">
         <v>2633.66</v>
       </c>
+      <c r="AA2" s="1">
+        <v>330</v>
+      </c>
       <c r="AB2" s="1">
-        <v>330</v>
-      </c>
-      <c r="AC2" s="1">
         <v>373</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AC2" s="10">
         <v>1112.22</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AD2" s="14">
         <v>48.053592315158156</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AE2" s="7">
         <v>338.29728989871302</v>
       </c>
+      <c r="AF2" s="4">
+        <v>2.979949</v>
+      </c>
       <c r="AG2" s="4">
-        <v>2.979949</v>
-      </c>
-      <c r="AH2" s="4">
         <v>12.031232436078113</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AH2" s="6">
         <v>0.32002199999999981</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AI2" s="7">
         <v>317.68</v>
       </c>
+      <c r="AJ2" s="8">
+        <v>9380.3481490808354</v>
+      </c>
       <c r="AK2" s="8">
-        <v>9380.3481490808354</v>
-      </c>
-      <c r="AL2" s="8">
         <v>1517</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AL2" s="1">
         <v>1389</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AM2" s="8">
         <v>1453</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AN2" s="4">
         <v>68.694313513216855</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AO2" s="8">
         <v>487.59223731681317</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1991</v>
       </c>
@@ -1100,7 +1065,7 @@
         <v>5.6875</v>
       </c>
       <c r="F3" s="8">
-        <f>Monitor!AD3</f>
+        <f>Monitor!AC3</f>
         <v>1390.61</v>
       </c>
       <c r="G3" s="18">
@@ -1108,15 +1073,15 @@
         <v>25.030119940299585</v>
       </c>
       <c r="H3" s="6">
-        <f>Monitor!V3</f>
+        <f>Monitor!U3</f>
         <v>3.3811999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="40">
         <f>(H3*100/H2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="J3" s="8">
-        <f>AE3</f>
+        <f>AD3</f>
         <v>58.420037130443205</v>
       </c>
       <c r="K3" s="6">
@@ -1149,95 +1114,88 @@
         <f t="shared" si="5"/>
         <v>15.658053162915625</v>
       </c>
-      <c r="S3" s="34">
-        <f t="shared" si="6"/>
-        <v>28.81776982471726</v>
-      </c>
-      <c r="T3" s="36">
-        <f t="shared" si="7"/>
-        <v>2.0924166666666704</v>
-      </c>
-      <c r="U3" s="41">
-        <f t="shared" si="8"/>
-        <v>60.298781877402249</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="S3" s="39"/>
+      <c r="T3" s="37">
+        <f t="shared" ref="T3:T36" si="6">D3</f>
+        <v>2.4315833333333403</v>
+      </c>
+      <c r="U3" s="4">
         <v>3.3811999999999998</v>
       </c>
+      <c r="V3" s="14">
+        <f t="shared" ref="V3:V36" si="7">(U3*100/U2)-100</f>
+        <v>2.8439334489156636</v>
+      </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W36" si="9">(V3*100/V2)-100</f>
-        <v>2.8439334489156636</v>
-      </c>
-      <c r="X3" s="14">
-        <f t="shared" ref="X3:X36" si="10">V3-V2</f>
+        <f t="shared" ref="W3:W36" si="8">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="X3" s="1">
         <v>252</v>
       </c>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y35" si="9">(U3*1000000000000)/(X3*1000000)</f>
+        <v>13417.460317460318</v>
+      </c>
       <c r="Z3" s="8">
-        <f t="shared" ref="Z3:Z35" si="11">(V3*1000000000000)/(Y3*1000000)</f>
-        <v>13417.460317460318</v>
-      </c>
-      <c r="AA3" s="8">
         <v>3168.83</v>
       </c>
+      <c r="AA3" s="1">
+        <v>417</v>
+      </c>
       <c r="AB3" s="1">
-        <v>417</v>
-      </c>
-      <c r="AC3" s="1">
         <v>586</v>
       </c>
-      <c r="AD3" s="10">
-        <f t="shared" ref="AD3:AD34" si="12">AVERAGE(AA3:AC3)</f>
+      <c r="AC3" s="10">
+        <f t="shared" ref="AC3:AC34" si="10">AVERAGE(Z3:AB3)</f>
         <v>1390.61</v>
       </c>
-      <c r="AE3" s="14">
-        <f>((AD3/V3)/100)*100/7.04</f>
+      <c r="AD3" s="14">
+        <f>((AC3/U3)/100)*100/7.04</f>
         <v>58.420037130443205</v>
       </c>
-      <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF36" si="13">AD3/V3</f>
+      <c r="AE3" s="7">
+        <f t="shared" ref="AE3:AE36" si="11">AC3/U3</f>
         <v>411.27706139832014</v>
       </c>
+      <c r="AF3" s="4">
+        <v>3.2046329999999998</v>
+      </c>
       <c r="AG3" s="4">
-        <v>3.2046329999999998</v>
-      </c>
-      <c r="AH3" s="4">
-        <f t="shared" ref="AH3:AH35" si="14">(AG3*100/AG2)-100</f>
+        <f t="shared" ref="AG3:AG35" si="12">(AF3*100/AF2)-100</f>
         <v>7.539860581506602</v>
       </c>
-      <c r="AI3" s="6">
-        <f t="shared" ref="AI3:AI36" si="15">AG3-AG2</f>
+      <c r="AH3" s="6">
+        <f t="shared" ref="AH3:AH36" si="13">AF3-AF2</f>
         <v>0.22468399999999988</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AI3" s="7">
         <v>318.44</v>
       </c>
+      <c r="AJ3" s="8">
+        <f t="shared" ref="AJ3:AJ36" si="14">((AF3*1000000000000)/(AI3*1000000))</f>
+        <v>10063.537872126617</v>
+      </c>
       <c r="AK3" s="8">
-        <f t="shared" ref="AK3:AK36" si="16">((AG3*1000000000000)/(AJ3*1000000))</f>
-        <v>10063.537872126617</v>
-      </c>
-      <c r="AL3" s="8">
         <v>1765</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AL3" s="1">
         <v>1577</v>
       </c>
-      <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AL3:AM3)</f>
+      <c r="AM3" s="8">
+        <f t="shared" ref="AM3:AM35" si="15">AVERAGE(AK3:AL3)</f>
         <v>1671</v>
       </c>
-      <c r="AO3" s="4">
-        <f t="shared" ref="AO3:AO36" si="18">((AN3/AG3)/100)*100/7.098</f>
+      <c r="AN3" s="4">
+        <f t="shared" ref="AN3:AN36" si="16">((AM3/AF3)/100)*100/7.098</f>
         <v>73.46189960788648</v>
       </c>
-      <c r="AP3" s="8">
-        <f t="shared" ref="AP3:AP35" si="19">AN3/AG3</f>
+      <c r="AO3" s="8">
+        <f t="shared" ref="AO3:AO35" si="17">AM3/AF3</f>
         <v>521.43256341677818</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1992</v>
       </c>
@@ -1255,23 +1213,23 @@
         <v>3.5216666666666665</v>
       </c>
       <c r="F4" s="8">
-        <f>Monitor!AD4</f>
+        <f>Monitor!AC4</f>
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G32" si="20">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="18">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="6">
-        <f>Monitor!V4</f>
+        <f>Monitor!U4</f>
         <v>3.4190999999999998</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I32" si="21">(H4*100/H3)-100</f>
+      <c r="I4" s="40">
+        <f t="shared" ref="I4:I32" si="19">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J35" si="22">AE4</f>
+        <f t="shared" ref="J4:J35" si="20">AD4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="6">
@@ -1304,95 +1262,91 @@
         <f t="shared" si="5"/>
         <v>15.833564879133091</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="39">
+        <f>E4-E2</f>
+        <v>-4.5775000000000041</v>
+      </c>
+      <c r="T4" s="37">
         <f t="shared" si="6"/>
-        <v>11.097178903958522</v>
-      </c>
-      <c r="T4" s="36">
+        <v>3.4584999999999999</v>
+      </c>
+      <c r="U4" s="4">
+        <v>3.4190999999999998</v>
+      </c>
+      <c r="V4" s="14">
         <f t="shared" si="7"/>
-        <v>3.4905833333333334</v>
-      </c>
-      <c r="U4" s="41">
+        <v>1.1209038211285929</v>
+      </c>
+      <c r="W4" s="14">
         <f t="shared" si="8"/>
-        <v>38.735627729175881</v>
-      </c>
-      <c r="V4" s="4">
-        <v>3.4190999999999998</v>
-      </c>
-      <c r="W4" s="14">
+        <v>3.7900000000000045E-2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>256</v>
+      </c>
+      <c r="Y4" s="8">
         <f t="shared" si="9"/>
-        <v>1.1209038211285929</v>
-      </c>
-      <c r="X4" s="14">
+        <v>13355.859375</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>3301.11</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>435</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>676</v>
+      </c>
+      <c r="AC4" s="10">
         <f t="shared" si="10"/>
-        <v>3.7900000000000045E-2</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>256</v>
-      </c>
-      <c r="Z4" s="8">
+        <v>1470.7033333333336</v>
+      </c>
+      <c r="AD4" s="14">
+        <f t="shared" ref="AD4:AD35" si="21">((AC4/U4)/100)*100/7.04</f>
+        <v>61.099916201587703</v>
+      </c>
+      <c r="AE4" s="7">
         <f t="shared" si="11"/>
-        <v>13355.859375</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>3301.11</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>435</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>676</v>
-      </c>
-      <c r="AD4" s="10">
+        <v>430.14341005917748</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>3.4331779999999998</v>
+      </c>
+      <c r="AG4" s="4">
         <f t="shared" si="12"/>
-        <v>1470.7033333333336</v>
-      </c>
-      <c r="AE4" s="14">
-        <f t="shared" ref="AE4:AE35" si="23">((AD4/V4)/100)*100/7.04</f>
-        <v>61.099916201587703</v>
-      </c>
-      <c r="AF4" s="7">
+        <v>7.1317058770848263</v>
+      </c>
+      <c r="AH4" s="6">
         <f t="shared" si="13"/>
-        <v>430.14341005917748</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>3.4331779999999998</v>
-      </c>
-      <c r="AH4" s="4">
+        <v>0.228545</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>319.95999999999998</v>
+      </c>
+      <c r="AJ4" s="8">
         <f t="shared" si="14"/>
-        <v>7.1317058770848263</v>
-      </c>
-      <c r="AI4" s="6">
+        <v>10730.022502812852</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>1857</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1538</v>
+      </c>
+      <c r="AM4" s="8">
         <f t="shared" si="15"/>
-        <v>0.228545</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>319.95999999999998</v>
-      </c>
-      <c r="AK4" s="8">
+        <v>1697.5</v>
+      </c>
+      <c r="AN4" s="4">
         <f t="shared" si="16"/>
-        <v>10730.022502812852</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>1857</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1538</v>
-      </c>
-      <c r="AN4" s="8">
+        <v>69.65903712748316</v>
+      </c>
+      <c r="AO4" s="8">
         <f t="shared" si="17"/>
-        <v>1697.5</v>
-      </c>
-      <c r="AO4" s="4">
-        <f t="shared" si="18"/>
-        <v>69.65903712748316</v>
-      </c>
-      <c r="AP4" s="8">
-        <f t="shared" si="19"/>
         <v>494.43984553087552</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1993</v>
       </c>
@@ -1410,23 +1364,23 @@
         <v>3.0225</v>
       </c>
       <c r="F5" s="8">
-        <f>Monitor!AD5</f>
+        <f>Monitor!AC5</f>
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="18">
+        <f t="shared" si="18"/>
+        <v>13.235844074603747</v>
+      </c>
+      <c r="H5" s="6">
+        <f>Monitor!U5</f>
+        <v>3.4748999999999999</v>
+      </c>
+      <c r="I5" s="40">
+        <f t="shared" si="19"/>
+        <v>1.6320084232692835</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" si="20"/>
-        <v>13.235844074603747</v>
-      </c>
-      <c r="H5" s="6">
-        <f>Monitor!V5</f>
-        <v>3.4748999999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="21"/>
-        <v>1.6320084232692835</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="22"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="6">
@@ -1459,95 +1413,91 @@
         <f t="shared" si="5"/>
         <v>16.091969991664349</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="39">
+        <f>E5-E3</f>
+        <v>-2.665</v>
+      </c>
+      <c r="T5" s="37">
         <f t="shared" si="6"/>
-        <v>17.315335651334465</v>
-      </c>
-      <c r="T5" s="36">
+        <v>2.7114999999999996</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3.4748999999999999</v>
+      </c>
+      <c r="V5" s="14">
         <f t="shared" si="7"/>
-        <v>2.8064999999999998</v>
-      </c>
-      <c r="U5" s="41">
+        <v>1.6320084232692835</v>
+      </c>
+      <c r="W5" s="14">
         <f t="shared" si="8"/>
-        <v>48.595489505470169</v>
-      </c>
-      <c r="V5" s="4">
-        <v>3.4748999999999999</v>
-      </c>
-      <c r="W5" s="14">
+        <v>5.5800000000000072E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>259</v>
+      </c>
+      <c r="Y5" s="8">
         <f t="shared" si="9"/>
-        <v>1.6320084232692835</v>
-      </c>
-      <c r="X5" s="14">
+        <v>13416.602316602317</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>3754.09</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>466</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>776</v>
+      </c>
+      <c r="AC5" s="10">
         <f t="shared" si="10"/>
-        <v>5.5800000000000072E-2</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>259</v>
-      </c>
-      <c r="Z5" s="8">
+        <v>1665.3633333333335</v>
+      </c>
+      <c r="AD5" s="14">
+        <f t="shared" si="21"/>
+        <v>68.075999788962761</v>
+      </c>
+      <c r="AE5" s="7">
         <f t="shared" si="11"/>
-        <v>13416.602316602317</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>3754.09</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>466</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>776</v>
-      </c>
-      <c r="AD5" s="10">
+        <v>479.25503851429784</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>3.6517740000000001</v>
+      </c>
+      <c r="AG5" s="4">
         <f t="shared" si="12"/>
-        <v>1665.3633333333335</v>
-      </c>
-      <c r="AE5" s="14">
-        <f t="shared" si="23"/>
-        <v>68.075999788962761</v>
-      </c>
-      <c r="AF5" s="7">
+        <v>6.3671618541188479</v>
+      </c>
+      <c r="AH5" s="6">
         <f t="shared" si="13"/>
-        <v>479.25503851429784</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>3.6517740000000001</v>
-      </c>
-      <c r="AH5" s="4">
+        <v>0.21859600000000023</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>320.72000000000003</v>
+      </c>
+      <c r="AJ5" s="8">
         <f t="shared" si="14"/>
-        <v>6.3671618541188479</v>
-      </c>
-      <c r="AI5" s="6">
+        <v>11386.174856572712</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>2268</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2255</v>
+      </c>
+      <c r="AM5" s="8">
         <f t="shared" si="15"/>
-        <v>0.21859600000000023</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>320.72000000000003</v>
-      </c>
-      <c r="AK5" s="8">
+        <v>2261.5</v>
+      </c>
+      <c r="AN5" s="4">
         <f t="shared" si="16"/>
-        <v>11386.174856572712</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>2268</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>2255</v>
-      </c>
-      <c r="AN5" s="8">
+        <v>87.248246004047346</v>
+      </c>
+      <c r="AO5" s="8">
         <f t="shared" si="17"/>
-        <v>2261.5</v>
-      </c>
-      <c r="AO5" s="4">
-        <f t="shared" si="18"/>
-        <v>87.248246004047346</v>
-      </c>
-      <c r="AP5" s="8">
-        <f t="shared" si="19"/>
         <v>619.28805013672809</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1994</v>
       </c>
@@ -1565,23 +1515,23 @@
         <v>4.2016666666666671</v>
       </c>
       <c r="F6" s="8">
-        <f>Monitor!AD6</f>
+        <f>Monitor!AC6</f>
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="6">
-        <f>Monitor!V6</f>
+        <f>Monitor!U6</f>
         <v>3.4923999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="40">
         <f>(H6*100/H5)-100</f>
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="6">
@@ -1614,95 +1564,91 @@
         <f t="shared" si="5"/>
         <v>16.173011021580066</v>
       </c>
-      <c r="S6" s="34">
-        <f>D6+(G6-N6)</f>
-        <v>5.7538118377504563</v>
-      </c>
-      <c r="T6" s="36">
+      <c r="S6" s="39">
+        <f t="shared" ref="S6:S35" si="22">E6-E4</f>
+        <v>0.6800000000000006</v>
+      </c>
+      <c r="T6" s="37">
+        <f t="shared" si="6"/>
+        <v>2.6896666666666702</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3.4923999999999999</v>
+      </c>
+      <c r="V6" s="14">
         <f t="shared" si="7"/>
-        <v>2.9218333333333328</v>
-      </c>
-      <c r="U6" s="41">
+        <v>0.50361161472272897</v>
+      </c>
+      <c r="W6" s="14">
         <f t="shared" si="8"/>
-        <v>16.811679221267205</v>
-      </c>
-      <c r="V6" s="4">
-        <v>3.4923999999999999</v>
-      </c>
-      <c r="W6" s="14">
+        <v>1.7500000000000071E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>263</v>
+      </c>
+      <c r="Y6" s="8">
         <f t="shared" si="9"/>
-        <v>0.50361161472272897</v>
-      </c>
-      <c r="X6" s="14">
+        <v>13279.087452471484</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>3834.44</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>459</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>751</v>
+      </c>
+      <c r="AC6" s="10">
         <f t="shared" si="10"/>
-        <v>1.7500000000000071E-2</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>263</v>
-      </c>
-      <c r="Z6" s="8">
+        <v>1681.4800000000002</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="21"/>
+        <v>68.390387959309066</v>
+      </c>
+      <c r="AE6" s="7">
         <f t="shared" si="11"/>
-        <v>13279.087452471484</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>3834.44</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>459</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>751</v>
-      </c>
-      <c r="AD6" s="10">
+        <v>481.46833123353576</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>3.7357990000000001</v>
+      </c>
+      <c r="AG6" s="4">
         <f t="shared" si="12"/>
-        <v>1681.4800000000002</v>
-      </c>
-      <c r="AE6" s="14">
-        <f t="shared" si="23"/>
-        <v>68.390387959309066</v>
-      </c>
-      <c r="AF6" s="7">
+        <v>2.3009364763536837</v>
+      </c>
+      <c r="AH6" s="6">
         <f t="shared" si="13"/>
-        <v>481.46833123353576</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>3.7357990000000001</v>
-      </c>
-      <c r="AH6" s="4">
+        <v>8.4025000000000016E-2</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>321.48</v>
+      </c>
+      <c r="AJ6" s="8">
         <f t="shared" si="14"/>
-        <v>2.3009364763536837</v>
-      </c>
-      <c r="AI6" s="6">
+        <v>11620.626477541371</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>1881</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>2097</v>
+      </c>
+      <c r="AM6" s="8">
         <f t="shared" si="15"/>
-        <v>8.4025000000000016E-2</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>321.48</v>
-      </c>
-      <c r="AK6" s="8">
+        <v>1989</v>
+      </c>
+      <c r="AN6" s="4">
         <f t="shared" si="16"/>
-        <v>11620.626477541371</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>1881</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>2097</v>
-      </c>
-      <c r="AN6" s="8">
+        <v>75.009330057580783</v>
+      </c>
+      <c r="AO6" s="8">
         <f t="shared" si="17"/>
-        <v>1989</v>
-      </c>
-      <c r="AO6" s="4">
-        <f t="shared" si="18"/>
-        <v>75.009330057580783</v>
-      </c>
-      <c r="AP6" s="8">
-        <f t="shared" si="19"/>
         <v>532.41622474870837</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1995</v>
       </c>
@@ -1720,23 +1666,23 @@
         <v>5.8366666666666669</v>
       </c>
       <c r="F7" s="8">
-        <f>Monitor!AD7</f>
+        <f>Monitor!AC7</f>
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="18">
+        <f t="shared" si="18"/>
+        <v>34.48707884324125</v>
+      </c>
+      <c r="H7" s="6">
+        <f>Monitor!U7</f>
+        <v>3.6478999999999999</v>
+      </c>
+      <c r="I7" s="40">
+        <f t="shared" si="19"/>
+        <v>4.4525254839079054</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="20"/>
-        <v>34.48707884324125</v>
-      </c>
-      <c r="H7" s="6">
-        <f>Monitor!V7</f>
-        <v>3.6478999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="21"/>
-        <v>4.4525254839079054</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="22"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="6">
@@ -1750,7 +1696,7 @@
         <v>84.000833333333318</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
+        <f>I7-L7</f>
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="21">
@@ -1769,95 +1715,91 @@
         <f t="shared" si="5"/>
         <v>16.893118458831154</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="39">
+        <f t="shared" si="22"/>
+        <v>2.8141666666666669</v>
+      </c>
+      <c r="T7" s="37">
         <f t="shared" si="6"/>
-        <v>33.681470026000014</v>
-      </c>
-      <c r="T7" s="36">
+        <v>0.84691666666667054</v>
+      </c>
+      <c r="U7" s="4">
+        <v>3.6478999999999999</v>
+      </c>
+      <c r="V7" s="14">
         <f t="shared" si="7"/>
-        <v>0.64383333333333326</v>
-      </c>
-      <c r="U7" s="41">
+        <v>4.4525254839079054</v>
+      </c>
+      <c r="W7" s="14">
         <f t="shared" si="8"/>
-        <v>21.68525311840634</v>
-      </c>
-      <c r="V7" s="4">
-        <v>3.6478999999999999</v>
-      </c>
-      <c r="W7" s="14">
+        <v>0.15549999999999997</v>
+      </c>
+      <c r="X7" s="1">
+        <v>266</v>
+      </c>
+      <c r="Y7" s="8">
         <f t="shared" si="9"/>
-        <v>4.4525254839079054</v>
-      </c>
-      <c r="X7" s="14">
+        <v>13713.90977443609</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>5117.12</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>615</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1052</v>
+      </c>
+      <c r="AC7" s="10">
         <f t="shared" si="10"/>
-        <v>0.15549999999999997</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>266</v>
-      </c>
-      <c r="Z7" s="8">
+        <v>2261.3733333333334</v>
+      </c>
+      <c r="AD7" s="14">
+        <f>((AC7/U7)/100)*100/7.04</f>
+        <v>88.055539633844973</v>
+      </c>
+      <c r="AE7" s="7">
         <f t="shared" si="11"/>
-        <v>13713.90977443609</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>5117.12</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>615</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>1052</v>
-      </c>
-      <c r="AD7" s="10">
+        <v>619.91099902226858</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>3.9374030000000002</v>
+      </c>
+      <c r="AG7" s="4">
         <f t="shared" si="12"/>
-        <v>2261.3733333333334</v>
-      </c>
-      <c r="AE7" s="14">
-        <f>((AD7/V7)/100)*100/7.04</f>
-        <v>88.055539633844973</v>
-      </c>
-      <c r="AF7" s="7">
+        <v>5.3965430152960749</v>
+      </c>
+      <c r="AH7" s="6">
         <f t="shared" si="13"/>
-        <v>619.91099902226858</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>3.9374030000000002</v>
-      </c>
-      <c r="AH7" s="4">
+        <v>0.20160400000000012</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>322.24</v>
+      </c>
+      <c r="AJ7" s="8">
         <f t="shared" si="14"/>
-        <v>5.3965430152960749</v>
-      </c>
-      <c r="AI7" s="6">
+        <v>12218.852408142999</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>1871</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2260</v>
+      </c>
+      <c r="AM7" s="8">
         <f t="shared" si="15"/>
-        <v>0.20160400000000012</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>322.24</v>
-      </c>
-      <c r="AK7" s="8">
+        <v>2065.5</v>
+      </c>
+      <c r="AN7" s="4">
         <f t="shared" si="16"/>
-        <v>12218.852408142999</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>1871</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>2260</v>
-      </c>
-      <c r="AN7" s="8">
+        <v>73.905938527091891</v>
+      </c>
+      <c r="AO7" s="8">
         <f t="shared" si="17"/>
-        <v>2065.5</v>
-      </c>
-      <c r="AO7" s="4">
-        <f t="shared" si="18"/>
-        <v>73.905938527091891</v>
-      </c>
-      <c r="AP7" s="8">
-        <f t="shared" si="19"/>
         <v>524.58435166529819</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1996</v>
       </c>
@@ -1875,23 +1817,23 @@
         <v>5.2983333333333329</v>
       </c>
       <c r="F8" s="8">
-        <f>Monitor!AD8</f>
+        <f>Monitor!AC8</f>
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="18">
+        <f t="shared" si="18"/>
+        <v>24.987028531334957</v>
+      </c>
+      <c r="H8" s="6">
+        <f>Monitor!U8</f>
+        <v>3.8245999999999998</v>
+      </c>
+      <c r="I8" s="40">
+        <f t="shared" si="19"/>
+        <v>4.8438827818744983</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="20"/>
-        <v>24.987028531334957</v>
-      </c>
-      <c r="H8" s="6">
-        <f>Monitor!V8</f>
-        <v>3.8245999999999998</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="21"/>
-        <v>4.8438827818744983</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="22"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="6">
@@ -1924,95 +1866,91 @@
         <f t="shared" si="5"/>
         <v>17.71140131518014</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="39">
+        <f t="shared" si="22"/>
+        <v>1.0966666666666658</v>
+      </c>
+      <c r="T8" s="37">
         <f t="shared" si="6"/>
-        <v>24.451979082793788</v>
-      </c>
-      <c r="T8" s="36">
+        <v>1.3088333333333297</v>
+      </c>
+      <c r="U8" s="4">
+        <v>3.8245999999999998</v>
+      </c>
+      <c r="V8" s="14">
         <f t="shared" si="7"/>
-        <v>1.1616666666666671</v>
-      </c>
-      <c r="U8" s="41">
-        <f>S8*T8</f>
-        <v>28.405049034512125</v>
-      </c>
-      <c r="V8" s="4">
-        <v>3.8245999999999998</v>
+        <v>4.8438827818744983</v>
       </c>
       <c r="W8" s="14">
+        <f t="shared" si="8"/>
+        <v>0.17669999999999986</v>
+      </c>
+      <c r="X8" s="1">
+        <v>269</v>
+      </c>
+      <c r="Y8" s="8">
         <f t="shared" si="9"/>
-        <v>4.8438827818744983</v>
-      </c>
-      <c r="X8" s="14">
+        <v>14217.843866171004</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>6448.27</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>740</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1291</v>
+      </c>
+      <c r="AC8" s="10">
         <f t="shared" si="10"/>
-        <v>0.17669999999999986</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>269</v>
-      </c>
-      <c r="Z8" s="8">
+        <v>2826.4233333333336</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="21"/>
+        <v>104.97322259091465</v>
+      </c>
+      <c r="AE8" s="7">
         <f t="shared" si="11"/>
-        <v>14217.843866171004</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>6448.27</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>740</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>1291</v>
-      </c>
-      <c r="AD8" s="10">
+        <v>739.01148704003913</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>4.0903450000000001</v>
+      </c>
+      <c r="AG8" s="4">
         <f t="shared" si="12"/>
-        <v>2826.4233333333336</v>
-      </c>
-      <c r="AE8" s="14">
-        <f t="shared" si="23"/>
-        <v>104.97322259091465</v>
-      </c>
-      <c r="AF8" s="7">
+        <v>3.8843369601740108</v>
+      </c>
+      <c r="AH8" s="6">
         <f t="shared" si="13"/>
-        <v>739.01148704003913</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>4.0903450000000001</v>
-      </c>
-      <c r="AH8" s="4">
+        <v>0.15294199999999991</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>322.24</v>
+      </c>
+      <c r="AJ8" s="8">
         <f t="shared" si="14"/>
-        <v>3.8843369601740108</v>
-      </c>
-      <c r="AI8" s="6">
+        <v>12693.473808341609</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>2315</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>2880</v>
+      </c>
+      <c r="AM8" s="8">
         <f t="shared" si="15"/>
-        <v>0.15294199999999991</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>322.24</v>
-      </c>
-      <c r="AK8" s="8">
+        <v>2597.5</v>
+      </c>
+      <c r="AN8" s="4">
         <f t="shared" si="16"/>
-        <v>12693.473808341609</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>2315</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>2880</v>
-      </c>
-      <c r="AN8" s="8">
+        <v>89.46632971294423</v>
+      </c>
+      <c r="AO8" s="8">
         <f t="shared" si="17"/>
-        <v>2597.5</v>
-      </c>
-      <c r="AO8" s="4">
-        <f t="shared" si="18"/>
-        <v>89.46632971294423</v>
-      </c>
-      <c r="AP8" s="8">
-        <f t="shared" si="19"/>
         <v>635.03200830247818</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1997</v>
       </c>
@@ -2030,23 +1968,23 @@
         <v>5.46</v>
       </c>
       <c r="F9" s="8">
-        <f>Monitor!AD9</f>
+        <f>Monitor!AC9</f>
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="18">
+        <f t="shared" si="18"/>
+        <v>23.2216924334288</v>
+      </c>
+      <c r="H9" s="6">
+        <f>Monitor!U9</f>
+        <v>4.0461</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" si="19"/>
+        <v>5.7914553155885642</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="20"/>
-        <v>23.2216924334288</v>
-      </c>
-      <c r="H9" s="6">
-        <f>Monitor!V9</f>
-        <v>4.0461</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="21"/>
-        <v>5.7914553155885642</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="22"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="6">
@@ -2079,95 +2017,91 @@
         <f t="shared" si="5"/>
         <v>18.737149208113365</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="39">
+        <f t="shared" si="22"/>
+        <v>-0.37666666666666693</v>
+      </c>
+      <c r="T9" s="37">
         <f t="shared" si="6"/>
-        <v>20.838153784506908</v>
-      </c>
-      <c r="T9" s="36">
+        <v>1.1079166666666698</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4.0461</v>
+      </c>
+      <c r="V9" s="14">
         <f t="shared" si="7"/>
-        <v>0.85299999999999976</v>
-      </c>
-      <c r="U9" s="41">
-        <f t="shared" ref="U9:U35" si="24">S9*T9</f>
-        <v>17.774945178184389</v>
-      </c>
-      <c r="V9" s="4">
-        <v>4.0461</v>
+        <v>5.7914553155885642</v>
       </c>
       <c r="W9" s="14">
+        <f t="shared" si="8"/>
+        <v>0.22150000000000025</v>
+      </c>
+      <c r="X9" s="1">
+        <v>272</v>
+      </c>
+      <c r="Y9" s="8">
         <f t="shared" si="9"/>
-        <v>5.7914553155885642</v>
-      </c>
-      <c r="X9" s="14">
+        <v>14875.367647058823</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>7908.3</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>970</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1570</v>
+      </c>
+      <c r="AC9" s="10">
         <f t="shared" si="10"/>
-        <v>0.22150000000000025</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>272</v>
-      </c>
-      <c r="Z9" s="8">
+        <v>3482.7666666666664</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="21"/>
+        <v>122.26864739932878</v>
+      </c>
+      <c r="AE9" s="7">
         <f t="shared" si="11"/>
-        <v>14875.367647058823</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>7908.3</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>970</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>1570</v>
-      </c>
-      <c r="AD9" s="10">
+        <v>860.77127769127469</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>4.2673110000000003</v>
+      </c>
+      <c r="AG9" s="4">
         <f t="shared" si="12"/>
-        <v>3482.7666666666664</v>
-      </c>
-      <c r="AE9" s="14">
-        <f t="shared" si="23"/>
-        <v>122.26864739932878</v>
-      </c>
-      <c r="AF9" s="7">
+        <v>4.3264321224737756</v>
+      </c>
+      <c r="AH9" s="6">
         <f t="shared" si="13"/>
-        <v>860.77127769127469</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>4.2673110000000003</v>
-      </c>
-      <c r="AH9" s="4">
+        <v>0.17696600000000018</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>323</v>
+      </c>
+      <c r="AJ9" s="8">
         <f t="shared" si="14"/>
-        <v>4.3264321224737756</v>
-      </c>
-      <c r="AI9" s="6">
+        <v>13211.489164086688</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>2998</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>4224</v>
+      </c>
+      <c r="AM9" s="8">
         <f t="shared" si="15"/>
-        <v>0.17696600000000018</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>323</v>
-      </c>
-      <c r="AK9" s="8">
+        <v>3611</v>
+      </c>
+      <c r="AN9" s="4">
         <f t="shared" si="16"/>
-        <v>13211.489164086688</v>
-      </c>
-      <c r="AL9" s="8">
-        <v>2998</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>4224</v>
-      </c>
-      <c r="AN9" s="8">
+        <v>119.21672802584602</v>
+      </c>
+      <c r="AO9" s="8">
         <f t="shared" si="17"/>
-        <v>3611</v>
-      </c>
-      <c r="AO9" s="4">
-        <f t="shared" si="18"/>
-        <v>119.21672802584602</v>
-      </c>
-      <c r="AP9" s="8">
-        <f t="shared" si="19"/>
         <v>846.20033552745508</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1998</v>
       </c>
@@ -2185,23 +2119,23 @@
         <v>5.3533333333333335</v>
       </c>
       <c r="F10" s="8">
-        <f>Monitor!AD10</f>
+        <f>Monitor!AC10</f>
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="18">
+        <f t="shared" si="18"/>
+        <v>20.61703817845968</v>
+      </c>
+      <c r="H10" s="6">
+        <f>Monitor!U10</f>
+        <v>4.3923999999999994</v>
+      </c>
+      <c r="I10" s="40">
+        <f t="shared" si="19"/>
+        <v>8.5588591483156478</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="20"/>
-        <v>20.61703817845968</v>
-      </c>
-      <c r="H10" s="6">
-        <f>Monitor!V10</f>
-        <v>4.3923999999999994</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="21"/>
-        <v>8.5588591483156478</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="22"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="6">
@@ -2234,95 +2168,91 @@
         <f t="shared" si="5"/>
         <v>20.340835417245529</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="39">
+        <f t="shared" si="22"/>
+        <v>5.5000000000000604E-2</v>
+      </c>
+      <c r="T10" s="37">
         <f t="shared" si="6"/>
-        <v>14.000512363477362</v>
-      </c>
-      <c r="T10" s="36">
+        <v>0.34233333333333071</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4.3923999999999994</v>
+      </c>
+      <c r="V10" s="14">
         <f t="shared" si="7"/>
-        <v>-0.1392500000000032</v>
-      </c>
-      <c r="U10" s="41">
-        <f t="shared" si="24"/>
-        <v>-1.9495713466142677</v>
-      </c>
-      <c r="V10" s="4">
-        <v>4.3923999999999994</v>
+        <v>8.5588591483156478</v>
       </c>
       <c r="W10" s="14">
+        <f t="shared" si="8"/>
+        <v>0.34629999999999939</v>
+      </c>
+      <c r="X10" s="1">
+        <v>275</v>
+      </c>
+      <c r="Y10" s="8">
         <f t="shared" si="9"/>
-        <v>8.5588591483156478</v>
-      </c>
-      <c r="X10" s="14">
+        <v>15972.363636363634</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>9181.43</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1229</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2192</v>
+      </c>
+      <c r="AC10" s="10">
         <f t="shared" si="10"/>
-        <v>0.34629999999999939</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>275</v>
-      </c>
-      <c r="Z10" s="8">
+        <v>4200.8100000000004</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="21"/>
+        <v>135.84964163306873</v>
+      </c>
+      <c r="AE10" s="7">
         <f t="shared" si="11"/>
-        <v>15972.363636363634</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>9181.43</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>1229</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>2192</v>
-      </c>
-      <c r="AD10" s="10">
+        <v>956.38147709680379</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>4.4719610000000003</v>
+      </c>
+      <c r="AG10" s="4">
         <f t="shared" si="12"/>
-        <v>4200.8100000000004</v>
-      </c>
-      <c r="AE10" s="14">
-        <f t="shared" si="23"/>
-        <v>135.84964163306873</v>
-      </c>
-      <c r="AF10" s="7">
+        <v>4.7957601402850543</v>
+      </c>
+      <c r="AH10" s="6">
         <f t="shared" si="13"/>
-        <v>956.38147709680379</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>4.4719610000000003</v>
-      </c>
-      <c r="AH10" s="4">
+        <v>0.20465</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>324.52</v>
+      </c>
+      <c r="AJ10" s="8">
         <f t="shared" si="14"/>
-        <v>4.7957601402850543</v>
-      </c>
-      <c r="AI10" s="6">
+        <v>13780.232343152964</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>3942</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>5006</v>
+      </c>
+      <c r="AM10" s="8">
         <f t="shared" si="15"/>
-        <v>0.20465</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>324.52</v>
-      </c>
-      <c r="AK10" s="8">
+        <v>4474</v>
+      </c>
+      <c r="AN10" s="4">
         <f t="shared" si="16"/>
-        <v>13780.232343152964</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>3942</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>5006</v>
-      </c>
-      <c r="AN10" s="8">
+        <v>140.94899296956498</v>
+      </c>
+      <c r="AO10" s="8">
         <f t="shared" si="17"/>
-        <v>4474</v>
-      </c>
-      <c r="AO10" s="4">
-        <f t="shared" si="18"/>
-        <v>140.94899296956498</v>
-      </c>
-      <c r="AP10" s="8">
-        <f t="shared" si="19"/>
         <v>1000.4559520979722</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1999</v>
       </c>
@@ -2340,23 +2270,23 @@
         <v>4.97</v>
       </c>
       <c r="F11" s="8">
-        <f>Monitor!AD11</f>
+        <f>Monitor!AC11</f>
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="6">
-        <f>Monitor!V11</f>
+        <f>Monitor!U11</f>
         <v>4.6556999999999995</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="40">
         <f>(H11*100/H10)-100</f>
         <v>5.9944449503688162</v>
       </c>
       <c r="J11" s="8">
-        <f>AE11</f>
+        <f>AD11</f>
         <v>142.73721817700169</v>
       </c>
       <c r="K11" s="6">
@@ -2389,95 +2319,91 @@
         <f t="shared" si="5"/>
         <v>21.560155598777435</v>
       </c>
-      <c r="S11" s="34">
-        <f>D11+(G11-N11)</f>
-        <v>8.4510014684964254</v>
-      </c>
-      <c r="T11" s="36">
+      <c r="S11" s="39">
+        <f t="shared" si="22"/>
+        <v>-0.49000000000000021</v>
+      </c>
+      <c r="T11" s="37">
+        <f t="shared" si="6"/>
+        <v>0.87708333333332966</v>
+      </c>
+      <c r="U11" s="4">
+        <v>4.6556999999999995</v>
+      </c>
+      <c r="V11" s="14">
         <f t="shared" si="7"/>
-        <v>0.72675000000000001</v>
-      </c>
-      <c r="U11" s="41">
-        <f>S11*T11</f>
-        <v>6.141765317229777</v>
-      </c>
-      <c r="V11" s="4">
-        <v>4.6556999999999995</v>
+        <v>5.9944449503688162</v>
       </c>
       <c r="W11" s="14">
+        <f t="shared" si="8"/>
+        <v>0.26330000000000009</v>
+      </c>
+      <c r="X11" s="1">
+        <v>279</v>
+      </c>
+      <c r="Y11" s="8">
         <f t="shared" si="9"/>
-        <v>5.9944449503688162</v>
-      </c>
-      <c r="X11" s="14">
+        <v>16687.096774193546</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>11497.12</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1469</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1069</v>
+      </c>
+      <c r="AC11" s="10">
         <f t="shared" si="10"/>
-        <v>0.26330000000000009</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>279</v>
-      </c>
-      <c r="Z11" s="8">
+        <v>4678.3733333333339</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>((AC11/U11)/100)*100/7.04</f>
+        <v>142.73721817700169</v>
+      </c>
+      <c r="AE11" s="7">
         <f t="shared" si="11"/>
-        <v>16687.096774193546</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>11497.12</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>1469</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>1069</v>
-      </c>
-      <c r="AD11" s="10">
+        <v>1004.870015966092</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>4.7089470000000002</v>
+      </c>
+      <c r="AG11" s="4">
         <f t="shared" si="12"/>
-        <v>4678.3733333333339</v>
-      </c>
-      <c r="AE11" s="14">
-        <f>((AD11/V11)/100)*100/7.04</f>
-        <v>142.73721817700169</v>
-      </c>
-      <c r="AF11" s="7">
+        <v>5.299375374695785</v>
+      </c>
+      <c r="AH11" s="6">
         <f t="shared" si="13"/>
-        <v>1004.870015966092</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>4.7089470000000002</v>
-      </c>
-      <c r="AH11" s="4">
+        <v>0.23698599999999992</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>325.28000000000003</v>
+      </c>
+      <c r="AJ11" s="8">
         <f t="shared" si="14"/>
-        <v>5.299375374695785</v>
-      </c>
-      <c r="AI11" s="6">
+        <v>14476.595548450565</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>5958</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>6958</v>
+      </c>
+      <c r="AM11" s="8">
         <f t="shared" si="15"/>
-        <v>0.23698599999999992</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>325.28000000000003</v>
-      </c>
-      <c r="AK11" s="8">
+        <v>6458</v>
+      </c>
+      <c r="AN11" s="4">
         <f t="shared" si="16"/>
-        <v>14476.595548450565</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>5958</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>6958</v>
-      </c>
-      <c r="AN11" s="8">
+        <v>193.21384504595233</v>
+      </c>
+      <c r="AO11" s="8">
         <f t="shared" si="17"/>
-        <v>6458</v>
-      </c>
-      <c r="AO11" s="4">
-        <f t="shared" si="18"/>
-        <v>193.21384504595233</v>
-      </c>
-      <c r="AP11" s="8">
-        <f t="shared" si="19"/>
         <v>1371.4318721361697</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2000</v>
       </c>
@@ -2495,23 +2421,23 @@
         <v>6.2358333333333329</v>
       </c>
       <c r="F12" s="8">
-        <f>Monitor!AD12</f>
+        <f>Monitor!AC12</f>
         <v>4859.33</v>
       </c>
       <c r="G12" s="18">
+        <f t="shared" si="18"/>
+        <v>3.8679398537383207</v>
+      </c>
+      <c r="H12" s="6">
+        <f>Monitor!U12</f>
+        <v>4.9643000000000006</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="19"/>
+        <v>6.6284339626694475</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="20"/>
-        <v>3.8679398537383207</v>
-      </c>
-      <c r="H12" s="6">
-        <f>Monitor!V12</f>
-        <v>4.9643000000000006</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="21"/>
-        <v>6.6284339626694475</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="22"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="6">
@@ -2544,95 +2470,91 @@
         <f t="shared" si="5"/>
         <v>22.989256274891176</v>
       </c>
-      <c r="S12" s="34">
-        <f>D12+(G12-N12)</f>
-        <v>0.61442255773554377</v>
-      </c>
-      <c r="T12" s="36">
+      <c r="S12" s="39">
+        <f>E12-E10</f>
+        <v>0.8824999999999994</v>
+      </c>
+      <c r="T12" s="37">
+        <f t="shared" si="6"/>
+        <v>-2.508333333332935E-2</v>
+      </c>
+      <c r="U12" s="4">
+        <v>4.9643000000000006</v>
+      </c>
+      <c r="V12" s="14">
         <f t="shared" si="7"/>
-        <v>-0.27491666666666248</v>
-      </c>
-      <c r="U12" s="41">
-        <f t="shared" si="24"/>
-        <v>-0.16891500149746067</v>
-      </c>
-      <c r="V12" s="4">
-        <v>4.9643000000000006</v>
+        <v>6.6284339626694475</v>
       </c>
       <c r="W12" s="14">
+        <f t="shared" si="8"/>
+        <v>0.3086000000000011</v>
+      </c>
+      <c r="X12" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y12" s="8">
         <f t="shared" si="9"/>
-        <v>6.6284339626694475</v>
-      </c>
-      <c r="X12" s="14">
+        <v>17418.596491228072</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>10787.99</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1320</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>2470</v>
+      </c>
+      <c r="AC12" s="10">
         <f t="shared" si="10"/>
-        <v>0.3086000000000011</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>285</v>
-      </c>
-      <c r="Z12" s="8">
+        <v>4859.33</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="21"/>
+        <v>139.04190694284461</v>
+      </c>
+      <c r="AE12" s="7">
         <f t="shared" si="11"/>
-        <v>17418.596491228072</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>10787.99</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>1320</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>2470</v>
-      </c>
-      <c r="AD12" s="10">
+        <v>978.85502487762608</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>4.9103279999999998</v>
+      </c>
+      <c r="AG12" s="4">
         <f t="shared" si="12"/>
-        <v>4859.33</v>
-      </c>
-      <c r="AE12" s="14">
-        <f t="shared" si="23"/>
-        <v>139.04190694284461</v>
-      </c>
-      <c r="AF12" s="7">
+        <v>4.2765611929800684</v>
+      </c>
+      <c r="AH12" s="6">
         <f t="shared" si="13"/>
-        <v>978.85502487762608</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>4.9103279999999998</v>
-      </c>
-      <c r="AH12" s="4">
+        <v>0.20138099999999959</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>325.28000000000003</v>
+      </c>
+      <c r="AJ12" s="8">
         <f t="shared" si="14"/>
-        <v>4.2765611929800684</v>
-      </c>
-      <c r="AI12" s="6">
+        <v>15095.696015740285</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>5926</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>6433</v>
+      </c>
+      <c r="AM12" s="8">
         <f t="shared" si="15"/>
-        <v>0.20138099999999959</v>
-      </c>
-      <c r="AJ12" s="7">
-        <v>325.28000000000003</v>
-      </c>
-      <c r="AK12" s="8">
+        <v>6179.5</v>
+      </c>
+      <c r="AN12" s="4">
         <f t="shared" si="16"/>
-        <v>15095.696015740285</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>5926</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>6433</v>
-      </c>
-      <c r="AN12" s="8">
+        <v>177.29922550318068</v>
+      </c>
+      <c r="AO12" s="8">
         <f t="shared" si="17"/>
-        <v>6179.5</v>
-      </c>
-      <c r="AO12" s="4">
-        <f t="shared" si="18"/>
-        <v>177.29922550318068</v>
-      </c>
-      <c r="AP12" s="8">
-        <f t="shared" si="19"/>
         <v>1258.4699026215765</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2001</v>
       </c>
@@ -2650,7 +2572,7 @@
         <v>3.8875000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f>Monitor!AD13</f>
+        <f>Monitor!AC13</f>
         <v>4373.1899999999996</v>
       </c>
       <c r="G13" s="19">
@@ -2658,15 +2580,15 @@
         <v>-10.004259846522061</v>
       </c>
       <c r="H13" s="6">
-        <f>Monitor!V13</f>
+        <f>Monitor!U13</f>
         <v>5.4420000000000002</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="21"/>
+      <c r="I13" s="40">
+        <f t="shared" si="19"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="6">
@@ -2699,95 +2621,91 @@
         <f t="shared" si="5"/>
         <v>25.201444845790498</v>
       </c>
-      <c r="S13" s="34">
-        <f>D13+(G13-N13)</f>
-        <v>-15.211965968231061</v>
-      </c>
-      <c r="T13" s="36">
+      <c r="S13" s="39">
+        <f t="shared" si="22"/>
+        <v>-1.0824999999999996</v>
+      </c>
+      <c r="T13" s="37">
+        <f t="shared" si="6"/>
+        <v>1.6150000000000002</v>
+      </c>
+      <c r="U13" s="4">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="V13" s="14">
         <f t="shared" si="7"/>
-        <v>1.0765000000000002</v>
-      </c>
-      <c r="U13" s="41">
-        <f t="shared" si="24"/>
-        <v>-16.375681364800741</v>
-      </c>
-      <c r="V13" s="4">
-        <v>5.4420000000000002</v>
+        <v>9.6227061217090011</v>
       </c>
       <c r="W13" s="14">
+        <f t="shared" si="8"/>
+        <v>0.47769999999999957</v>
+      </c>
+      <c r="X13" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y13" s="8">
         <f t="shared" si="9"/>
-        <v>9.6227061217090011</v>
-      </c>
-      <c r="X13" s="14">
+        <v>19094.736842105263</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>10021.57</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1148</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1950</v>
+      </c>
+      <c r="AC13" s="10">
         <f t="shared" si="10"/>
-        <v>0.47769999999999957</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>285</v>
-      </c>
-      <c r="Z13" s="8">
+        <v>4373.1899999999996</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" si="21"/>
+        <v>114.14769595068654</v>
+      </c>
+      <c r="AE13" s="7">
         <f t="shared" si="11"/>
-        <v>19094.736842105263</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>10021.57</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1148</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>1950</v>
-      </c>
-      <c r="AD13" s="10">
+        <v>803.59977949283336</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>5.4467369999999997</v>
+      </c>
+      <c r="AG13" s="4">
         <f t="shared" si="12"/>
-        <v>4373.1899999999996</v>
-      </c>
-      <c r="AE13" s="14">
-        <f t="shared" si="23"/>
-        <v>114.14769595068654</v>
-      </c>
-      <c r="AF13" s="7">
+        <v>10.924097127523851</v>
+      </c>
+      <c r="AH13" s="6">
         <f t="shared" si="13"/>
-        <v>803.59977949283336</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>5.4467369999999997</v>
-      </c>
-      <c r="AH13" s="4">
+        <v>0.53640899999999991</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>326.04000000000002</v>
+      </c>
+      <c r="AJ13" s="8">
         <f t="shared" si="14"/>
-        <v>10.924097127523851</v>
-      </c>
-      <c r="AI13" s="6">
+        <v>16705.732425469268</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>4624</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>5160</v>
+      </c>
+      <c r="AM13" s="8">
         <f t="shared" si="15"/>
-        <v>0.53640899999999991</v>
-      </c>
-      <c r="AJ13" s="7">
-        <v>326.04000000000002</v>
-      </c>
-      <c r="AK13" s="8">
+        <v>4892</v>
+      </c>
+      <c r="AN13" s="4">
         <f t="shared" si="16"/>
-        <v>16705.732425469268</v>
-      </c>
-      <c r="AL13" s="8">
-        <v>4624</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>5160</v>
-      </c>
-      <c r="AN13" s="8">
+        <v>126.53598432782162</v>
+      </c>
+      <c r="AO13" s="8">
         <f t="shared" si="17"/>
-        <v>4892</v>
-      </c>
-      <c r="AO13" s="4">
-        <f t="shared" si="18"/>
-        <v>126.53598432782162</v>
-      </c>
-      <c r="AP13" s="8">
-        <f t="shared" si="19"/>
         <v>898.15241675887785</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2002</v>
       </c>
@@ -2805,7 +2723,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F14" s="8">
-        <f>Monitor!AD14</f>
+        <f>Monitor!AC14</f>
         <v>3518.5433333333331</v>
       </c>
       <c r="G14" s="19">
@@ -2813,15 +2731,15 @@
         <v>-19.542866115276638</v>
       </c>
       <c r="H14" s="6">
-        <f>Monitor!V14</f>
+        <f>Monitor!U14</f>
         <v>5.7923</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="21"/>
+      <c r="I14" s="40">
+        <f t="shared" si="19"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="22"/>
+        <f>AD14</f>
         <v>86.285773720493083</v>
       </c>
       <c r="K14" s="6">
@@ -2854,95 +2772,91 @@
         <f t="shared" si="5"/>
         <v>26.823654718903398</v>
       </c>
-      <c r="S14" s="34">
-        <f>D14+(G14-N14)</f>
-        <v>-21.468171150190283</v>
-      </c>
-      <c r="T14" s="36">
+      <c r="S14" s="39">
+        <f t="shared" si="22"/>
+        <v>-4.5691666666666659</v>
+      </c>
+      <c r="T14" s="37">
+        <f t="shared" si="6"/>
+        <v>2.9116666666666595</v>
+      </c>
+      <c r="U14" s="4">
+        <v>5.7923</v>
+      </c>
+      <c r="V14" s="14">
         <f t="shared" si="7"/>
-        <v>2.8651666666666626</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="24"/>
-        <v>-61.509888373820104</v>
-      </c>
-      <c r="V14" s="4">
-        <v>5.7923</v>
+        <v>6.4369717015803047</v>
       </c>
       <c r="W14" s="14">
+        <f t="shared" si="8"/>
+        <v>0.35029999999999983</v>
+      </c>
+      <c r="X14" s="1">
+        <v>287</v>
+      </c>
+      <c r="Y14" s="8">
         <f t="shared" si="9"/>
-        <v>6.4369717015803047</v>
-      </c>
-      <c r="X14" s="14">
+        <v>20182.229965156796</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>8341.6299999999992</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>879</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1335</v>
+      </c>
+      <c r="AC14" s="10">
         <f t="shared" si="10"/>
-        <v>0.35029999999999983</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>287</v>
-      </c>
-      <c r="Z14" s="8">
+        <v>3518.5433333333331</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="21"/>
+        <v>86.285773720493083</v>
+      </c>
+      <c r="AE14" s="7">
         <f t="shared" si="11"/>
-        <v>20182.229965156796</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>8341.6299999999992</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>879</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1335</v>
-      </c>
-      <c r="AD14" s="10">
+        <v>607.45184699227127</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>5.8078250000000002</v>
+      </c>
+      <c r="AG14" s="4">
         <f t="shared" si="12"/>
-        <v>3518.5433333333331</v>
-      </c>
-      <c r="AE14" s="14">
-        <f t="shared" si="23"/>
-        <v>86.285773720493083</v>
-      </c>
-      <c r="AF14" s="7">
+        <v>6.629437037257361</v>
+      </c>
+      <c r="AH14" s="6">
         <f t="shared" si="13"/>
-        <v>607.45184699227127</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>5.8078250000000002</v>
-      </c>
-      <c r="AH14" s="4">
+        <v>0.36108800000000052</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>326.8</v>
+      </c>
+      <c r="AJ14" s="8">
         <f t="shared" si="14"/>
-        <v>6.629437037257361</v>
-      </c>
-      <c r="AI14" s="6">
+        <v>17771.802325581397</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>3063</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>2892</v>
+      </c>
+      <c r="AM14" s="8">
         <f t="shared" si="15"/>
-        <v>0.36108800000000052</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>326.8</v>
-      </c>
-      <c r="AK14" s="8">
+        <v>2977.5</v>
+      </c>
+      <c r="AN14" s="4">
         <f t="shared" si="16"/>
-        <v>17771.802325581397</v>
-      </c>
-      <c r="AL14" s="8">
-        <v>3063</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>2892</v>
-      </c>
-      <c r="AN14" s="8">
+        <v>72.227445178195651</v>
+      </c>
+      <c r="AO14" s="8">
         <f t="shared" si="17"/>
-        <v>2977.5</v>
-      </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="18"/>
-        <v>72.227445178195651</v>
-      </c>
-      <c r="AP14" s="8">
-        <f t="shared" si="19"/>
         <v>512.67040587483268</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -2960,23 +2874,23 @@
         <v>1.1274999999999999</v>
       </c>
       <c r="F15" s="8">
-        <f>Monitor!AD15</f>
+        <f>Monitor!AC15</f>
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="18">
+        <f t="shared" si="18"/>
+        <v>28.537282947583435</v>
+      </c>
+      <c r="H15" s="6">
+        <f>Monitor!U15</f>
+        <v>6.0626999999999995</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" si="19"/>
+        <v>4.6682664917217664</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="20"/>
-        <v>28.537282947583435</v>
-      </c>
-      <c r="H15" s="6">
-        <f>Monitor!V15</f>
-        <v>6.0626999999999995</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="21"/>
-        <v>4.6682664917217664</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="22"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="6">
@@ -3009,95 +2923,91 @@
         <f t="shared" si="5"/>
         <v>28.07585440400111</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="39">
+        <f t="shared" si="22"/>
+        <v>-2.7600000000000002</v>
+      </c>
+      <c r="T15" s="37">
         <f t="shared" si="6"/>
-        <v>29.082099789194999</v>
-      </c>
-      <c r="T15" s="36">
+        <v>2.9130833333333301</v>
+      </c>
+      <c r="U15" s="4">
+        <v>6.0626999999999995</v>
+      </c>
+      <c r="V15" s="14">
         <f t="shared" si="7"/>
-        <v>2.86358333333333</v>
-      </c>
-      <c r="U15" s="41">
-        <f t="shared" si="24"/>
-        <v>83.279016254675554</v>
-      </c>
-      <c r="V15" s="4">
-        <v>6.0626999999999995</v>
+        <v>4.6682664917217664</v>
       </c>
       <c r="W15" s="14">
+        <f t="shared" si="8"/>
+        <v>0.27039999999999953</v>
+      </c>
+      <c r="X15" s="1">
+        <v>290</v>
+      </c>
+      <c r="Y15" s="8">
         <f t="shared" si="9"/>
-        <v>4.6682664917217664</v>
-      </c>
-      <c r="X15" s="14">
+        <v>20905.862068965518</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>10453.92</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1111</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="AC15" s="10">
         <f t="shared" si="10"/>
-        <v>0.27039999999999953</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>290</v>
-      </c>
-      <c r="Z15" s="8">
+        <v>4522.6400000000003</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="21"/>
+        <v>105.96276486473926</v>
+      </c>
+      <c r="AE15" s="7">
         <f t="shared" si="11"/>
-        <v>20905.862068965518</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>10453.92</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>1111</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>2003</v>
-      </c>
-      <c r="AD15" s="10">
+        <v>745.97786464776436</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>6.1809219999999998</v>
+      </c>
+      <c r="AG15" s="4">
         <f t="shared" si="12"/>
-        <v>4522.6400000000003</v>
-      </c>
-      <c r="AE15" s="14">
-        <f t="shared" si="23"/>
-        <v>105.96276486473926</v>
-      </c>
-      <c r="AF15" s="7">
+        <v>6.4240399805434691</v>
+      </c>
+      <c r="AH15" s="6">
         <f t="shared" si="13"/>
-        <v>745.97786464776436</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>6.1809219999999998</v>
-      </c>
-      <c r="AH15" s="4">
+        <v>0.37309699999999957</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>327.56</v>
+      </c>
+      <c r="AJ15" s="8">
         <f t="shared" si="14"/>
-        <v>6.4240399805434691</v>
-      </c>
-      <c r="AI15" s="6">
+        <v>18869.58725119062</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>3557</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>3965</v>
+      </c>
+      <c r="AM15" s="8">
         <f t="shared" si="15"/>
-        <v>0.37309699999999957</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>327.56</v>
-      </c>
-      <c r="AK15" s="8">
+        <v>3761</v>
+      </c>
+      <c r="AN15" s="4">
         <f t="shared" si="16"/>
-        <v>18869.58725119062</v>
-      </c>
-      <c r="AL15" s="8">
-        <v>3557</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>3965</v>
-      </c>
-      <c r="AN15" s="8">
+        <v>85.726299139368976</v>
+      </c>
+      <c r="AO15" s="8">
         <f t="shared" si="17"/>
-        <v>3761</v>
-      </c>
-      <c r="AO15" s="4">
-        <f t="shared" si="18"/>
-        <v>85.726299139368976</v>
-      </c>
-      <c r="AP15" s="8">
-        <f t="shared" si="19"/>
         <v>608.48527129124102</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2004</v>
       </c>
@@ -3115,7 +3025,7 @@
         <v>1.3491666666666666</v>
       </c>
       <c r="F16" s="8">
-        <f>Monitor!AD16</f>
+        <f>Monitor!AC16</f>
         <v>4723.0033333333331</v>
       </c>
       <c r="G16" s="18">
@@ -3123,15 +3033,15 @@
         <v>4.4302295414477584</v>
       </c>
       <c r="H16" s="6">
-        <f>Monitor!V16</f>
+        <f>Monitor!U16</f>
         <v>6.4112</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="21"/>
+      <c r="I16" s="40">
+        <f t="shared" si="19"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="6">
@@ -3164,95 +3074,91 @@
         <f t="shared" si="5"/>
         <v>29.68972862832268</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16" s="39">
+        <f t="shared" si="22"/>
+        <v>-0.31750000000000012</v>
+      </c>
+      <c r="T16" s="37">
         <f t="shared" si="6"/>
-        <v>3.9942155666510439</v>
-      </c>
-      <c r="T16" s="36">
+        <v>2.6122499999999995</v>
+      </c>
+      <c r="U16" s="4">
+        <v>6.4112</v>
+      </c>
+      <c r="V16" s="14">
         <f t="shared" si="7"/>
-        <v>2.9142500000000031</v>
-      </c>
-      <c r="U16" s="41">
-        <f t="shared" si="24"/>
-        <v>11.640142715112818</v>
-      </c>
-      <c r="V16" s="4">
-        <v>6.4112</v>
+        <v>5.7482639747967141</v>
       </c>
       <c r="W16" s="14">
+        <f t="shared" si="8"/>
+        <v>0.34850000000000048</v>
+      </c>
+      <c r="X16" s="1">
+        <v>293</v>
+      </c>
+      <c r="Y16" s="8">
         <f t="shared" si="9"/>
-        <v>5.7482639747967141</v>
-      </c>
-      <c r="X16" s="14">
+        <v>21881.228668941978</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>10783.01</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1211</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2175</v>
+      </c>
+      <c r="AC16" s="10">
         <f t="shared" si="10"/>
-        <v>0.34850000000000048</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>293</v>
-      </c>
-      <c r="Z16" s="8">
+        <v>4723.0033333333331</v>
+      </c>
+      <c r="AD16" s="14">
+        <f>((AC16/U16)/100)*100/7.04</f>
+        <v>104.64205691649461</v>
+      </c>
+      <c r="AE16" s="7">
         <f t="shared" si="11"/>
-        <v>21881.228668941978</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>10783.01</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>1211</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>2175</v>
-      </c>
-      <c r="AD16" s="10">
+        <v>736.68008069212203</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>6.5681760000000002</v>
+      </c>
+      <c r="AG16" s="4">
         <f t="shared" si="12"/>
-        <v>4723.0033333333331</v>
-      </c>
-      <c r="AE16" s="14">
-        <f>((AD16/V16)/100)*100/7.04</f>
-        <v>104.64205691649461</v>
-      </c>
-      <c r="AF16" s="7">
+        <v>6.2653112270305229</v>
+      </c>
+      <c r="AH16" s="6">
         <f t="shared" si="13"/>
-        <v>736.68008069212203</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>6.5681760000000002</v>
-      </c>
-      <c r="AH16" s="4">
+        <v>0.38725400000000043</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>329.08</v>
+      </c>
+      <c r="AJ16" s="8">
         <f t="shared" si="14"/>
-        <v>6.2653112270305229</v>
-      </c>
-      <c r="AI16" s="6">
+        <v>19959.207487541022</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>3821</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>4256</v>
+      </c>
+      <c r="AM16" s="8">
         <f t="shared" si="15"/>
-        <v>0.38725400000000043</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>329.08</v>
-      </c>
-      <c r="AK16" s="8">
+        <v>4038.5</v>
+      </c>
+      <c r="AN16" s="4">
         <f t="shared" si="16"/>
-        <v>19959.207487541022</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>3821</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>4256</v>
-      </c>
-      <c r="AN16" s="8">
+        <v>86.624214727780952</v>
+      </c>
+      <c r="AO16" s="8">
         <f t="shared" si="17"/>
-        <v>4038.5</v>
-      </c>
-      <c r="AO16" s="4">
-        <f t="shared" si="18"/>
-        <v>86.624214727780952</v>
-      </c>
-      <c r="AP16" s="8">
-        <f t="shared" si="19"/>
         <v>614.85867613778919</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2005</v>
       </c>
@@ -3270,27 +3176,27 @@
         <v>3.2133333333333334</v>
       </c>
       <c r="F17" s="8">
-        <f>Monitor!AD17</f>
+        <f>Monitor!AC17</f>
         <v>4723.5</v>
       </c>
       <c r="G17" s="18">
+        <f t="shared" si="18"/>
+        <v>1.0515907603988239E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <f>Monitor!U17</f>
+        <v>6.7104999999999997</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" si="19"/>
+        <v>4.6683928125779772</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="20"/>
-        <v>1.0515907603988239E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <f>Monitor!V17</f>
-        <v>6.7104999999999997</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="21"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="22"/>
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K34" ca="1" si="25">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K34" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
@@ -3319,95 +3225,91 @@
         <f t="shared" si="5"/>
         <v>31.075761785681205</v>
       </c>
-      <c r="S17" s="34">
-        <f>D17+(G17-N17)</f>
-        <v>-0.52437690497398926</v>
-      </c>
-      <c r="T17" s="36">
+      <c r="S17" s="39">
+        <f t="shared" si="22"/>
+        <v>2.0858333333333334</v>
+      </c>
+      <c r="T17" s="37">
+        <f t="shared" si="6"/>
+        <v>0.73349999999999982</v>
+      </c>
+      <c r="U17" s="4">
+        <v>6.7104999999999997</v>
+      </c>
+      <c r="V17" s="14">
         <f t="shared" si="7"/>
-        <v>1.0515833333333364</v>
-      </c>
-      <c r="U17" s="41">
-        <f t="shared" si="24"/>
-        <v>-0.55142601365556587</v>
-      </c>
-      <c r="V17" s="4">
-        <v>6.7104999999999997</v>
+        <v>4.6683928125779772</v>
       </c>
       <c r="W17" s="14">
+        <f t="shared" si="8"/>
+        <v>0.29929999999999968</v>
+      </c>
+      <c r="X17" s="1">
+        <v>295</v>
+      </c>
+      <c r="Y17" s="8">
         <f t="shared" si="9"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="X17" s="14">
+        <v>22747.457627118645</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>10717.5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1248</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2205</v>
+      </c>
+      <c r="AC17" s="8">
         <f t="shared" si="10"/>
-        <v>0.29929999999999968</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>295</v>
-      </c>
-      <c r="Z17" s="8">
+        <v>4723.5</v>
+      </c>
+      <c r="AD17" s="14">
+        <f>((AC17/U17)/100)*100/7.04</f>
+        <v>99.985351992467713</v>
+      </c>
+      <c r="AE17" s="7">
         <f t="shared" si="11"/>
-        <v>22747.457627118645</v>
-      </c>
-      <c r="AA17" s="8">
-        <v>10717.5</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1248</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>2205</v>
-      </c>
-      <c r="AD17" s="8">
+        <v>703.89687802697267</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>7.1306700000000003</v>
+      </c>
+      <c r="AG17" s="4">
         <f t="shared" si="12"/>
-        <v>4723.5</v>
-      </c>
-      <c r="AE17" s="14">
-        <f>((AD17/V17)/100)*100/7.04</f>
-        <v>99.985351992467713</v>
-      </c>
-      <c r="AF17" s="7">
+        <v>8.5639300773913476</v>
+      </c>
+      <c r="AH17" s="6">
         <f t="shared" si="13"/>
-        <v>703.89687802697267</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>7.1306700000000003</v>
-      </c>
-      <c r="AH17" s="4">
+        <v>0.56249400000000005</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>330.6</v>
+      </c>
+      <c r="AJ17" s="8">
         <f t="shared" si="14"/>
-        <v>8.5639300773913476</v>
-      </c>
-      <c r="AI17" s="6">
+        <v>21568.874773139745</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>4715</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>5408</v>
+      </c>
+      <c r="AM17" s="8">
         <f t="shared" si="15"/>
-        <v>0.56249400000000005</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>330.6</v>
-      </c>
-      <c r="AK17" s="8">
+        <v>5061.5</v>
+      </c>
+      <c r="AN17" s="4">
         <f t="shared" si="16"/>
-        <v>21568.874773139745</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>4715</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>5408</v>
-      </c>
-      <c r="AN17" s="8">
+        <v>100.00297221122624</v>
+      </c>
+      <c r="AO17" s="8">
         <f t="shared" si="17"/>
-        <v>5061.5</v>
-      </c>
-      <c r="AO17" s="4">
-        <f t="shared" si="18"/>
-        <v>100.00297221122624</v>
-      </c>
-      <c r="AP17" s="8">
-        <f t="shared" si="19"/>
         <v>709.82109675528386</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -3425,27 +3327,27 @@
         <v>4.9641666666666664</v>
       </c>
       <c r="F18" s="8">
-        <f>Monitor!AD18</f>
+        <f>Monitor!AC18</f>
         <v>5432.05</v>
       </c>
       <c r="G18" s="18">
+        <f t="shared" si="18"/>
+        <v>15.000529268550864</v>
+      </c>
+      <c r="H18" s="6">
+        <f>Monitor!U18</f>
+        <v>7.0955000000000004</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" si="19"/>
+        <v>5.7372774010878658</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="20"/>
-        <v>15.000529268550864</v>
-      </c>
-      <c r="H18" s="6">
-        <f>Monitor!V18</f>
-        <v>7.0955000000000004</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="21"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="22"/>
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>106.36863617964786</v>
       </c>
       <c r="L18" s="4">
@@ -3474,95 +3376,91 @@
         <f t="shared" si="5"/>
         <v>32.858664443826989</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="39">
+        <f t="shared" si="22"/>
+        <v>3.6149999999999998</v>
+      </c>
+      <c r="T18" s="37">
         <f t="shared" si="6"/>
-        <v>12.267335200796326</v>
-      </c>
-      <c r="T18" s="36">
+        <v>-0.19591666666667074</v>
+      </c>
+      <c r="U18" s="4">
+        <v>7.0955000000000004</v>
+      </c>
+      <c r="V18" s="14">
         <f t="shared" si="7"/>
-        <v>-0.18308333333333682</v>
-      </c>
-      <c r="U18" s="41">
-        <f t="shared" si="24"/>
-        <v>-2.2459446196791704</v>
-      </c>
-      <c r="V18" s="4">
-        <v>7.0955000000000004</v>
+        <v>5.7372774010878658</v>
       </c>
       <c r="W18" s="14">
+        <f t="shared" si="8"/>
+        <v>0.38500000000000068</v>
+      </c>
+      <c r="X18" s="1">
+        <v>298</v>
+      </c>
+      <c r="Y18" s="8">
         <f t="shared" si="9"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="X18" s="14">
+        <v>23810.40268456376</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>12463.15</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1418</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>2415</v>
+      </c>
+      <c r="AC18" s="8">
         <f t="shared" si="10"/>
-        <v>0.38500000000000068</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>298</v>
-      </c>
-      <c r="Z18" s="8">
+        <v>5432.05</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="21"/>
+        <v>108.74469894491386</v>
+      </c>
+      <c r="AE18" s="7">
         <f t="shared" si="11"/>
-        <v>23810.40268456376</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>12463.15</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1418</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>2415</v>
-      </c>
-      <c r="AD18" s="8">
+        <v>765.56268057219359</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>7.8016750000000004</v>
+      </c>
+      <c r="AG18" s="4">
         <f t="shared" si="12"/>
-        <v>5432.05</v>
-      </c>
-      <c r="AE18" s="14">
-        <f t="shared" si="23"/>
-        <v>108.74469894491386</v>
-      </c>
-      <c r="AF18" s="7">
+        <v>9.4101255562240311</v>
+      </c>
+      <c r="AH18" s="6">
         <f t="shared" si="13"/>
-        <v>765.56268057219359</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>7.8016750000000004</v>
-      </c>
-      <c r="AH18" s="4">
+        <v>0.67100500000000007</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>331.36</v>
+      </c>
+      <c r="AJ18" s="8">
         <f t="shared" si="14"/>
-        <v>9.4101255562240311</v>
-      </c>
-      <c r="AI18" s="6">
+        <v>23544.407894736843</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>5541</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>6596</v>
+      </c>
+      <c r="AM18" s="8">
         <f t="shared" si="15"/>
-        <v>0.67100500000000007</v>
-      </c>
-      <c r="AJ18" s="7">
-        <v>331.36</v>
-      </c>
-      <c r="AK18" s="8">
+        <v>6068.5</v>
+      </c>
+      <c r="AN18" s="4">
         <f t="shared" si="16"/>
-        <v>23544.407894736843</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>5541</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>6596</v>
-      </c>
-      <c r="AN18" s="8">
+        <v>109.58661356960933</v>
+      </c>
+      <c r="AO18" s="8">
         <f t="shared" si="17"/>
-        <v>6068.5</v>
-      </c>
-      <c r="AO18" s="4">
-        <f t="shared" si="18"/>
-        <v>109.58661356960933</v>
-      </c>
-      <c r="AP18" s="8">
-        <f t="shared" si="19"/>
         <v>777.84578311708697</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2007</v>
       </c>
@@ -3580,27 +3478,27 @@
         <v>5.0191666666666697</v>
       </c>
       <c r="F19" s="8">
-        <f>Monitor!AD19</f>
+        <f>Monitor!AC19</f>
         <v>5794.94</v>
       </c>
       <c r="G19" s="18">
+        <f t="shared" si="18"/>
+        <v>6.6805349729844181</v>
+      </c>
+      <c r="H19" s="6">
+        <f>Monitor!U19</f>
+        <v>7.4917999999999996</v>
+      </c>
+      <c r="I19" s="40">
+        <f t="shared" si="19"/>
+        <v>5.5852300753998918</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="20"/>
-        <v>6.6805349729844181</v>
-      </c>
-      <c r="H19" s="6">
-        <f>Monitor!V19</f>
-        <v>7.4917999999999996</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="21"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="22"/>
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>109.35412041521862</v>
       </c>
       <c r="L19" s="4">
@@ -3629,95 +3527,91 @@
         <f t="shared" si="5"/>
         <v>34.693896452718342</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="39">
+        <f>E19-E17</f>
+        <v>1.8058333333333363</v>
+      </c>
+      <c r="T19" s="37">
         <f t="shared" si="6"/>
-        <v>3.986054897584526</v>
-      </c>
-      <c r="T19" s="36">
+        <v>9.0749999999999886E-2</v>
+      </c>
+      <c r="U19" s="4">
+        <v>7.4917999999999996</v>
+      </c>
+      <c r="V19" s="14">
         <f t="shared" si="7"/>
-        <v>-0.44441666666666979</v>
-      </c>
-      <c r="U19" s="41">
-        <f t="shared" si="24"/>
-        <v>-1.7714692307348689</v>
-      </c>
-      <c r="V19" s="4">
-        <v>7.4917999999999996</v>
+        <v>5.5852300753998918</v>
       </c>
       <c r="W19" s="14">
+        <f t="shared" si="8"/>
+        <v>0.39629999999999921</v>
+      </c>
+      <c r="X19" s="1">
+        <v>301</v>
+      </c>
+      <c r="Y19" s="8">
         <f t="shared" si="9"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="X19" s="14">
+        <v>24889.70099667774</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>13264.82</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1468</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2652</v>
+      </c>
+      <c r="AC19" s="8">
         <f t="shared" si="10"/>
-        <v>0.39629999999999921</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>301</v>
-      </c>
-      <c r="Z19" s="8">
+        <v>5794.94</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="21"/>
+        <v>109.87277908695326</v>
+      </c>
+      <c r="AE19" s="7">
         <f t="shared" si="11"/>
-        <v>24889.70099667774</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>13264.82</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>1468</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>2652</v>
-      </c>
-      <c r="AD19" s="8">
+        <v>773.50436477215089</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>8.6914390000000008</v>
+      </c>
+      <c r="AG19" s="4">
         <f t="shared" si="12"/>
-        <v>5794.94</v>
-      </c>
-      <c r="AE19" s="14">
-        <f t="shared" si="23"/>
-        <v>109.87277908695326</v>
-      </c>
-      <c r="AF19" s="7">
+        <v>11.404781665475682</v>
+      </c>
+      <c r="AH19" s="6">
         <f t="shared" si="13"/>
-        <v>773.50436477215089</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>8.6914390000000008</v>
-      </c>
-      <c r="AH19" s="4">
+        <v>0.88976400000000044</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>332.12</v>
+      </c>
+      <c r="AJ19" s="8">
         <f t="shared" si="14"/>
-        <v>11.404781665475682</v>
-      </c>
-      <c r="AI19" s="6">
+        <v>26169.574250270991</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>5614</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>8067</v>
+      </c>
+      <c r="AM19" s="8">
         <f t="shared" si="15"/>
-        <v>0.88976400000000044</v>
-      </c>
-      <c r="AJ19" s="7">
-        <v>332.12</v>
-      </c>
-      <c r="AK19" s="8">
+        <v>6840.5</v>
+      </c>
+      <c r="AN19" s="4">
         <f t="shared" si="16"/>
-        <v>26169.574250270991</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>5614</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>8067</v>
-      </c>
-      <c r="AN19" s="8">
+        <v>110.8817740377211</v>
+      </c>
+      <c r="AO19" s="8">
         <f t="shared" si="17"/>
-        <v>6840.5</v>
-      </c>
-      <c r="AO19" s="4">
-        <f t="shared" si="18"/>
-        <v>110.8817740377211</v>
-      </c>
-      <c r="AP19" s="8">
-        <f t="shared" si="19"/>
         <v>787.03883211974437</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2008</v>
       </c>
@@ -3735,27 +3629,27 @@
         <v>1.9275</v>
       </c>
       <c r="F20" s="8">
-        <f>Monitor!AD20</f>
+        <f>Monitor!AC20</f>
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="19">
+        <f t="shared" si="18"/>
+        <v>-35.251616065049859</v>
+      </c>
+      <c r="H20" s="6">
+        <f>Monitor!U20</f>
+        <v>8.2623999999999995</v>
+      </c>
+      <c r="I20" s="40">
+        <f t="shared" si="19"/>
+        <v>10.285912597773574</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="20"/>
-        <v>-35.251616065049859</v>
-      </c>
-      <c r="H20" s="6">
-        <f>Monitor!V20</f>
-        <v>8.2623999999999995</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="21"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="22"/>
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>109.07665234894111</v>
       </c>
       <c r="L20" s="4">
@@ -3784,95 +3678,91 @@
         <f t="shared" si="5"/>
         <v>38.262480318607018</v>
       </c>
-      <c r="S20" s="34">
-        <f>D20+(G20-N20)</f>
-        <v>-39.666861996156769</v>
-      </c>
-      <c r="T20" s="36">
+      <c r="S20" s="39">
+        <f t="shared" si="22"/>
+        <v>-3.0366666666666662</v>
+      </c>
+      <c r="T20" s="37">
+        <f t="shared" si="6"/>
+        <v>2.0706666666666704</v>
+      </c>
+      <c r="U20" s="4">
+        <v>8.2623999999999995</v>
+      </c>
+      <c r="V20" s="14">
         <f t="shared" si="7"/>
-        <v>1.6587500000000002</v>
-      </c>
-      <c r="U20" s="41">
-        <f t="shared" si="24"/>
-        <v>-65.797407336125048</v>
-      </c>
-      <c r="V20" s="4">
-        <v>8.2623999999999995</v>
+        <v>10.285912597773574</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="9"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="X20" s="14">
+        <f t="shared" si="8"/>
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="X20" s="1">
+        <v>304</v>
+      </c>
+      <c r="Y20" s="8">
+        <f>(U20*1000000000000)/(X20*1000000)</f>
+        <v>27178.947368421053</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>8776.39</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>903</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1577</v>
+      </c>
+      <c r="AC20" s="8">
         <f t="shared" si="10"/>
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>304</v>
-      </c>
-      <c r="Z20" s="8">
+        <v>3752.1299999999997</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="21"/>
+        <v>64.505835031423828</v>
+      </c>
+      <c r="AE20" s="7">
         <f t="shared" si="11"/>
-        <v>27178.947368421053</v>
-      </c>
-      <c r="AA20" s="8">
-        <v>8776.39</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>903</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>1577</v>
-      </c>
-      <c r="AD20" s="8">
+        <v>454.12107862122383</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>9.4237800000000007</v>
+      </c>
+      <c r="AG20" s="4">
         <f t="shared" si="12"/>
-        <v>3752.1299999999997</v>
-      </c>
-      <c r="AE20" s="14">
-        <f t="shared" si="23"/>
-        <v>64.505835031423828</v>
-      </c>
-      <c r="AF20" s="7">
+        <v>8.4260040253403332</v>
+      </c>
+      <c r="AH20" s="6">
         <f t="shared" si="13"/>
-        <v>454.12107862122383</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>9.4237800000000007</v>
-      </c>
-      <c r="AH20" s="4">
+        <v>0.73234099999999991</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>333.64</v>
+      </c>
+      <c r="AJ20" s="8">
         <f t="shared" si="14"/>
-        <v>8.4260040253403332</v>
-      </c>
-      <c r="AI20" s="6">
+        <v>28245.354274067857</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>3217</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>4810</v>
+      </c>
+      <c r="AM20" s="8">
         <f t="shared" si="15"/>
-        <v>0.73234099999999991</v>
-      </c>
-      <c r="AJ20" s="7">
-        <v>333.64</v>
-      </c>
-      <c r="AK20" s="8">
+        <v>4013.5</v>
+      </c>
+      <c r="AN20" s="4">
         <f t="shared" si="16"/>
-        <v>28245.354274067857</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>3217</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>4810</v>
-      </c>
-      <c r="AN20" s="8">
+        <v>60.001503567265267</v>
+      </c>
+      <c r="AO20" s="8">
         <f t="shared" si="17"/>
-        <v>4013.5</v>
-      </c>
-      <c r="AO20" s="4">
-        <f t="shared" si="18"/>
-        <v>60.001503567265267</v>
-      </c>
-      <c r="AP20" s="8">
-        <f t="shared" si="19"/>
         <v>425.89067232044886</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2009</v>
       </c>
@@ -3890,7 +3780,7 @@
         <v>0.16</v>
       </c>
       <c r="F21" s="8">
-        <f>Monitor!AD21</f>
+        <f>Monitor!AC21</f>
         <v>4604.0166666666664</v>
       </c>
       <c r="G21" s="18">
@@ -3898,19 +3788,19 @@
         <v>22.7040818592817</v>
       </c>
       <c r="H21" s="6">
-        <f>Monitor!V21</f>
+        <f>Monitor!U21</f>
         <v>8.4457000000000004</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="21"/>
+      <c r="I21" s="40">
+        <f t="shared" si="19"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="22"/>
+        <f>AD21</f>
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="4">
@@ -3939,95 +3829,91 @@
         <f t="shared" si="5"/>
         <v>39.111327220524217</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="39">
+        <f t="shared" si="22"/>
+        <v>-4.8591666666666695</v>
+      </c>
+      <c r="T21" s="37">
         <f t="shared" si="6"/>
-        <v>23.0803481257418</v>
-      </c>
-      <c r="T21" s="36">
+        <v>2.9947499999999971</v>
+      </c>
+      <c r="U21" s="4">
+        <v>8.4457000000000004</v>
+      </c>
+      <c r="V21" s="14">
         <f t="shared" si="7"/>
-        <v>3.1123333333333298</v>
-      </c>
-      <c r="U21" s="41">
-        <f t="shared" si="24"/>
-        <v>71.833736816683654</v>
-      </c>
-      <c r="V21" s="4">
-        <v>8.4457000000000004</v>
+        <v>2.2184837335398981</v>
       </c>
       <c r="W21" s="14">
+        <f t="shared" si="8"/>
+        <v>0.18330000000000091</v>
+      </c>
+      <c r="X21" s="1">
+        <v>307</v>
+      </c>
+      <c r="Y21" s="8">
         <f t="shared" si="9"/>
-        <v>2.2184837335398981</v>
-      </c>
-      <c r="X21" s="14">
+        <v>27510.423452768729</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>10428.049999999999</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1115</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>2269</v>
+      </c>
+      <c r="AC21" s="8">
         <f t="shared" si="10"/>
-        <v>0.18330000000000091</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>307</v>
-      </c>
-      <c r="Z21" s="8">
+        <v>4604.0166666666664</v>
+      </c>
+      <c r="AD21" s="14">
+        <f>((AC21/U21)/100)*100/7.04</f>
+        <v>77.433444255836108</v>
+      </c>
+      <c r="AE21" s="7">
         <f t="shared" si="11"/>
-        <v>27510.423452768729</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>10428.049999999999</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>1115</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>2269</v>
-      </c>
-      <c r="AD21" s="8">
+        <v>545.13144756108625</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>9.3822489999999998</v>
+      </c>
+      <c r="AG21" s="4">
         <f t="shared" si="12"/>
-        <v>4604.0166666666664</v>
-      </c>
-      <c r="AE21" s="14">
-        <f t="shared" si="23"/>
-        <v>77.433444255836108</v>
-      </c>
-      <c r="AF21" s="7">
+        <v>-0.4407042609229137</v>
+      </c>
+      <c r="AH21" s="6">
         <f t="shared" si="13"/>
-        <v>545.13144756108625</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>9.3822489999999998</v>
-      </c>
-      <c r="AH21" s="4">
+        <v>-4.1531000000000873E-2</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>334.4</v>
+      </c>
+      <c r="AJ21" s="8">
         <f t="shared" si="14"/>
-        <v>-0.4407042609229137</v>
-      </c>
-      <c r="AI21" s="6">
+        <v>28056.96471291866</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>3936</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>5957</v>
+      </c>
+      <c r="AM21" s="8">
         <f t="shared" si="15"/>
-        <v>-4.1531000000000873E-2</v>
-      </c>
-      <c r="AJ21" s="7">
-        <v>334.4</v>
-      </c>
-      <c r="AK21" s="8">
+        <v>4946.5</v>
+      </c>
+      <c r="AN21" s="4">
         <f t="shared" si="16"/>
-        <v>28056.96471291866</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>3936</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>5957</v>
-      </c>
-      <c r="AN21" s="8">
+        <v>74.27712128365458</v>
+      </c>
+      <c r="AO21" s="8">
         <f t="shared" si="17"/>
-        <v>4946.5</v>
-      </c>
-      <c r="AO21" s="4">
-        <f t="shared" si="18"/>
-        <v>74.27712128365458</v>
-      </c>
-      <c r="AP21" s="8">
-        <f t="shared" si="19"/>
         <v>527.2190068713802</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2010</v>
       </c>
@@ -4045,27 +3931,27 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="F22" s="8">
-        <f>Monitor!AD22</f>
+        <f>Monitor!AC22</f>
         <v>5162.17</v>
       </c>
       <c r="G22" s="18">
+        <f t="shared" si="18"/>
+        <v>12.123182293721797</v>
+      </c>
+      <c r="H22" s="6">
+        <f>Monitor!U22</f>
+        <v>8.825899999999999</v>
+      </c>
+      <c r="I22" s="40">
+        <f t="shared" si="19"/>
+        <v>4.5016990894774693</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="20"/>
-        <v>12.123182293721797</v>
-      </c>
-      <c r="H22" s="6">
-        <f>Monitor!V22</f>
-        <v>8.825899999999999</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="21"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="22"/>
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>106.75418638617396</v>
       </c>
       <c r="L22" s="4">
@@ -4094,95 +3980,91 @@
         <f t="shared" si="5"/>
         <v>40.872001481893115</v>
       </c>
-      <c r="S22" s="34">
+      <c r="S22" s="39">
+        <f t="shared" si="22"/>
+        <v>-1.7524999999999999</v>
+      </c>
+      <c r="T22" s="37">
         <f t="shared" si="6"/>
-        <v>12.14756653757766</v>
-      </c>
-      <c r="T22" s="36">
+        <v>2.9260833333333327</v>
+      </c>
+      <c r="U22" s="4">
+        <v>8.825899999999999</v>
+      </c>
+      <c r="V22" s="14">
         <f t="shared" si="7"/>
-        <v>2.9510000000000001</v>
-      </c>
-      <c r="U22" s="41">
-        <f t="shared" si="24"/>
-        <v>35.847468852391678</v>
-      </c>
-      <c r="V22" s="4">
-        <v>8.825899999999999</v>
+        <v>4.5016990894774693</v>
       </c>
       <c r="W22" s="14">
+        <f t="shared" si="8"/>
+        <v>0.38019999999999854</v>
+      </c>
+      <c r="X22" s="1">
+        <v>309</v>
+      </c>
+      <c r="Y22" s="8">
         <f t="shared" si="9"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="X22" s="14">
+        <v>28562.78317152103</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>11577.51</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1257</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2652</v>
+      </c>
+      <c r="AC22" s="8">
         <f t="shared" si="10"/>
-        <v>0.38019999999999854</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>309</v>
-      </c>
-      <c r="Z22" s="8">
+        <v>5162.17</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" si="21"/>
+        <v>83.080794490183351</v>
+      </c>
+      <c r="AE22" s="7">
         <f t="shared" si="11"/>
-        <v>28562.78317152103</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>11577.51</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1257</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>2652</v>
-      </c>
-      <c r="AD22" s="8">
+        <v>584.88879321089075</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>9.3207719999999998</v>
+      </c>
+      <c r="AG22" s="4">
         <f t="shared" si="12"/>
-        <v>5162.17</v>
-      </c>
-      <c r="AE22" s="14">
-        <f t="shared" si="23"/>
-        <v>83.080794490183351</v>
-      </c>
-      <c r="AF22" s="7">
+        <v>-0.65524801143095601</v>
+      </c>
+      <c r="AH22" s="6">
         <f t="shared" si="13"/>
-        <v>584.88879321089075</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>9.3207719999999998</v>
-      </c>
-      <c r="AH22" s="4">
+        <v>-6.1477000000000004E-2</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>335</v>
+      </c>
+      <c r="AJ22" s="8">
         <f t="shared" si="14"/>
-        <v>-0.65524801143095601</v>
-      </c>
-      <c r="AI22" s="6">
+        <v>27823.200000000001</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>3804</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>6914</v>
+      </c>
+      <c r="AM22" s="8">
         <f t="shared" si="15"/>
-        <v>-6.1477000000000004E-2</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>335</v>
-      </c>
-      <c r="AK22" s="8">
+        <v>5359</v>
+      </c>
+      <c r="AN22" s="4">
         <f t="shared" si="16"/>
-        <v>27823.200000000001</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>3804</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>6914</v>
-      </c>
-      <c r="AN22" s="8">
+        <v>81.002025245072275</v>
+      </c>
+      <c r="AO22" s="8">
         <f t="shared" si="17"/>
-        <v>5359</v>
-      </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="18"/>
-        <v>81.002025245072275</v>
-      </c>
-      <c r="AP22" s="8">
-        <f t="shared" si="19"/>
         <v>574.95237518952297</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2011</v>
       </c>
@@ -4200,27 +4082,27 @@
         <v>0.10166666666666667</v>
       </c>
       <c r="F23" s="8">
-        <f>Monitor!AD23</f>
+        <f>Monitor!AC23</f>
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="18">
+        <f t="shared" si="18"/>
+        <v>3.8294618994208633</v>
+      </c>
+      <c r="H23" s="6">
+        <f>Monitor!U23</f>
+        <v>9.7302999999999997</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" si="19"/>
+        <v>10.247113608810437</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="20"/>
-        <v>3.8294618994208633</v>
-      </c>
-      <c r="H23" s="6">
-        <f>Monitor!V23</f>
-        <v>9.7302999999999997</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="21"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="22"/>
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>103.60960695932185</v>
       </c>
       <c r="L23" s="4">
@@ -4249,95 +4131,91 @@
         <f t="shared" si="5"/>
         <v>45.060201907937383</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="39">
+        <f t="shared" si="22"/>
+        <v>-5.8333333333333334E-2</v>
+      </c>
+      <c r="T23" s="37">
         <f t="shared" si="6"/>
-        <v>-0.59181837605624077</v>
-      </c>
-      <c r="T23" s="36">
+        <v>2.625833333333333</v>
+      </c>
+      <c r="U23" s="4">
+        <v>9.7302999999999997</v>
+      </c>
+      <c r="V23" s="14">
         <f t="shared" si="7"/>
-        <v>2.6300833333333333</v>
-      </c>
-      <c r="U23" s="41">
-        <f t="shared" si="24"/>
-        <v>-1.5565316472259179</v>
-      </c>
-      <c r="V23" s="4">
-        <v>9.7302999999999997</v>
+        <v>10.247113608810437</v>
       </c>
       <c r="W23" s="14">
+        <f t="shared" si="8"/>
+        <v>0.90440000000000076</v>
+      </c>
+      <c r="X23" s="1">
+        <v>311</v>
+      </c>
+      <c r="Y23" s="8">
         <f t="shared" si="9"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="X23" s="14">
+        <v>31287.138263665594</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>12217.56</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1257</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="AC23" s="8">
         <f t="shared" si="10"/>
-        <v>0.90440000000000076</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>311</v>
-      </c>
-      <c r="Z23" s="8">
+        <v>5359.8533333333335</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="21"/>
+        <v>78.244535423399384</v>
+      </c>
+      <c r="AE23" s="7">
         <f t="shared" si="11"/>
-        <v>31287.138263665594</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>12217.56</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>1257</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>2605</v>
-      </c>
-      <c r="AD23" s="8">
+        <v>550.84152938073169</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>9.5350470000000005</v>
+      </c>
+      <c r="AG23" s="4">
         <f t="shared" si="12"/>
-        <v>5359.8533333333335</v>
-      </c>
-      <c r="AE23" s="14">
-        <f t="shared" si="23"/>
-        <v>78.244535423399384</v>
-      </c>
-      <c r="AF23" s="7">
+        <v>2.2988975591292302</v>
+      </c>
+      <c r="AH23" s="6">
         <f t="shared" si="13"/>
-        <v>550.84152938073169</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>9.5350470000000005</v>
-      </c>
-      <c r="AH23" s="4">
+        <v>0.21427500000000066</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>334</v>
+      </c>
+      <c r="AJ23" s="8">
         <f t="shared" si="14"/>
-        <v>2.2988975591292302</v>
-      </c>
-      <c r="AI23" s="6">
+        <v>28548.04491017964</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>3159</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>5898</v>
+      </c>
+      <c r="AM23" s="8">
         <f t="shared" si="15"/>
-        <v>0.21427500000000066</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>334</v>
-      </c>
-      <c r="AK23" s="8">
+        <v>4528.5</v>
+      </c>
+      <c r="AN23" s="4">
         <f t="shared" si="16"/>
-        <v>28548.04491017964</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>3159</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>5898</v>
-      </c>
-      <c r="AN23" s="8">
+        <v>66.910694699863498</v>
+      </c>
+      <c r="AO23" s="8">
         <f t="shared" si="17"/>
-        <v>4528.5</v>
-      </c>
-      <c r="AO23" s="4">
-        <f t="shared" si="18"/>
-        <v>66.910694699863498</v>
-      </c>
-      <c r="AP23" s="8">
-        <f t="shared" si="19"/>
         <v>474.9321109796312</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2012</v>
       </c>
@@ -4355,27 +4233,27 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F24" s="8">
-        <f>Monitor!AD24</f>
+        <f>Monitor!AC24</f>
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="18">
+        <f t="shared" si="18"/>
+        <v>9.1394291883608645</v>
+      </c>
+      <c r="H24" s="6">
+        <f>Monitor!U24</f>
+        <v>10.471200000000001</v>
+      </c>
+      <c r="I24" s="40">
+        <f t="shared" si="19"/>
+        <v>7.6143592694983795</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" si="20"/>
-        <v>9.1394291883608645</v>
-      </c>
-      <c r="H24" s="6">
-        <f>Monitor!V24</f>
-        <v>10.471200000000001</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="21"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="22"/>
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>99.57416022327952</v>
       </c>
       <c r="L24" s="4">
@@ -4404,95 +4282,91 @@
         <f t="shared" si="5"/>
         <v>48.491247568769104</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="39">
+        <f t="shared" si="22"/>
+        <v>-3.4999999999999976E-2</v>
+      </c>
+      <c r="T24" s="37">
         <f t="shared" si="6"/>
-        <v>5.2281532521958214</v>
-      </c>
-      <c r="T24" s="36">
+        <v>1.603083333333337</v>
+      </c>
+      <c r="U24" s="4">
+        <v>10.471200000000001</v>
+      </c>
+      <c r="V24" s="14">
         <f t="shared" si="7"/>
-        <v>1.59541666666667</v>
-      </c>
-      <c r="U24" s="41">
-        <f t="shared" si="24"/>
-        <v>8.3410828344407673</v>
-      </c>
-      <c r="V24" s="4">
-        <v>10.471200000000001</v>
+        <v>7.6143592694983795</v>
       </c>
       <c r="W24" s="14">
+        <f t="shared" si="8"/>
+        <v>0.74090000000000167</v>
+      </c>
+      <c r="X24" s="1">
+        <v>313</v>
+      </c>
+      <c r="Y24" s="8">
         <f t="shared" si="9"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="X24" s="14">
+        <v>33454.313099041537</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>13104.14</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1426</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3019</v>
+      </c>
+      <c r="AC24" s="8">
         <f t="shared" si="10"/>
-        <v>0.74090000000000167</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>313</v>
-      </c>
-      <c r="Z24" s="8">
+        <v>5849.7133333333331</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="21"/>
+        <v>79.353387328476117</v>
+      </c>
+      <c r="AE24" s="7">
         <f t="shared" si="11"/>
-        <v>33454.313099041537</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>13104.14</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1426</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>3019</v>
-      </c>
-      <c r="AD24" s="8">
+        <v>558.64784679247191</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>9.8079680000000007</v>
+      </c>
+      <c r="AG24" s="4">
         <f t="shared" si="12"/>
-        <v>5849.7133333333331</v>
-      </c>
-      <c r="AE24" s="14">
-        <f t="shared" si="23"/>
-        <v>79.353387328476117</v>
-      </c>
-      <c r="AF24" s="7">
+        <v>2.8622931800965432</v>
+      </c>
+      <c r="AH24" s="6">
         <f t="shared" si="13"/>
-        <v>558.64784679247191</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>9.8079680000000007</v>
-      </c>
-      <c r="AH24" s="4">
+        <v>0.27292100000000019</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>335</v>
+      </c>
+      <c r="AJ24" s="8">
         <f t="shared" si="14"/>
-        <v>2.8622931800965432</v>
-      </c>
-      <c r="AI24" s="6">
+        <v>29277.516417910447</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>3641</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>7612</v>
+      </c>
+      <c r="AM24" s="8">
         <f t="shared" si="15"/>
-        <v>0.27292100000000019</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>335</v>
-      </c>
-      <c r="AK24" s="8">
+        <v>5626.5</v>
+      </c>
+      <c r="AN24" s="4">
         <f t="shared" si="16"/>
-        <v>29277.516417910447</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>3641</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>7612</v>
-      </c>
-      <c r="AN24" s="8">
+        <v>80.820826612568425</v>
+      </c>
+      <c r="AO24" s="8">
         <f t="shared" si="17"/>
-        <v>5626.5</v>
-      </c>
-      <c r="AO24" s="4">
-        <f t="shared" si="18"/>
-        <v>80.820826612568425</v>
-      </c>
-      <c r="AP24" s="8">
-        <f t="shared" si="19"/>
         <v>573.66622729601067</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2013</v>
       </c>
@@ -4510,27 +4384,27 @@
         <v>0.1075</v>
       </c>
       <c r="F25" s="8">
-        <f>Monitor!AD25</f>
+        <f>Monitor!AC25</f>
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="18">
+        <f t="shared" si="18"/>
+        <v>28.785000290612544</v>
+      </c>
+      <c r="H25" s="6">
+        <f>Monitor!U25</f>
+        <v>11.0656</v>
+      </c>
+      <c r="I25" s="40">
+        <f t="shared" si="19"/>
+        <v>5.6765222706088849</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="20"/>
-        <v>28.785000290612544</v>
-      </c>
-      <c r="H25" s="6">
-        <f>Monitor!V25</f>
-        <v>11.0656</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="21"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="22"/>
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>96.286197309360503</v>
       </c>
       <c r="L25" s="4">
@@ -4559,95 +4433,91 @@
         <f t="shared" si="5"/>
         <v>51.243864036306377</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25" s="39">
+        <f t="shared" si="22"/>
+        <v>5.8333333333333293E-3</v>
+      </c>
+      <c r="T25" s="37">
         <f t="shared" si="6"/>
-        <v>26.88397802000366</v>
-      </c>
-      <c r="T25" s="36">
+        <v>2.2755000000000001</v>
+      </c>
+      <c r="U25" s="4">
+        <v>11.0656</v>
+      </c>
+      <c r="V25" s="14">
         <f t="shared" si="7"/>
-        <v>2.2530000000000001</v>
-      </c>
-      <c r="U25" s="41">
-        <f t="shared" si="24"/>
-        <v>60.569602479068251</v>
-      </c>
-      <c r="V25" s="4">
-        <v>11.0656</v>
+        <v>5.6765222706088849</v>
       </c>
       <c r="W25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.59439999999999849</v>
+      </c>
+      <c r="X25" s="1">
+        <v>316</v>
+      </c>
+      <c r="Y25" s="8">
         <f t="shared" si="9"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="X25" s="14">
+        <v>35017.721518987339</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>16576.66</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1848</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>4176</v>
+      </c>
+      <c r="AC25" s="8">
         <f t="shared" si="10"/>
-        <v>0.59439999999999849</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>316</v>
-      </c>
-      <c r="Z25" s="8">
+        <v>7533.5533333333333</v>
+      </c>
+      <c r="AD25" s="14">
+        <f t="shared" si="21"/>
+        <v>96.70573738213541</v>
+      </c>
+      <c r="AE25" s="7">
         <f t="shared" si="11"/>
-        <v>35017.721518987339</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>16576.66</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>1848</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>4176</v>
-      </c>
-      <c r="AD25" s="8">
+        <v>680.80839117023334</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>9.8494729999999997</v>
+      </c>
+      <c r="AG25" s="4">
         <f t="shared" si="12"/>
-        <v>7533.5533333333333</v>
-      </c>
-      <c r="AE25" s="14">
-        <f t="shared" si="23"/>
-        <v>96.70573738213541</v>
-      </c>
-      <c r="AF25" s="7">
+        <v>0.42317633989016201</v>
+      </c>
+      <c r="AH25" s="6">
         <f t="shared" si="13"/>
-        <v>680.80839117023334</v>
-      </c>
-      <c r="AG25" s="4">
-        <v>9.8494729999999997</v>
-      </c>
-      <c r="AH25" s="4">
+        <v>4.1504999999999015E-2</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>336</v>
+      </c>
+      <c r="AJ25" s="8">
         <f t="shared" si="14"/>
-        <v>0.42317633989016201</v>
-      </c>
-      <c r="AI25" s="6">
+        <v>29313.907738095237</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>4295</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>9552</v>
+      </c>
+      <c r="AM25" s="8">
         <f t="shared" si="15"/>
-        <v>4.1504999999999015E-2</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>336</v>
-      </c>
-      <c r="AK25" s="8">
+        <v>6923.5</v>
+      </c>
+      <c r="AN25" s="4">
         <f t="shared" si="16"/>
-        <v>29313.907738095237</v>
-      </c>
-      <c r="AL25" s="1">
-        <v>4295</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>9552</v>
-      </c>
-      <c r="AN25" s="8">
+        <v>99.032263962853108</v>
+      </c>
+      <c r="AO25" s="8">
         <f t="shared" si="17"/>
-        <v>6923.5</v>
-      </c>
-      <c r="AO25" s="4">
-        <f t="shared" si="18"/>
-        <v>99.032263962853108</v>
-      </c>
-      <c r="AP25" s="8">
-        <f t="shared" si="19"/>
         <v>702.93100960833135</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2014</v>
       </c>
@@ -4665,27 +4535,27 @@
         <v>8.9166666666666672E-2</v>
       </c>
       <c r="F26" s="8">
-        <f>Monitor!AD26</f>
+        <f>Monitor!AC26</f>
         <v>8205.69</v>
       </c>
       <c r="G26" s="18">
+        <f t="shared" si="18"/>
+        <v>8.921907590309317</v>
+      </c>
+      <c r="H26" s="6">
+        <f>Monitor!U26</f>
+        <v>11.732100000000001</v>
+      </c>
+      <c r="I26" s="40">
+        <f t="shared" si="19"/>
+        <v>6.023170908039333</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="20"/>
-        <v>8.921907590309317</v>
-      </c>
-      <c r="H26" s="6">
-        <f>Monitor!V26</f>
-        <v>11.732100000000001</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="21"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="22"/>
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>93.451041804773851</v>
       </c>
       <c r="L26" s="4">
@@ -4714,95 +4584,91 @@
         <f t="shared" si="5"/>
         <v>54.330369547096417</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="39">
+        <f t="shared" si="22"/>
+        <v>-5.0833333333333341E-2</v>
+      </c>
+      <c r="T26" s="37">
         <f t="shared" si="6"/>
-        <v>6.9147366822699841</v>
-      </c>
-      <c r="T26" s="36">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <v>11.732100000000001</v>
+      </c>
+      <c r="V26" s="14">
         <f t="shared" si="7"/>
-        <v>2.3895833333333329</v>
-      </c>
-      <c r="U26" s="41">
-        <f t="shared" si="24"/>
-        <v>16.52333953034098</v>
-      </c>
-      <c r="V26" s="4">
-        <v>11.732100000000001</v>
+        <v>6.023170908039333</v>
       </c>
       <c r="W26" s="14">
+        <f t="shared" si="8"/>
+        <v>0.66650000000000098</v>
+      </c>
+      <c r="X26" s="1">
+        <v>319</v>
+      </c>
+      <c r="Y26" s="8">
         <f t="shared" si="9"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="X26" s="14">
+        <v>36777.742946708466</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>17823.07</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>4736</v>
+      </c>
+      <c r="AC26" s="8">
         <f t="shared" si="10"/>
-        <v>0.66650000000000098</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>319</v>
-      </c>
-      <c r="Z26" s="8">
+        <v>8205.69</v>
+      </c>
+      <c r="AD26" s="14">
+        <f t="shared" si="21"/>
+        <v>99.349729878631351</v>
+      </c>
+      <c r="AE26" s="7">
         <f t="shared" si="11"/>
-        <v>36777.742946708466</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>17823.07</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>2058</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>4736</v>
-      </c>
-      <c r="AD26" s="8">
+        <v>699.42209834556468</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>10.328136000000001</v>
+      </c>
+      <c r="AG26" s="4">
         <f t="shared" si="12"/>
-        <v>8205.69</v>
-      </c>
-      <c r="AE26" s="14">
-        <f t="shared" si="23"/>
-        <v>99.349729878631351</v>
-      </c>
-      <c r="AF26" s="7">
+        <v>4.8597828533567196</v>
+      </c>
+      <c r="AH26" s="6">
         <f t="shared" si="13"/>
-        <v>699.42209834556468</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>10.328136000000001</v>
-      </c>
-      <c r="AH26" s="4">
+        <v>0.47866300000000095</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>337</v>
+      </c>
+      <c r="AJ26" s="8">
         <f t="shared" si="14"/>
-        <v>4.8597828533567196</v>
-      </c>
-      <c r="AI26" s="6">
+        <v>30647.287833827893</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>4272</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>9805</v>
+      </c>
+      <c r="AM26" s="8">
         <f t="shared" si="15"/>
-        <v>0.47866300000000095</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>337</v>
-      </c>
-      <c r="AK26" s="8">
+        <v>7038.5</v>
+      </c>
+      <c r="AN26" s="4">
         <f t="shared" si="16"/>
-        <v>30647.287833827893</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>4272</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>9805</v>
-      </c>
-      <c r="AN26" s="8">
+        <v>96.011260599392998</v>
+      </c>
+      <c r="AO26" s="8">
         <f t="shared" si="17"/>
-        <v>7038.5</v>
-      </c>
-      <c r="AO26" s="4">
-        <f t="shared" si="18"/>
-        <v>96.011260599392998</v>
-      </c>
-      <c r="AP26" s="8">
-        <f t="shared" si="19"/>
         <v>681.48792773449145</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2015</v>
       </c>
@@ -4820,27 +4686,27 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="F27" s="8">
-        <f>Monitor!AD27</f>
+        <f>Monitor!AC27</f>
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="19">
+        <f t="shared" si="18"/>
+        <v>-0.57699799366862692</v>
+      </c>
+      <c r="H27" s="6">
+        <f>Monitor!U27</f>
+        <v>12.458</v>
+      </c>
+      <c r="I27" s="40">
+        <f t="shared" si="19"/>
+        <v>6.1872980966749225</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="20"/>
-        <v>-0.57699799366862692</v>
-      </c>
-      <c r="H27" s="6">
-        <f>Monitor!V27</f>
-        <v>12.458</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="21"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="22"/>
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>91.941991916965421</v>
       </c>
       <c r="L27" s="4">
@@ -4869,95 +4735,91 @@
         <f t="shared" si="5"/>
         <v>57.691951468000369</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="39">
+        <f t="shared" si="22"/>
+        <v>2.5000000000000008E-2</v>
+      </c>
+      <c r="T27" s="37">
         <f t="shared" si="6"/>
-        <v>-4.74229609034355</v>
-      </c>
-      <c r="T27" s="36">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="U27" s="4">
+        <v>12.458</v>
+      </c>
+      <c r="V27" s="14">
         <f t="shared" si="7"/>
-        <v>1.9614999999999998</v>
-      </c>
-      <c r="U27" s="41">
-        <f t="shared" si="24"/>
-        <v>-9.3020137812088723</v>
-      </c>
-      <c r="V27" s="4">
-        <v>12.458</v>
+        <v>6.1872980966749225</v>
       </c>
       <c r="W27" s="14">
+        <f t="shared" si="8"/>
+        <v>0.72589999999999932</v>
+      </c>
+      <c r="X27" s="1">
+        <v>321</v>
+      </c>
+      <c r="Y27" s="8">
         <f t="shared" si="9"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="X27" s="14">
+        <v>38809.968847352022</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>17425.03</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>5007</v>
+      </c>
+      <c r="AC27" s="8">
         <f t="shared" si="10"/>
-        <v>0.72589999999999932</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>321</v>
-      </c>
-      <c r="Z27" s="8">
+        <v>8158.3433333333332</v>
+      </c>
+      <c r="AD27" s="14">
+        <f t="shared" si="21"/>
+        <v>93.02099752136877</v>
+      </c>
+      <c r="AE27" s="7">
         <f t="shared" si="11"/>
-        <v>38809.968847352022</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>17425.03</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>5007</v>
-      </c>
-      <c r="AD27" s="8">
+        <v>654.86782255043613</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>10.837680000000001</v>
+      </c>
+      <c r="AG27" s="4">
         <f t="shared" si="12"/>
-        <v>8158.3433333333332</v>
-      </c>
-      <c r="AE27" s="14">
-        <f t="shared" si="23"/>
-        <v>93.02099752136877</v>
-      </c>
-      <c r="AF27" s="7">
+        <v>4.9335523854449548</v>
+      </c>
+      <c r="AH27" s="6">
         <f t="shared" si="13"/>
-        <v>654.86782255043613</v>
-      </c>
-      <c r="AG27" s="4">
-        <v>10.837680000000001</v>
-      </c>
-      <c r="AH27" s="4">
+        <v>0.509544</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>338</v>
+      </c>
+      <c r="AJ27" s="8">
         <f t="shared" si="14"/>
-        <v>4.9335523854449548</v>
-      </c>
-      <c r="AI27" s="6">
+        <v>32064.142011834319</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>4637</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>10743</v>
+      </c>
+      <c r="AM27" s="8">
         <f t="shared" si="15"/>
-        <v>0.509544</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>338</v>
-      </c>
-      <c r="AK27" s="8">
+        <v>7690</v>
+      </c>
+      <c r="AN27" s="4">
         <f t="shared" si="16"/>
-        <v>32064.142011834319</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>4637</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>10743</v>
-      </c>
-      <c r="AN27" s="8">
+        <v>99.966392780693639</v>
+      </c>
+      <c r="AO27" s="8">
         <f t="shared" si="17"/>
-        <v>7690</v>
-      </c>
-      <c r="AO27" s="4">
-        <f t="shared" si="18"/>
-        <v>99.966392780693639</v>
-      </c>
-      <c r="AP27" s="8">
-        <f t="shared" si="19"/>
         <v>709.56145595736348</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2016</v>
       </c>
@@ -4975,27 +4837,27 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="F28" s="8">
-        <f>Monitor!AD28</f>
+        <f>Monitor!AC28</f>
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="18">
+        <f t="shared" si="18"/>
+        <v>11.883826087240749</v>
+      </c>
+      <c r="H28" s="6">
+        <f>Monitor!U28</f>
+        <v>13.275399999999999</v>
+      </c>
+      <c r="I28" s="40">
+        <f t="shared" si="19"/>
+        <v>6.5612457858404127</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="20"/>
-        <v>11.883826087240749</v>
-      </c>
-      <c r="H28" s="6">
-        <f>Monitor!V28</f>
-        <v>13.275399999999999</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="21"/>
-        <v>6.5612457858404127</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="22"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>92.754955364114394</v>
       </c>
       <c r="L28" s="4">
@@ -5024,95 +4886,91 @@
         <f t="shared" si="5"/>
         <v>61.477262202463642</v>
       </c>
-      <c r="S28" s="34">
-        <f>D28+(G28-N28)</f>
-        <v>7.9864136347336689</v>
-      </c>
-      <c r="T28" s="36">
+      <c r="S28" s="39">
+        <f t="shared" si="22"/>
+        <v>0.30583333333333335</v>
+      </c>
+      <c r="T28" s="37">
+        <f t="shared" si="6"/>
+        <v>1.363833333333333</v>
+      </c>
+      <c r="U28" s="4">
+        <v>13.275399999999999</v>
+      </c>
+      <c r="V28" s="14">
         <f t="shared" si="7"/>
-        <v>1.42825</v>
-      </c>
-      <c r="U28" s="41">
-        <f t="shared" si="24"/>
-        <v>11.406595273808362</v>
-      </c>
-      <c r="V28" s="4">
-        <v>13.275399999999999</v>
+        <v>6.5612457858404127</v>
       </c>
       <c r="W28" s="14">
+        <f t="shared" si="8"/>
+        <v>0.81739999999999924</v>
+      </c>
+      <c r="X28" s="1">
+        <v>323</v>
+      </c>
+      <c r="Y28" s="8">
         <f t="shared" si="9"/>
-        <v>6.5612457858404127</v>
-      </c>
-      <c r="X28" s="14">
+        <v>41100.309597523221</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>19762.599999999999</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>2238</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>5383</v>
+      </c>
+      <c r="AC28" s="8">
         <f t="shared" si="10"/>
-        <v>0.81739999999999924</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>323</v>
-      </c>
-      <c r="Z28" s="8">
+        <v>9127.8666666666668</v>
+      </c>
+      <c r="AD28" s="14">
+        <f t="shared" si="21"/>
+        <v>97.667261980578346</v>
+      </c>
+      <c r="AE28" s="7">
         <f t="shared" si="11"/>
-        <v>41100.309597523221</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>19762.599999999999</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>2238</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>5383</v>
-      </c>
-      <c r="AD28" s="8">
+        <v>687.57752434327153</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>11.392602</v>
+      </c>
+      <c r="AG28" s="4">
         <f t="shared" si="12"/>
-        <v>9127.8666666666668</v>
-      </c>
-      <c r="AE28" s="14">
-        <f t="shared" si="23"/>
-        <v>97.667261980578346</v>
-      </c>
-      <c r="AF28" s="7">
+        <v>5.1203025001660762</v>
+      </c>
+      <c r="AH28" s="6">
         <f t="shared" si="13"/>
-        <v>687.57752434327153</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>11.392602</v>
-      </c>
-      <c r="AH28" s="4">
+        <v>0.55492199999999947</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>339</v>
+      </c>
+      <c r="AJ28" s="8">
         <f t="shared" si="14"/>
-        <v>5.1203025001660762</v>
-      </c>
-      <c r="AI28" s="6">
+        <v>33606.495575221241</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>4862</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>11481</v>
+      </c>
+      <c r="AM28" s="8">
         <f t="shared" si="15"/>
-        <v>0.55492199999999947</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>339</v>
-      </c>
-      <c r="AK28" s="8">
+        <v>8171.5</v>
+      </c>
+      <c r="AN28" s="4">
         <f t="shared" si="16"/>
-        <v>33606.495575221241</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>4862</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>11481</v>
-      </c>
-      <c r="AN28" s="8">
+        <v>101.05152324773309</v>
+      </c>
+      <c r="AO28" s="8">
         <f t="shared" si="17"/>
-        <v>8171.5</v>
-      </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="18"/>
-        <v>101.05152324773309</v>
-      </c>
-      <c r="AP28" s="8">
-        <f t="shared" si="19"/>
         <v>717.26371201240943</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2017</v>
       </c>
@@ -5130,27 +4988,27 @@
         <v>1.0016666666666667</v>
       </c>
       <c r="F29" s="8">
-        <f>Monitor!AD29</f>
+        <f>Monitor!AC29</f>
         <v>11431.74</v>
       </c>
       <c r="G29" s="18">
+        <f t="shared" si="18"/>
+        <v>25.239997662834682</v>
+      </c>
+      <c r="H29" s="6">
+        <f>Monitor!U29</f>
+        <v>13.8584</v>
+      </c>
+      <c r="I29" s="40">
+        <f t="shared" si="19"/>
+        <v>4.3915814212754469</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="20"/>
-        <v>25.239997662834682</v>
-      </c>
-      <c r="H29" s="6">
-        <f>Monitor!V29</f>
-        <v>13.8584</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="21"/>
-        <v>4.3915814212754469</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="22"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>93.555667897121467</v>
       </c>
       <c r="L29" s="4">
@@ -5179,95 +5037,91 @@
         <f t="shared" si="5"/>
         <v>64.17708622765582</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="39">
+        <f>E29-E27</f>
+        <v>0.86916666666666664</v>
+      </c>
+      <c r="T29" s="37">
         <f t="shared" si="6"/>
-        <v>24.188082908225898</v>
-      </c>
-      <c r="T29" s="36">
+        <v>1.2396666666666598</v>
+      </c>
+      <c r="U29" s="4">
+        <v>13.8584</v>
+      </c>
+      <c r="V29" s="14">
         <f t="shared" si="7"/>
-        <v>1.3319166666666631</v>
-      </c>
-      <c r="U29" s="41">
-        <f t="shared" si="24"/>
-        <v>32.216510760181123</v>
-      </c>
-      <c r="V29" s="4">
-        <v>13.8584</v>
+        <v>4.3915814212754469</v>
       </c>
       <c r="W29" s="14">
+        <f t="shared" si="8"/>
+        <v>0.58300000000000018</v>
+      </c>
+      <c r="X29" s="1">
+        <v>325</v>
+      </c>
+      <c r="Y29" s="8">
         <f t="shared" si="9"/>
-        <v>4.3915814212754469</v>
-      </c>
-      <c r="X29" s="14">
+        <v>42641.230769230766</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>24719.22</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>2673</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>6903</v>
+      </c>
+      <c r="AC29" s="8">
         <f t="shared" si="10"/>
-        <v>0.58300000000000018</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>325</v>
-      </c>
-      <c r="Z29" s="8">
+        <v>11431.74</v>
+      </c>
+      <c r="AD29" s="14">
+        <f t="shared" si="21"/>
+        <v>117.17274032683821</v>
+      </c>
+      <c r="AE29" s="7">
         <f t="shared" si="11"/>
-        <v>42641.230769230766</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>24719.22</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>2673</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>6903</v>
-      </c>
-      <c r="AD29" s="8">
+        <v>824.89609190094097</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>11.871539</v>
+      </c>
+      <c r="AG29" s="4">
         <f t="shared" si="12"/>
-        <v>11431.74</v>
-      </c>
-      <c r="AE29" s="14">
-        <f t="shared" si="23"/>
-        <v>117.17274032683821</v>
-      </c>
-      <c r="AF29" s="7">
+        <v>4.2039298836209724</v>
+      </c>
+      <c r="AH29" s="6">
         <f t="shared" si="13"/>
-        <v>824.89609190094097</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>11.871539</v>
-      </c>
-      <c r="AH29" s="4">
+        <v>0.47893700000000017</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>340</v>
+      </c>
+      <c r="AJ29" s="8">
         <f t="shared" si="14"/>
-        <v>4.2039298836209724</v>
-      </c>
-      <c r="AI29" s="6">
+        <v>34916.291176470586</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>5312</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>12917</v>
+      </c>
+      <c r="AM29" s="8">
         <f t="shared" si="15"/>
-        <v>0.47893700000000017</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>340</v>
-      </c>
-      <c r="AK29" s="8">
+        <v>9114.5</v>
+      </c>
+      <c r="AN29" s="4">
         <f t="shared" si="16"/>
-        <v>34916.291176470586</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>5312</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>12917</v>
-      </c>
-      <c r="AN29" s="8">
+        <v>108.16576612494706</v>
+      </c>
+      <c r="AO29" s="8">
         <f t="shared" si="17"/>
-        <v>9114.5</v>
-      </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="18"/>
-        <v>108.16576612494706</v>
-      </c>
-      <c r="AP29" s="8">
-        <f t="shared" si="19"/>
         <v>767.76060795487422</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -5285,27 +5139,27 @@
         <v>1.8316666666666668</v>
       </c>
       <c r="F30" s="8">
-        <f>Monitor!AD30</f>
+        <f>Monitor!AC30</f>
         <v>10822.82</v>
       </c>
       <c r="G30" s="19">
+        <f t="shared" si="18"/>
+        <v>-5.3265732075781926</v>
+      </c>
+      <c r="H30" s="6">
+        <f>Monitor!U30</f>
+        <v>14.4346</v>
+      </c>
+      <c r="I30" s="40">
+        <f t="shared" si="19"/>
+        <v>4.1577671304046646</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="20"/>
-        <v>-5.3265732075781926</v>
-      </c>
-      <c r="H30" s="6">
-        <f>Monitor!V30</f>
-        <v>14.4346</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="21"/>
-        <v>4.1577671304046646</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="22"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>93.688613100198992</v>
       </c>
       <c r="L30" s="4">
@@ -5334,95 +5188,91 @@
         <f t="shared" si="5"/>
         <v>66.845420024080767</v>
       </c>
-      <c r="S30" s="34">
-        <f>D30+(G30-N30)</f>
-        <v>-6.3600903379828573</v>
-      </c>
-      <c r="T30" s="36">
+      <c r="S30" s="39">
+        <f>E30-E28</f>
+        <v>1.4366666666666668</v>
+      </c>
+      <c r="T30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.72425000000000006</v>
+      </c>
+      <c r="U30" s="4">
+        <v>14.4346</v>
+      </c>
+      <c r="V30" s="14">
         <f t="shared" si="7"/>
-        <v>1.0605833333333334</v>
-      </c>
-      <c r="U30" s="41">
-        <f t="shared" si="24"/>
-        <v>-6.7454058109589861</v>
-      </c>
-      <c r="V30" s="4">
-        <v>14.4346</v>
+        <v>4.1577671304046646</v>
       </c>
       <c r="W30" s="14">
+        <f t="shared" si="8"/>
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="X30" s="1">
+        <v>326</v>
+      </c>
+      <c r="Y30" s="8">
         <f t="shared" si="9"/>
-        <v>4.1577671304046646</v>
-      </c>
-      <c r="X30" s="14">
+        <v>44277.914110429447</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>23327.46</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>2506</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>6635</v>
+      </c>
+      <c r="AC30" s="8">
         <f t="shared" si="10"/>
-        <v>0.57620000000000005</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>326</v>
-      </c>
-      <c r="Z30" s="8">
+        <v>10822.82</v>
+      </c>
+      <c r="AD30" s="14">
+        <f t="shared" si="21"/>
+        <v>106.50328975958021</v>
+      </c>
+      <c r="AE30" s="7">
         <f t="shared" si="11"/>
-        <v>44277.914110429447</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>23327.46</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>2506</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>6635</v>
-      </c>
-      <c r="AD30" s="8">
+        <v>749.78315990744466</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>12.363619</v>
+      </c>
+      <c r="AG30" s="4">
         <f t="shared" si="12"/>
-        <v>10822.82</v>
-      </c>
-      <c r="AE30" s="14">
-        <f t="shared" si="23"/>
-        <v>106.50328975958021</v>
-      </c>
-      <c r="AF30" s="7">
+        <v>4.1450396616647538</v>
+      </c>
+      <c r="AH30" s="6">
         <f t="shared" si="13"/>
-        <v>749.78315990744466</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>12.363619</v>
-      </c>
-      <c r="AH30" s="4">
+        <v>0.49207999999999963</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>341</v>
+      </c>
+      <c r="AJ30" s="8">
         <f t="shared" si="14"/>
-        <v>4.1450396616647538</v>
-      </c>
-      <c r="AI30" s="6">
+        <v>36256.947214076245</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>4730</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>10558</v>
+      </c>
+      <c r="AM30" s="8">
         <f t="shared" si="15"/>
-        <v>0.49207999999999963</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>341</v>
-      </c>
-      <c r="AK30" s="8">
+        <v>7644</v>
+      </c>
+      <c r="AN30" s="4">
         <f t="shared" si="16"/>
-        <v>36256.947214076245</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>4730</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>10558</v>
-      </c>
-      <c r="AN30" s="8">
+        <v>87.104194728345874</v>
+      </c>
+      <c r="AO30" s="8">
         <f t="shared" si="17"/>
-        <v>7644</v>
-      </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="18"/>
-        <v>87.104194728345874</v>
-      </c>
-      <c r="AP30" s="8">
-        <f t="shared" si="19"/>
         <v>618.26557418179902</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2019</v>
       </c>
@@ -5440,7 +5290,7 @@
         <v>2.1583333333333332</v>
       </c>
       <c r="F31" s="8">
-        <f>Monitor!AD31</f>
+        <f>Monitor!AC31</f>
         <v>13580.146666666667</v>
       </c>
       <c r="G31" s="18">
@@ -5448,19 +5298,19 @@
         <v>25.476970573904651</v>
       </c>
       <c r="H31" s="6">
-        <f>Monitor!V31</f>
+        <f>Monitor!U31</f>
         <v>15.402100000000001</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="21"/>
+      <c r="I31" s="40">
+        <f t="shared" si="19"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>95.492697868497842</v>
       </c>
       <c r="L31" s="4">
@@ -5489,95 +5339,91 @@
         <f t="shared" si="5"/>
         <v>71.325831249421128</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="39">
+        <f t="shared" si="22"/>
+        <v>1.1566666666666665</v>
+      </c>
+      <c r="T31" s="37">
         <f t="shared" si="6"/>
-        <v>20.581575540443385</v>
-      </c>
-      <c r="T31" s="36">
+        <v>7.2499999999999787E-3</v>
+      </c>
+      <c r="U31" s="4">
+        <v>15.402100000000001</v>
+      </c>
+      <c r="V31" s="14">
         <f t="shared" si="7"/>
-        <v>-7.8666666666663332E-2</v>
-      </c>
-      <c r="U31" s="41">
-        <f t="shared" si="24"/>
-        <v>-1.6190839425148109</v>
-      </c>
-      <c r="V31" s="4">
-        <v>15.402100000000001</v>
+        <v>6.7026450334612662</v>
       </c>
       <c r="W31" s="14">
+        <f t="shared" si="8"/>
+        <v>0.96750000000000114</v>
+      </c>
+      <c r="X31" s="1">
+        <v>328</v>
+      </c>
+      <c r="Y31" s="8">
         <f t="shared" si="9"/>
-        <v>6.7026450334612662</v>
-      </c>
-      <c r="X31" s="14">
+        <v>46957.621951219509</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>28538.44</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>3230</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>8972</v>
+      </c>
+      <c r="AC31" s="8">
         <f t="shared" si="10"/>
-        <v>0.96750000000000114</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>328</v>
-      </c>
-      <c r="Z31" s="8">
+        <v>13580.146666666667</v>
+      </c>
+      <c r="AD31" s="14">
+        <f t="shared" si="21"/>
+        <v>125.24253874865155</v>
+      </c>
+      <c r="AE31" s="7">
         <f t="shared" si="11"/>
-        <v>46957.621951219509</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>28538.44</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>3230</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>8972</v>
-      </c>
-      <c r="AD31" s="8">
+        <v>881.70747279050693</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>12.995488999999999</v>
+      </c>
+      <c r="AG31" s="4">
         <f t="shared" si="12"/>
-        <v>13580.146666666667</v>
-      </c>
-      <c r="AE31" s="14">
-        <f t="shared" si="23"/>
-        <v>125.24253874865155</v>
-      </c>
-      <c r="AF31" s="7">
+        <v>5.1107204128499859</v>
+      </c>
+      <c r="AH31" s="6">
         <f t="shared" si="13"/>
-        <v>881.70747279050693</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>12.995488999999999</v>
-      </c>
-      <c r="AH31" s="4">
+        <v>0.63186999999999927</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>341</v>
+      </c>
+      <c r="AJ31" s="8">
         <f t="shared" si="14"/>
-        <v>5.1107204128499859</v>
-      </c>
-      <c r="AI31" s="6">
+        <v>38109.938416422287</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>5978</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>13249</v>
+      </c>
+      <c r="AM31" s="8">
         <f t="shared" si="15"/>
-        <v>0.63186999999999927</v>
-      </c>
-      <c r="AJ31" s="3">
-        <v>341</v>
-      </c>
-      <c r="AK31" s="8">
+        <v>9613.5</v>
+      </c>
+      <c r="AN31" s="4">
         <f t="shared" si="16"/>
-        <v>38109.938416422287</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>5978</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>13249</v>
-      </c>
-      <c r="AN31" s="8">
+        <v>104.22044175448916</v>
+      </c>
+      <c r="AO31" s="8">
         <f t="shared" si="17"/>
-        <v>9613.5</v>
-      </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="18"/>
-        <v>104.22044175448916</v>
-      </c>
-      <c r="AP31" s="8">
-        <f t="shared" si="19"/>
         <v>739.75669557336403</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
@@ -5595,27 +5441,27 @@
         <v>0.37583333333333335</v>
       </c>
       <c r="F32" s="8">
-        <f>Monitor!AD32</f>
+        <f>Monitor!AC32</f>
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="6">
-        <f>Monitor!V32</f>
+        <f>Monitor!U32</f>
         <v>19.187999999999999</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="21"/>
+      <c r="I32" s="40">
+        <f t="shared" si="19"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="8">
-        <f>AE32</f>
+        <f>AD32</f>
         <v>116.59571796766917</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>96.053484941551801</v>
       </c>
       <c r="L32" s="4">
@@ -5644,95 +5490,91 @@
         <f t="shared" si="5"/>
         <v>88.85801611558766</v>
       </c>
-      <c r="S32" s="34">
-        <f>D32+(G32-N32)</f>
-        <v>-6.9320239784992008</v>
-      </c>
-      <c r="T32" s="36">
+      <c r="S32" s="39">
+        <f t="shared" si="22"/>
+        <v>-1.4558333333333335</v>
+      </c>
+      <c r="T32" s="37">
+        <f t="shared" si="6"/>
+        <v>0.49908333333333299</v>
+      </c>
+      <c r="U32" s="4">
+        <v>19.187999999999999</v>
+      </c>
+      <c r="V32" s="14">
         <f t="shared" si="7"/>
-        <v>0.44499999999999962</v>
-      </c>
-      <c r="U32" s="41">
-        <f t="shared" si="24"/>
-        <v>-3.0847506704321419</v>
-      </c>
-      <c r="V32" s="4">
-        <v>19.187999999999999</v>
+        <v>24.580414359080891</v>
       </c>
       <c r="W32" s="14">
+        <f t="shared" si="8"/>
+        <v>3.785899999999998</v>
+      </c>
+      <c r="X32" s="1">
+        <v>330</v>
+      </c>
+      <c r="Y32" s="8">
         <f t="shared" si="9"/>
-        <v>24.580414359080891</v>
-      </c>
-      <c r="X32" s="14">
+        <v>58145.454545454544</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>30606.48</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>3756</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>12888</v>
+      </c>
+      <c r="AC32" s="8">
         <f t="shared" si="10"/>
-        <v>3.785899999999998</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>330</v>
-      </c>
-      <c r="Z32" s="8">
+        <v>15750.159999999998</v>
+      </c>
+      <c r="AD32" s="14">
+        <f t="shared" si="21"/>
+        <v>116.59571796766917</v>
+      </c>
+      <c r="AE32" s="7">
         <f t="shared" si="11"/>
-        <v>58145.454545454544</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>30606.48</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>3756</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>12888</v>
-      </c>
-      <c r="AD32" s="8">
+        <v>820.83385449239097</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>14.492039</v>
+      </c>
+      <c r="AG32" s="4">
         <f t="shared" si="12"/>
-        <v>15750.159999999998</v>
-      </c>
-      <c r="AE32" s="14">
-        <f t="shared" si="23"/>
-        <v>116.59571796766917</v>
-      </c>
-      <c r="AF32" s="7">
+        <v>11.515919100851079</v>
+      </c>
+      <c r="AH32" s="6">
         <f t="shared" si="13"/>
-        <v>820.83385449239097</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>14.492039</v>
-      </c>
-      <c r="AH32" s="4">
+        <v>1.4965500000000009</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>342</v>
+      </c>
+      <c r="AJ32" s="8">
         <f t="shared" si="14"/>
-        <v>11.515919100851079</v>
-      </c>
-      <c r="AI32" s="6">
+        <v>42374.383040935674</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>5551</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>13718</v>
+      </c>
+      <c r="AM32" s="8">
         <f t="shared" si="15"/>
-        <v>1.4965500000000009</v>
-      </c>
-      <c r="AJ32" s="3">
-        <v>342</v>
-      </c>
-      <c r="AK32" s="8">
+        <v>9634.5</v>
+      </c>
+      <c r="AN32" s="4">
         <f t="shared" si="16"/>
-        <v>42374.383040935674</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>5551</v>
-      </c>
-      <c r="AM32" s="8">
-        <v>13718</v>
-      </c>
-      <c r="AN32" s="8">
+        <v>93.662057097504444</v>
+      </c>
+      <c r="AO32" s="8">
         <f t="shared" si="17"/>
-        <v>9634.5</v>
-      </c>
-      <c r="AO32" s="4">
-        <f t="shared" si="18"/>
-        <v>93.662057097504444</v>
-      </c>
-      <c r="AP32" s="8">
-        <f t="shared" si="19"/>
         <v>664.81328127808649</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2021</v>
       </c>
@@ -5750,7 +5592,7 @@
         <v>0.08</v>
       </c>
       <c r="F33" s="11">
-        <f>Monitor!AD33</f>
+        <f>Monitor!AC33</f>
         <v>18916.333333333332</v>
       </c>
       <c r="G33" s="22">
@@ -5758,19 +5600,19 @@
         <v>20.102483614981281</v>
       </c>
       <c r="H33" s="6">
-        <f>Monitor!V33</f>
+        <f>Monitor!U33</f>
         <v>21.594000000000001</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="41">
         <f>(H33*100/H32)-100</f>
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>97.093411293656871</v>
       </c>
       <c r="L33" s="14">
@@ -5780,7 +5622,7 @@
         <v>92.763750000000002</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="1"/>
+        <f>I33-L33</f>
         <v>7.8390869293308496</v>
       </c>
       <c r="O33" s="21">
@@ -5799,95 +5641,91 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="S33" s="34">
+      <c r="S33" s="39">
+        <f t="shared" si="22"/>
+        <v>-2.0783333333333331</v>
+      </c>
+      <c r="T33" s="37">
         <f t="shared" si="6"/>
-        <v>13.637396685650431</v>
-      </c>
-      <c r="T33" s="36">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="U33" s="14">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="V33" s="14">
         <f t="shared" si="7"/>
-        <v>1.494</v>
-      </c>
-      <c r="U33" s="41">
-        <f t="shared" si="24"/>
-        <v>20.374270648361744</v>
-      </c>
-      <c r="V33" s="14">
-        <v>21.594000000000001</v>
+        <v>12.53908692933085</v>
       </c>
       <c r="W33" s="14">
+        <f t="shared" si="8"/>
+        <v>2.4060000000000024</v>
+      </c>
+      <c r="X33" s="23">
+        <v>331</v>
+      </c>
+      <c r="Y33" s="11">
         <f t="shared" si="9"/>
-        <v>12.53908692933085</v>
-      </c>
-      <c r="X33" s="14">
+        <v>65238.670694864049</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>36338</v>
+      </c>
+      <c r="AA33" s="23">
+        <v>4766</v>
+      </c>
+      <c r="AB33" s="23">
+        <v>15645</v>
+      </c>
+      <c r="AC33" s="11">
         <f t="shared" si="10"/>
-        <v>2.4060000000000024</v>
-      </c>
-      <c r="Y33" s="23">
-        <v>331</v>
-      </c>
-      <c r="Z33" s="11">
+        <v>18916.333333333332</v>
+      </c>
+      <c r="AD33" s="14">
+        <f t="shared" si="21"/>
+        <v>124.43174801642429</v>
+      </c>
+      <c r="AE33" s="7">
         <f t="shared" si="11"/>
-        <v>65238.670694864049</v>
-      </c>
-      <c r="AA33" s="23">
-        <v>36338</v>
-      </c>
-      <c r="AB33" s="23">
-        <v>4766</v>
-      </c>
-      <c r="AC33" s="23">
-        <v>15645</v>
-      </c>
-      <c r="AD33" s="11">
+        <v>875.99950603562706</v>
+      </c>
+      <c r="AF33" s="14">
+        <v>15.396000000000001</v>
+      </c>
+      <c r="AG33" s="14">
         <f t="shared" si="12"/>
-        <v>18916.333333333332</v>
-      </c>
-      <c r="AE33" s="14">
-        <f t="shared" si="23"/>
-        <v>124.43174801642429</v>
-      </c>
-      <c r="AF33" s="7">
+        <v>6.2376384717154139</v>
+      </c>
+      <c r="AH33" s="21">
         <f t="shared" si="13"/>
-        <v>875.99950603562706</v>
-      </c>
-      <c r="AG33" s="14">
-        <v>15.396000000000001</v>
-      </c>
-      <c r="AH33" s="14">
+        <v>0.90396100000000068</v>
+      </c>
+      <c r="AI33" s="27">
+        <v>342</v>
+      </c>
+      <c r="AJ33" s="11">
         <f t="shared" si="14"/>
-        <v>6.2376384717154139</v>
-      </c>
-      <c r="AI33" s="21">
+        <v>45017.543859649122</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>7170</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>15946</v>
+      </c>
+      <c r="AM33" s="11">
         <f t="shared" si="15"/>
-        <v>0.90396100000000068</v>
-      </c>
-      <c r="AJ33" s="27">
-        <v>342</v>
-      </c>
-      <c r="AK33" s="11">
+        <v>11558</v>
+      </c>
+      <c r="AN33" s="14">
         <f t="shared" si="16"/>
-        <v>45017.543859649122</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>7170</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>15946</v>
-      </c>
-      <c r="AN33" s="11">
+        <v>105.76422531575717</v>
+      </c>
+      <c r="AO33" s="8">
         <f t="shared" si="17"/>
-        <v>11558</v>
-      </c>
-      <c r="AO33" s="14">
-        <f t="shared" si="18"/>
-        <v>105.76422531575717</v>
-      </c>
-      <c r="AP33" s="8">
-        <f t="shared" si="19"/>
         <v>750.71447129124442</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2022</v>
       </c>
@@ -5905,7 +5743,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F34" s="11">
-        <f>Monitor!AD34</f>
+        <f>Monitor!AC34</f>
         <v>15817.333333333334</v>
       </c>
       <c r="G34" s="26">
@@ -5913,19 +5751,19 @@
         <v>-16.382667535991814</v>
       </c>
       <c r="H34" s="6">
-        <f>Monitor!V34</f>
+        <f>Monitor!U34</f>
         <v>21.236000000000001</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="41">
         <f>(H34*100/H33)-100</f>
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="23"/>
         <v>100.04303319683673</v>
       </c>
       <c r="L34" s="14">
@@ -5954,95 +5792,91 @@
         <f t="shared" si="5"/>
         <v>98.342132073724173</v>
       </c>
-      <c r="S34" s="34">
-        <f>D34+(G34-N34)</f>
-        <v>-7.6147996097159867</v>
-      </c>
-      <c r="T34" s="36">
-        <f>C34-E34</f>
-        <v>-0.22999999999999954</v>
-      </c>
-      <c r="U34" s="41">
-        <f t="shared" si="24"/>
-        <v>1.7514039102346735</v>
+      <c r="S34" s="39">
+        <f>E34-E32</f>
+        <v>3.7241666666666662</v>
+      </c>
+      <c r="T34" s="37">
+        <f t="shared" si="6"/>
+        <v>-0.88999999999999968</v>
+      </c>
+      <c r="U34" s="14">
+        <v>21.236000000000001</v>
       </c>
       <c r="V34" s="14">
-        <v>21.236000000000001</v>
+        <f t="shared" si="7"/>
+        <v>-1.6578679262758271</v>
       </c>
       <c r="W34" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.35800000000000054</v>
+      </c>
+      <c r="X34" s="23">
+        <v>333</v>
+      </c>
+      <c r="Y34" s="11">
         <f t="shared" si="9"/>
-        <v>-1.6578679262758271</v>
-      </c>
-      <c r="X34" s="14">
+        <v>63771.771771771775</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>33147</v>
+      </c>
+      <c r="AA34" s="23">
+        <v>3839</v>
+      </c>
+      <c r="AB34" s="23">
+        <v>10466</v>
+      </c>
+      <c r="AC34" s="11">
         <f t="shared" si="10"/>
-        <v>-0.35800000000000054</v>
-      </c>
-      <c r="Y34" s="23">
-        <v>333</v>
-      </c>
-      <c r="Z34" s="11">
+        <v>15817.333333333334</v>
+      </c>
+      <c r="AD34" s="14">
+        <f t="shared" si="21"/>
+        <v>105.80054167594193</v>
+      </c>
+      <c r="AE34" s="28">
         <f t="shared" si="11"/>
-        <v>63771.771771771775</v>
-      </c>
-      <c r="AA34" s="23">
-        <v>33147</v>
-      </c>
-      <c r="AB34" s="23">
-        <v>3839</v>
-      </c>
-      <c r="AC34" s="23">
-        <v>10466</v>
-      </c>
-      <c r="AD34" s="11">
+        <v>744.83581339863122</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>16.068000000000001</v>
+      </c>
+      <c r="AG34" s="14">
         <f t="shared" si="12"/>
-        <v>15817.333333333334</v>
-      </c>
-      <c r="AE34" s="14">
-        <f t="shared" si="23"/>
-        <v>105.80054167594193</v>
-      </c>
-      <c r="AF34" s="28">
+        <v>4.3647700701480971</v>
+      </c>
+      <c r="AH34" s="21">
         <f t="shared" si="13"/>
-        <v>744.83581339863122</v>
-      </c>
-      <c r="AG34" s="14">
-        <v>16.068000000000001</v>
-      </c>
-      <c r="AH34" s="14">
+        <v>0.6720000000000006</v>
+      </c>
+      <c r="AI34" s="27">
+        <v>342</v>
+      </c>
+      <c r="AJ34" s="11">
         <f t="shared" si="14"/>
-        <v>4.3647700701480971</v>
-      </c>
-      <c r="AI34" s="21">
+        <v>46982.456140350885</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>6473</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>13923</v>
+      </c>
+      <c r="AM34" s="11">
         <f t="shared" si="15"/>
-        <v>0.6720000000000006</v>
-      </c>
-      <c r="AJ34" s="27">
-        <v>342</v>
-      </c>
-      <c r="AK34" s="11">
+        <v>10198</v>
+      </c>
+      <c r="AN34" s="14">
         <f t="shared" si="16"/>
-        <v>46982.456140350885</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>6473</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>13923</v>
-      </c>
-      <c r="AN34" s="11">
+        <v>89.416401819458059</v>
+      </c>
+      <c r="AO34" s="11">
         <f t="shared" si="17"/>
-        <v>10198</v>
-      </c>
-      <c r="AO34" s="14">
-        <f t="shared" si="18"/>
-        <v>89.416401819458059</v>
-      </c>
-      <c r="AP34" s="11">
-        <f t="shared" si="19"/>
         <v>634.67762011451327</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2023</v>
       </c>
@@ -6067,15 +5901,15 @@
         <v>19.463879288544206</v>
       </c>
       <c r="H35" s="6">
-        <f>Monitor!V35</f>
+        <f>Monitor!U35</f>
         <v>20.864999999999998</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="41">
         <f>(H35*100/H34)-100</f>
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="6">
@@ -6108,95 +5942,91 @@
         <f t="shared" si="5"/>
         <v>96.624062239510977</v>
       </c>
-      <c r="S35" s="34">
+      <c r="S35" s="39">
+        <f t="shared" si="22"/>
+        <v>5.25</v>
+      </c>
+      <c r="T35" s="37">
         <f t="shared" si="6"/>
-        <v>23.910912628156197</v>
-      </c>
-      <c r="T35" s="36">
+        <v>-1.4</v>
+      </c>
+      <c r="U35" s="14">
+        <v>20.864999999999998</v>
+      </c>
+      <c r="V35" s="14">
         <f t="shared" si="7"/>
-        <v>-1.4700000000000002</v>
-      </c>
-      <c r="U35" s="41">
-        <f t="shared" si="24"/>
-        <v>-35.149041563389616</v>
-      </c>
-      <c r="V35" s="14">
-        <v>20.864999999999998</v>
+        <v>-1.7470333396119884</v>
       </c>
       <c r="W35" s="14">
+        <f t="shared" si="8"/>
+        <v>-0.37100000000000222</v>
+      </c>
+      <c r="X35" s="23">
+        <v>333</v>
+      </c>
+      <c r="Y35" s="11">
         <f t="shared" si="9"/>
-        <v>-1.7470333396119884</v>
-      </c>
-      <c r="X35" s="14">
-        <f t="shared" si="10"/>
-        <v>-0.37100000000000222</v>
-      </c>
-      <c r="Y35" s="23">
-        <v>333</v>
-      </c>
-      <c r="Z35" s="11">
+        <v>62657.657657657655</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>37466</v>
+      </c>
+      <c r="AA35" s="23">
+        <v>4697</v>
+      </c>
+      <c r="AB35" s="23">
+        <v>14524</v>
+      </c>
+      <c r="AC35" s="11">
+        <f>AVERAGE(Z35:AB35)</f>
+        <v>18895.666666666668</v>
+      </c>
+      <c r="AD35" s="14">
+        <f t="shared" si="21"/>
+        <v>128.6385602974388</v>
+      </c>
+      <c r="AE35" s="28">
         <f t="shared" si="11"/>
-        <v>62657.657657657655</v>
-      </c>
-      <c r="AA35" s="23">
-        <v>37466</v>
-      </c>
-      <c r="AB35" s="23">
-        <v>4697</v>
-      </c>
-      <c r="AC35" s="23">
-        <v>14524</v>
-      </c>
-      <c r="AD35" s="11">
-        <f>AVERAGE(AA35:AC35)</f>
-        <v>18895.666666666668</v>
-      </c>
-      <c r="AE35" s="14">
-        <f t="shared" si="23"/>
-        <v>128.6385602974388</v>
-      </c>
-      <c r="AF35" s="28">
+        <v>905.61546449396928</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>16.111999999999998</v>
+      </c>
+      <c r="AG35" s="14">
+        <f t="shared" si="12"/>
+        <v>0.27383619616627186</v>
+      </c>
+      <c r="AH35" s="21">
         <f t="shared" si="13"/>
-        <v>905.61546449396928</v>
-      </c>
-      <c r="AG35" s="14">
-        <v>16.111999999999998</v>
-      </c>
-      <c r="AH35" s="14">
+        <v>4.399999999999693E-2</v>
+      </c>
+      <c r="AI35" s="27">
+        <v>342</v>
+      </c>
+      <c r="AJ35" s="11">
         <f t="shared" si="14"/>
-        <v>0.27383619616627186</v>
-      </c>
-      <c r="AI35" s="21">
+        <v>47111.111111111102</v>
+      </c>
+      <c r="AK35" s="23">
+        <v>7543</v>
+      </c>
+      <c r="AL35" s="23">
+        <v>16751</v>
+      </c>
+      <c r="AM35" s="23">
         <f t="shared" si="15"/>
-        <v>4.399999999999693E-2</v>
-      </c>
-      <c r="AJ35" s="27">
-        <v>342</v>
-      </c>
-      <c r="AK35" s="11">
+        <v>12147</v>
+      </c>
+      <c r="AN35" s="14">
         <f t="shared" si="16"/>
-        <v>47111.111111111102</v>
-      </c>
-      <c r="AL35" s="23">
-        <v>7543</v>
-      </c>
-      <c r="AM35" s="23">
-        <v>16751</v>
-      </c>
-      <c r="AN35" s="23">
+        <v>106.21444478674638</v>
+      </c>
+      <c r="AO35" s="11">
         <f t="shared" si="17"/>
-        <v>12147</v>
-      </c>
-      <c r="AO35" s="14">
-        <f t="shared" si="18"/>
-        <v>106.21444478674638</v>
-      </c>
-      <c r="AP35" s="11">
-        <f t="shared" si="19"/>
         <v>753.91012909632582</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>2024</v>
       </c>
@@ -6214,7 +6044,7 @@
         <v>5.33</v>
       </c>
       <c r="F36" s="11">
-        <f>Monitor!AD36</f>
+        <f>Monitor!AC36</f>
         <v>20528.666666666668</v>
       </c>
       <c r="G36" s="26">
@@ -6222,15 +6052,15 @@
         <v>8.6402766017499317</v>
       </c>
       <c r="H36" s="21">
-        <f>Monitor!V36</f>
+        <f>Monitor!U36</f>
         <v>21.024000000000001</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="41">
         <f>(H36*100/H35)-100</f>
         <v>0.76204169662115362</v>
       </c>
       <c r="J36" s="11">
-        <f>AE36</f>
+        <f>AD36</f>
         <v>138.69881030625893</v>
       </c>
       <c r="K36" s="6">
@@ -6263,96 +6093,93 @@
         <f t="shared" si="5"/>
         <v>97.360377882745212</v>
       </c>
-      <c r="S36" s="35">
-        <f>D36+(G36-N36)</f>
-        <v>10.078234905128777</v>
+      <c r="S36" s="39">
+        <f>E36-E34</f>
+        <v>1.2300000000000004</v>
       </c>
       <c r="T36" s="37">
-        <f>C36-E36</f>
-        <v>-1.3900000000000001</v>
-      </c>
-      <c r="U36" s="41">
-        <f>S36*T36</f>
-        <v>-14.008746518129001</v>
+        <f t="shared" si="6"/>
+        <v>-1.0500000000000003</v>
+      </c>
+      <c r="U36" s="14">
+        <v>21.024000000000001</v>
       </c>
       <c r="V36" s="14">
-        <v>21.024000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.76204169662115362</v>
       </c>
       <c r="W36" s="14">
-        <f t="shared" si="9"/>
-        <v>0.76204169662115362</v>
-      </c>
-      <c r="X36" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.15900000000000247</v>
       </c>
-      <c r="Y36" s="23">
+      <c r="X36" s="23">
         <v>333</v>
       </c>
-      <c r="Z36" s="11">
-        <f>(V36*1000000000000)/(Y36*1000000)</f>
+      <c r="Y36" s="11">
+        <f>(U36*1000000000000)/(X36*1000000)</f>
         <v>63135.135135135133</v>
       </c>
+      <c r="Z36" s="23">
+        <v>39497</v>
+      </c>
       <c r="AA36" s="23">
-        <v>39497</v>
+        <v>5344</v>
       </c>
       <c r="AB36" s="23">
-        <v>5344</v>
-      </c>
-      <c r="AC36" s="23">
         <v>16745</v>
       </c>
-      <c r="AD36" s="11">
-        <f>AVERAGE(AA36:AC36)</f>
+      <c r="AC36" s="11">
+        <f>AVERAGE(Z36:AB36)</f>
         <v>20528.666666666668</v>
       </c>
-      <c r="AE36" s="14">
-        <f>((AD36/V36)/100)*100/7.04</f>
+      <c r="AD36" s="14">
+        <f>((AC36/U36)/100)*100/7.04</f>
         <v>138.69881030625893</v>
       </c>
-      <c r="AF36" s="28">
+      <c r="AE36" s="28">
+        <f t="shared" si="11"/>
+        <v>976.43962455606288</v>
+      </c>
+      <c r="AF36" s="14">
+        <v>16.376000000000001</v>
+      </c>
+      <c r="AG36" s="14">
+        <f>(AF36*100/AF35)-100</f>
+        <v>1.6385302879841248</v>
+      </c>
+      <c r="AH36" s="21">
         <f t="shared" si="13"/>
-        <v>976.43962455606288</v>
-      </c>
-      <c r="AG36" s="14">
-        <v>16.376000000000001</v>
-      </c>
-      <c r="AH36" s="14">
-        <f>(AG36*100/AG35)-100</f>
-        <v>1.6385302879841248</v>
-      </c>
-      <c r="AI36" s="21">
-        <f t="shared" si="15"/>
         <v>0.2640000000000029</v>
       </c>
-      <c r="AJ36" s="27">
+      <c r="AI36" s="27">
         <v>343</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AJ36" s="11">
+        <f t="shared" si="14"/>
+        <v>47743.440233236157</v>
+      </c>
+      <c r="AK36" s="23">
+        <v>7269</v>
+      </c>
+      <c r="AL36" s="23">
+        <v>17722</v>
+      </c>
+      <c r="AM36" s="11">
+        <f>AVERAGE(AK36:AL36)</f>
+        <v>12495.5</v>
+      </c>
+      <c r="AN36" s="14">
         <f t="shared" si="16"/>
-        <v>47743.440233236157</v>
-      </c>
-      <c r="AL36" s="23">
-        <v>7269</v>
-      </c>
-      <c r="AM36" s="23">
-        <v>17722</v>
-      </c>
-      <c r="AN36" s="11">
-        <f>AVERAGE(AL36:AM36)</f>
-        <v>12495.5</v>
-      </c>
-      <c r="AO36" s="14">
-        <f t="shared" si="18"/>
         <v>107.50033414533057</v>
       </c>
-      <c r="AP36" s="11">
-        <f>AN36/AG36</f>
+      <c r="AO36" s="11">
+        <f>AM36/AF36</f>
         <v>763.03737176355639</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="H37" s="42"/>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C37" s="42"/>
+      <c r="H37" s="38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C37:D43">
@@ -6448,23 +6275,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S36">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="between">
-      <formula>0</formula>
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="between">
+      <formula>0.01</formula>
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T36">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>-2</formula>
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CE6EF-B020-45A7-8BED-082DBCA97588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0458D30E-08B8-4E36-81CA-57AD2B52B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -756,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="O2" s="21">
         <f t="shared" ref="O2:O36" si="2">J2*MAX($D$2:$D$36)/MAX($J$2:$J$36)</f>
-        <v>1.1643308672016148</v>
+        <v>1.0753119712808497</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P36" si="3">L2*MAX($D$2:$D$36)/MAX($L$2:$L$36)</f>
@@ -972,7 +972,7 @@
       </c>
       <c r="Q2" s="8">
         <f t="shared" ref="Q2:Q36" si="4">(F2*100/MAX($F$2:$F$36))</f>
-        <v>5.4178871821517873</v>
+        <v>4.8169599676623021</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" ref="R2:R36" si="5">(H2*MAX($Q$2:$Q$36)/MAX($H$2:$H$36))</f>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="O3" s="21">
         <f t="shared" si="2"/>
-        <v>1.4155081694606833</v>
+        <v>1.3072855173248155</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="3"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="4"/>
-        <v>6.7739908420744968</v>
+        <v>6.0226508250443915</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="5"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="O4" s="21">
         <f t="shared" si="2"/>
-        <v>1.480441211353513</v>
+        <v>1.3672541046447206</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="3"/>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="4"/>
-        <v>7.1641444484136017</v>
+        <v>6.3695303815559647</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="5"/>
-        <v>15.833564879133091</v>
+        <v>15.833564879133093</v>
       </c>
       <c r="S4" s="39">
         <f>E4-E2</f>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="O5" s="21">
         <f t="shared" si="2"/>
-        <v>1.64947060253177</v>
+        <v>1.5233603567010101</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="3"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="4"/>
-        <v>8.1123794368850071</v>
+        <v>7.2125914911432245</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="5"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="O6" s="21">
         <f t="shared" si="2"/>
-        <v>1.6570881776886179</v>
+        <v>1.530395530283565</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="3"/>
@@ -1558,11 +1558,11 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="4"/>
-        <v>8.1908875393758329</v>
+        <v>7.2823918347312659</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="5"/>
-        <v>16.173011021580066</v>
+        <v>16.17301102158007</v>
       </c>
       <c r="S6" s="39">
         <f t="shared" ref="S6:S35" si="22">E6-E4</f>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="O7" s="21">
         <f t="shared" si="2"/>
-        <v>2.1335716620594849</v>
+        <v>1.9704494782588904</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="3"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>11.0156853830416</v>
+        <v>9.7938760484488014</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="5"/>
-        <v>16.893118458831154</v>
+        <v>16.893118458831157</v>
       </c>
       <c r="S7" s="39">
         <f t="shared" si="22"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="O8" s="21">
         <f t="shared" si="2"/>
-        <v>2.5434844182018264</v>
+        <v>2.3490223618585326</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="3"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="4"/>
-        <v>13.768177832624298</v>
+        <v>12.241074650998284</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="5"/>
-        <v>17.71140131518014</v>
+        <v>17.711401315180144</v>
       </c>
       <c r="S8" s="39">
         <f t="shared" si="22"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O9" s="21">
         <f t="shared" si="2"/>
-        <v>2.9625497990734435</v>
+        <v>2.7360481064251654</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="3"/>
@@ -2011,11 +2011,11 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="4"/>
-        <v>16.965381742603835</v>
+        <v>15.083659356999521</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="5"/>
-        <v>18.737149208113365</v>
+        <v>18.737149208113369</v>
       </c>
       <c r="S9" s="39">
         <f t="shared" si="22"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="O10" s="21">
         <f t="shared" si="2"/>
-        <v>3.291615120348967</v>
+        <v>3.039954744365116</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="3"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="4"/>
-        <v>20.463140973597898</v>
+        <v>18.193463165340919</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="5"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O11" s="21">
         <f t="shared" si="2"/>
-        <v>3.4584999999999999</v>
+        <v>3.1940804434851802</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="3"/>
@@ -2313,11 +2313,11 @@
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="4"/>
-        <v>22.789465138180756</v>
+        <v>20.261762115809383</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="5"/>
-        <v>21.560155598777435</v>
+        <v>21.560155598777438</v>
       </c>
       <c r="S11" s="39">
         <f t="shared" si="22"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="O12" s="21">
         <f t="shared" si="2"/>
-        <v>3.368963198971104</v>
+        <v>3.1113891770001088</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="3"/>
@@ -2464,11 +2464,11 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="4"/>
-        <v>23.670947942714253</v>
+        <v>21.045474887756427</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="5"/>
-        <v>22.989256274891176</v>
+        <v>22.989256274891179</v>
       </c>
       <c r="S12" s="39">
         <f>E12-E10</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O13" s="21">
         <f t="shared" si="2"/>
-        <v>2.7657804424624666</v>
+        <v>2.5543227475041643</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="3"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="4"/>
-        <v>21.302844802390151</v>
+        <v>18.940030894050725</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="5"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="O14" s="21">
         <f t="shared" si="2"/>
-        <v>2.0906905166266414</v>
+        <v>1.9308468100439737</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="3"/>
@@ -2766,11 +2766,11 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="4"/>
-        <v>17.139658363913874</v>
+        <v>15.23860601423436</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="5"/>
-        <v>26.823654718903398</v>
+        <v>26.823654718903402</v>
       </c>
       <c r="S14" s="39">
         <f t="shared" si="22"/>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="O15" s="21">
         <f t="shared" si="2"/>
-        <v>2.5674608694577175</v>
+        <v>2.3711656939564416</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="3"/>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
-        <v>22.030851167473127</v>
+        <v>19.587290129783888</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="5"/>
-        <v>28.07585440400111</v>
+        <v>28.075854404001113</v>
       </c>
       <c r="S15" s="39">
         <f t="shared" si="22"/>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="O16" s="21">
         <f t="shared" si="2"/>
-        <v>2.5354603268007918</v>
+        <v>2.3416117522240718</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="3"/>
@@ -3068,11 +3068,11 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="4"/>
-        <v>23.006868444126908</v>
+        <v>20.455052043482652</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="5"/>
-        <v>29.68972862832268</v>
+        <v>29.689728628322687</v>
       </c>
       <c r="S16" s="39">
         <f t="shared" si="22"/>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="O17" s="21">
         <f t="shared" si="2"/>
-        <v>2.4226291102096447</v>
+        <v>2.2374070443078011</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="3"/>
@@ -3219,11 +3219,11 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="4"/>
-        <v>23.009287825155067</v>
+        <v>20.457203077855894</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="5"/>
-        <v>31.075761785681205</v>
+        <v>31.075761785681209</v>
       </c>
       <c r="S17" s="39">
         <f t="shared" si="22"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O18" s="21">
         <f t="shared" si="2"/>
-        <v>2.6348666879202365</v>
+        <v>2.4334180017570035</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="3"/>
@@ -3370,11 +3370,11 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="4"/>
-        <v>26.460802779852564</v>
+        <v>23.525891813076555</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="5"/>
-        <v>32.858664443826989</v>
+        <v>32.858664443826996</v>
       </c>
       <c r="S18" s="39">
         <f t="shared" si="22"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O19" s="21">
         <f t="shared" si="2"/>
-        <v>2.6621998895972174</v>
+        <v>2.4586614439817485</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="3"/>
@@ -3521,11 +3521,11 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="4"/>
-        <v>28.228525963693045</v>
+        <v>25.097547243355613</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="5"/>
-        <v>34.693896452718342</v>
+        <v>34.693896452718349</v>
       </c>
       <c r="S19" s="39">
         <f>E19-E17</f>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="O20" s="21">
         <f t="shared" si="2"/>
-        <v>1.5629660806443044</v>
+        <v>1.4434695365090802</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="3"/>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="4"/>
-        <v>18.277514370149056</v>
+        <v>16.250256247383387</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="5"/>
-        <v>38.262480318607018</v>
+        <v>38.262480318607025</v>
       </c>
       <c r="S20" s="39">
         <f t="shared" si="22"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="O21" s="21">
         <f t="shared" si="2"/>
-        <v>1.876199987495333</v>
+        <v>1.7327551505351981</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="3"/>
@@ -3823,11 +3823,11 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="4"/>
-        <v>22.427256194589678</v>
+        <v>19.93972772813235</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="5"/>
-        <v>39.111327220524217</v>
+        <v>39.111327220524224</v>
       </c>
       <c r="S21" s="39">
         <f t="shared" si="22"/>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="O22" s="21">
         <f t="shared" si="2"/>
-        <v>2.0130343817404976</v>
+        <v>1.8591278735812069</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="3"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="4"/>
-        <v>25.146153346539798</v>
+        <v>22.357057269485626</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="5"/>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="O23" s="21">
         <f t="shared" si="2"/>
-        <v>1.8958525969467728</v>
+        <v>1.7509052200775708</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="3"/>
@@ -4125,11 +4125,11 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="4"/>
-        <v>26.109115708115482</v>
+        <v>23.213212259452281</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="5"/>
-        <v>45.060201907937383</v>
+        <v>45.06020190793739</v>
       </c>
       <c r="S23" s="39">
         <f t="shared" si="22"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="O24" s="21">
         <f t="shared" si="2"/>
-        <v>1.9227199015130723</v>
+        <v>1.7757183853470164</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="3"/>
@@ -4276,11 +4276,11 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="4"/>
-        <v>28.495339849965895</v>
+        <v>25.334767356248822</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="5"/>
-        <v>48.491247568769104</v>
+        <v>48.491247568769118</v>
       </c>
       <c r="S24" s="39">
         <f t="shared" si="22"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="O25" s="21">
         <f t="shared" si="2"/>
-        <v>2.3431645719855014</v>
+        <v>2.1640179659523531</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="3"/>
@@ -4427,11 +4427,11 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="4"/>
-        <v>36.697723508589611</v>
+        <v>32.627380213371062</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="5"/>
-        <v>51.243864036306377</v>
+        <v>51.243864036306384</v>
       </c>
       <c r="S25" s="39">
         <f t="shared" si="22"/>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="O26" s="21">
         <f t="shared" si="2"/>
-        <v>2.4072280879060086</v>
+        <v>2.2231835068928163</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="3"/>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="4"/>
-        <v>39.971860487773192</v>
+        <v>35.538364925146887</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="5"/>
-        <v>54.330369547096417</v>
+        <v>54.330369547096424</v>
       </c>
       <c r="S26" s="39">
         <f t="shared" si="22"/>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O27" s="21">
         <f t="shared" si="2"/>
-        <v>2.2538839136455122</v>
+        <v>2.0815632587714243</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="3"/>
@@ -4729,11 +4729,11 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="4"/>
-        <v>39.741223654726724</v>
+        <v>35.33330927254616</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="5"/>
-        <v>57.691951468000369</v>
+        <v>57.691951468000376</v>
       </c>
       <c r="S27" s="39">
         <f t="shared" si="22"/>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="O28" s="21">
         <f t="shared" si="2"/>
-        <v>2.3664621594415718</v>
+        <v>2.1855343367702855</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="3"/>
@@ -4880,11 +4880,11 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="4"/>
-        <v>44.464001558795829</v>
+        <v>39.532258297362453</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="5"/>
-        <v>61.477262202463642</v>
+        <v>61.477262202463656</v>
       </c>
       <c r="S28" s="39">
         <f t="shared" si="22"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="O29" s="21">
         <f t="shared" si="2"/>
-        <v>2.8390767845695892</v>
+        <v>2.6220152190679524</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="3"/>
@@ -5031,11 +5031,11 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="4"/>
-        <v>55.686714513038673</v>
+        <v>49.51019936768251</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="5"/>
-        <v>64.17708622765582</v>
+        <v>64.177086227655835</v>
       </c>
       <c r="S29" s="39">
         <f>E29-E27</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="O30" s="21">
         <f t="shared" si="2"/>
-        <v>2.5805577013329843</v>
+        <v>2.3832612077816266</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="3"/>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="4"/>
-        <v>52.720520897606598</v>
+        <v>46.873002353144983</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="5"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="O31" s="21">
         <f t="shared" si="2"/>
-        <v>3.0346067115101043</v>
+        <v>2.8025959088920915</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" si="3"/>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="4"/>
-        <v>66.152112493099082</v>
+        <v>58.814823369761363</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="5"/>
-        <v>71.325831249421128</v>
+        <v>71.325831249421142</v>
       </c>
       <c r="S31" s="39">
         <f t="shared" si="22"/>
@@ -5398,11 +5398,11 @@
         <v>0.63186999999999927</v>
       </c>
       <c r="AI31" s="3">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="14"/>
-        <v>38109.938416422287</v>
+        <v>37559.216763005781</v>
       </c>
       <c r="AK31" s="1">
         <v>5978</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="O32" s="21">
         <f t="shared" si="2"/>
-        <v>2.8250956249626298</v>
+        <v>2.6091029887722073</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="3"/>
@@ -5484,11 +5484,11 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="4"/>
-        <v>76.722761666612527</v>
+        <v>68.213024585312326</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="5"/>
-        <v>88.85801611558766</v>
+        <v>88.858016115587674</v>
       </c>
       <c r="S32" s="39">
         <f t="shared" si="22"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="O33" s="21">
         <f t="shared" si="2"/>
-        <v>3.0149613815588738</v>
+        <v>2.784452562295868</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" si="3"/>
@@ -5635,11 +5635,11 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="4"/>
-        <v>92.145942259604453</v>
+        <v>81.925536675857884</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="S33" s="39">
         <f t="shared" si="22"/>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="O34" s="21">
         <f t="shared" si="2"/>
-        <v>2.5635302275016736</v>
+        <v>2.3675355691618361</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" si="3"/>
@@ -5786,11 +5786,11 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="4"/>
-        <v>77.049978891306466</v>
+        <v>68.503948375175042</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="5"/>
-        <v>98.342132073724173</v>
+        <v>98.342132073724187</v>
       </c>
       <c r="S34" s="39">
         <f>E34-E32</f>
@@ -5812,11 +5812,11 @@
         <v>-0.35800000000000054</v>
       </c>
       <c r="X34" s="23">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y34" s="11">
         <f t="shared" si="9"/>
-        <v>63771.771771771775</v>
+        <v>63963.855421686749</v>
       </c>
       <c r="Z34" s="23">
         <v>33147</v>
@@ -5851,11 +5851,11 @@
         <v>0.6720000000000006</v>
       </c>
       <c r="AI34" s="27">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ34" s="11">
         <f t="shared" si="14"/>
-        <v>46982.456140350885</v>
+        <v>46845.481049562688</v>
       </c>
       <c r="AK34" s="11">
         <v>6473</v>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="O35" s="21">
         <f t="shared" si="2"/>
-        <v>3.1168917712617668</v>
+        <v>2.8785898658514077</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" si="3"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="4"/>
-        <v>92.046893774559152</v>
+        <v>81.83747419480575</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="5"/>
@@ -5962,11 +5962,11 @@
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="23">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y35" s="11">
         <f t="shared" si="9"/>
-        <v>62657.657657657655</v>
+        <v>62470.059880239518</v>
       </c>
       <c r="Z35" s="23">
         <v>37466</v>
@@ -6001,11 +6001,11 @@
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AI35" s="27">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AJ35" s="11">
         <f t="shared" si="14"/>
-        <v>47111.111111111102</v>
+        <v>46166.189111747844</v>
       </c>
       <c r="AK35" s="23">
         <v>7543</v>
@@ -6031,150 +6031,150 @@
         <v>2024</v>
       </c>
       <c r="B36" s="20">
-        <v>4.99</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C36" s="21">
-        <v>3.94</v>
+        <v>4.3</v>
       </c>
       <c r="D36" s="21">
         <f>C36-B36</f>
-        <v>-1.0500000000000003</v>
+        <v>-0.14000000000000057</v>
       </c>
       <c r="E36" s="32">
-        <v>5.33</v>
+        <v>4.83</v>
       </c>
       <c r="F36" s="11">
         <f>Monitor!AC36</f>
-        <v>20528.666666666668</v>
+        <v>23089.666666666668</v>
       </c>
       <c r="G36" s="26">
         <f>(F36*100/F35)-100</f>
-        <v>8.6402766017499317</v>
+        <v>22.193409539937917</v>
       </c>
       <c r="H36" s="21">
         <f>Monitor!U36</f>
-        <v>21.024000000000001</v>
+        <v>21.221</v>
       </c>
       <c r="I36" s="41">
         <f>(H36*100/H35)-100</f>
-        <v>0.76204169662115362</v>
+        <v>1.7062065660196595</v>
       </c>
       <c r="J36" s="11">
         <f>AD36</f>
-        <v>138.69881030625893</v>
+        <v>154.55361184532759</v>
       </c>
       <c r="K36" s="6">
         <f ca="1">AVERAGE(OFFSET(J37,-14,0,14,1))</f>
-        <v>107.67325690095662</v>
+        <v>108.8057427251758</v>
       </c>
       <c r="L36" s="14">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
       <c r="M36" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="1"/>
-        <v>-2.4879583033788464</v>
+        <v>-1.3237934339803403</v>
       </c>
       <c r="O36" s="21">
         <f t="shared" si="2"/>
-        <v>3.3606500222622788</v>
+        <v>3.4584999999999999</v>
       </c>
       <c r="P36" s="21">
         <f t="shared" si="3"/>
-        <v>1.4050156249999999</v>
+        <v>1.3099068749999998</v>
       </c>
       <c r="Q36" s="11">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="5"/>
-        <v>97.360377882745212</v>
+        <v>98.272668333796432</v>
       </c>
       <c r="S36" s="39">
         <f>E36-E34</f>
-        <v>1.2300000000000004</v>
+        <v>0.73000000000000043</v>
       </c>
       <c r="T36" s="37">
         <f t="shared" si="6"/>
-        <v>-1.0500000000000003</v>
+        <v>-0.14000000000000057</v>
       </c>
       <c r="U36" s="14">
-        <v>21.024000000000001</v>
+        <v>21.221</v>
       </c>
       <c r="V36" s="14">
         <f t="shared" si="7"/>
-        <v>0.76204169662115362</v>
+        <v>1.7062065660196595</v>
       </c>
       <c r="W36" s="14">
         <f t="shared" si="8"/>
-        <v>0.15900000000000247</v>
+        <v>0.35600000000000165</v>
       </c>
       <c r="X36" s="23">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Y36" s="11">
         <f>(U36*1000000000000)/(X36*1000000)</f>
-        <v>63135.135135135133</v>
+        <v>63346.26865671642</v>
       </c>
       <c r="Z36" s="23">
-        <v>39497</v>
+        <v>43988</v>
       </c>
       <c r="AA36" s="23">
-        <v>5344</v>
+        <v>5995</v>
       </c>
       <c r="AB36" s="23">
-        <v>16745</v>
+        <v>19286</v>
       </c>
       <c r="AC36" s="11">
         <f>AVERAGE(Z36:AB36)</f>
-        <v>20528.666666666668</v>
+        <v>23089.666666666668</v>
       </c>
       <c r="AD36" s="14">
         <f>((AC36/U36)/100)*100/7.04</f>
-        <v>138.69881030625893</v>
+        <v>154.55361184532759</v>
       </c>
       <c r="AE36" s="28">
         <f t="shared" si="11"/>
-        <v>976.43962455606288</v>
+        <v>1088.0574273911063</v>
       </c>
       <c r="AF36" s="14">
-        <v>16.376000000000001</v>
+        <v>16.547999999999998</v>
       </c>
       <c r="AG36" s="14">
         <f>(AF36*100/AF35)-100</f>
-        <v>1.6385302879841248</v>
+        <v>2.7060575968222338</v>
       </c>
       <c r="AH36" s="21">
         <f t="shared" si="13"/>
-        <v>0.2640000000000029</v>
+        <v>0.43599999999999994</v>
       </c>
       <c r="AI36" s="27">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AJ36" s="11">
         <f t="shared" si="14"/>
-        <v>47743.440233236157</v>
+        <v>47279.999999999993</v>
       </c>
       <c r="AK36" s="23">
-        <v>7269</v>
+        <v>7338</v>
       </c>
       <c r="AL36" s="23">
-        <v>17722</v>
+        <v>19215</v>
       </c>
       <c r="AM36" s="11">
         <f>AVERAGE(AK36:AL36)</f>
-        <v>12495.5</v>
+        <v>13276.5</v>
       </c>
       <c r="AN36" s="14">
         <f t="shared" si="16"/>
-        <v>107.50033414533057</v>
+        <v>113.03217709755336</v>
       </c>
       <c r="AO36" s="11">
         <f>AM36/AF36</f>
-        <v>763.03737176355639</v>
+        <v>802.30239303843371</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.35">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0458D30E-08B8-4E36-81CA-57AD2B52B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900C9DE-EB04-4171-8025-63178737DE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>spread_6m_10y</t>
   </si>
@@ -105,9 +105,6 @@
     <t>e_market_money</t>
   </si>
   <si>
-    <t>e_market_money_b100_2007</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>market_avg</t>
+  </si>
+  <si>
+    <t>e_50e</t>
+  </si>
+  <si>
+    <t>e_market_money_b100_2005</t>
   </si>
 </sst>
 </file>
@@ -752,11 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomLeft" activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,72 +785,72 @@
     <col min="34" max="34" width="10.6328125" customWidth="1"/>
     <col min="35" max="35" width="9.90625" customWidth="1"/>
     <col min="36" max="36" width="9.453125" customWidth="1"/>
-    <col min="37" max="38" width="9.7265625" customWidth="1"/>
-    <col min="39" max="39" width="9.453125" customWidth="1"/>
-    <col min="40" max="40" width="10" customWidth="1"/>
-    <col min="41" max="41" width="11.08984375" customWidth="1"/>
+    <col min="37" max="39" width="9.7265625" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="U1" s="35" t="s">
         <v>3</v>
@@ -904,16 +907,19 @@
         <v>20</v>
       </c>
       <c r="AM1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="34" t="s">
-        <v>23</v>
-      </c>
       <c r="AO1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1990</v>
       </c>
@@ -1038,16 +1044,21 @@
         <v>1389</v>
       </c>
       <c r="AM2" s="8">
-        <v>1453</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>68.694313513216855</v>
-      </c>
-      <c r="AO2" s="8">
+        <v>407.59705170579196</v>
+      </c>
+      <c r="AN2" s="8">
+        <f>AVERAGE(AK2:AM2)</f>
+        <v>1104.5323505685974</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" ref="AO2:AO16" si="6">((AN2/AF2)/100)*100/6.407</f>
+        <v>57.851534760247603</v>
+      </c>
+      <c r="AP2" s="8">
         <v>487.59223731681317</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1991</v>
       </c>
@@ -1116,25 +1127,25 @@
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="37">
-        <f t="shared" ref="T3:T36" si="6">D3</f>
+        <f t="shared" ref="T3:T36" si="7">D3</f>
         <v>2.4315833333333403</v>
       </c>
       <c r="U3" s="4">
         <v>3.3811999999999998</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V36" si="7">(U3*100/U2)-100</f>
+        <f t="shared" ref="V3:V36" si="8">(U3*100/U2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W36" si="8">U3-U2</f>
+        <f t="shared" ref="W3:W36" si="9">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="X3" s="1">
         <v>252</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y35" si="9">(U3*1000000000000)/(X3*1000000)</f>
+        <f t="shared" ref="Y3:Y35" si="10">(U3*1000000000000)/(X3*1000000)</f>
         <v>13417.460317460318</v>
       </c>
       <c r="Z3" s="8">
@@ -1147,7 +1158,7 @@
         <v>586</v>
       </c>
       <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC34" si="10">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC34" si="11">AVERAGE(Z3:AB3)</f>
         <v>1390.61</v>
       </c>
       <c r="AD3" s="14">
@@ -1155,25 +1166,25 @@
         <v>58.420037130443205</v>
       </c>
       <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE36" si="11">AC3/U3</f>
+        <f t="shared" ref="AE3:AE36" si="12">AC3/U3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AF3" s="4">
         <v>3.2046329999999998</v>
       </c>
       <c r="AG3" s="4">
-        <f t="shared" ref="AG3:AG35" si="12">(AF3*100/AF2)-100</f>
+        <f t="shared" ref="AG3:AG35" si="13">(AF3*100/AF2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH36" si="13">AF3-AF2</f>
+        <f t="shared" ref="AH3:AH36" si="14">AF3-AF2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AI3" s="7">
         <v>318.44</v>
       </c>
       <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3:AJ36" si="14">((AF3*1000000000000)/(AI3*1000000))</f>
+        <f t="shared" ref="AJ3:AJ36" si="15">((AF3*1000000000000)/(AI3*1000000))</f>
         <v>10063.537872126617</v>
       </c>
       <c r="AK3" s="8">
@@ -1183,19 +1194,22 @@
         <v>1577</v>
       </c>
       <c r="AM3" s="8">
-        <f t="shared" ref="AM3:AM35" si="15">AVERAGE(AK3:AL3)</f>
-        <v>1671</v>
-      </c>
-      <c r="AN3" s="4">
-        <f t="shared" ref="AN3:AN36" si="16">((AM3/AF3)/100)*100/7.098</f>
-        <v>73.46189960788648</v>
-      </c>
-      <c r="AO3" s="8">
-        <f t="shared" ref="AO3:AO35" si="17">AM3/AF3</f>
-        <v>521.43256341677818</v>
+        <v>479.54535718908153</v>
+      </c>
+      <c r="AN3" s="8">
+        <f t="shared" ref="AN3:AN36" si="16">AVERAGE(AK3:AM3)</f>
+        <v>1273.8484523963605</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" si="6"/>
+        <v>62.041849979271625</v>
+      </c>
+      <c r="AP3" s="8">
+        <f t="shared" ref="AP3:AP35" si="17">AN3/AF3</f>
+        <v>397.50213281719329</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1992</v>
       </c>
@@ -1267,25 +1281,25 @@
         <v>-4.5775000000000041</v>
       </c>
       <c r="T4" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="U4" s="4">
         <v>3.4190999999999998</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1209038211285929</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7900000000000045E-2</v>
       </c>
       <c r="X4" s="1">
         <v>256</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13355.859375</v>
       </c>
       <c r="Z4" s="8">
@@ -1298,7 +1312,7 @@
         <v>676</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1470.7033333333336</v>
       </c>
       <c r="AD4" s="14">
@@ -1306,25 +1320,25 @@
         <v>61.099916201587703</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>430.14341005917748</v>
       </c>
       <c r="AF4" s="4">
         <v>3.4331779999999998</v>
       </c>
       <c r="AG4" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1317058770848263</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.228545</v>
       </c>
       <c r="AI4" s="7">
         <v>319.95999999999998</v>
       </c>
       <c r="AJ4" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10730.022502812852</v>
       </c>
       <c r="AK4" s="8">
@@ -1334,19 +1348,22 @@
         <v>1538</v>
       </c>
       <c r="AM4" s="8">
-        <f t="shared" si="15"/>
-        <v>1697.5</v>
-      </c>
-      <c r="AN4" s="4">
+        <v>487.27290475096095</v>
+      </c>
+      <c r="AN4" s="8">
         <f t="shared" si="16"/>
-        <v>69.65903712748316</v>
-      </c>
-      <c r="AO4" s="8">
+        <v>1294.0909682503204</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="6"/>
+        <v>58.832020155108296</v>
+      </c>
+      <c r="AP4" s="8">
         <f t="shared" si="17"/>
-        <v>494.43984553087552</v>
+        <v>376.93675313377884</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1993</v>
       </c>
@@ -1418,25 +1435,25 @@
         <v>-2.665</v>
       </c>
       <c r="T5" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7114999999999996</v>
       </c>
       <c r="U5" s="4">
         <v>3.4748999999999999</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5800000000000072E-2</v>
       </c>
       <c r="X5" s="1">
         <v>259</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13416.602316602317</v>
       </c>
       <c r="Z5" s="8">
@@ -1449,7 +1466,7 @@
         <v>776</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1665.3633333333335</v>
       </c>
       <c r="AD5" s="14">
@@ -1457,25 +1474,25 @@
         <v>68.075999788962761</v>
       </c>
       <c r="AE5" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>479.25503851429784</v>
       </c>
       <c r="AF5" s="4">
         <v>3.6517740000000001</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3671618541188479</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21859600000000023</v>
       </c>
       <c r="AI5" s="7">
         <v>320.72000000000003</v>
       </c>
       <c r="AJ5" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11386.174856572712</v>
       </c>
       <c r="AK5" s="8">
@@ -1485,19 +1502,22 @@
         <v>2255</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" si="15"/>
-        <v>2261.5</v>
-      </c>
-      <c r="AN5" s="4">
+        <v>729.72717760454884</v>
+      </c>
+      <c r="AN5" s="8">
         <f t="shared" si="16"/>
-        <v>87.248246004047346</v>
-      </c>
-      <c r="AO5" s="8">
+        <v>1750.9090592015164</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="6"/>
+        <v>74.835036286598012</v>
+      </c>
+      <c r="AP5" s="8">
         <f t="shared" si="17"/>
-        <v>619.28805013672809</v>
+        <v>479.46807748823346</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1994</v>
       </c>
@@ -1569,25 +1589,25 @@
         <v>0.6800000000000006</v>
       </c>
       <c r="T6" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6896666666666702</v>
       </c>
       <c r="U6" s="4">
         <v>3.4923999999999999</v>
       </c>
       <c r="V6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50361161472272897</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="X6" s="1">
         <v>263</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13279.087452471484</v>
       </c>
       <c r="Z6" s="8">
@@ -1600,7 +1620,7 @@
         <v>751</v>
       </c>
       <c r="AC6" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1681.4800000000002</v>
       </c>
       <c r="AD6" s="14">
@@ -1608,25 +1628,25 @@
         <v>68.390387959309066</v>
       </c>
       <c r="AE6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>481.46833123353576</v>
       </c>
       <c r="AF6" s="4">
         <v>3.7357990000000001</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3009364763536837</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4025000000000016E-2</v>
       </c>
       <c r="AI6" s="7">
         <v>321.48</v>
       </c>
       <c r="AJ6" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11620.626477541371</v>
       </c>
       <c r="AK6" s="8">
@@ -1636,19 +1656,22 @@
         <v>2097</v>
       </c>
       <c r="AM6" s="8">
-        <f t="shared" si="15"/>
-        <v>1989</v>
-      </c>
-      <c r="AN6" s="4">
+        <v>651.25414844226009</v>
+      </c>
+      <c r="AN6" s="8">
         <f t="shared" si="16"/>
-        <v>75.009330057580783</v>
-      </c>
-      <c r="AO6" s="8">
+        <v>1543.0847161474201</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="6"/>
+        <v>64.469090614788527</v>
+      </c>
+      <c r="AP6" s="8">
         <f t="shared" si="17"/>
-        <v>532.41622474870837</v>
+        <v>413.05346356895006</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1995</v>
       </c>
@@ -1720,25 +1743,25 @@
         <v>2.8141666666666669</v>
       </c>
       <c r="T7" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84691666666667054</v>
       </c>
       <c r="U7" s="4">
         <v>3.6478999999999999</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="X7" s="1">
         <v>266</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13713.90977443609</v>
       </c>
       <c r="Z7" s="8">
@@ -1751,7 +1774,7 @@
         <v>1052</v>
       </c>
       <c r="AC7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2261.3733333333334</v>
       </c>
       <c r="AD7" s="14">
@@ -1759,25 +1782,25 @@
         <v>88.055539633844973</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>619.91099902226858</v>
       </c>
       <c r="AF7" s="4">
         <v>3.9374030000000002</v>
       </c>
       <c r="AG7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3965430152960749</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20160400000000012</v>
       </c>
       <c r="AI7" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ7" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12218.852408142999</v>
       </c>
       <c r="AK7" s="8">
@@ -1787,19 +1810,22 @@
         <v>2260</v>
       </c>
       <c r="AM7" s="8">
-        <f t="shared" si="15"/>
-        <v>2065.5</v>
-      </c>
-      <c r="AN7" s="4">
+        <v>677.3043143799506</v>
+      </c>
+      <c r="AN7" s="8">
         <f t="shared" si="16"/>
-        <v>73.905938527091891</v>
-      </c>
-      <c r="AO7" s="8">
+        <v>1602.7681047933168</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="6"/>
+        <v>63.533985490317804</v>
+      </c>
+      <c r="AP7" s="8">
         <f t="shared" si="17"/>
-        <v>524.58435166529819</v>
+        <v>407.06224503646609</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1996</v>
       </c>
@@ -1871,25 +1897,25 @@
         <v>1.0966666666666658</v>
       </c>
       <c r="T8" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3088333333333297</v>
       </c>
       <c r="U8" s="4">
         <v>3.8245999999999998</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17669999999999986</v>
       </c>
       <c r="X8" s="1">
         <v>269</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14217.843866171004</v>
       </c>
       <c r="Z8" s="8">
@@ -1902,7 +1928,7 @@
         <v>1291</v>
       </c>
       <c r="AC8" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2826.4233333333336</v>
       </c>
       <c r="AD8" s="14">
@@ -1910,25 +1936,25 @@
         <v>104.97322259091465</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>739.01148704003913</v>
       </c>
       <c r="AF8" s="4">
         <v>4.0903450000000001</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8843369601740108</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15294199999999991</v>
       </c>
       <c r="AI8" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ8" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12693.473808341609</v>
       </c>
       <c r="AK8" s="8">
@@ -1938,19 +1964,22 @@
         <v>2880</v>
       </c>
       <c r="AM8" s="8">
-        <f t="shared" si="15"/>
-        <v>2597.5</v>
-      </c>
-      <c r="AN8" s="4">
+        <v>912.27392328124427</v>
+      </c>
+      <c r="AN8" s="8">
         <f t="shared" si="16"/>
-        <v>89.46632971294423</v>
-      </c>
-      <c r="AO8" s="8">
+        <v>2035.7579744270815</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="6"/>
+        <v>77.680404893902249</v>
+      </c>
+      <c r="AP8" s="8">
         <f t="shared" si="17"/>
-        <v>635.03200830247818</v>
+        <v>497.69835415523175</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1997</v>
       </c>
@@ -2022,25 +2051,25 @@
         <v>-0.37666666666666693</v>
       </c>
       <c r="T9" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1079166666666698</v>
       </c>
       <c r="U9" s="4">
         <v>4.0461</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22150000000000025</v>
       </c>
       <c r="X9" s="1">
         <v>272</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14875.367647058823</v>
       </c>
       <c r="Z9" s="8">
@@ -2053,7 +2082,7 @@
         <v>1570</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3482.7666666666664</v>
       </c>
       <c r="AD9" s="14">
@@ -2061,25 +2090,25 @@
         <v>122.26864739932878</v>
       </c>
       <c r="AE9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>860.77127769127469</v>
       </c>
       <c r="AF9" s="4">
         <v>4.2673110000000003</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3264321224737756</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17696600000000018</v>
       </c>
       <c r="AI9" s="7">
         <v>323</v>
       </c>
       <c r="AJ9" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13211.489164086688</v>
       </c>
       <c r="AK9" s="8">
@@ -2089,19 +2118,22 @@
         <v>4224</v>
       </c>
       <c r="AM9" s="8">
-        <f t="shared" si="15"/>
-        <v>3611</v>
-      </c>
-      <c r="AN9" s="4">
+        <v>1495.9794922493888</v>
+      </c>
+      <c r="AN9" s="8">
         <f t="shared" si="16"/>
-        <v>119.21672802584602</v>
-      </c>
-      <c r="AO9" s="8">
+        <v>2905.9931640831296</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="6"/>
+        <v>106.28832648759899</v>
+      </c>
+      <c r="AP9" s="8">
         <f t="shared" si="17"/>
-        <v>846.20033552745508</v>
+        <v>680.98930780604678</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1998</v>
       </c>
@@ -2173,25 +2205,25 @@
         <v>5.5000000000000604E-2</v>
       </c>
       <c r="T10" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34233333333333071</v>
       </c>
       <c r="U10" s="4">
         <v>4.3923999999999994</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34629999999999939</v>
       </c>
       <c r="X10" s="1">
         <v>275</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15972.363636363634</v>
       </c>
       <c r="Z10" s="8">
@@ -2204,7 +2236,7 @@
         <v>2192</v>
       </c>
       <c r="AC10" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4200.8100000000004</v>
       </c>
       <c r="AD10" s="14">
@@ -2212,25 +2244,25 @@
         <v>135.84964163306873</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>956.38147709680379</v>
       </c>
       <c r="AF10" s="4">
         <v>4.4719610000000003</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.7957601402850543</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20465</v>
       </c>
       <c r="AI10" s="7">
         <v>324.52</v>
       </c>
       <c r="AJ10" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13780.232343152964</v>
       </c>
       <c r="AK10" s="8">
@@ -2240,19 +2272,22 @@
         <v>5006</v>
       </c>
       <c r="AM10" s="8">
-        <f t="shared" si="15"/>
-        <v>4474</v>
-      </c>
-      <c r="AN10" s="4">
+        <v>1965.7867345387713</v>
+      </c>
+      <c r="AN10" s="8">
         <f t="shared" si="16"/>
-        <v>140.94899296956498</v>
-      </c>
-      <c r="AO10" s="8">
+        <v>3637.9289115129236</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="6"/>
+        <v>126.97010446122337</v>
+      </c>
+      <c r="AP10" s="8">
         <f t="shared" si="17"/>
-        <v>1000.4559520979722</v>
+        <v>813.49745928305799</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1999</v>
       </c>
@@ -2324,25 +2359,25 @@
         <v>-0.49000000000000021</v>
       </c>
       <c r="T11" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87708333333332966</v>
       </c>
       <c r="U11" s="4">
         <v>4.6556999999999995</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.9944449503688162</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26330000000000009</v>
       </c>
       <c r="X11" s="1">
         <v>279</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16687.096774193546</v>
       </c>
       <c r="Z11" s="8">
@@ -2355,7 +2390,7 @@
         <v>1069</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4678.3733333333339</v>
       </c>
       <c r="AD11" s="14">
@@ -2363,25 +2398,25 @@
         <v>142.73721817700169</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1004.870015966092</v>
       </c>
       <c r="AF11" s="4">
         <v>4.7089470000000002</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.299375374695785</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.23698599999999992</v>
       </c>
       <c r="AI11" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14476.595548450565</v>
       </c>
       <c r="AK11" s="8">
@@ -2391,19 +2426,22 @@
         <v>6958</v>
       </c>
       <c r="AM11" s="8">
-        <f t="shared" si="15"/>
-        <v>6458</v>
-      </c>
-      <c r="AN11" s="4">
+        <v>3532.1003414965717</v>
+      </c>
+      <c r="AN11" s="8">
         <f t="shared" si="16"/>
-        <v>193.21384504595233</v>
-      </c>
-      <c r="AO11" s="8">
-        <f t="shared" si="17"/>
-        <v>1371.4318721361697</v>
+        <v>5482.7001138321903</v>
+      </c>
+      <c r="AO11" s="4">
+        <f t="shared" si="6"/>
+        <v>181.72553898166194</v>
+      </c>
+      <c r="AP11" s="8">
+        <f>AN11/AF11</f>
+        <v>1164.3155282555081</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2000</v>
       </c>
@@ -2475,25 +2513,25 @@
         <v>0.8824999999999994</v>
       </c>
       <c r="T12" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.508333333332935E-2</v>
       </c>
       <c r="U12" s="4">
         <v>4.9643000000000006</v>
       </c>
       <c r="V12" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="W12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3086000000000011</v>
       </c>
       <c r="X12" s="1">
         <v>285</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17418.596491228072</v>
       </c>
       <c r="Z12" s="8">
@@ -2506,7 +2544,7 @@
         <v>2470</v>
       </c>
       <c r="AC12" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4859.33</v>
       </c>
       <c r="AD12" s="14">
@@ -2514,25 +2552,25 @@
         <v>139.04190694284461</v>
       </c>
       <c r="AE12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>978.85502487762608</v>
       </c>
       <c r="AF12" s="4">
         <v>4.9103279999999998</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2765611929800684</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20138099999999959</v>
       </c>
       <c r="AI12" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ12" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15095.696015740285</v>
       </c>
       <c r="AK12" s="8">
@@ -2542,19 +2580,22 @@
         <v>6433</v>
       </c>
       <c r="AM12" s="8">
-        <f t="shared" si="15"/>
-        <v>6179.5</v>
-      </c>
-      <c r="AN12" s="4">
+        <v>3386.0764499940415</v>
+      </c>
+      <c r="AN12" s="8">
         <f t="shared" si="16"/>
-        <v>177.29922550318068</v>
-      </c>
-      <c r="AO12" s="8">
+        <v>5248.3588166646805</v>
+      </c>
+      <c r="AO12" s="4">
+        <f t="shared" si="6"/>
+        <v>166.82390845070381</v>
+      </c>
+      <c r="AP12" s="8">
         <f t="shared" si="17"/>
-        <v>1258.4699026215765</v>
+        <v>1068.8407814436594</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2001</v>
       </c>
@@ -2626,25 +2667,25 @@
         <v>-1.0824999999999996</v>
       </c>
       <c r="T13" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6150000000000002</v>
       </c>
       <c r="U13" s="4">
         <v>5.4420000000000002</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47769999999999957</v>
       </c>
       <c r="X13" s="1">
         <v>285</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19094.736842105263</v>
       </c>
       <c r="Z13" s="8">
@@ -2657,7 +2698,7 @@
         <v>1950</v>
       </c>
       <c r="AC13" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4373.1899999999996</v>
       </c>
       <c r="AD13" s="14">
@@ -2665,25 +2706,25 @@
         <v>114.14769595068654</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>803.59977949283336</v>
       </c>
       <c r="AF13" s="4">
         <v>5.4467369999999997</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.924097127523851</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.53640899999999991</v>
       </c>
       <c r="AI13" s="7">
         <v>326.04000000000002</v>
       </c>
       <c r="AJ13" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16705.732425469268</v>
       </c>
       <c r="AK13" s="8">
@@ -2693,19 +2734,22 @@
         <v>5160</v>
       </c>
       <c r="AM13" s="8">
-        <f t="shared" si="15"/>
-        <v>4892</v>
-      </c>
-      <c r="AN13" s="4">
+        <v>2802.231073086672</v>
+      </c>
+      <c r="AN13" s="8">
         <f t="shared" si="16"/>
-        <v>126.53598432782162</v>
-      </c>
-      <c r="AO13" s="8">
+        <v>4195.4103576955577</v>
+      </c>
+      <c r="AO13" s="4">
+        <f t="shared" si="6"/>
+        <v>120.2218250422484</v>
+      </c>
+      <c r="AP13" s="8">
         <f t="shared" si="17"/>
-        <v>898.15241675887785</v>
+        <v>770.26123304568546</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2002</v>
       </c>
@@ -2777,25 +2821,25 @@
         <v>-4.5691666666666659</v>
       </c>
       <c r="T14" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9116666666666595</v>
       </c>
       <c r="U14" s="4">
         <v>5.7923</v>
       </c>
       <c r="V14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="W14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35029999999999983</v>
       </c>
       <c r="X14" s="1">
         <v>287</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20182.229965156796</v>
       </c>
       <c r="Z14" s="8">
@@ -2808,7 +2852,7 @@
         <v>1335</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3518.5433333333331</v>
       </c>
       <c r="AD14" s="14">
@@ -2816,25 +2860,25 @@
         <v>86.285773720493083</v>
       </c>
       <c r="AE14" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>607.45184699227127</v>
       </c>
       <c r="AF14" s="4">
         <v>5.8078250000000002</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.629437037257361</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36108800000000052</v>
       </c>
       <c r="AI14" s="7">
         <v>326.8</v>
       </c>
       <c r="AJ14" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17771.802325581397</v>
       </c>
       <c r="AK14" s="8">
@@ -2844,19 +2888,22 @@
         <v>2892</v>
       </c>
       <c r="AM14" s="8">
-        <f t="shared" si="15"/>
-        <v>2977.5</v>
-      </c>
-      <c r="AN14" s="4">
+        <v>2014.0328229692207</v>
+      </c>
+      <c r="AN14" s="8">
         <f t="shared" si="16"/>
-        <v>72.227445178195651</v>
-      </c>
-      <c r="AO14" s="8">
+        <v>2656.3442743230735</v>
+      </c>
+      <c r="AO14" s="4">
+        <f t="shared" si="6"/>
+        <v>71.386504200603312</v>
+      </c>
+      <c r="AP14" s="8">
         <f t="shared" si="17"/>
-        <v>512.67040587483268</v>
+        <v>457.37333241326542</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -2928,25 +2975,25 @@
         <v>-2.7600000000000002</v>
       </c>
       <c r="T15" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9130833333333301</v>
       </c>
       <c r="U15" s="4">
         <v>6.0626999999999995</v>
       </c>
       <c r="V15" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="W15" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27039999999999953</v>
       </c>
       <c r="X15" s="1">
         <v>290</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20905.862068965518</v>
       </c>
       <c r="Z15" s="8">
@@ -2959,7 +3006,7 @@
         <v>2003</v>
       </c>
       <c r="AC15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4522.6400000000003</v>
       </c>
       <c r="AD15" s="14">
@@ -2967,25 +3014,25 @@
         <v>105.96276486473926</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>745.97786464776436</v>
       </c>
       <c r="AF15" s="4">
         <v>6.1809219999999998</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4240399805434691</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.37309699999999957</v>
       </c>
       <c r="AI15" s="7">
         <v>327.56</v>
       </c>
       <c r="AJ15" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18869.58725119062</v>
       </c>
       <c r="AK15" s="8">
@@ -2995,19 +3042,22 @@
         <v>3965</v>
       </c>
       <c r="AM15" s="8">
-        <f t="shared" si="15"/>
-        <v>3761</v>
-      </c>
-      <c r="AN15" s="4">
+        <v>2733.2646902419569</v>
+      </c>
+      <c r="AN15" s="8">
         <f t="shared" si="16"/>
-        <v>85.726299139368976</v>
-      </c>
-      <c r="AO15" s="8">
+        <v>3418.4215634139855</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="6"/>
+        <v>86.32123243964989</v>
+      </c>
+      <c r="AP15" s="8">
         <f t="shared" si="17"/>
-        <v>608.48527129124102</v>
+        <v>553.06013624083687</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2004</v>
       </c>
@@ -3079,25 +3129,25 @@
         <v>-0.31750000000000012</v>
       </c>
       <c r="T16" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6122499999999995</v>
       </c>
       <c r="U16" s="4">
         <v>6.4112</v>
       </c>
       <c r="V16" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="W16" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34850000000000048</v>
       </c>
       <c r="X16" s="1">
         <v>293</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21881.228668941978</v>
       </c>
       <c r="Z16" s="8">
@@ -3110,7 +3160,7 @@
         <v>2175</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4723.0033333333331</v>
       </c>
       <c r="AD16" s="14">
@@ -3118,25 +3168,25 @@
         <v>104.64205691649461</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>736.68008069212203</v>
       </c>
       <c r="AF16" s="4">
         <v>6.5681760000000002</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2653112270305229</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.38725400000000043</v>
       </c>
       <c r="AI16" s="7">
         <v>329.08</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19959.207487541022</v>
       </c>
       <c r="AK16" s="1">
@@ -3145,20 +3195,23 @@
       <c r="AL16" s="1">
         <v>4256</v>
       </c>
-      <c r="AM16" s="8">
-        <f t="shared" si="15"/>
-        <v>4038.5</v>
-      </c>
-      <c r="AN16" s="4">
+      <c r="AM16" s="1">
+        <v>2951</v>
+      </c>
+      <c r="AN16" s="8">
         <f t="shared" si="16"/>
-        <v>86.624214727780952</v>
-      </c>
-      <c r="AO16" s="8">
+        <v>3676</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" si="6"/>
+        <v>87.35263240686082</v>
+      </c>
+      <c r="AP16" s="8">
         <f t="shared" si="17"/>
-        <v>614.85867613778919</v>
+        <v>559.66831583075725</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2005</v>
       </c>
@@ -3230,25 +3283,25 @@
         <v>2.0858333333333334</v>
       </c>
       <c r="T17" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73349999999999982</v>
       </c>
       <c r="U17" s="4">
         <v>6.7104999999999997</v>
       </c>
       <c r="V17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="W17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.29929999999999968</v>
       </c>
       <c r="X17" s="1">
         <v>295</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22747.457627118645</v>
       </c>
       <c r="Z17" s="8">
@@ -3261,7 +3314,7 @@
         <v>2205</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4723.5</v>
       </c>
       <c r="AD17" s="14">
@@ -3269,25 +3322,25 @@
         <v>99.985351992467713</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" si="11"/>
+        <f>AC17/U17</f>
         <v>703.89687802697267</v>
       </c>
       <c r="AF17" s="4">
         <v>7.1306700000000003</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5639300773913476</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.56249400000000005</v>
       </c>
       <c r="AI17" s="7">
         <v>330.6</v>
       </c>
       <c r="AJ17" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21568.874773139745</v>
       </c>
       <c r="AK17" s="1">
@@ -3296,20 +3349,23 @@
       <c r="AL17" s="1">
         <v>5408</v>
       </c>
-      <c r="AM17" s="8">
-        <f t="shared" si="15"/>
-        <v>5061.5</v>
-      </c>
-      <c r="AN17" s="4">
+      <c r="AM17" s="1">
+        <v>3578</v>
+      </c>
+      <c r="AN17" s="8">
         <f t="shared" si="16"/>
-        <v>100.00297221122624</v>
-      </c>
-      <c r="AO17" s="8">
+        <v>4567</v>
+      </c>
+      <c r="AO17" s="4">
+        <f>((AN17/AF17)/100)*100/6.407</f>
+        <v>99.964534828797341</v>
+      </c>
+      <c r="AP17" s="8">
         <f t="shared" si="17"/>
-        <v>709.82109675528386</v>
+        <v>640.47277464810452</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -3381,25 +3437,25 @@
         <v>3.6149999999999998</v>
       </c>
       <c r="T18" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.19591666666667074</v>
       </c>
       <c r="U18" s="4">
         <v>7.0955000000000004</v>
       </c>
       <c r="V18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="W18" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38500000000000068</v>
       </c>
       <c r="X18" s="1">
         <v>298</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23810.40268456376</v>
       </c>
       <c r="Z18" s="8">
@@ -3412,33 +3468,33 @@
         <v>2415</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5432.05</v>
       </c>
       <c r="AD18" s="14">
-        <f t="shared" si="21"/>
+        <f>((AC18/U18)/100)*100/7.04</f>
         <v>108.74469894491386</v>
       </c>
       <c r="AE18" s="7">
-        <f t="shared" si="11"/>
+        <f>AC18/U18</f>
         <v>765.56268057219359</v>
       </c>
       <c r="AF18" s="4">
         <v>7.8016750000000004</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4101255562240311</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.67100500000000007</v>
       </c>
       <c r="AI18" s="7">
         <v>331.36</v>
       </c>
       <c r="AJ18" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23544.407894736843</v>
       </c>
       <c r="AK18" s="1">
@@ -3447,20 +3503,23 @@
       <c r="AL18" s="1">
         <v>6596</v>
       </c>
-      <c r="AM18" s="8">
-        <f t="shared" si="15"/>
-        <v>6068.5</v>
-      </c>
-      <c r="AN18" s="4">
+      <c r="AM18" s="1">
+        <v>4119</v>
+      </c>
+      <c r="AN18" s="8">
         <f t="shared" si="16"/>
-        <v>109.58661356960933</v>
-      </c>
-      <c r="AO18" s="8">
+        <v>5418.666666666667</v>
+      </c>
+      <c r="AO18" s="4">
+        <f t="shared" ref="AO18:AO36" si="24">((AN18/AF18)/100)*100/6.407</f>
+        <v>108.40513566015885</v>
+      </c>
+      <c r="AP18" s="8">
         <f t="shared" si="17"/>
-        <v>777.84578311708697</v>
+        <v>694.55170417463773</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2007</v>
       </c>
@@ -3532,25 +3591,25 @@
         <v>1.8058333333333363</v>
       </c>
       <c r="T19" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0749999999999886E-2</v>
       </c>
       <c r="U19" s="4">
         <v>7.4917999999999996</v>
       </c>
       <c r="V19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="W19" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39629999999999921</v>
       </c>
       <c r="X19" s="1">
         <v>301</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24889.70099667774</v>
       </c>
       <c r="Z19" s="8">
@@ -3563,7 +3622,7 @@
         <v>2652</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5794.94</v>
       </c>
       <c r="AD19" s="14">
@@ -3571,25 +3630,25 @@
         <v>109.87277908695326</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>773.50436477215089</v>
       </c>
       <c r="AF19" s="4">
         <v>8.6914390000000008</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.404781665475682</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.88976400000000044</v>
       </c>
       <c r="AI19" s="7">
         <v>332.12</v>
       </c>
       <c r="AJ19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26169.574250270991</v>
       </c>
       <c r="AK19" s="1">
@@ -3598,20 +3657,23 @@
       <c r="AL19" s="1">
         <v>8067</v>
       </c>
-      <c r="AM19" s="8">
-        <f t="shared" si="15"/>
-        <v>6840.5</v>
-      </c>
-      <c r="AN19" s="4">
+      <c r="AM19" s="1">
+        <v>4399</v>
+      </c>
+      <c r="AN19" s="8">
         <f t="shared" si="16"/>
-        <v>110.8817740377211</v>
-      </c>
-      <c r="AO19" s="8">
+        <v>6026.666666666667</v>
+      </c>
+      <c r="AO19" s="4">
+        <f t="shared" si="24"/>
+        <v>108.22578908104452</v>
+      </c>
+      <c r="AP19" s="8">
         <f t="shared" si="17"/>
-        <v>787.03883211974437</v>
+        <v>693.40263064225223</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2008</v>
       </c>
@@ -3683,18 +3745,18 @@
         <v>-3.0366666666666662</v>
       </c>
       <c r="T20" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0706666666666704</v>
       </c>
       <c r="U20" s="4">
         <v>8.2623999999999995</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.285912597773574</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77059999999999995</v>
       </c>
       <c r="X20" s="1">
@@ -3714,7 +3776,7 @@
         <v>1577</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3752.1299999999997</v>
       </c>
       <c r="AD20" s="14">
@@ -3722,25 +3784,25 @@
         <v>64.505835031423828</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>454.12107862122383</v>
       </c>
       <c r="AF20" s="4">
         <v>9.4237800000000007</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4260040253403332</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.73234099999999991</v>
       </c>
       <c r="AI20" s="7">
         <v>333.64</v>
       </c>
       <c r="AJ20" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28245.354274067857</v>
       </c>
       <c r="AK20" s="1">
@@ -3749,20 +3811,23 @@
       <c r="AL20" s="1">
         <v>4810</v>
       </c>
-      <c r="AM20" s="8">
-        <f t="shared" si="15"/>
-        <v>4013.5</v>
-      </c>
-      <c r="AN20" s="4">
+      <c r="AM20" s="1">
+        <v>2447</v>
+      </c>
+      <c r="AN20" s="8">
         <f t="shared" si="16"/>
-        <v>60.001503567265267</v>
-      </c>
-      <c r="AO20" s="8">
+        <v>3491.3333333333335</v>
+      </c>
+      <c r="AO20" s="4">
+        <f t="shared" si="24"/>
+        <v>57.824442188747952</v>
+      </c>
+      <c r="AP20" s="8">
         <f t="shared" si="17"/>
-        <v>425.89067232044886</v>
+        <v>370.48120110330814</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2009</v>
       </c>
@@ -3834,25 +3899,25 @@
         <v>-4.8591666666666695</v>
       </c>
       <c r="T21" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9947499999999971</v>
       </c>
       <c r="U21" s="4">
         <v>8.4457000000000004</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18330000000000091</v>
       </c>
       <c r="X21" s="1">
         <v>307</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27510.423452768729</v>
       </c>
       <c r="Z21" s="8">
@@ -3865,7 +3930,7 @@
         <v>2269</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4604.0166666666664</v>
       </c>
       <c r="AD21" s="14">
@@ -3873,25 +3938,25 @@
         <v>77.433444255836108</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>545.13144756108625</v>
       </c>
       <c r="AF21" s="4">
         <v>9.3822489999999998</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.4407042609229137</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.1531000000000873E-2</v>
       </c>
       <c r="AI21" s="7">
         <v>334.4</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28056.96471291866</v>
       </c>
       <c r="AK21" s="1">
@@ -3900,20 +3965,23 @@
       <c r="AL21" s="1">
         <v>5957</v>
       </c>
-      <c r="AM21" s="8">
-        <f t="shared" si="15"/>
-        <v>4946.5</v>
-      </c>
-      <c r="AN21" s="4">
+      <c r="AM21" s="1">
+        <v>2964</v>
+      </c>
+      <c r="AN21" s="8">
         <f t="shared" si="16"/>
-        <v>74.27712128365458</v>
-      </c>
-      <c r="AO21" s="8">
+        <v>4285.666666666667</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" si="24"/>
+        <v>71.294612105476091</v>
+      </c>
+      <c r="AP21" s="8">
         <f t="shared" si="17"/>
-        <v>527.2190068713802</v>
+        <v>456.7845797597854</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2010</v>
       </c>
@@ -3985,25 +4053,25 @@
         <v>-1.7524999999999999</v>
       </c>
       <c r="T22" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9260833333333327</v>
       </c>
       <c r="U22" s="4">
         <v>8.825899999999999</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="W22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38019999999999854</v>
       </c>
       <c r="X22" s="1">
         <v>309</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28562.78317152103</v>
       </c>
       <c r="Z22" s="8">
@@ -4016,7 +4084,7 @@
         <v>2652</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5162.17</v>
       </c>
       <c r="AD22" s="14">
@@ -4024,25 +4092,25 @@
         <v>83.080794490183351</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>584.88879321089075</v>
       </c>
       <c r="AF22" s="4">
         <v>9.3207719999999998</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.65524801143095601</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.1477000000000004E-2</v>
       </c>
       <c r="AI22" s="3">
         <v>335</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27823.200000000001</v>
       </c>
       <c r="AK22" s="1">
@@ -4051,20 +4119,23 @@
       <c r="AL22" s="1">
         <v>6914</v>
       </c>
-      <c r="AM22" s="8">
-        <f t="shared" si="15"/>
-        <v>5359</v>
-      </c>
-      <c r="AN22" s="4">
+      <c r="AM22" s="1">
+        <v>2792</v>
+      </c>
+      <c r="AN22" s="8">
         <f t="shared" si="16"/>
-        <v>81.002025245072275</v>
-      </c>
-      <c r="AO22" s="8">
+        <v>4503.333333333333</v>
+      </c>
+      <c r="AO22" s="4">
+        <f t="shared" si="24"/>
+        <v>75.409747341450469</v>
+      </c>
+      <c r="AP22" s="8">
         <f t="shared" si="17"/>
-        <v>574.95237518952297</v>
+        <v>483.15025121667315</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2011</v>
       </c>
@@ -4136,25 +4207,25 @@
         <v>-5.8333333333333334E-2</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.625833333333333</v>
       </c>
       <c r="U23" s="4">
         <v>9.7302999999999997</v>
       </c>
       <c r="V23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.247113608810437</v>
       </c>
       <c r="W23" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.90440000000000076</v>
       </c>
       <c r="X23" s="1">
         <v>311</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31287.138263665594</v>
       </c>
       <c r="Z23" s="8">
@@ -4167,7 +4238,7 @@
         <v>2605</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5359.8533333333335</v>
       </c>
       <c r="AD23" s="14">
@@ -4175,25 +4246,25 @@
         <v>78.244535423399384</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550.84152938073169</v>
       </c>
       <c r="AF23" s="4">
         <v>9.5350470000000005</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2988975591292302</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21427500000000066</v>
       </c>
       <c r="AI23" s="3">
         <v>334</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28548.04491017964</v>
       </c>
       <c r="AK23" s="1">
@@ -4202,20 +4273,23 @@
       <c r="AL23" s="1">
         <v>5898</v>
       </c>
-      <c r="AM23" s="8">
-        <f t="shared" si="15"/>
-        <v>4528.5</v>
-      </c>
-      <c r="AN23" s="4">
+      <c r="AM23" s="1">
+        <v>2316</v>
+      </c>
+      <c r="AN23" s="8">
         <f t="shared" si="16"/>
-        <v>66.910694699863498</v>
-      </c>
-      <c r="AO23" s="8">
+        <v>3791</v>
+      </c>
+      <c r="AO23" s="4">
+        <f t="shared" si="24"/>
+        <v>62.054920323264966</v>
+      </c>
+      <c r="AP23" s="8">
         <f t="shared" si="17"/>
-        <v>474.9321109796312</v>
+        <v>397.58587451115864</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2012</v>
       </c>
@@ -4287,25 +4361,25 @@
         <v>-3.4999999999999976E-2</v>
       </c>
       <c r="T24" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.603083333333337</v>
       </c>
       <c r="U24" s="4">
         <v>10.471200000000001</v>
       </c>
       <c r="V24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.74090000000000167</v>
       </c>
       <c r="X24" s="1">
         <v>313</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33454.313099041537</v>
       </c>
       <c r="Z24" s="8">
@@ -4318,7 +4392,7 @@
         <v>3019</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5849.7133333333331</v>
       </c>
       <c r="AD24" s="14">
@@ -4326,25 +4400,25 @@
         <v>79.353387328476117</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>558.64784679247191</v>
       </c>
       <c r="AF24" s="4">
         <v>9.8079680000000007</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8622931800965432</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.27292100000000019</v>
       </c>
       <c r="AI24" s="3">
         <v>335</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29277.516417910447</v>
       </c>
       <c r="AK24" s="1">
@@ -4353,20 +4427,23 @@
       <c r="AL24" s="1">
         <v>7612</v>
       </c>
-      <c r="AM24" s="8">
-        <f t="shared" si="15"/>
-        <v>5626.5</v>
-      </c>
-      <c r="AN24" s="4">
+      <c r="AM24" s="1">
+        <v>2635</v>
+      </c>
+      <c r="AN24" s="8">
         <f t="shared" si="16"/>
-        <v>80.820826612568425</v>
-      </c>
-      <c r="AO24" s="8">
+        <v>4629.333333333333</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="24"/>
+        <v>73.668985448397677</v>
+      </c>
+      <c r="AP24" s="8">
         <f t="shared" si="17"/>
-        <v>573.66622729601067</v>
+        <v>471.99718976788392</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2013</v>
       </c>
@@ -4438,25 +4515,25 @@
         <v>5.8333333333333293E-3</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2755000000000001</v>
       </c>
       <c r="U25" s="4">
         <v>11.0656</v>
       </c>
       <c r="V25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="W25" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59439999999999849</v>
       </c>
       <c r="X25" s="1">
         <v>316</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35017.721518987339</v>
       </c>
       <c r="Z25" s="8">
@@ -4469,7 +4546,7 @@
         <v>4176</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7533.5533333333333</v>
       </c>
       <c r="AD25" s="14">
@@ -4477,25 +4554,25 @@
         <v>96.70573738213541</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>680.80839117023334</v>
       </c>
       <c r="AF25" s="4">
         <v>9.8494729999999997</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.42317633989016201</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1504999999999015E-2</v>
       </c>
       <c r="AI25" s="3">
         <v>336</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29313.907738095237</v>
       </c>
       <c r="AK25" s="1">
@@ -4504,20 +4581,23 @@
       <c r="AL25" s="1">
         <v>9552</v>
       </c>
-      <c r="AM25" s="8">
-        <f t="shared" si="15"/>
-        <v>6923.5</v>
-      </c>
-      <c r="AN25" s="4">
+      <c r="AM25" s="1">
+        <v>3109</v>
+      </c>
+      <c r="AN25" s="8">
         <f t="shared" si="16"/>
-        <v>99.032263962853108</v>
-      </c>
-      <c r="AO25" s="8">
+        <v>5652</v>
+      </c>
+      <c r="AO25" s="4">
+        <f t="shared" si="24"/>
+        <v>89.564196718928386</v>
+      </c>
+      <c r="AP25" s="8">
         <f t="shared" si="17"/>
-        <v>702.93100960833135</v>
+        <v>573.83780837817415</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2014</v>
       </c>
@@ -4589,25 +4669,25 @@
         <v>-5.0833333333333341E-2</v>
       </c>
       <c r="T26" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4159999999999999</v>
       </c>
       <c r="U26" s="4">
         <v>11.732100000000001</v>
       </c>
       <c r="V26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.023170908039333</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66650000000000098</v>
       </c>
       <c r="X26" s="1">
         <v>319</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36777.742946708466</v>
       </c>
       <c r="Z26" s="8">
@@ -4620,7 +4700,7 @@
         <v>4736</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8205.69</v>
       </c>
       <c r="AD26" s="14">
@@ -4628,25 +4708,25 @@
         <v>99.349729878631351</v>
       </c>
       <c r="AE26" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>699.42209834556468</v>
       </c>
       <c r="AF26" s="4">
         <v>10.328136000000001</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8597828533567196</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.47866300000000095</v>
       </c>
       <c r="AI26" s="3">
         <v>337</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30647.287833827893</v>
       </c>
       <c r="AK26" s="1">
@@ -4655,20 +4735,23 @@
       <c r="AL26" s="1">
         <v>9805</v>
       </c>
-      <c r="AM26" s="8">
-        <f t="shared" si="15"/>
-        <v>7038.5</v>
-      </c>
-      <c r="AN26" s="4">
+      <c r="AM26" s="1">
+        <v>3146</v>
+      </c>
+      <c r="AN26" s="8">
         <f t="shared" si="16"/>
-        <v>96.011260599392998</v>
-      </c>
-      <c r="AO26" s="8">
+        <v>5741</v>
+      </c>
+      <c r="AO26" s="4">
+        <f t="shared" si="24"/>
+        <v>86.758268288348972</v>
+      </c>
+      <c r="AP26" s="8">
         <f t="shared" si="17"/>
-        <v>681.48792773449145</v>
+        <v>555.86022492345182</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2015</v>
       </c>
@@ -4740,25 +4823,25 @@
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9219999999999999</v>
       </c>
       <c r="U27" s="4">
         <v>12.458</v>
       </c>
       <c r="V27" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="W27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72589999999999932</v>
       </c>
       <c r="X27" s="1">
         <v>321</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38809.968847352022</v>
       </c>
       <c r="Z27" s="8">
@@ -4771,7 +4854,7 @@
         <v>5007</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8158.3433333333332</v>
       </c>
       <c r="AD27" s="14">
@@ -4779,25 +4862,25 @@
         <v>93.02099752136877</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>654.86782255043613</v>
       </c>
       <c r="AF27" s="4">
         <v>10.837680000000001</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9335523854449548</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.509544</v>
       </c>
       <c r="AI27" s="3">
         <v>338</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32064.142011834319</v>
       </c>
       <c r="AK27" s="1">
@@ -4806,20 +4889,23 @@
       <c r="AL27" s="1">
         <v>10743</v>
       </c>
-      <c r="AM27" s="8">
-        <f t="shared" si="15"/>
-        <v>7690</v>
-      </c>
-      <c r="AN27" s="4">
+      <c r="AM27" s="1">
+        <v>3267</v>
+      </c>
+      <c r="AN27" s="8">
         <f t="shared" si="16"/>
-        <v>99.966392780693639</v>
-      </c>
-      <c r="AO27" s="8">
+        <v>6215.666666666667</v>
+      </c>
+      <c r="AO27" s="4">
+        <f t="shared" si="24"/>
+        <v>89.515175711904277</v>
+      </c>
+      <c r="AP27" s="8">
         <f t="shared" si="17"/>
-        <v>709.56145595736348</v>
+        <v>573.52373078617074</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2016</v>
       </c>
@@ -4891,25 +4977,25 @@
         <v>0.30583333333333335</v>
       </c>
       <c r="T28" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.363833333333333</v>
       </c>
       <c r="U28" s="4">
         <v>13.275399999999999</v>
       </c>
       <c r="V28" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.81739999999999924</v>
       </c>
       <c r="X28" s="1">
         <v>323</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41100.309597523221</v>
       </c>
       <c r="Z28" s="8">
@@ -4922,7 +5008,7 @@
         <v>5383</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9127.8666666666668</v>
       </c>
       <c r="AD28" s="14">
@@ -4930,25 +5016,25 @@
         <v>97.667261980578346</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>687.57752434327153</v>
       </c>
       <c r="AF28" s="4">
         <v>11.392602</v>
       </c>
       <c r="AG28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.1203025001660762</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.55492199999999947</v>
       </c>
       <c r="AI28" s="3">
         <v>339</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33606.495575221241</v>
       </c>
       <c r="AK28" s="1">
@@ -4957,20 +5043,23 @@
       <c r="AL28" s="1">
         <v>11481</v>
       </c>
-      <c r="AM28" s="8">
-        <f t="shared" si="15"/>
-        <v>8171.5</v>
-      </c>
-      <c r="AN28" s="4">
+      <c r="AM28" s="1">
+        <v>3290</v>
+      </c>
+      <c r="AN28" s="8">
         <f t="shared" si="16"/>
-        <v>101.05152324773309</v>
-      </c>
-      <c r="AO28" s="8">
+        <v>6544.333333333333</v>
+      </c>
+      <c r="AO28" s="4">
+        <f t="shared" si="24"/>
+        <v>89.657734811026771</v>
+      </c>
+      <c r="AP28" s="8">
         <f t="shared" si="17"/>
-        <v>717.26371201240943</v>
+        <v>574.4371069342485</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2017</v>
       </c>
@@ -5042,25 +5131,25 @@
         <v>0.86916666666666664</v>
       </c>
       <c r="T29" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2396666666666598</v>
       </c>
       <c r="U29" s="4">
         <v>13.8584</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58300000000000018</v>
       </c>
       <c r="X29" s="1">
         <v>325</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42641.230769230766</v>
       </c>
       <c r="Z29" s="8">
@@ -5073,7 +5162,7 @@
         <v>6903</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11431.74</v>
       </c>
       <c r="AD29" s="14">
@@ -5081,25 +5170,25 @@
         <v>117.17274032683821</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>824.89609190094097</v>
       </c>
       <c r="AF29" s="4">
         <v>11.871539</v>
       </c>
       <c r="AG29" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2039298836209724</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.47893700000000017</v>
       </c>
       <c r="AI29" s="3">
         <v>340</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34916.291176470586</v>
       </c>
       <c r="AK29" s="1">
@@ -5108,20 +5197,23 @@
       <c r="AL29" s="1">
         <v>12917</v>
       </c>
-      <c r="AM29" s="8">
-        <f t="shared" si="15"/>
-        <v>9114.5</v>
-      </c>
-      <c r="AN29" s="4">
+      <c r="AM29" s="1">
+        <v>3503</v>
+      </c>
+      <c r="AN29" s="8">
         <f t="shared" si="16"/>
-        <v>108.16576612494706</v>
-      </c>
-      <c r="AO29" s="8">
+        <v>7244</v>
+      </c>
+      <c r="AO29" s="4">
+        <f t="shared" si="24"/>
+        <v>95.239409506135544</v>
+      </c>
+      <c r="AP29" s="8">
         <f t="shared" si="17"/>
-        <v>767.76060795487422</v>
+        <v>610.1988967058104</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2018</v>
       </c>
@@ -5193,25 +5285,25 @@
         <v>1.4366666666666668</v>
       </c>
       <c r="T30" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72425000000000006</v>
       </c>
       <c r="U30" s="4">
         <v>14.4346</v>
       </c>
       <c r="V30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="W30" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57620000000000005</v>
       </c>
       <c r="X30" s="1">
         <v>326</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44277.914110429447</v>
       </c>
       <c r="Z30" s="8">
@@ -5224,7 +5316,7 @@
         <v>6635</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10822.82</v>
       </c>
       <c r="AD30" s="14">
@@ -5232,25 +5324,25 @@
         <v>106.50328975958021</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>749.78315990744466</v>
       </c>
       <c r="AF30" s="4">
         <v>12.363619</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.1450396616647538</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.49207999999999963</v>
       </c>
       <c r="AI30" s="3">
         <v>341</v>
       </c>
       <c r="AJ30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36256.947214076245</v>
       </c>
       <c r="AK30" s="1">
@@ -5259,20 +5351,23 @@
       <c r="AL30" s="1">
         <v>10558</v>
       </c>
-      <c r="AM30" s="8">
-        <f t="shared" si="15"/>
-        <v>7644</v>
-      </c>
-      <c r="AN30" s="4">
+      <c r="AM30" s="1">
+        <v>3001</v>
+      </c>
+      <c r="AN30" s="8">
         <f t="shared" si="16"/>
-        <v>87.104194728345874</v>
-      </c>
-      <c r="AO30" s="8">
+        <v>6096.333333333333</v>
+      </c>
+      <c r="AO30" s="4">
+        <f t="shared" si="24"/>
+        <v>76.960586360258233</v>
+      </c>
+      <c r="AP30" s="8">
         <f t="shared" si="17"/>
-        <v>618.26557418179902</v>
+        <v>493.08647681017453</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2019</v>
       </c>
@@ -5344,25 +5439,25 @@
         <v>1.1566666666666665</v>
       </c>
       <c r="T31" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2499999999999787E-3</v>
       </c>
       <c r="U31" s="4">
         <v>15.402100000000001</v>
       </c>
       <c r="V31" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="W31" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96750000000000114</v>
       </c>
       <c r="X31" s="1">
         <v>328</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46957.621951219509</v>
       </c>
       <c r="Z31" s="8">
@@ -5375,7 +5470,7 @@
         <v>8972</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13580.146666666667</v>
       </c>
       <c r="AD31" s="14">
@@ -5383,25 +5478,25 @@
         <v>125.24253874865155</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>881.70747279050693</v>
       </c>
       <c r="AF31" s="4">
         <v>12.995488999999999</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.1107204128499859</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.63186999999999927</v>
       </c>
       <c r="AI31" s="3">
         <v>346</v>
       </c>
       <c r="AJ31" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37559.216763005781</v>
       </c>
       <c r="AK31" s="1">
@@ -5410,20 +5505,23 @@
       <c r="AL31" s="1">
         <v>13249</v>
       </c>
-      <c r="AM31" s="8">
-        <f t="shared" si="15"/>
-        <v>9613.5</v>
-      </c>
-      <c r="AN31" s="4">
+      <c r="AM31" s="1">
+        <v>3745</v>
+      </c>
+      <c r="AN31" s="8">
         <f t="shared" si="16"/>
-        <v>104.22044175448916</v>
-      </c>
-      <c r="AO31" s="8">
+        <v>7657.333333333333</v>
+      </c>
+      <c r="AO31" s="4">
+        <f t="shared" si="24"/>
+        <v>91.966615244527006</v>
+      </c>
+      <c r="AP31" s="8">
         <f t="shared" si="17"/>
-        <v>739.75669557336403</v>
+        <v>589.23010387168449</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
@@ -5495,25 +5593,25 @@
         <v>-1.4558333333333335</v>
       </c>
       <c r="T32" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49908333333333299</v>
       </c>
       <c r="U32" s="4">
         <v>19.187999999999999</v>
       </c>
       <c r="V32" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.580414359080891</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.785899999999998</v>
       </c>
       <c r="X32" s="1">
         <v>330</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58145.454545454544</v>
       </c>
       <c r="Z32" s="8">
@@ -5526,7 +5624,7 @@
         <v>12888</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15750.159999999998</v>
       </c>
       <c r="AD32" s="14">
@@ -5534,25 +5632,25 @@
         <v>116.59571796766917</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>820.83385449239097</v>
       </c>
       <c r="AF32" s="4">
         <v>14.492039</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.515919100851079</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4965500000000009</v>
       </c>
       <c r="AI32" s="3">
         <v>342</v>
       </c>
       <c r="AJ32" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42374.383040935674</v>
       </c>
       <c r="AK32" s="1">
@@ -5562,19 +5660,22 @@
         <v>13718</v>
       </c>
       <c r="AM32" s="8">
-        <f t="shared" si="15"/>
-        <v>9634.5</v>
-      </c>
-      <c r="AN32" s="4">
+        <v>3552</v>
+      </c>
+      <c r="AN32" s="8">
         <f t="shared" si="16"/>
-        <v>93.662057097504444</v>
-      </c>
-      <c r="AO32" s="8">
+        <v>7607</v>
+      </c>
+      <c r="AO32" s="4">
+        <f t="shared" si="24"/>
+        <v>81.927404827859931</v>
+      </c>
+      <c r="AP32" s="8">
         <f t="shared" si="17"/>
-        <v>664.81328127808649</v>
+        <v>524.90888273209862</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2021</v>
       </c>
@@ -5646,25 +5747,25 @@
         <v>-2.0783333333333331</v>
       </c>
       <c r="T33" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3740000000000001</v>
       </c>
       <c r="U33" s="14">
         <v>21.594000000000001</v>
       </c>
       <c r="V33" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.53908692933085</v>
       </c>
       <c r="W33" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4060000000000024</v>
       </c>
       <c r="X33" s="23">
         <v>331</v>
       </c>
       <c r="Y33" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65238.670694864049</v>
       </c>
       <c r="Z33" s="23">
@@ -5677,7 +5778,7 @@
         <v>15645</v>
       </c>
       <c r="AC33" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18916.333333333332</v>
       </c>
       <c r="AD33" s="14">
@@ -5685,25 +5786,25 @@
         <v>124.43174801642429</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>875.99950603562706</v>
       </c>
       <c r="AF33" s="14">
         <v>15.396000000000001</v>
       </c>
       <c r="AG33" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2376384717154139</v>
       </c>
       <c r="AH33" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.90396100000000068</v>
       </c>
       <c r="AI33" s="27">
         <v>342</v>
       </c>
       <c r="AJ33" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45017.543859649122</v>
       </c>
       <c r="AK33" s="11">
@@ -5713,19 +5814,22 @@
         <v>15946</v>
       </c>
       <c r="AM33" s="11">
-        <f t="shared" si="15"/>
-        <v>11558</v>
-      </c>
-      <c r="AN33" s="14">
+        <v>4298</v>
+      </c>
+      <c r="AN33" s="8">
         <f t="shared" si="16"/>
-        <v>105.76422531575717</v>
-      </c>
-      <c r="AO33" s="8">
+        <v>9138</v>
+      </c>
+      <c r="AO33" s="4">
+        <f t="shared" si="24"/>
+        <v>92.637862840246456</v>
+      </c>
+      <c r="AP33" s="8">
         <f t="shared" si="17"/>
-        <v>750.71447129124442</v>
+        <v>593.53078721745908</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2022</v>
       </c>
@@ -5797,25 +5901,25 @@
         <v>3.7241666666666662</v>
       </c>
       <c r="T34" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.88999999999999968</v>
       </c>
       <c r="U34" s="14">
         <v>21.236000000000001</v>
       </c>
       <c r="V34" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.6578679262758271</v>
       </c>
       <c r="W34" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.35800000000000054</v>
       </c>
       <c r="X34" s="23">
         <v>332</v>
       </c>
       <c r="Y34" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63963.855421686749</v>
       </c>
       <c r="Z34" s="23">
@@ -5828,7 +5932,7 @@
         <v>10466</v>
       </c>
       <c r="AC34" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15817.333333333334</v>
       </c>
       <c r="AD34" s="14">
@@ -5836,25 +5940,25 @@
         <v>105.80054167594193</v>
       </c>
       <c r="AE34" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>744.83581339863122</v>
       </c>
       <c r="AF34" s="14">
         <v>16.068000000000001</v>
       </c>
       <c r="AG34" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3647700701480971</v>
       </c>
       <c r="AH34" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.6720000000000006</v>
       </c>
       <c r="AI34" s="27">
         <v>343</v>
       </c>
       <c r="AJ34" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46845.481049562688</v>
       </c>
       <c r="AK34" s="11">
@@ -5864,19 +5968,22 @@
         <v>13923</v>
       </c>
       <c r="AM34" s="11">
-        <f t="shared" si="15"/>
-        <v>10198</v>
-      </c>
-      <c r="AN34" s="14">
+        <v>3793</v>
+      </c>
+      <c r="AN34" s="8">
         <f t="shared" si="16"/>
-        <v>89.416401819458059</v>
-      </c>
-      <c r="AO34" s="11">
+        <v>8063</v>
+      </c>
+      <c r="AO34" s="4">
+        <f t="shared" si="24"/>
+        <v>78.321340639102914</v>
+      </c>
+      <c r="AP34" s="11">
         <f t="shared" si="17"/>
-        <v>634.67762011451327</v>
+        <v>501.80482947473234</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2023</v>
       </c>
@@ -5947,25 +6054,25 @@
         <v>5.25</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.4</v>
       </c>
       <c r="U35" s="14">
         <v>20.864999999999998</v>
       </c>
       <c r="V35" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.7470333396119884</v>
       </c>
       <c r="W35" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="23">
         <v>334</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62470.059880239518</v>
       </c>
       <c r="Z35" s="23">
@@ -5986,25 +6093,25 @@
         <v>128.6385602974388</v>
       </c>
       <c r="AE35" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>905.61546449396928</v>
       </c>
       <c r="AF35" s="14">
         <v>16.111999999999998</v>
       </c>
       <c r="AG35" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.27383619616627186</v>
       </c>
       <c r="AH35" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AI35" s="27">
         <v>349</v>
       </c>
       <c r="AJ35" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46166.189111747844</v>
       </c>
       <c r="AK35" s="23">
@@ -6014,19 +6121,22 @@
         <v>16751</v>
       </c>
       <c r="AM35" s="23">
-        <f t="shared" si="15"/>
-        <v>12147</v>
-      </c>
-      <c r="AN35" s="14">
+        <v>4521</v>
+      </c>
+      <c r="AN35" s="8">
         <f t="shared" si="16"/>
-        <v>106.21444478674638</v>
-      </c>
-      <c r="AO35" s="11">
+        <v>9605</v>
+      </c>
+      <c r="AO35" s="4">
+        <f t="shared" si="24"/>
+        <v>93.045032517035054</v>
+      </c>
+      <c r="AP35" s="11">
         <f t="shared" si="17"/>
-        <v>753.91012909632582</v>
+        <v>596.13952333664361</v>
       </c>
     </row>
-    <row r="36" spans="1:41" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>2024</v>
       </c>
@@ -6098,18 +6208,18 @@
         <v>0.73000000000000043</v>
       </c>
       <c r="T36" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14000000000000057</v>
       </c>
       <c r="U36" s="14">
         <v>21.221</v>
       </c>
       <c r="V36" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7062065660196595</v>
       </c>
       <c r="W36" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35600000000000165</v>
       </c>
       <c r="X36" s="23">
@@ -6137,7 +6247,7 @@
         <v>154.55361184532759</v>
       </c>
       <c r="AE36" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1088.0574273911063</v>
       </c>
       <c r="AF36" s="14">
@@ -6148,14 +6258,14 @@
         <v>2.7060575968222338</v>
       </c>
       <c r="AH36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.43599999999999994</v>
       </c>
       <c r="AI36" s="27">
         <v>350</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47279.999999999993</v>
       </c>
       <c r="AK36" s="23">
@@ -6164,20 +6274,25 @@
       <c r="AL36" s="23">
         <v>19215</v>
       </c>
-      <c r="AM36" s="11">
-        <f>AVERAGE(AK36:AL36)</f>
-        <v>13276.5</v>
-      </c>
-      <c r="AN36" s="14">
+      <c r="AM36" s="23">
+        <v>4802</v>
+      </c>
+      <c r="AN36" s="8">
         <f t="shared" si="16"/>
-        <v>113.03217709755336</v>
-      </c>
-      <c r="AO36" s="11">
-        <f>AM36/AF36</f>
-        <v>802.30239303843371</v>
-      </c>
+        <v>10451.666666666666</v>
+      </c>
+      <c r="AO36" s="4">
+        <f t="shared" si="24"/>
+        <v>98.579205623452125</v>
+      </c>
+      <c r="AP36" s="11">
+        <f>AN36/AF36</f>
+        <v>631.59697042945777</v>
+      </c>
+      <c r="AQ36"/>
+      <c r="AR36"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C37" s="42"/>
       <c r="H37" s="38"/>
     </row>
@@ -6289,6 +6404,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="H3:H7 H27:H36 H9:H26" formula="1"/>
+    <ignoredError sqref="AN2" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900C9DE-EB04-4171-8025-63178737DE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D920D-E902-4B71-B6B1-2817B8E39D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -234,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -292,6 +294,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -395,7 +410,6 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,7 +419,12 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,40 +774,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="71" zoomScaleNormal="71" zoomScaleSheetLayoutView="92" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO17" sqref="AO17"/>
+      <selection pane="bottomLeft" activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" style="30" customWidth="1"/>
     <col min="12" max="12" width="5.7265625" style="30" customWidth="1"/>
     <col min="20" max="20" width="9.26953125" customWidth="1"/>
     <col min="21" max="21" width="9.54296875" customWidth="1"/>
     <col min="22" max="22" width="9.7265625" customWidth="1"/>
-    <col min="23" max="23" width="9.90625" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" customWidth="1"/>
-    <col min="25" max="25" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" customWidth="1"/>
+    <col min="24" max="25" width="9.54296875" customWidth="1"/>
     <col min="26" max="27" width="9.7265625" customWidth="1"/>
-    <col min="28" max="28" width="9.90625" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" customWidth="1"/>
     <col min="29" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="9.453125" customWidth="1"/>
-    <col min="32" max="32" width="9.36328125" customWidth="1"/>
+    <col min="30" max="32" width="9.453125" customWidth="1"/>
     <col min="33" max="33" width="9.7265625" customWidth="1"/>
-    <col min="34" max="34" width="10.6328125" customWidth="1"/>
-    <col min="35" max="35" width="9.90625" customWidth="1"/>
+    <col min="34" max="34" width="10.54296875" customWidth="1"/>
+    <col min="35" max="35" width="9.81640625" customWidth="1"/>
     <col min="36" max="36" width="9.453125" customWidth="1"/>
     <col min="37" max="39" width="9.7265625" customWidth="1"/>
     <col min="40" max="40" width="9.453125" customWidth="1"/>
     <col min="41" max="41" width="10" customWidth="1"/>
-    <col min="42" max="42" width="11.08984375" customWidth="1"/>
+    <col min="42" max="42" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
@@ -947,7 +964,7 @@
         <f>Monitor!U2</f>
         <v>3.2876999999999996</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>6.0110580785407297</v>
       </c>
       <c r="J2" s="8">
@@ -965,26 +982,26 @@
         <v>88.353000000000009</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N36" si="1">I2-L2</f>
+        <f t="shared" ref="N2:N35" si="1">I2-L2</f>
         <v>0.61105807854072935</v>
       </c>
       <c r="O2" s="21">
-        <f t="shared" ref="O2:O36" si="2">J2*MAX($D$2:$D$36)/MAX($J$2:$J$36)</f>
-        <v>1.0753119712808497</v>
+        <f>J2*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>1.0841344778250348</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P36" si="3">L2*MAX($D$2:$D$36)/MAX($L$2:$L$36)</f>
+        <f>L2*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>2.3344875000000003</v>
       </c>
       <c r="Q2" s="8">
-        <f t="shared" ref="Q2:Q36" si="4">(F2*100/MAX($F$2:$F$36))</f>
-        <v>4.8169599676623021</v>
+        <f>(F2*100/MAX($F$2:$F$37))</f>
+        <v>4.7933630225542307</v>
       </c>
       <c r="R2" s="8">
-        <f t="shared" ref="R2:R36" si="5">(H2*MAX($Q$2:$Q$36)/MAX($H$2:$H$36))</f>
-        <v>15.225062517365933</v>
-      </c>
-      <c r="S2" s="39"/>
+        <f>(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <v>15.012328767123286</v>
+      </c>
+      <c r="S2" s="38"/>
       <c r="T2" s="37">
         <f>D2</f>
         <v>1.2078055555555496</v>
@@ -1051,7 +1068,7 @@
         <v>1104.5323505685974</v>
       </c>
       <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO16" si="6">((AN2/AF2)/100)*100/6.407</f>
+        <f t="shared" ref="AO2:AO16" si="2">((AN2/AF2)/100)*100/6.407</f>
         <v>57.851534760247603</v>
       </c>
       <c r="AP2" s="8">
@@ -1087,7 +1104,7 @@
         <f>Monitor!U3</f>
         <v>3.3811999999999998</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <f>(H3*100/H2)-100</f>
         <v>2.8439334489156636</v>
       </c>
@@ -1110,22 +1127,22 @@
         <v>-1.3560665510843366</v>
       </c>
       <c r="O3" s="21">
-        <f t="shared" si="2"/>
-        <v>1.3072855173248155</v>
+        <f t="shared" ref="O3:O36" si="3">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>1.3180112744443782</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P3:P36" si="4">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>1.8157125000000001</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" si="4"/>
-        <v>6.0226508250443915</v>
+        <f t="shared" ref="Q3:Q35" si="5">(F3*100/MAX($F$2:$F$37))</f>
+        <v>5.9931475362735238</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" si="5"/>
-        <v>15.658053162915625</v>
-      </c>
-      <c r="S3" s="39"/>
+        <f t="shared" ref="R3:R37" si="6">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <v>15.439269406392693</v>
+      </c>
+      <c r="S3" s="38"/>
       <c r="T3" s="37">
         <f t="shared" ref="T3:T36" si="7">D3</f>
         <v>2.4315833333333403</v>
@@ -1134,11 +1151,11 @@
         <v>3.3811999999999998</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V36" si="8">(U3*100/U2)-100</f>
+        <f t="shared" ref="V3:V35" si="8">(U3*100/U2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W36" si="9">U3-U2</f>
+        <f t="shared" ref="W3:W35" si="9">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="X3" s="1">
@@ -1166,7 +1183,7 @@
         <v>58.420037130443205</v>
       </c>
       <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE36" si="12">AC3/U3</f>
+        <f t="shared" ref="AE3:AE35" si="12">AC3/U3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AF3" s="4">
@@ -1177,14 +1194,14 @@
         <v>7.539860581506602</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH36" si="14">AF3-AF2</f>
+        <f t="shared" ref="AH3:AH35" si="14">AF3-AF2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AI3" s="7">
         <v>318.44</v>
       </c>
       <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3:AJ36" si="15">((AF3*1000000000000)/(AI3*1000000))</f>
+        <f t="shared" ref="AJ3:AJ37" si="15">((AF3*1000000000000)/(AI3*1000000))</f>
         <v>10063.537872126617</v>
       </c>
       <c r="AK3" s="8">
@@ -1197,11 +1214,11 @@
         <v>479.54535718908153</v>
       </c>
       <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AN36" si="16">AVERAGE(AK3:AM3)</f>
+        <f t="shared" ref="AN3:AN35" si="16">AVERAGE(AK3:AM3)</f>
         <v>1273.8484523963605</v>
       </c>
       <c r="AO3" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>62.041849979271625</v>
       </c>
       <c r="AP3" s="8">
@@ -1238,7 +1255,7 @@
         <f>Monitor!U4</f>
         <v>3.4190999999999998</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <f t="shared" ref="I4:I32" si="19">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
@@ -1261,27 +1278,27 @@
         <v>-1.8790961788714071</v>
       </c>
       <c r="O4" s="21">
-        <f t="shared" si="2"/>
-        <v>1.3672541046447206</v>
+        <f t="shared" si="3"/>
+        <v>1.3784718801442566</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" si="4"/>
-        <v>6.3695303815559647</v>
+        <f t="shared" si="5"/>
+        <v>6.3383278264617173</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" si="5"/>
-        <v>15.833564879133093</v>
-      </c>
-      <c r="S4" s="39">
+        <f t="shared" si="6"/>
+        <v>15.612328767123284</v>
+      </c>
+      <c r="S4" s="38">
         <f>E4-E2</f>
         <v>-4.5775000000000041</v>
       </c>
       <c r="T4" s="37">
-        <f t="shared" si="7"/>
+        <f>D4</f>
         <v>3.4584999999999999</v>
       </c>
       <c r="U4" s="4">
@@ -1355,7 +1372,7 @@
         <v>1294.0909682503204</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>58.832020155108296</v>
       </c>
       <c r="AP4" s="8">
@@ -1392,7 +1409,7 @@
         <f>Monitor!U5</f>
         <v>3.4748999999999999</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <f t="shared" si="19"/>
         <v>1.6320084232692835</v>
       </c>
@@ -1415,22 +1432,22 @@
         <v>-1.3679915767307165</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" si="2"/>
-        <v>1.5233603567010101</v>
+        <f t="shared" si="3"/>
+        <v>1.5358589218384726</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="4"/>
-        <v>7.2125914911432245</v>
+        <f t="shared" si="5"/>
+        <v>7.17725901450941</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="5"/>
-        <v>16.091969991664349</v>
-      </c>
-      <c r="S5" s="39">
+        <f t="shared" si="6"/>
+        <v>15.867123287671232</v>
+      </c>
+      <c r="S5" s="38">
         <f>E5-E3</f>
         <v>-2.665</v>
       </c>
@@ -1509,7 +1526,7 @@
         <v>1750.9090592015164</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>74.835036286598012</v>
       </c>
       <c r="AP5" s="8">
@@ -1546,7 +1563,7 @@
         <f>Monitor!U6</f>
         <v>3.4923999999999999</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <f>(H6*100/H5)-100</f>
         <v>0.50361161472272897</v>
       </c>
@@ -1569,23 +1586,23 @@
         <v>-2.0963883852772711</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="2"/>
-        <v>1.530395530283565</v>
+        <f t="shared" si="3"/>
+        <v>1.5429518162189255</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1240125000000001</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="4"/>
-        <v>7.2823918347312659</v>
+        <f t="shared" si="5"/>
+        <v>7.2467174256572351</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="5"/>
-        <v>16.17301102158007</v>
-      </c>
-      <c r="S6" s="39">
-        <f t="shared" ref="S6:S35" si="22">E6-E4</f>
+        <f t="shared" si="6"/>
+        <v>15.947031963470318</v>
+      </c>
+      <c r="S6" s="38">
+        <f t="shared" ref="S6:S33" si="22">E6-E4</f>
         <v>0.6800000000000006</v>
       </c>
       <c r="T6" s="37">
@@ -1663,7 +1680,7 @@
         <v>1543.0847161474201</v>
       </c>
       <c r="AO6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>64.469090614788527</v>
       </c>
       <c r="AP6" s="8">
@@ -1700,7 +1717,7 @@
         <f>Monitor!U7</f>
         <v>3.6478999999999999</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <f t="shared" si="19"/>
         <v>4.4525254839079054</v>
       </c>
@@ -1723,22 +1740,22 @@
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9704494782588904</v>
+        <f t="shared" si="3"/>
+        <v>1.9866162316116109</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="4"/>
-        <v>9.7938760484488014</v>
+        <f t="shared" si="5"/>
+        <v>9.7458985777905482</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="5"/>
-        <v>16.893118458831157</v>
-      </c>
-      <c r="S7" s="39">
+        <f t="shared" si="6"/>
+        <v>16.657077625570775</v>
+      </c>
+      <c r="S7" s="38">
         <f t="shared" si="22"/>
         <v>2.8141666666666669</v>
       </c>
@@ -1817,7 +1834,7 @@
         <v>1602.7681047933168</v>
       </c>
       <c r="AO7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>63.533985490317804</v>
       </c>
       <c r="AP7" s="8">
@@ -1854,7 +1871,7 @@
         <f>Monitor!U8</f>
         <v>3.8245999999999998</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <f t="shared" si="19"/>
         <v>4.8438827818744983</v>
       </c>
@@ -1877,22 +1894,22 @@
         <v>1.8438827818744983</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="2"/>
-        <v>2.3490223618585326</v>
+        <f t="shared" si="3"/>
+        <v>2.3682951549766531</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="4"/>
-        <v>12.241074650998284</v>
+        <f t="shared" si="5"/>
+        <v>12.181109036058039</v>
       </c>
       <c r="R8" s="8">
-        <f t="shared" si="5"/>
-        <v>17.711401315180144</v>
-      </c>
-      <c r="S8" s="39">
+        <f t="shared" si="6"/>
+        <v>17.463926940639269</v>
+      </c>
+      <c r="S8" s="38">
         <f t="shared" si="22"/>
         <v>1.0966666666666658</v>
       </c>
@@ -1971,7 +1988,7 @@
         <v>2035.7579744270815</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>77.680404893902249</v>
       </c>
       <c r="AP8" s="8">
@@ -2008,7 +2025,7 @@
         <f>Monitor!U9</f>
         <v>4.0461</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <f t="shared" si="19"/>
         <v>5.7914553155885642</v>
       </c>
@@ -2031,22 +2048,22 @@
         <v>3.4914553155885644</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="2"/>
-        <v>2.7360481064251654</v>
+        <f t="shared" si="3"/>
+        <v>2.7584962916670621</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="4"/>
-        <v>15.083659356999521</v>
+        <f t="shared" si="5"/>
+        <v>15.00976871139204</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" si="5"/>
-        <v>18.737149208113369</v>
-      </c>
-      <c r="S9" s="39">
+        <f t="shared" si="6"/>
+        <v>18.475342465753425</v>
+      </c>
+      <c r="S9" s="38">
         <f t="shared" si="22"/>
         <v>-0.37666666666666693</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>2905.9931640831296</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>106.28832648759899</v>
       </c>
       <c r="AP9" s="8">
@@ -2162,7 +2179,7 @@
         <f>Monitor!U10</f>
         <v>4.3923999999999994</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <f t="shared" si="19"/>
         <v>8.5588591483156478</v>
       </c>
@@ -2185,22 +2202,22 @@
         <v>6.9588591483156481</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="2"/>
-        <v>3.039954744365116</v>
+        <f t="shared" si="3"/>
+        <v>3.0648963625582448</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="4"/>
-        <v>18.193463165340919</v>
+        <f t="shared" si="5"/>
+        <v>18.104338457118235</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" si="5"/>
-        <v>20.340835417245529</v>
-      </c>
-      <c r="S10" s="39">
+        <f t="shared" si="6"/>
+        <v>20.056621004566207</v>
+      </c>
+      <c r="S10" s="38">
         <f t="shared" si="22"/>
         <v>5.5000000000000604E-2</v>
       </c>
@@ -2279,7 +2296,7 @@
         <v>3637.9289115129236</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>126.97010446122337</v>
       </c>
       <c r="AP10" s="8">
@@ -2316,7 +2333,7 @@
         <f>Monitor!U11</f>
         <v>4.6556999999999995</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <f>(H11*100/H10)-100</f>
         <v>5.9944449503688162</v>
       </c>
@@ -2339,22 +2356,22 @@
         <v>3.794444950368816</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="2"/>
-        <v>3.1940804434851802</v>
+        <f t="shared" si="3"/>
+        <v>3.2202866016680334</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95108750000000009</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="4"/>
-        <v>20.261762115809383</v>
+        <f t="shared" si="5"/>
+        <v>20.162505387157019</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" si="5"/>
-        <v>21.560155598777438</v>
-      </c>
-      <c r="S11" s="39">
+        <f t="shared" si="6"/>
+        <v>21.258904109589036</v>
+      </c>
+      <c r="S11" s="38">
         <f t="shared" si="22"/>
         <v>-0.49000000000000021</v>
       </c>
@@ -2433,7 +2450,7 @@
         <v>5482.7001138321903</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>181.72553898166194</v>
       </c>
       <c r="AP11" s="8">
@@ -2470,7 +2487,7 @@
         <f>Monitor!U12</f>
         <v>4.9643000000000006</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <f t="shared" si="19"/>
         <v>6.6284339626694475</v>
       </c>
@@ -2493,27 +2510,27 @@
         <v>3.2284339626694476</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="2"/>
-        <v>3.1113891770001088</v>
+        <f t="shared" si="3"/>
+        <v>3.136916886268418</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="4"/>
-        <v>21.045474887756427</v>
+        <f t="shared" si="5"/>
+        <v>20.942378968539003</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" si="5"/>
-        <v>22.989256274891179</v>
-      </c>
-      <c r="S12" s="39">
+        <f t="shared" si="6"/>
+        <v>22.668036529680368</v>
+      </c>
+      <c r="S12" s="38">
         <f>E12-E10</f>
         <v>0.8824999999999994</v>
       </c>
       <c r="T12" s="37">
-        <f t="shared" si="7"/>
+        <f>D12</f>
         <v>-2.508333333332935E-2</v>
       </c>
       <c r="U12" s="4">
@@ -2587,7 +2604,7 @@
         <v>5248.3588166646805</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>166.82390845070381</v>
       </c>
       <c r="AP12" s="8">
@@ -2624,7 +2641,7 @@
         <f>Monitor!U13</f>
         <v>5.4420000000000002</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f t="shared" si="19"/>
         <v>9.6227061217090011</v>
       </c>
@@ -2647,22 +2664,22 @@
         <v>6.8227061217090013</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="2"/>
-        <v>2.5543227475041643</v>
+        <f t="shared" si="3"/>
+        <v>2.5752799485376223</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="4"/>
-        <v>18.940030894050725</v>
+        <f t="shared" si="5"/>
+        <v>18.847248958482975</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="5"/>
-        <v>25.201444845790498</v>
-      </c>
-      <c r="S13" s="39">
+        <f t="shared" si="6"/>
+        <v>24.849315068493148</v>
+      </c>
+      <c r="S13" s="38">
         <f t="shared" si="22"/>
         <v>-1.0824999999999996</v>
       </c>
@@ -2741,7 +2758,7 @@
         <v>4195.4103576955577</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>120.2218250422484</v>
       </c>
       <c r="AP13" s="8">
@@ -2778,7 +2795,7 @@
         <f>Monitor!U14</f>
         <v>5.7923</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f t="shared" si="19"/>
         <v>6.4369717015803047</v>
       </c>
@@ -2801,22 +2818,22 @@
         <v>4.8369717015803051</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="2"/>
-        <v>1.9308468100439737</v>
+        <f t="shared" si="3"/>
+        <v>1.9466886392734399</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="4"/>
-        <v>15.23860601423436</v>
+        <f t="shared" si="5"/>
+        <v>15.163956328113777</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" si="5"/>
-        <v>26.823654718903402</v>
-      </c>
-      <c r="S14" s="39">
+        <f t="shared" si="6"/>
+        <v>26.448858447488583</v>
+      </c>
+      <c r="S14" s="38">
         <f t="shared" si="22"/>
         <v>-4.5691666666666659</v>
       </c>
@@ -2895,7 +2912,7 @@
         <v>2656.3442743230735</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>71.386504200603312</v>
       </c>
       <c r="AP14" s="8">
@@ -2932,7 +2949,7 @@
         <f>Monitor!U15</f>
         <v>6.0626999999999995</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <f t="shared" si="19"/>
         <v>4.6682664917217664</v>
       </c>
@@ -2955,22 +2972,22 @@
         <v>2.3682664917217666</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" si="2"/>
-        <v>2.3711656939564416</v>
+        <f t="shared" si="3"/>
+        <v>2.390620164297137</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="4"/>
-        <v>19.587290129783888</v>
+        <f t="shared" si="5"/>
+        <v>19.491337451515591</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="5"/>
-        <v>28.075854404001113</v>
-      </c>
-      <c r="S15" s="39">
+        <f t="shared" si="6"/>
+        <v>27.683561643835613</v>
+      </c>
+      <c r="S15" s="38">
         <f t="shared" si="22"/>
         <v>-2.7600000000000002</v>
       </c>
@@ -3049,7 +3066,7 @@
         <v>3418.4215634139855</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>86.32123243964989</v>
       </c>
       <c r="AP15" s="8">
@@ -3086,7 +3103,7 @@
         <f>Monitor!U16</f>
         <v>6.4112</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <f t="shared" si="19"/>
         <v>5.7482639747967141</v>
       </c>
@@ -3109,22 +3126,22 @@
         <v>3.048263974796714</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="2"/>
-        <v>2.3416117522240718</v>
+        <f t="shared" si="3"/>
+        <v>2.3608237442409838</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1672437500000001</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="4"/>
-        <v>20.455052043482652</v>
+        <f t="shared" si="5"/>
+        <v>20.354848441315902</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="5"/>
-        <v>29.689728628322687</v>
-      </c>
-      <c r="S16" s="39">
+        <f t="shared" si="6"/>
+        <v>29.274885844748855</v>
+      </c>
+      <c r="S16" s="38">
         <f t="shared" si="22"/>
         <v>-0.31750000000000012</v>
       </c>
@@ -3203,7 +3220,7 @@
         <v>3676</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>87.35263240686082</v>
       </c>
       <c r="AP16" s="8">
@@ -3240,7 +3257,7 @@
         <f>Monitor!U17</f>
         <v>6.7104999999999997</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <f t="shared" si="19"/>
         <v>4.6683928125779772</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K34" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K33" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
@@ -3263,22 +3280,22 @@
         <v>1.2683928125779773</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" si="2"/>
-        <v>2.2374070443078011</v>
+        <f t="shared" si="3"/>
+        <v>2.2557640781896975</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="4"/>
-        <v>20.457203077855894</v>
+        <f t="shared" si="5"/>
+        <v>20.356988938370925</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="5"/>
-        <v>31.075761785681209</v>
-      </c>
-      <c r="S17" s="39">
+        <f t="shared" si="6"/>
+        <v>30.641552511415519</v>
+      </c>
+      <c r="S17" s="38">
         <f t="shared" si="22"/>
         <v>2.0858333333333334</v>
       </c>
@@ -3394,7 +3411,7 @@
         <f>Monitor!U18</f>
         <v>7.0955000000000004</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <f t="shared" si="19"/>
         <v>5.7372774010878658</v>
       </c>
@@ -3417,23 +3434,23 @@
         <v>2.5372774010878656</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="2"/>
-        <v>2.4334180017570035</v>
+        <f t="shared" si="3"/>
+        <v>2.4533832274948577</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3834</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="4"/>
-        <v>23.525891813076555</v>
+        <f t="shared" si="5"/>
+        <v>23.410645022266916</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="5"/>
-        <v>32.858664443826996</v>
-      </c>
-      <c r="S18" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
+        <v>32.399543378995432</v>
+      </c>
+      <c r="S18" s="38">
+        <f>E18-E16</f>
         <v>3.6149999999999998</v>
       </c>
       <c r="T18" s="37">
@@ -3511,7 +3528,7 @@
         <v>5418.666666666667</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" ref="AO18:AO36" si="24">((AN18/AF18)/100)*100/6.407</f>
+        <f t="shared" ref="AO18:AO35" si="24">((AN18/AF18)/100)*100/6.407</f>
         <v>108.40513566015885</v>
       </c>
       <c r="AP18" s="8">
@@ -3548,7 +3565,7 @@
         <f>Monitor!U19</f>
         <v>7.4917999999999996</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="39">
         <f t="shared" si="19"/>
         <v>5.5852300753998918</v>
       </c>
@@ -3571,22 +3588,22 @@
         <v>2.785230075399892</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="2"/>
-        <v>2.4586614439817485</v>
+        <f t="shared" si="3"/>
+        <v>2.4788337821113307</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="4"/>
-        <v>25.097547243355613</v>
+        <f t="shared" si="5"/>
+        <v>24.974601350380695</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="5"/>
-        <v>34.693896452718349</v>
-      </c>
-      <c r="S19" s="39">
+        <f t="shared" si="6"/>
+        <v>34.209132420091322</v>
+      </c>
+      <c r="S19" s="38">
         <f>E19-E17</f>
         <v>1.8058333333333363</v>
       </c>
@@ -3702,7 +3719,7 @@
         <f>Monitor!U20</f>
         <v>8.2623999999999995</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <f t="shared" si="19"/>
         <v>10.285912597773574</v>
       </c>
@@ -3725,22 +3742,22 @@
         <v>6.4859125977735745</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="2"/>
-        <v>1.4434695365090802</v>
+        <f t="shared" si="3"/>
+        <v>1.45531262927872</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6427874999999998</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="4"/>
-        <v>16.250256247383387</v>
+        <f t="shared" si="5"/>
+        <v>16.170650768567732</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="5"/>
-        <v>38.262480318607025</v>
-      </c>
-      <c r="S20" s="39">
+        <f t="shared" si="6"/>
+        <v>37.727853881278534</v>
+      </c>
+      <c r="S20" s="38">
         <f t="shared" si="22"/>
         <v>-3.0366666666666662</v>
       </c>
@@ -3856,7 +3873,7 @@
         <f>Monitor!U21</f>
         <v>8.4457000000000004</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <f t="shared" si="19"/>
         <v>2.2184837335398981</v>
       </c>
@@ -3879,22 +3896,22 @@
         <v>2.6184837335398981</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="2"/>
-        <v>1.7327551505351981</v>
+        <f t="shared" si="3"/>
+        <v>1.7469717165768262</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.172925</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="4"/>
-        <v>19.93972772813235</v>
+        <f t="shared" si="5"/>
+        <v>19.84204855624192</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="5"/>
-        <v>39.111327220524224</v>
-      </c>
-      <c r="S21" s="39">
+        <f t="shared" si="6"/>
+        <v>38.564840182648403</v>
+      </c>
+      <c r="S21" s="38">
         <f t="shared" si="22"/>
         <v>-4.8591666666666695</v>
       </c>
@@ -4010,7 +4027,7 @@
         <f>Monitor!U22</f>
         <v>8.825899999999999</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <f t="shared" si="19"/>
         <v>4.5016990894774693</v>
       </c>
@@ -4033,22 +4050,22 @@
         <v>2.9016990894774692</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="2"/>
-        <v>1.8591278735812069</v>
+        <f t="shared" si="3"/>
+        <v>1.8743812774948729</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="4"/>
-        <v>22.357057269485626</v>
+        <f t="shared" si="5"/>
+        <v>22.24753627352392</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="5"/>
-        <v>40.872001481893115</v>
-      </c>
-      <c r="S22" s="39">
+        <f t="shared" si="6"/>
+        <v>40.300913242009123</v>
+      </c>
+      <c r="S22" s="38">
         <f t="shared" si="22"/>
         <v>-1.7524999999999999</v>
       </c>
@@ -4164,7 +4181,7 @@
         <f>Monitor!U23</f>
         <v>9.7302999999999997</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <f t="shared" si="19"/>
         <v>10.247113608810437</v>
       </c>
@@ -4187,22 +4204,22 @@
         <v>7.0471136088104371</v>
       </c>
       <c r="O23" s="21">
-        <f t="shared" si="2"/>
-        <v>1.7509052200775708</v>
+        <f t="shared" si="3"/>
+        <v>1.7652707002125889</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3834</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="4"/>
-        <v>23.213212259452281</v>
+        <f t="shared" si="5"/>
+        <v>23.099497198678353</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="5"/>
-        <v>45.06020190793739</v>
-      </c>
-      <c r="S23" s="39">
+        <f t="shared" si="6"/>
+        <v>44.43059360730593</v>
+      </c>
+      <c r="S23" s="38">
         <f t="shared" si="22"/>
         <v>-5.8333333333333334E-2</v>
       </c>
@@ -4318,7 +4335,7 @@
         <f>Monitor!U24</f>
         <v>10.471200000000001</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f t="shared" si="19"/>
         <v>7.6143592694983795</v>
       </c>
@@ -4341,22 +4358,22 @@
         <v>5.5143592694983798</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="2"/>
-        <v>1.7757183853470164</v>
+        <f>J24*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>1.7902874476226769</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="4"/>
-        <v>25.334767356248822</v>
+        <f t="shared" si="5"/>
+        <v>25.210659388018961</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="5"/>
-        <v>48.491247568769118</v>
-      </c>
-      <c r="S24" s="39">
+        <f t="shared" si="6"/>
+        <v>47.813698630136983</v>
+      </c>
+      <c r="S24" s="38">
         <f t="shared" si="22"/>
         <v>-3.4999999999999976E-2</v>
       </c>
@@ -4472,7 +4489,7 @@
         <f>Monitor!U25</f>
         <v>11.0656</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <f t="shared" si="19"/>
         <v>5.6765222706088849</v>
       </c>
@@ -4495,22 +4512,22 @@
         <v>4.1765222706088849</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="2"/>
-        <v>2.1640179659523531</v>
+        <f t="shared" si="3"/>
+        <v>2.1817728716692559</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64846874999999993</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="4"/>
-        <v>32.627380213371062</v>
+        <f t="shared" si="5"/>
+        <v>32.467547766125563</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="5"/>
-        <v>51.243864036306384</v>
-      </c>
-      <c r="S25" s="39">
+        <f t="shared" si="6"/>
+        <v>50.527853881278531</v>
+      </c>
+      <c r="S25" s="38">
         <f t="shared" si="22"/>
         <v>5.8333333333333293E-3</v>
       </c>
@@ -4626,7 +4643,7 @@
         <f>Monitor!U26</f>
         <v>11.732100000000001</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <f t="shared" si="19"/>
         <v>6.023170908039333</v>
       </c>
@@ -4649,22 +4666,22 @@
         <v>4.4231709080393333</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="2"/>
-        <v>2.2231835068928163</v>
+        <f t="shared" si="3"/>
+        <v>2.2414238423139157</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="4"/>
-        <v>35.538364925146887</v>
+        <f t="shared" si="5"/>
+        <v>35.364272374658817</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="5"/>
-        <v>54.330369547096424</v>
-      </c>
-      <c r="S26" s="39">
+        <f t="shared" si="6"/>
+        <v>53.571232876712322</v>
+      </c>
+      <c r="S26" s="38">
         <f t="shared" si="22"/>
         <v>-5.0833333333333341E-2</v>
       </c>
@@ -4780,7 +4797,7 @@
         <f>Monitor!U27</f>
         <v>12.458</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <f t="shared" si="19"/>
         <v>6.1872980966749225</v>
       </c>
@@ -4803,22 +4820,22 @@
         <v>6.0872980966749228</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="2"/>
-        <v>2.0815632587714243</v>
+        <f t="shared" si="3"/>
+        <v>2.0986416564486783</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3231249999999999E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="4"/>
-        <v>35.33330927254616</v>
+        <f t="shared" si="5"/>
+        <v>35.160221232581527</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="5"/>
-        <v>57.691951468000376</v>
-      </c>
-      <c r="S27" s="39">
+        <f t="shared" si="6"/>
+        <v>56.885844748858446</v>
+      </c>
+      <c r="S27" s="38">
         <f t="shared" si="22"/>
         <v>2.5000000000000008E-2</v>
       </c>
@@ -4934,7 +4951,7 @@
         <f>Monitor!U28</f>
         <v>13.275399999999999</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <f t="shared" si="19"/>
         <v>6.5612457858404127</v>
       </c>
@@ -4943,7 +4960,7 @@
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">AVERAGE(OFFSET(J29,-14,0,14,1))</f>
         <v>92.754955364114394</v>
       </c>
       <c r="L28" s="4">
@@ -4957,22 +4974,22 @@
         <v>5.2612457858404129</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="2"/>
-        <v>2.1855343367702855</v>
+        <f t="shared" si="3"/>
+        <v>2.2034657757421123</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56200625000000004</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="4"/>
-        <v>39.532258297362453</v>
+        <f t="shared" si="5"/>
+        <v>39.338600775750614</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="5"/>
-        <v>61.477262202463656</v>
-      </c>
-      <c r="S28" s="39">
+        <f t="shared" si="6"/>
+        <v>60.61826484018264</v>
+      </c>
+      <c r="S28" s="38">
         <f t="shared" si="22"/>
         <v>0.30583333333333335</v>
       </c>
@@ -5088,7 +5105,7 @@
         <f>Monitor!U29</f>
         <v>13.8584</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <f t="shared" si="19"/>
         <v>4.3915814212754469</v>
       </c>
@@ -5097,7 +5114,7 @@
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">AVERAGE(OFFSET(J30,-14,0,14,1))</f>
         <v>93.555667897121467</v>
       </c>
       <c r="L29" s="4">
@@ -5111,22 +5128,22 @@
         <v>2.2915814212754468</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="2"/>
-        <v>2.6220152190679524</v>
+        <f t="shared" si="3"/>
+        <v>2.6435278098760189</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="4"/>
-        <v>49.51019936768251</v>
+        <f t="shared" si="5"/>
+        <v>49.267662692141933</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="5"/>
-        <v>64.177086227655835</v>
-      </c>
-      <c r="S29" s="39">
+        <f t="shared" si="6"/>
+        <v>63.280365296803645</v>
+      </c>
+      <c r="S29" s="38">
         <f>E29-E27</f>
         <v>0.86916666666666664</v>
       </c>
@@ -5242,7 +5259,7 @@
         <f>Monitor!U30</f>
         <v>14.4346</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <f t="shared" si="19"/>
         <v>4.1577671304046646</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">AVERAGE(OFFSET(J31,-14,0,14,1))</f>
         <v>93.688613100198992</v>
       </c>
       <c r="L30" s="4">
@@ -5265,22 +5282,22 @@
         <v>1.7577671304046647</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="2"/>
-        <v>2.3832612077816266</v>
+        <f t="shared" si="3"/>
+        <v>2.4028149169969257</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.03755</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="4"/>
-        <v>46.873002353144983</v>
+        <f t="shared" si="5"/>
+        <v>46.643384571182303</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="5"/>
-        <v>66.845420024080767</v>
-      </c>
-      <c r="S30" s="39">
+        <f t="shared" si="6"/>
+        <v>65.911415525114151</v>
+      </c>
+      <c r="S30" s="38">
         <f>E30-E28</f>
         <v>1.4366666666666668</v>
       </c>
@@ -5396,7 +5413,7 @@
         <f>Monitor!U31</f>
         <v>15.402100000000001</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f t="shared" si="19"/>
         <v>6.7026450334612662</v>
       </c>
@@ -5419,22 +5436,22 @@
         <v>4.9026450334612663</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="2"/>
-        <v>2.8025959088920915</v>
+        <f t="shared" si="3"/>
+        <v>2.8255900923544544</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77816249999999998</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="4"/>
-        <v>58.814823369761363</v>
+        <f t="shared" si="5"/>
+        <v>58.526705933055602</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="5"/>
-        <v>71.325831249421142</v>
-      </c>
-      <c r="S31" s="39">
+        <f t="shared" si="6"/>
+        <v>70.329223744292236</v>
+      </c>
+      <c r="S31" s="38">
         <f t="shared" si="22"/>
         <v>1.1566666666666665</v>
       </c>
@@ -5550,7 +5567,7 @@
         <f>Monitor!U32</f>
         <v>19.187999999999999</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <f t="shared" si="19"/>
         <v>24.580414359080891</v>
       </c>
@@ -5559,7 +5576,7 @@
         <v>116.59571796766917</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">AVERAGE(OFFSET(J33,-14,0,14,1))</f>
         <v>96.053484941551801</v>
       </c>
       <c r="L32" s="4">
@@ -5573,22 +5590,22 @@
         <v>23.410414359080889</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" si="2"/>
-        <v>2.6091029887722073</v>
+        <f t="shared" si="3"/>
+        <v>2.6305096398722383</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50580562499999993</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="4"/>
-        <v>68.213024585312326</v>
+        <f t="shared" si="5"/>
+        <v>67.878867978738683</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="5"/>
-        <v>88.858016115587674</v>
-      </c>
-      <c r="S32" s="39">
+        <f t="shared" si="6"/>
+        <v>87.616438356164366</v>
+      </c>
+      <c r="S32" s="38">
         <f t="shared" si="22"/>
         <v>-1.4558333333333335</v>
       </c>
@@ -5704,7 +5721,7 @@
         <f>Monitor!U33</f>
         <v>21.594000000000001</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="40">
         <f>(H33*100/H32)-100</f>
         <v>12.53908692933085</v>
       </c>
@@ -5727,22 +5744,22 @@
         <v>7.8390869293308496</v>
       </c>
       <c r="O33" s="21">
-        <f t="shared" si="2"/>
-        <v>2.784452562295868</v>
+        <f t="shared" si="3"/>
+        <v>2.8072978868239367</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0318687500000001</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="4"/>
-        <v>81.925536675857884</v>
+        <f t="shared" si="5"/>
+        <v>81.524206292199395</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="5"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="S33" s="39">
+        <f t="shared" si="6"/>
+        <v>98.60273972602738</v>
+      </c>
+      <c r="S33" s="38">
         <f t="shared" si="22"/>
         <v>-2.0783333333333331</v>
       </c>
@@ -5858,7 +5875,7 @@
         <f>Monitor!U34</f>
         <v>21.236000000000001</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="40">
         <f>(H34*100/H33)-100</f>
         <v>-1.6578679262758271</v>
       </c>
@@ -5867,7 +5884,7 @@
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">AVERAGE(OFFSET(J35,-14,0,14,1))</f>
         <v>100.04303319683673</v>
       </c>
       <c r="L34" s="14">
@@ -5881,27 +5898,27 @@
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="2"/>
-        <v>2.3675355691618361</v>
+        <f t="shared" si="3"/>
+        <v>2.3869602557740768</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="4"/>
-        <v>68.503948375175042</v>
+        <f t="shared" si="5"/>
+        <v>68.168366613992248</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="5"/>
-        <v>98.342132073724187</v>
-      </c>
-      <c r="S34" s="39">
+        <f t="shared" si="6"/>
+        <v>96.968036529680361</v>
+      </c>
+      <c r="S34" s="38">
         <f>E34-E32</f>
         <v>3.7241666666666662</v>
       </c>
       <c r="T34" s="37">
-        <f t="shared" si="7"/>
+        <f>D34</f>
         <v>-0.88999999999999968</v>
       </c>
       <c r="U34" s="14">
@@ -6003,7 +6020,7 @@
       <c r="F35" s="11">
         <v>18896</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="22">
         <f>(F35*100/F34)-100</f>
         <v>19.463879288544206</v>
       </c>
@@ -6011,7 +6028,7 @@
         <f>Monitor!U35</f>
         <v>20.864999999999998</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="40">
         <f>(H35*100/H34)-100</f>
         <v>-1.7470333396119884</v>
       </c>
@@ -6034,27 +6051,27 @@
         <v>-5.847033339611988</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="2"/>
-        <v>2.8785898658514077</v>
+        <f t="shared" si="3"/>
+        <v>2.902207549470468</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7724812499999998</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="4"/>
-        <v>81.83747419480575</v>
+        <f t="shared" si="5"/>
+        <v>81.436575204711971</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="5"/>
-        <v>96.624062239510977</v>
-      </c>
-      <c r="S35" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="6"/>
+        <v>95.273972602739718</v>
+      </c>
+      <c r="S35" s="38">
+        <f>E35-E33</f>
         <v>5.25</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="7"/>
+        <f>D35</f>
         <v>-1.4</v>
       </c>
       <c r="U35" s="14">
@@ -6069,11 +6086,11 @@
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="23">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y35" s="11">
         <f t="shared" si="10"/>
-        <v>62470.059880239518</v>
+        <v>62283.582089552241</v>
       </c>
       <c r="Z35" s="23">
         <v>37466</v>
@@ -6141,132 +6158,132 @@
         <v>2024</v>
       </c>
       <c r="B36" s="20">
-        <v>4.4400000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="C36" s="21">
-        <v>4.3</v>
+        <v>4.57</v>
       </c>
       <c r="D36" s="21">
         <f>C36-B36</f>
-        <v>-0.14000000000000057</v>
-      </c>
-      <c r="E36" s="32">
-        <v>4.83</v>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="E36" s="42">
+        <v>4.4800000000000004</v>
       </c>
       <c r="F36" s="11">
         <f>Monitor!AC36</f>
-        <v>23089.666666666668</v>
-      </c>
-      <c r="G36" s="26">
-        <f>(F36*100/F35)-100</f>
-        <v>22.193409539937917</v>
+        <v>23145.666666666668</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" ref="G36:G37" si="25">(F36*100/F35)-100</f>
+        <v>22.489768557719458</v>
       </c>
       <c r="H36" s="21">
         <f>Monitor!U36</f>
-        <v>21.221</v>
-      </c>
-      <c r="I36" s="41">
+        <v>21.446999999999999</v>
+      </c>
+      <c r="I36" s="40">
         <f>(H36*100/H35)-100</f>
-        <v>1.7062065660196595</v>
+        <v>2.7893601725377408</v>
       </c>
       <c r="J36" s="11">
         <f>AD36</f>
-        <v>154.55361184532759</v>
+        <v>153.29588018950167</v>
       </c>
       <c r="K36" s="6">
         <f ca="1">AVERAGE(OFFSET(J37,-14,0,14,1))</f>
-        <v>108.8057427251758</v>
+        <v>108.71590474975967</v>
       </c>
       <c r="L36" s="14">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="M36" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="1"/>
-        <v>-1.3237934339803403</v>
+        <f>I36-L36</f>
+        <v>-0.17063982746225914</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4584999999999999</v>
       </c>
-      <c r="P36" s="21">
-        <f t="shared" si="3"/>
-        <v>1.3099068749999998</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="P36" s="6">
         <f t="shared" si="4"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="R36" s="11">
-        <f t="shared" si="5"/>
-        <v>98.272668333796432</v>
-      </c>
-      <c r="S36" s="39">
+        <v>1.2796449999999999</v>
+      </c>
+      <c r="Q36" s="8">
+        <f>(F36*100/MAX($F$2:$F$37))</f>
+        <v>99.751472489584842</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" si="6"/>
+        <v>97.93150684931507</v>
+      </c>
+      <c r="S36" s="38">
         <f>E36-E34</f>
-        <v>0.73000000000000043</v>
+        <v>0.38000000000000078</v>
       </c>
       <c r="T36" s="37">
         <f t="shared" si="7"/>
-        <v>-0.14000000000000057</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="U36" s="14">
-        <v>21.221</v>
+        <v>21.446999999999999</v>
       </c>
       <c r="V36" s="14">
-        <f t="shared" si="8"/>
-        <v>1.7062065660196595</v>
+        <f>(U36*100/U35)-100</f>
+        <v>2.7893601725377408</v>
       </c>
       <c r="W36" s="14">
-        <f t="shared" si="9"/>
-        <v>0.35600000000000165</v>
+        <f>U36-U35</f>
+        <v>0.58200000000000074</v>
       </c>
       <c r="X36" s="23">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y36" s="11">
         <f>(U36*1000000000000)/(X36*1000000)</f>
-        <v>63346.26865671642</v>
+        <v>63452.662721893488</v>
       </c>
       <c r="Z36" s="23">
-        <v>43988</v>
+        <v>42544</v>
       </c>
       <c r="AA36" s="23">
-        <v>5995</v>
+        <v>5881</v>
       </c>
       <c r="AB36" s="23">
-        <v>19286</v>
+        <v>21012</v>
       </c>
       <c r="AC36" s="11">
         <f>AVERAGE(Z36:AB36)</f>
-        <v>23089.666666666668</v>
+        <v>23145.666666666668</v>
       </c>
       <c r="AD36" s="14">
         <f>((AC36/U36)/100)*100/7.04</f>
-        <v>154.55361184532759</v>
+        <v>153.29588018950167</v>
       </c>
       <c r="AE36" s="28">
-        <f t="shared" si="12"/>
-        <v>1088.0574273911063</v>
+        <f>AC36/U36</f>
+        <v>1079.2029965340919</v>
       </c>
       <c r="AF36" s="14">
-        <v>16.547999999999998</v>
+        <v>16.681000000000001</v>
       </c>
       <c r="AG36" s="14">
         <f>(AF36*100/AF35)-100</f>
-        <v>2.7060575968222338</v>
+        <v>3.5315292949354671</v>
       </c>
       <c r="AH36" s="21">
-        <f t="shared" si="14"/>
-        <v>0.43599999999999994</v>
+        <f>AF36-AF35</f>
+        <v>0.56900000000000261</v>
       </c>
       <c r="AI36" s="27">
         <v>350</v>
       </c>
       <c r="AJ36" s="11">
         <f t="shared" si="15"/>
-        <v>47279.999999999993</v>
+        <v>47660</v>
       </c>
       <c r="AK36" s="23">
         <v>7338</v>
@@ -6278,31 +6295,186 @@
         <v>4802</v>
       </c>
       <c r="AN36" s="8">
-        <f t="shared" si="16"/>
+        <f>AVERAGE(AK36:AM36)</f>
         <v>10451.666666666666</v>
       </c>
       <c r="AO36" s="4">
-        <f t="shared" si="24"/>
-        <v>98.579205623452125</v>
+        <f>((AN36/AF36)/100)*100/6.407</f>
+        <v>97.793219510633975</v>
       </c>
       <c r="AP36" s="11">
         <f>AN36/AF36</f>
-        <v>631.59697042945777</v>
+        <v>626.5611574046319</v>
       </c>
       <c r="AQ36"/>
       <c r="AR36"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="C37" s="42"/>
-      <c r="H37" s="38"/>
+    <row r="37" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="20">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C37" s="21">
+        <v>4.72</v>
+      </c>
+      <c r="D37" s="21">
+        <f>C37-B37</f>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="E37" s="32">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F37" s="11">
+        <f>Monitor!AC37</f>
+        <v>23203.333333333332</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="25"/>
+        <v>0.24914670852713527</v>
+      </c>
+      <c r="H37" s="21">
+        <f>Monitor!U37</f>
+        <v>21.9</v>
+      </c>
+      <c r="I37" s="40">
+        <f>(H37*100/H36)-100</f>
+        <v>2.1121835221709375</v>
+      </c>
+      <c r="J37" s="11">
+        <f>AD37</f>
+        <v>150.49899681748997</v>
+      </c>
+      <c r="K37" s="6" t="e">
+        <f ca="1">AVERAGE(OFFSET(#REF!,-14,0,14,1))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L37" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="M37" s="11">
+        <v>109</v>
+      </c>
+      <c r="N37" s="14">
+        <f>I37-L37</f>
+        <v>-0.38781647782906248</v>
+      </c>
+      <c r="O37" s="21">
+        <f>J37*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>3.3953996666437165</v>
+      </c>
+      <c r="P37" s="6">
+        <f>L37*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <v>1.08078125</v>
+      </c>
+      <c r="Q37" s="8">
+        <f>(F37*100/MAX($F$2:$F$37))</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="6"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="S37" s="38">
+        <f>E37-E35</f>
+        <v>-0.84999999999999964</v>
+      </c>
+      <c r="T37" s="37">
+        <f>D37</f>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="U37" s="14">
+        <v>21.9</v>
+      </c>
+      <c r="V37" s="14">
+        <f>(U37*100/U36)-100</f>
+        <v>2.1121835221709375</v>
+      </c>
+      <c r="W37" s="14">
+        <f>U37-U36</f>
+        <v>0.4529999999999994</v>
+      </c>
+      <c r="X37" s="23">
+        <v>341</v>
+      </c>
+      <c r="Y37" s="11">
+        <f>(U37*1000000000000)/(X37*1000000)</f>
+        <v>64222.873900293256</v>
+      </c>
+      <c r="Z37" s="23">
+        <v>42528</v>
+      </c>
+      <c r="AA37" s="23">
+        <v>5909</v>
+      </c>
+      <c r="AB37" s="23">
+        <v>21173</v>
+      </c>
+      <c r="AC37" s="11">
+        <f>AVERAGE(Z37:AB37)</f>
+        <v>23203.333333333332</v>
+      </c>
+      <c r="AD37" s="14">
+        <f>((AC37/U37)/100)*100/7.04</f>
+        <v>150.49899681748997</v>
+      </c>
+      <c r="AE37" s="28">
+        <f>AC37/U37</f>
+        <v>1059.5129375951294</v>
+      </c>
+      <c r="AF37" s="14">
+        <v>16.681000000000001</v>
+      </c>
+      <c r="AG37" s="14">
+        <f>(AF37*100/AF36)-100</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="21">
+        <f>AF37-AF36</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="27">
+        <v>350</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" si="15"/>
+        <v>47660</v>
+      </c>
+      <c r="AK37" s="23">
+        <v>7380</v>
+      </c>
+      <c r="AL37" s="23">
+        <v>19909</v>
+      </c>
+      <c r="AM37" s="23">
+        <v>4869</v>
+      </c>
+      <c r="AN37" s="8">
+        <f>AVERAGE(AK37:AM37)</f>
+        <v>10719.333333333334</v>
+      </c>
+      <c r="AO37" s="4">
+        <f>((AN37/AF37)/100)*100/6.407</f>
+        <v>100.29769902800089</v>
+      </c>
+      <c r="AP37" s="11">
+        <f>AN37/AF37</f>
+        <v>642.60735767240169</v>
+      </c>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="S38" s="41"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C37:D43">
-    <sortCondition descending="1" ref="C37:C43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C38:D43">
+    <sortCondition descending="1" ref="C38:C43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D36">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="D2:D37">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6315,8 +6487,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E36">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E2:E37">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6327,8 +6499,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G36">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="G2:G37">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6341,8 +6513,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J36">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I2:I37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J37">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6353,8 +6537,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J36">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="J2:J37">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6365,8 +6549,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L36">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L2:L37">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6377,8 +6561,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M36">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="M2:M37">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6389,21 +6573,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S36">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="between">
+  <conditionalFormatting sqref="S2:S38">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="between">
       <formula>0.01</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="T2:T37">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H3:H7 H27:H36 H9:H26" formula="1"/>
+    <ignoredError sqref="H3:H7 H27:H35 H9:H26" formula="1"/>
     <ignoredError sqref="AN2" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
@@ -6418,7 +6602,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D36</xm:sqref>
+          <xm:sqref>D2:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E3255F2-7C0D-4421-87E8-7CC5D5E6C9BF}">
@@ -6429,7 +6613,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G36</xm:sqref>
+          <xm:sqref>G2:G37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D920D-E902-4B71-B6B1-2817B8E39D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821E891-4626-4EDB-B1AE-AE9F3A0B4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC37" sqref="AC37"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6346,9 +6346,9 @@
         <f>AD37</f>
         <v>150.49899681748997</v>
       </c>
-      <c r="K37" s="6" t="e">
-        <f ca="1">AVERAGE(OFFSET(#REF!,-14,0,14,1))</f>
-        <v>#REF!</v>
+      <c r="K37" s="6">
+        <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
+        <v>113.87693770648043</v>
       </c>
       <c r="L37" s="14">
         <v>2.5</v>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821E891-4626-4EDB-B1AE-AE9F3A0B4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F553C-5FA7-4CA5-8556-65DEED87B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F553C-5FA7-4CA5-8556-65DEED87B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6C48D-8AE3-43F5-BB94-9ABC03AAE208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,9 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,7 +1000,7 @@
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="37">
-        <f>D2</f>
+        <f t="shared" ref="T2:T4" si="2">D2</f>
         <v>1.2078055555555496</v>
       </c>
       <c r="U2" s="4">
@@ -1068,7 +1065,7 @@
         <v>1104.5323505685974</v>
       </c>
       <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO16" si="2">((AN2/AF2)/100)*100/6.407</f>
+        <f t="shared" ref="AO2:AO16" si="3">((AN2/AF2)/100)*100/6.407</f>
         <v>57.851534760247603</v>
       </c>
       <c r="AP2" s="8">
@@ -1127,42 +1124,45 @@
         <v>-1.3560665510843366</v>
       </c>
       <c r="O3" s="21">
-        <f t="shared" ref="O3:O36" si="3">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <f t="shared" ref="O3:O36" si="4">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
         <v>1.3180112744443782</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P36" si="4">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" ref="P3:P36" si="5">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>1.8157125000000001</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q35" si="5">(F3*100/MAX($F$2:$F$37))</f>
+        <f t="shared" ref="Q3:Q35" si="6">(F3*100/MAX($F$2:$F$37))</f>
         <v>5.9931475362735238</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R37" si="6">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <f t="shared" ref="R3:R37" si="7">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
         <v>15.439269406392693</v>
       </c>
-      <c r="S3" s="38"/>
+      <c r="S3" s="38">
+        <f t="shared" ref="S3:S37" si="8">E3-E2</f>
+        <v>-2.4116666666666706</v>
+      </c>
       <c r="T3" s="37">
-        <f t="shared" ref="T3:T36" si="7">D3</f>
+        <f t="shared" si="2"/>
         <v>2.4315833333333403</v>
       </c>
       <c r="U3" s="4">
         <v>3.3811999999999998</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V35" si="8">(U3*100/U2)-100</f>
+        <f t="shared" ref="V3:V35" si="9">(U3*100/U2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W35" si="9">U3-U2</f>
+        <f t="shared" ref="W3:W35" si="10">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="X3" s="1">
         <v>252</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y35" si="10">(U3*1000000000000)/(X3*1000000)</f>
+        <f t="shared" ref="Y3:Y35" si="11">(U3*1000000000000)/(X3*1000000)</f>
         <v>13417.460317460318</v>
       </c>
       <c r="Z3" s="8">
@@ -1175,7 +1175,7 @@
         <v>586</v>
       </c>
       <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC34" si="11">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC34" si="12">AVERAGE(Z3:AB3)</f>
         <v>1390.61</v>
       </c>
       <c r="AD3" s="14">
@@ -1183,25 +1183,25 @@
         <v>58.420037130443205</v>
       </c>
       <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE35" si="12">AC3/U3</f>
+        <f t="shared" ref="AE3:AE35" si="13">AC3/U3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AF3" s="4">
         <v>3.2046329999999998</v>
       </c>
       <c r="AG3" s="4">
-        <f t="shared" ref="AG3:AG35" si="13">(AF3*100/AF2)-100</f>
+        <f t="shared" ref="AG3:AG35" si="14">(AF3*100/AF2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH35" si="14">AF3-AF2</f>
+        <f t="shared" ref="AH3:AH35" si="15">AF3-AF2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AI3" s="7">
         <v>318.44</v>
       </c>
       <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3:AJ37" si="15">((AF3*1000000000000)/(AI3*1000000))</f>
+        <f t="shared" ref="AJ3:AJ37" si="16">((AF3*1000000000000)/(AI3*1000000))</f>
         <v>10063.537872126617</v>
       </c>
       <c r="AK3" s="8">
@@ -1214,15 +1214,15 @@
         <v>479.54535718908153</v>
       </c>
       <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AN35" si="16">AVERAGE(AK3:AM3)</f>
+        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AK3:AM3)</f>
         <v>1273.8484523963605</v>
       </c>
       <c r="AO3" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62.041849979271625</v>
       </c>
       <c r="AP3" s="8">
-        <f t="shared" ref="AP3:AP35" si="17">AN3/AF3</f>
+        <f t="shared" ref="AP3:AP35" si="18">AN3/AF3</f>
         <v>397.50213281719329</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G32" si="18">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="19">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="6">
@@ -1256,11 +1256,11 @@
         <v>3.4190999999999998</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" ref="I4:I32" si="19">(H4*100/H3)-100</f>
+        <f t="shared" ref="I4:I32" si="20">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J35" si="20">AD4</f>
+        <f t="shared" ref="J4:J35" si="21">AD4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="6">
@@ -1278,45 +1278,45 @@
         <v>-1.8790961788714071</v>
       </c>
       <c r="O4" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3784718801442566</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3383278264617173</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.612328767123284</v>
       </c>
       <c r="S4" s="38">
-        <f>E4-E2</f>
-        <v>-4.5775000000000041</v>
+        <f t="shared" si="8"/>
+        <v>-2.1658333333333335</v>
       </c>
       <c r="T4" s="37">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="U4" s="4">
         <v>3.4190999999999998</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1209038211285929</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7900000000000045E-2</v>
       </c>
       <c r="X4" s="1">
         <v>256</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13355.859375</v>
       </c>
       <c r="Z4" s="8">
@@ -1329,33 +1329,33 @@
         <v>676</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1470.7033333333336</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" ref="AD4:AD35" si="21">((AC4/U4)/100)*100/7.04</f>
+        <f t="shared" ref="AD4:AD35" si="22">((AC4/U4)/100)*100/7.04</f>
         <v>61.099916201587703</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>430.14341005917748</v>
       </c>
       <c r="AF4" s="4">
         <v>3.4331779999999998</v>
       </c>
       <c r="AG4" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.1317058770848263</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.228545</v>
       </c>
       <c r="AI4" s="7">
         <v>319.95999999999998</v>
       </c>
       <c r="AJ4" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10730.022502812852</v>
       </c>
       <c r="AK4" s="8">
@@ -1368,15 +1368,15 @@
         <v>487.27290475096095</v>
       </c>
       <c r="AN4" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1294.0909682503204</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.832020155108296</v>
       </c>
       <c r="AP4" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>376.93675313377884</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.235844074603747</v>
       </c>
       <c r="H5" s="6">
@@ -1410,11 +1410,11 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="I5" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="6">
@@ -1432,45 +1432,45 @@
         <v>-1.3679915767307165</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5358589218384726</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.17725901450941</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.867123287671232</v>
       </c>
       <c r="S5" s="38">
-        <f>E5-E3</f>
-        <v>-2.665</v>
+        <f t="shared" si="8"/>
+        <v>-0.49916666666666654</v>
       </c>
       <c r="T5" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T5:T37" si="23">D5</f>
         <v>2.7114999999999996</v>
       </c>
       <c r="U5" s="4">
         <v>3.4748999999999999</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5800000000000072E-2</v>
       </c>
       <c r="X5" s="1">
         <v>259</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13416.602316602317</v>
       </c>
       <c r="Z5" s="8">
@@ -1483,33 +1483,33 @@
         <v>776</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1665.3633333333335</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>68.075999788962761</v>
       </c>
       <c r="AE5" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>479.25503851429784</v>
       </c>
       <c r="AF5" s="4">
         <v>3.6517740000000001</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3671618541188479</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21859600000000023</v>
       </c>
       <c r="AI5" s="7">
         <v>320.72000000000003</v>
       </c>
       <c r="AJ5" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11386.174856572712</v>
       </c>
       <c r="AK5" s="8">
@@ -1522,15 +1522,15 @@
         <v>729.72717760454884</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1750.9090592015164</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74.835036286598012</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>479.46807748823346</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="6">
@@ -1568,7 +1568,7 @@
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="6">
@@ -1586,45 +1586,45 @@
         <v>-2.0963883852772711</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5429518162189255</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1240125000000001</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2467174256572351</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.947031963470318</v>
       </c>
       <c r="S6" s="38">
-        <f t="shared" ref="S6:S33" si="22">E6-E4</f>
-        <v>0.6800000000000006</v>
+        <f t="shared" si="8"/>
+        <v>1.1791666666666671</v>
       </c>
       <c r="T6" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.6896666666666702</v>
       </c>
       <c r="U6" s="4">
         <v>3.4923999999999999</v>
       </c>
       <c r="V6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50361161472272897</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="X6" s="1">
         <v>263</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13279.087452471484</v>
       </c>
       <c r="Z6" s="8">
@@ -1637,33 +1637,33 @@
         <v>751</v>
       </c>
       <c r="AC6" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1681.4800000000002</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>68.390387959309066</v>
       </c>
       <c r="AE6" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>481.46833123353576</v>
       </c>
       <c r="AF6" s="4">
         <v>3.7357990000000001</v>
       </c>
       <c r="AG6" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3009364763536837</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.4025000000000016E-2</v>
       </c>
       <c r="AI6" s="7">
         <v>321.48</v>
       </c>
       <c r="AJ6" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11620.626477541371</v>
       </c>
       <c r="AK6" s="8">
@@ -1676,15 +1676,15 @@
         <v>651.25414844226009</v>
       </c>
       <c r="AN6" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1543.0847161474201</v>
       </c>
       <c r="AO6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.469090614788527</v>
       </c>
       <c r="AP6" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>413.05346356895006</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.48707884324125</v>
       </c>
       <c r="H7" s="6">
@@ -1718,11 +1718,11 @@
         <v>3.6478999999999999</v>
       </c>
       <c r="I7" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="6">
@@ -1740,45 +1740,45 @@
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9866162316116109</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.210475</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7458985777905482</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.657077625570775</v>
       </c>
       <c r="S7" s="38">
-        <f t="shared" si="22"/>
-        <v>2.8141666666666669</v>
+        <f t="shared" si="8"/>
+        <v>1.6349999999999998</v>
       </c>
       <c r="T7" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.84691666666667054</v>
       </c>
       <c r="U7" s="4">
         <v>3.6478999999999999</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="X7" s="1">
         <v>266</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13713.90977443609</v>
       </c>
       <c r="Z7" s="8">
@@ -1791,7 +1791,7 @@
         <v>1052</v>
       </c>
       <c r="AC7" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2261.3733333333334</v>
       </c>
       <c r="AD7" s="14">
@@ -1799,25 +1799,25 @@
         <v>88.055539633844973</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>619.91099902226858</v>
       </c>
       <c r="AF7" s="4">
         <v>3.9374030000000002</v>
       </c>
       <c r="AG7" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.3965430152960749</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20160400000000012</v>
       </c>
       <c r="AI7" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ7" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12218.852408142999</v>
       </c>
       <c r="AK7" s="8">
@@ -1830,15 +1830,15 @@
         <v>677.3043143799506</v>
       </c>
       <c r="AN7" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1602.7681047933168</v>
       </c>
       <c r="AO7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.533985490317804</v>
       </c>
       <c r="AP7" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>407.06224503646609</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24.987028531334957</v>
       </c>
       <c r="H8" s="6">
@@ -1872,11 +1872,11 @@
         <v>3.8245999999999998</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="6">
@@ -1894,45 +1894,45 @@
         <v>1.8438827818744983</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3682951549766531</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.181109036058039</v>
       </c>
       <c r="R8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.463926940639269</v>
       </c>
       <c r="S8" s="38">
-        <f t="shared" si="22"/>
-        <v>1.0966666666666658</v>
+        <f t="shared" si="8"/>
+        <v>-0.538333333333334</v>
       </c>
       <c r="T8" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.3088333333333297</v>
       </c>
       <c r="U8" s="4">
         <v>3.8245999999999998</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17669999999999986</v>
       </c>
       <c r="X8" s="1">
         <v>269</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14217.843866171004</v>
       </c>
       <c r="Z8" s="8">
@@ -1945,33 +1945,33 @@
         <v>1291</v>
       </c>
       <c r="AC8" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2826.4233333333336</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>104.97322259091465</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>739.01148704003913</v>
       </c>
       <c r="AF8" s="4">
         <v>4.0903450000000001</v>
       </c>
       <c r="AG8" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8843369601740108</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15294199999999991</v>
       </c>
       <c r="AI8" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ8" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12693.473808341609</v>
       </c>
       <c r="AK8" s="8">
@@ -1984,15 +1984,15 @@
         <v>912.27392328124427</v>
       </c>
       <c r="AN8" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2035.7579744270815</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77.680404893902249</v>
       </c>
       <c r="AP8" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>497.69835415523175</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23.2216924334288</v>
       </c>
       <c r="H9" s="6">
@@ -2026,11 +2026,11 @@
         <v>4.0461</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="6">
@@ -2048,45 +2048,45 @@
         <v>3.4914553155885644</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7584962916670621</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.00976871139204</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.475342465753425</v>
       </c>
       <c r="S9" s="38">
-        <f t="shared" si="22"/>
-        <v>-0.37666666666666693</v>
+        <f t="shared" si="8"/>
+        <v>0.16166666666666707</v>
       </c>
       <c r="T9" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.1079166666666698</v>
       </c>
       <c r="U9" s="4">
         <v>4.0461</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.22150000000000025</v>
       </c>
       <c r="X9" s="1">
         <v>272</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14875.367647058823</v>
       </c>
       <c r="Z9" s="8">
@@ -2099,33 +2099,33 @@
         <v>1570</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3482.7666666666664</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>122.26864739932878</v>
       </c>
       <c r="AE9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>860.77127769127469</v>
       </c>
       <c r="AF9" s="4">
         <v>4.2673110000000003</v>
       </c>
       <c r="AG9" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3264321224737756</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.17696600000000018</v>
       </c>
       <c r="AI9" s="7">
         <v>323</v>
       </c>
       <c r="AJ9" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13211.489164086688</v>
       </c>
       <c r="AK9" s="8">
@@ -2138,15 +2138,15 @@
         <v>1495.9794922493888</v>
       </c>
       <c r="AN9" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2905.9931640831296</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106.28832648759899</v>
       </c>
       <c r="AP9" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>680.98930780604678</v>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.61703817845968</v>
       </c>
       <c r="H10" s="6">
@@ -2180,11 +2180,11 @@
         <v>4.3923999999999994</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="6">
@@ -2202,45 +2202,45 @@
         <v>6.9588591483156481</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0648963625582448</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.104338457118235</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.056621004566207</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="22"/>
-        <v>5.5000000000000604E-2</v>
+        <f t="shared" si="8"/>
+        <v>-0.10666666666666647</v>
       </c>
       <c r="T10" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.34233333333333071</v>
       </c>
       <c r="U10" s="4">
         <v>4.3923999999999994</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34629999999999939</v>
       </c>
       <c r="X10" s="1">
         <v>275</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15972.363636363634</v>
       </c>
       <c r="Z10" s="8">
@@ -2253,33 +2253,33 @@
         <v>2192</v>
       </c>
       <c r="AC10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4200.8100000000004</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>135.84964163306873</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>956.38147709680379</v>
       </c>
       <c r="AF10" s="4">
         <v>4.4719610000000003</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.7957601402850543</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20465</v>
       </c>
       <c r="AI10" s="7">
         <v>324.52</v>
       </c>
       <c r="AJ10" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13780.232343152964</v>
       </c>
       <c r="AK10" s="8">
@@ -2292,15 +2292,15 @@
         <v>1965.7867345387713</v>
       </c>
       <c r="AN10" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3637.9289115129236</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126.97010446122337</v>
       </c>
       <c r="AP10" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>813.49745928305799</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="6">
@@ -2356,45 +2356,45 @@
         <v>3.794444950368816</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2202866016680334</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95108750000000009</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.162505387157019</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.258904109589036</v>
       </c>
       <c r="S11" s="38">
-        <f t="shared" si="22"/>
-        <v>-0.49000000000000021</v>
+        <f t="shared" si="8"/>
+        <v>-0.38333333333333375</v>
       </c>
       <c r="T11" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.87708333333332966</v>
       </c>
       <c r="U11" s="4">
         <v>4.6556999999999995</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9944449503688162</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.26330000000000009</v>
       </c>
       <c r="X11" s="1">
         <v>279</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16687.096774193546</v>
       </c>
       <c r="Z11" s="8">
@@ -2407,7 +2407,7 @@
         <v>1069</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4678.3733333333339</v>
       </c>
       <c r="AD11" s="14">
@@ -2415,25 +2415,25 @@
         <v>142.73721817700169</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1004.870015966092</v>
       </c>
       <c r="AF11" s="4">
         <v>4.7089470000000002</v>
       </c>
       <c r="AG11" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.299375374695785</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23698599999999992</v>
       </c>
       <c r="AI11" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14476.595548450565</v>
       </c>
       <c r="AK11" s="8">
@@ -2446,11 +2446,11 @@
         <v>3532.1003414965717</v>
       </c>
       <c r="AN11" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5482.7001138321903</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181.72553898166194</v>
       </c>
       <c r="AP11" s="8">
@@ -2480,7 +2480,7 @@
         <v>4859.33</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.8679398537383207</v>
       </c>
       <c r="H12" s="6">
@@ -2488,11 +2488,11 @@
         <v>4.9643000000000006</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="6">
@@ -2510,45 +2510,45 @@
         <v>3.2284339626694476</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.136916886268418</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.942378968539003</v>
       </c>
       <c r="R12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.668036529680368</v>
       </c>
       <c r="S12" s="38">
-        <f>E12-E10</f>
-        <v>0.8824999999999994</v>
+        <f t="shared" si="8"/>
+        <v>1.2658333333333331</v>
       </c>
       <c r="T12" s="37">
-        <f>D12</f>
+        <f t="shared" si="23"/>
         <v>-2.508333333332935E-2</v>
       </c>
       <c r="U12" s="4">
         <v>4.9643000000000006</v>
       </c>
       <c r="V12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="W12" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.3086000000000011</v>
       </c>
       <c r="X12" s="1">
         <v>285</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17418.596491228072</v>
       </c>
       <c r="Z12" s="8">
@@ -2561,33 +2561,33 @@
         <v>2470</v>
       </c>
       <c r="AC12" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4859.33</v>
       </c>
       <c r="AD12" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>139.04190694284461</v>
       </c>
       <c r="AE12" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>978.85502487762608</v>
       </c>
       <c r="AF12" s="4">
         <v>4.9103279999999998</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2765611929800684</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20138099999999959</v>
       </c>
       <c r="AI12" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ12" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15095.696015740285</v>
       </c>
       <c r="AK12" s="8">
@@ -2600,15 +2600,15 @@
         <v>3386.0764499940415</v>
       </c>
       <c r="AN12" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5248.3588166646805</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166.82390845070381</v>
       </c>
       <c r="AP12" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1068.8407814436594</v>
       </c>
     </row>
@@ -2642,11 +2642,11 @@
         <v>5.4420000000000002</v>
       </c>
       <c r="I13" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="6">
@@ -2664,45 +2664,45 @@
         <v>6.8227061217090013</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5752799485376223</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.210475</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.847248958482975</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.849315068493148</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" si="22"/>
-        <v>-1.0824999999999996</v>
+        <f t="shared" si="8"/>
+        <v>-2.3483333333333327</v>
       </c>
       <c r="T13" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.6150000000000002</v>
       </c>
       <c r="U13" s="4">
         <v>5.4420000000000002</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.47769999999999957</v>
       </c>
       <c r="X13" s="1">
         <v>285</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19094.736842105263</v>
       </c>
       <c r="Z13" s="8">
@@ -2715,33 +2715,33 @@
         <v>1950</v>
       </c>
       <c r="AC13" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4373.1899999999996</v>
       </c>
       <c r="AD13" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>114.14769595068654</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>803.59977949283336</v>
       </c>
       <c r="AF13" s="4">
         <v>5.4467369999999997</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.924097127523851</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.53640899999999991</v>
       </c>
       <c r="AI13" s="7">
         <v>326.04000000000002</v>
       </c>
       <c r="AJ13" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16705.732425469268</v>
       </c>
       <c r="AK13" s="8">
@@ -2754,15 +2754,15 @@
         <v>2802.231073086672</v>
       </c>
       <c r="AN13" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4195.4103576955577</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120.2218250422484</v>
       </c>
       <c r="AP13" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>770.26123304568546</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
         <v>5.7923</v>
       </c>
       <c r="I14" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="8">
@@ -2818,45 +2818,45 @@
         <v>4.8369717015803051</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9466886392734399</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.163956328113777</v>
       </c>
       <c r="R14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.448858447488583</v>
       </c>
       <c r="S14" s="38">
-        <f t="shared" si="22"/>
-        <v>-4.5691666666666659</v>
+        <f t="shared" si="8"/>
+        <v>-2.2208333333333332</v>
       </c>
       <c r="T14" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.9116666666666595</v>
       </c>
       <c r="U14" s="4">
         <v>5.7923</v>
       </c>
       <c r="V14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="W14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.35029999999999983</v>
       </c>
       <c r="X14" s="1">
         <v>287</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20182.229965156796</v>
       </c>
       <c r="Z14" s="8">
@@ -2869,33 +2869,33 @@
         <v>1335</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3518.5433333333331</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>86.285773720493083</v>
       </c>
       <c r="AE14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>607.45184699227127</v>
       </c>
       <c r="AF14" s="4">
         <v>5.8078250000000002</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.629437037257361</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.36108800000000052</v>
       </c>
       <c r="AI14" s="7">
         <v>326.8</v>
       </c>
       <c r="AJ14" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17771.802325581397</v>
       </c>
       <c r="AK14" s="8">
@@ -2908,15 +2908,15 @@
         <v>2014.0328229692207</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2656.3442743230735</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71.386504200603312</v>
       </c>
       <c r="AP14" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>457.37333241326542</v>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.537282947583435</v>
       </c>
       <c r="H15" s="6">
@@ -2950,11 +2950,11 @@
         <v>6.0626999999999995</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="6">
@@ -2972,45 +2972,45 @@
         <v>2.3682664917217666</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.390620164297137</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.491337451515591</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.683561643835613</v>
       </c>
       <c r="S15" s="38">
-        <f t="shared" si="22"/>
-        <v>-2.7600000000000002</v>
+        <f t="shared" si="8"/>
+        <v>-0.53916666666666679</v>
       </c>
       <c r="T15" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.9130833333333301</v>
       </c>
       <c r="U15" s="4">
         <v>6.0626999999999995</v>
       </c>
       <c r="V15" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="W15" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.27039999999999953</v>
       </c>
       <c r="X15" s="1">
         <v>290</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20905.862068965518</v>
       </c>
       <c r="Z15" s="8">
@@ -3023,33 +3023,33 @@
         <v>2003</v>
       </c>
       <c r="AC15" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4522.6400000000003</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>105.96276486473926</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>745.97786464776436</v>
       </c>
       <c r="AF15" s="4">
         <v>6.1809219999999998</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.4240399805434691</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.37309699999999957</v>
       </c>
       <c r="AI15" s="7">
         <v>327.56</v>
       </c>
       <c r="AJ15" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18869.58725119062</v>
       </c>
       <c r="AK15" s="8">
@@ -3062,15 +3062,15 @@
         <v>2733.2646902419569</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3418.4215634139855</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.32123243964989</v>
       </c>
       <c r="AP15" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>553.06013624083687</v>
       </c>
     </row>
@@ -3104,11 +3104,11 @@
         <v>6.4112</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="6">
@@ -3126,45 +3126,45 @@
         <v>3.048263974796714</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3608237442409838</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1672437500000001</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.354848441315902</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.274885844748855</v>
       </c>
       <c r="S16" s="38">
-        <f t="shared" si="22"/>
-        <v>-0.31750000000000012</v>
+        <f t="shared" si="8"/>
+        <v>0.22166666666666668</v>
       </c>
       <c r="T16" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.6122499999999995</v>
       </c>
       <c r="U16" s="4">
         <v>6.4112</v>
       </c>
       <c r="V16" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="W16" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34850000000000048</v>
       </c>
       <c r="X16" s="1">
         <v>293</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21881.228668941978</v>
       </c>
       <c r="Z16" s="8">
@@ -3177,7 +3177,7 @@
         <v>2175</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4723.0033333333331</v>
       </c>
       <c r="AD16" s="14">
@@ -3185,25 +3185,25 @@
         <v>104.64205691649461</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>736.68008069212203</v>
       </c>
       <c r="AF16" s="4">
         <v>6.5681760000000002</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.2653112270305229</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.38725400000000043</v>
       </c>
       <c r="AI16" s="7">
         <v>329.08</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19959.207487541022</v>
       </c>
       <c r="AK16" s="1">
@@ -3216,15 +3216,15 @@
         <v>2951</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3676</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.35263240686082</v>
       </c>
       <c r="AP16" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>559.66831583075725</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         <v>4723.5</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0515907603988239E-2</v>
       </c>
       <c r="H17" s="6">
@@ -3258,15 +3258,15 @@
         <v>6.7104999999999997</v>
       </c>
       <c r="I17" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K33" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K33" ca="1" si="24">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
@@ -3280,45 +3280,45 @@
         <v>1.2683928125779773</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2557640781896975</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.356988938370925</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.641552511415519</v>
       </c>
       <c r="S17" s="38">
-        <f t="shared" si="22"/>
-        <v>2.0858333333333334</v>
+        <f t="shared" si="8"/>
+        <v>1.8641666666666667</v>
       </c>
       <c r="T17" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.73349999999999982</v>
       </c>
       <c r="U17" s="4">
         <v>6.7104999999999997</v>
       </c>
       <c r="V17" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="W17" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.29929999999999968</v>
       </c>
       <c r="X17" s="1">
         <v>295</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22747.457627118645</v>
       </c>
       <c r="Z17" s="8">
@@ -3331,7 +3331,7 @@
         <v>2205</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4723.5</v>
       </c>
       <c r="AD17" s="14">
@@ -3346,18 +3346,18 @@
         <v>7.1306700000000003</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5639300773913476</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.56249400000000005</v>
       </c>
       <c r="AI17" s="7">
         <v>330.6</v>
       </c>
       <c r="AJ17" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21568.874773139745</v>
       </c>
       <c r="AK17" s="1">
@@ -3370,7 +3370,7 @@
         <v>3578</v>
       </c>
       <c r="AN17" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4567</v>
       </c>
       <c r="AO17" s="4">
@@ -3378,7 +3378,7 @@
         <v>99.964534828797341</v>
       </c>
       <c r="AP17" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>640.47277464810452</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>5432.05</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.000529268550864</v>
       </c>
       <c r="H18" s="6">
@@ -3412,15 +3412,15 @@
         <v>7.0955000000000004</v>
       </c>
       <c r="I18" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>106.36863617964786</v>
       </c>
       <c r="L18" s="4">
@@ -3434,45 +3434,45 @@
         <v>2.5372774010878656</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4533832274948577</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3834</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.410645022266916</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.399543378995432</v>
       </c>
       <c r="S18" s="38">
-        <f>E18-E16</f>
-        <v>3.6149999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1.750833333333333</v>
       </c>
       <c r="T18" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>-0.19591666666667074</v>
       </c>
       <c r="U18" s="4">
         <v>7.0955000000000004</v>
       </c>
       <c r="V18" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="W18" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.38500000000000068</v>
       </c>
       <c r="X18" s="1">
         <v>298</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23810.40268456376</v>
       </c>
       <c r="Z18" s="8">
@@ -3485,7 +3485,7 @@
         <v>2415</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5432.05</v>
       </c>
       <c r="AD18" s="14">
@@ -3500,18 +3500,18 @@
         <v>7.8016750000000004</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4101255562240311</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.67100500000000007</v>
       </c>
       <c r="AI18" s="7">
         <v>331.36</v>
       </c>
       <c r="AJ18" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23544.407894736843</v>
       </c>
       <c r="AK18" s="1">
@@ -3524,15 +3524,15 @@
         <v>4119</v>
       </c>
       <c r="AN18" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5418.666666666667</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" ref="AO18:AO35" si="24">((AN18/AF18)/100)*100/6.407</f>
+        <f t="shared" ref="AO18:AO35" si="25">((AN18/AF18)/100)*100/6.407</f>
         <v>108.40513566015885</v>
       </c>
       <c r="AP18" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>694.55170417463773</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>5794.94</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.6805349729844181</v>
       </c>
       <c r="H19" s="6">
@@ -3566,15 +3566,15 @@
         <v>7.4917999999999996</v>
       </c>
       <c r="I19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>109.35412041521862</v>
       </c>
       <c r="L19" s="4">
@@ -3588,45 +3588,45 @@
         <v>2.785230075399892</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4788337821113307</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.210475</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.974601350380695</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.209132420091322</v>
       </c>
       <c r="S19" s="38">
-        <f>E19-E17</f>
-        <v>1.8058333333333363</v>
+        <f t="shared" si="8"/>
+        <v>5.5000000000003268E-2</v>
       </c>
       <c r="T19" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>9.0749999999999886E-2</v>
       </c>
       <c r="U19" s="4">
         <v>7.4917999999999996</v>
       </c>
       <c r="V19" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="W19" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.39629999999999921</v>
       </c>
       <c r="X19" s="1">
         <v>301</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24889.70099667774</v>
       </c>
       <c r="Z19" s="8">
@@ -3639,33 +3639,33 @@
         <v>2652</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5794.94</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>109.87277908695326</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>773.50436477215089</v>
       </c>
       <c r="AF19" s="4">
         <v>8.6914390000000008</v>
       </c>
       <c r="AG19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.404781665475682</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88976400000000044</v>
       </c>
       <c r="AI19" s="7">
         <v>332.12</v>
       </c>
       <c r="AJ19" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26169.574250270991</v>
       </c>
       <c r="AK19" s="1">
@@ -3678,15 +3678,15 @@
         <v>4399</v>
       </c>
       <c r="AN19" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6026.666666666667</v>
       </c>
       <c r="AO19" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>108.22578908104452</v>
       </c>
       <c r="AP19" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>693.40263064225223</v>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-35.251616065049859</v>
       </c>
       <c r="H20" s="6">
@@ -3720,15 +3720,15 @@
         <v>8.2623999999999995</v>
       </c>
       <c r="I20" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.285912597773574</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>109.07665234894111</v>
       </c>
       <c r="L20" s="4">
@@ -3742,38 +3742,38 @@
         <v>6.4859125977735745</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.45531262927872</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6427874999999998</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.170650768567732</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.727853881278534</v>
       </c>
       <c r="S20" s="38">
-        <f t="shared" si="22"/>
-        <v>-3.0366666666666662</v>
+        <f t="shared" si="8"/>
+        <v>-3.0916666666666694</v>
       </c>
       <c r="T20" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.0706666666666704</v>
       </c>
       <c r="U20" s="4">
         <v>8.2623999999999995</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.285912597773574</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77059999999999995</v>
       </c>
       <c r="X20" s="1">
@@ -3793,33 +3793,33 @@
         <v>1577</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3752.1299999999997</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>64.505835031423828</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>454.12107862122383</v>
       </c>
       <c r="AF20" s="4">
         <v>9.4237800000000007</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4260040253403332</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.73234099999999991</v>
       </c>
       <c r="AI20" s="7">
         <v>333.64</v>
       </c>
       <c r="AJ20" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28245.354274067857</v>
       </c>
       <c r="AK20" s="1">
@@ -3832,15 +3832,15 @@
         <v>2447</v>
       </c>
       <c r="AN20" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3491.3333333333335</v>
       </c>
       <c r="AO20" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>57.824442188747952</v>
       </c>
       <c r="AP20" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>370.48120110330814</v>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
         <v>8.4457000000000004</v>
       </c>
       <c r="I21" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="8">
@@ -3882,7 +3882,7 @@
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="4">
@@ -3896,45 +3896,45 @@
         <v>2.6184837335398981</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7469717165768262</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.172925</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.84204855624192</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.564840182648403</v>
       </c>
       <c r="S21" s="38">
-        <f t="shared" si="22"/>
-        <v>-4.8591666666666695</v>
+        <f t="shared" si="8"/>
+        <v>-1.7675000000000001</v>
       </c>
       <c r="T21" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.9947499999999971</v>
       </c>
       <c r="U21" s="4">
         <v>8.4457000000000004</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18330000000000091</v>
       </c>
       <c r="X21" s="1">
         <v>307</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27510.423452768729</v>
       </c>
       <c r="Z21" s="8">
@@ -3947,7 +3947,7 @@
         <v>2269</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4604.0166666666664</v>
       </c>
       <c r="AD21" s="14">
@@ -3955,25 +3955,25 @@
         <v>77.433444255836108</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>545.13144756108625</v>
       </c>
       <c r="AF21" s="4">
         <v>9.3822489999999998</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.4407042609229137</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.1531000000000873E-2</v>
       </c>
       <c r="AI21" s="7">
         <v>334.4</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28056.96471291866</v>
       </c>
       <c r="AK21" s="1">
@@ -3986,15 +3986,15 @@
         <v>2964</v>
       </c>
       <c r="AN21" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4285.666666666667</v>
       </c>
       <c r="AO21" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>71.294612105476091</v>
       </c>
       <c r="AP21" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>456.7845797597854</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
         <v>5162.17</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.123182293721797</v>
       </c>
       <c r="H22" s="6">
@@ -4028,15 +4028,15 @@
         <v>8.825899999999999</v>
       </c>
       <c r="I22" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>106.75418638617396</v>
       </c>
       <c r="L22" s="4">
@@ -4050,45 +4050,45 @@
         <v>2.9016990894774692</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8743812774948729</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.24753627352392</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.300913242009123</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" si="22"/>
-        <v>-1.7524999999999999</v>
+        <f t="shared" si="8"/>
+        <v>1.4999999999999986E-2</v>
       </c>
       <c r="T22" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.9260833333333327</v>
       </c>
       <c r="U22" s="4">
         <v>8.825899999999999</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="W22" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.38019999999999854</v>
       </c>
       <c r="X22" s="1">
         <v>309</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28562.78317152103</v>
       </c>
       <c r="Z22" s="8">
@@ -4101,33 +4101,33 @@
         <v>2652</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5162.17</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>83.080794490183351</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>584.88879321089075</v>
       </c>
       <c r="AF22" s="4">
         <v>9.3207719999999998</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.65524801143095601</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-6.1477000000000004E-2</v>
       </c>
       <c r="AI22" s="3">
         <v>335</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27823.200000000001</v>
       </c>
       <c r="AK22" s="1">
@@ -4140,15 +4140,15 @@
         <v>2792</v>
       </c>
       <c r="AN22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4503.333333333333</v>
       </c>
       <c r="AO22" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>75.409747341450469</v>
       </c>
       <c r="AP22" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>483.15025121667315</v>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.8294618994208633</v>
       </c>
       <c r="H23" s="6">
@@ -4182,15 +4182,15 @@
         <v>9.7302999999999997</v>
       </c>
       <c r="I23" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.247113608810437</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>103.60960695932185</v>
       </c>
       <c r="L23" s="4">
@@ -4204,45 +4204,45 @@
         <v>7.0471136088104371</v>
       </c>
       <c r="O23" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7652707002125889</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3834</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.099497198678353</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44.43059360730593</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="22"/>
-        <v>-5.8333333333333334E-2</v>
+        <f t="shared" si="8"/>
+        <v>-7.333333333333332E-2</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.625833333333333</v>
       </c>
       <c r="U23" s="4">
         <v>9.7302999999999997</v>
       </c>
       <c r="V23" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.247113608810437</v>
       </c>
       <c r="W23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90440000000000076</v>
       </c>
       <c r="X23" s="1">
         <v>311</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31287.138263665594</v>
       </c>
       <c r="Z23" s="8">
@@ -4255,33 +4255,33 @@
         <v>2605</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5359.8533333333335</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>78.244535423399384</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>550.84152938073169</v>
       </c>
       <c r="AF23" s="4">
         <v>9.5350470000000005</v>
       </c>
       <c r="AG23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2988975591292302</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21427500000000066</v>
       </c>
       <c r="AI23" s="3">
         <v>334</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28548.04491017964</v>
       </c>
       <c r="AK23" s="1">
@@ -4294,15 +4294,15 @@
         <v>2316</v>
       </c>
       <c r="AN23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3791</v>
       </c>
       <c r="AO23" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>62.054920323264966</v>
       </c>
       <c r="AP23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>397.58587451115864</v>
       </c>
     </row>
@@ -4328,7 +4328,7 @@
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.1394291883608645</v>
       </c>
       <c r="H24" s="6">
@@ -4336,15 +4336,15 @@
         <v>10.471200000000001</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>99.57416022327952</v>
       </c>
       <c r="L24" s="4">
@@ -4362,41 +4362,41 @@
         <v>1.7902874476226769</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.210659388018961</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.813698630136983</v>
       </c>
       <c r="S24" s="38">
-        <f t="shared" si="22"/>
-        <v>-3.4999999999999976E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.8333333333333344E-2</v>
       </c>
       <c r="T24" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.603083333333337</v>
       </c>
       <c r="U24" s="4">
         <v>10.471200000000001</v>
       </c>
       <c r="V24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.74090000000000167</v>
       </c>
       <c r="X24" s="1">
         <v>313</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33454.313099041537</v>
       </c>
       <c r="Z24" s="8">
@@ -4409,33 +4409,33 @@
         <v>3019</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5849.7133333333331</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>79.353387328476117</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>558.64784679247191</v>
       </c>
       <c r="AF24" s="4">
         <v>9.8079680000000007</v>
       </c>
       <c r="AG24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8622931800965432</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27292100000000019</v>
       </c>
       <c r="AI24" s="3">
         <v>335</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29277.516417910447</v>
       </c>
       <c r="AK24" s="1">
@@ -4448,15 +4448,15 @@
         <v>2635</v>
       </c>
       <c r="AN24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4629.333333333333</v>
       </c>
       <c r="AO24" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>73.668985448397677</v>
       </c>
       <c r="AP24" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>471.99718976788392</v>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.785000290612544</v>
       </c>
       <c r="H25" s="6">
@@ -4490,15 +4490,15 @@
         <v>11.0656</v>
       </c>
       <c r="I25" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>96.286197309360503</v>
       </c>
       <c r="L25" s="4">
@@ -4512,45 +4512,45 @@
         <v>4.1765222706088849</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1817728716692559</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64846874999999993</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.467547766125563</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.527853881278531</v>
       </c>
       <c r="S25" s="38">
-        <f t="shared" si="22"/>
-        <v>5.8333333333333293E-3</v>
+        <f t="shared" si="8"/>
+        <v>-3.2500000000000015E-2</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.2755000000000001</v>
       </c>
       <c r="U25" s="4">
         <v>11.0656</v>
       </c>
       <c r="V25" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="W25" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.59439999999999849</v>
       </c>
       <c r="X25" s="1">
         <v>316</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35017.721518987339</v>
       </c>
       <c r="Z25" s="8">
@@ -4563,33 +4563,33 @@
         <v>4176</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7533.5533333333333</v>
       </c>
       <c r="AD25" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>96.70573738213541</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>680.80839117023334</v>
       </c>
       <c r="AF25" s="4">
         <v>9.8494729999999997</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.42317633989016201</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.1504999999999015E-2</v>
       </c>
       <c r="AI25" s="3">
         <v>336</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29313.907738095237</v>
       </c>
       <c r="AK25" s="1">
@@ -4602,15 +4602,15 @@
         <v>3109</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5652</v>
       </c>
       <c r="AO25" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>89.564196718928386</v>
       </c>
       <c r="AP25" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>573.83780837817415</v>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
         <v>8205.69</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.921907590309317</v>
       </c>
       <c r="H26" s="6">
@@ -4644,15 +4644,15 @@
         <v>11.732100000000001</v>
       </c>
       <c r="I26" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.023170908039333</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>93.451041804773851</v>
       </c>
       <c r="L26" s="4">
@@ -4666,45 +4666,45 @@
         <v>4.4231709080393333</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2414238423139157</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.364272374658817</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.571232876712322</v>
       </c>
       <c r="S26" s="38">
-        <f t="shared" si="22"/>
-        <v>-5.0833333333333341E-2</v>
+        <f t="shared" si="8"/>
+        <v>-1.8333333333333326E-2</v>
       </c>
       <c r="T26" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2.4159999999999999</v>
       </c>
       <c r="U26" s="4">
         <v>11.732100000000001</v>
       </c>
       <c r="V26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.023170908039333</v>
       </c>
       <c r="W26" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66650000000000098</v>
       </c>
       <c r="X26" s="1">
         <v>319</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36777.742946708466</v>
       </c>
       <c r="Z26" s="8">
@@ -4717,33 +4717,33 @@
         <v>4736</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8205.69</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99.349729878631351</v>
       </c>
       <c r="AE26" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>699.42209834556468</v>
       </c>
       <c r="AF26" s="4">
         <v>10.328136000000001</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.8597828533567196</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.47866300000000095</v>
       </c>
       <c r="AI26" s="3">
         <v>337</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30647.287833827893</v>
       </c>
       <c r="AK26" s="1">
@@ -4756,15 +4756,15 @@
         <v>3146</v>
       </c>
       <c r="AN26" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5741</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>86.758268288348972</v>
       </c>
       <c r="AP26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>555.86022492345182</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.57699799366862692</v>
       </c>
       <c r="H27" s="6">
@@ -4798,15 +4798,15 @@
         <v>12.458</v>
       </c>
       <c r="I27" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>91.941991916965421</v>
       </c>
       <c r="L27" s="4">
@@ -4820,45 +4820,45 @@
         <v>6.0872980966749228</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0986416564486783</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3231249999999999E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.160221232581527</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.885844748858446</v>
       </c>
       <c r="S27" s="38">
-        <f t="shared" si="22"/>
-        <v>2.5000000000000008E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.3333333333333335E-2</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.9219999999999999</v>
       </c>
       <c r="U27" s="4">
         <v>12.458</v>
       </c>
       <c r="V27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="W27" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.72589999999999932</v>
       </c>
       <c r="X27" s="1">
         <v>321</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38809.968847352022</v>
       </c>
       <c r="Z27" s="8">
@@ -4871,33 +4871,33 @@
         <v>5007</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8158.3433333333332</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>93.02099752136877</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>654.86782255043613</v>
       </c>
       <c r="AF27" s="4">
         <v>10.837680000000001</v>
       </c>
       <c r="AG27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.9335523854449548</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.509544</v>
       </c>
       <c r="AI27" s="3">
         <v>338</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32064.142011834319</v>
       </c>
       <c r="AK27" s="1">
@@ -4910,15 +4910,15 @@
         <v>3267</v>
       </c>
       <c r="AN27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6215.666666666667</v>
       </c>
       <c r="AO27" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>89.515175711904277</v>
       </c>
       <c r="AP27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>573.52373078617074</v>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.883826087240749</v>
       </c>
       <c r="H28" s="6">
@@ -4952,11 +4952,11 @@
         <v>13.275399999999999</v>
       </c>
       <c r="I28" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
@@ -4974,45 +4974,45 @@
         <v>5.2612457858404129</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2034657757421123</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56200625000000004</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.338600775750614</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.61826484018264</v>
       </c>
       <c r="S28" s="38">
-        <f t="shared" si="22"/>
-        <v>0.30583333333333335</v>
+        <f t="shared" si="8"/>
+        <v>0.26250000000000001</v>
       </c>
       <c r="T28" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.363833333333333</v>
       </c>
       <c r="U28" s="4">
         <v>13.275399999999999</v>
       </c>
       <c r="V28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.81739999999999924</v>
       </c>
       <c r="X28" s="1">
         <v>323</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41100.309597523221</v>
       </c>
       <c r="Z28" s="8">
@@ -5025,33 +5025,33 @@
         <v>5383</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9127.8666666666668</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>97.667261980578346</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>687.57752434327153</v>
       </c>
       <c r="AF28" s="4">
         <v>11.392602</v>
       </c>
       <c r="AG28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.1203025001660762</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.55492199999999947</v>
       </c>
       <c r="AI28" s="3">
         <v>339</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33606.495575221241</v>
       </c>
       <c r="AK28" s="1">
@@ -5064,15 +5064,15 @@
         <v>3290</v>
       </c>
       <c r="AN28" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6544.333333333333</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>89.657734811026771</v>
       </c>
       <c r="AP28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>574.4371069342485</v>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
         <v>11431.74</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25.239997662834682</v>
       </c>
       <c r="H29" s="6">
@@ -5106,11 +5106,11 @@
         <v>13.8584</v>
       </c>
       <c r="I29" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
@@ -5128,45 +5128,45 @@
         <v>2.2915814212754468</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6435278098760189</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49.267662692141933</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.280365296803645</v>
       </c>
       <c r="S29" s="38">
-        <f>E29-E27</f>
-        <v>0.86916666666666664</v>
+        <f t="shared" si="8"/>
+        <v>0.60666666666666669</v>
       </c>
       <c r="T29" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.2396666666666598</v>
       </c>
       <c r="U29" s="4">
         <v>13.8584</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58300000000000018</v>
       </c>
       <c r="X29" s="1">
         <v>325</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42641.230769230766</v>
       </c>
       <c r="Z29" s="8">
@@ -5179,33 +5179,33 @@
         <v>6903</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11431.74</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>117.17274032683821</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>824.89609190094097</v>
       </c>
       <c r="AF29" s="4">
         <v>11.871539</v>
       </c>
       <c r="AG29" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2039298836209724</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.47893700000000017</v>
       </c>
       <c r="AI29" s="3">
         <v>340</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34916.291176470586</v>
       </c>
       <c r="AK29" s="1">
@@ -5218,15 +5218,15 @@
         <v>3503</v>
       </c>
       <c r="AN29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7244</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>95.239409506135544</v>
       </c>
       <c r="AP29" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>610.1988967058104</v>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
         <v>10822.82</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-5.3265732075781926</v>
       </c>
       <c r="H30" s="6">
@@ -5260,11 +5260,11 @@
         <v>14.4346</v>
       </c>
       <c r="I30" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
@@ -5282,45 +5282,45 @@
         <v>1.7577671304046647</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4028149169969257</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.03755</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46.643384571182303</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.911415525114151</v>
       </c>
       <c r="S30" s="38">
-        <f>E30-E28</f>
-        <v>1.4366666666666668</v>
+        <f t="shared" si="8"/>
+        <v>0.83000000000000007</v>
       </c>
       <c r="T30" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.72425000000000006</v>
       </c>
       <c r="U30" s="4">
         <v>14.4346</v>
       </c>
       <c r="V30" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="W30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.57620000000000005</v>
       </c>
       <c r="X30" s="1">
         <v>326</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44277.914110429447</v>
       </c>
       <c r="Z30" s="8">
@@ -5333,33 +5333,33 @@
         <v>6635</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10822.82</v>
       </c>
       <c r="AD30" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>106.50328975958021</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>749.78315990744466</v>
       </c>
       <c r="AF30" s="4">
         <v>12.363619</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1450396616647538</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.49207999999999963</v>
       </c>
       <c r="AI30" s="3">
         <v>341</v>
       </c>
       <c r="AJ30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36256.947214076245</v>
       </c>
       <c r="AK30" s="1">
@@ -5372,15 +5372,15 @@
         <v>3001</v>
       </c>
       <c r="AN30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6096.333333333333</v>
       </c>
       <c r="AO30" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>76.960586360258233</v>
       </c>
       <c r="AP30" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>493.08647681017453</v>
       </c>
     </row>
@@ -5414,15 +5414,15 @@
         <v>15.402100000000001</v>
       </c>
       <c r="I31" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>95.492697868497842</v>
       </c>
       <c r="L31" s="4">
@@ -5436,45 +5436,45 @@
         <v>4.9026450334612663</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8255900923544544</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77816249999999998</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.526705933055602</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70.329223744292236</v>
       </c>
       <c r="S31" s="38">
-        <f t="shared" si="22"/>
-        <v>1.1566666666666665</v>
+        <f t="shared" si="8"/>
+        <v>0.32666666666666644</v>
       </c>
       <c r="T31" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>7.2499999999999787E-3</v>
       </c>
       <c r="U31" s="4">
         <v>15.402100000000001</v>
       </c>
       <c r="V31" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="W31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.96750000000000114</v>
       </c>
       <c r="X31" s="1">
         <v>328</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46957.621951219509</v>
       </c>
       <c r="Z31" s="8">
@@ -5487,33 +5487,33 @@
         <v>8972</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13580.146666666667</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>125.24253874865155</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>881.70747279050693</v>
       </c>
       <c r="AF31" s="4">
         <v>12.995488999999999</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.1107204128499859</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.63186999999999927</v>
       </c>
       <c r="AI31" s="3">
         <v>346</v>
       </c>
       <c r="AJ31" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37559.216763005781</v>
       </c>
       <c r="AK31" s="1">
@@ -5526,15 +5526,15 @@
         <v>3745</v>
       </c>
       <c r="AN31" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7657.333333333333</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>91.966615244527006</v>
       </c>
       <c r="AP31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>589.23010387168449</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="6">
@@ -5568,7 +5568,7 @@
         <v>19.187999999999999</v>
       </c>
       <c r="I32" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="8">
@@ -5590,45 +5590,45 @@
         <v>23.410414359080889</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6305096398722383</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50580562499999993</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.878867978738683</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87.616438356164366</v>
       </c>
       <c r="S32" s="38">
-        <f t="shared" si="22"/>
-        <v>-1.4558333333333335</v>
+        <f t="shared" si="8"/>
+        <v>-1.7824999999999998</v>
       </c>
       <c r="T32" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.49908333333333299</v>
       </c>
       <c r="U32" s="4">
         <v>19.187999999999999</v>
       </c>
       <c r="V32" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.580414359080891</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.785899999999998</v>
       </c>
       <c r="X32" s="1">
         <v>330</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58145.454545454544</v>
       </c>
       <c r="Z32" s="8">
@@ -5641,33 +5641,33 @@
         <v>12888</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15750.159999999998</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>116.59571796766917</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>820.83385449239097</v>
       </c>
       <c r="AF32" s="4">
         <v>14.492039</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.515919100851079</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4965500000000009</v>
       </c>
       <c r="AI32" s="3">
         <v>342</v>
       </c>
       <c r="AJ32" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42374.383040935674</v>
       </c>
       <c r="AK32" s="1">
@@ -5680,15 +5680,15 @@
         <v>3552</v>
       </c>
       <c r="AN32" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7607</v>
       </c>
       <c r="AO32" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>81.927404827859931</v>
       </c>
       <c r="AP32" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>524.90888273209862</v>
       </c>
     </row>
@@ -5726,11 +5726,11 @@
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>97.093411293656871</v>
       </c>
       <c r="L33" s="14">
@@ -5744,45 +5744,45 @@
         <v>7.8390869293308496</v>
       </c>
       <c r="O33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8072978868239367</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0318687500000001</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81.524206292199395</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.60273972602738</v>
       </c>
       <c r="S33" s="38">
-        <f t="shared" si="22"/>
-        <v>-2.0783333333333331</v>
+        <f t="shared" si="8"/>
+        <v>-0.29583333333333334</v>
       </c>
       <c r="T33" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>1.3740000000000001</v>
       </c>
       <c r="U33" s="14">
         <v>21.594000000000001</v>
       </c>
       <c r="V33" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.53908692933085</v>
       </c>
       <c r="W33" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4060000000000024</v>
       </c>
       <c r="X33" s="23">
         <v>331</v>
       </c>
       <c r="Y33" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>65238.670694864049</v>
       </c>
       <c r="Z33" s="23">
@@ -5795,33 +5795,33 @@
         <v>15645</v>
       </c>
       <c r="AC33" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18916.333333333332</v>
       </c>
       <c r="AD33" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>124.43174801642429</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>875.99950603562706</v>
       </c>
       <c r="AF33" s="14">
         <v>15.396000000000001</v>
       </c>
       <c r="AG33" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.2376384717154139</v>
       </c>
       <c r="AH33" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90396100000000068</v>
       </c>
       <c r="AI33" s="27">
         <v>342</v>
       </c>
       <c r="AJ33" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45017.543859649122</v>
       </c>
       <c r="AK33" s="11">
@@ -5834,15 +5834,15 @@
         <v>4298</v>
       </c>
       <c r="AN33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9138</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>92.637862840246456</v>
       </c>
       <c r="AP33" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>593.53078721745908</v>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
@@ -5898,45 +5898,45 @@
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3869602557740768</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.168366613992248</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.968036529680361</v>
       </c>
       <c r="S34" s="38">
-        <f>E34-E32</f>
-        <v>3.7241666666666662</v>
+        <f t="shared" si="8"/>
+        <v>4.0199999999999996</v>
       </c>
       <c r="T34" s="37">
-        <f>D34</f>
+        <f t="shared" si="23"/>
         <v>-0.88999999999999968</v>
       </c>
       <c r="U34" s="14">
         <v>21.236000000000001</v>
       </c>
       <c r="V34" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.6578679262758271</v>
       </c>
       <c r="W34" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.35800000000000054</v>
       </c>
       <c r="X34" s="23">
         <v>332</v>
       </c>
       <c r="Y34" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>63963.855421686749</v>
       </c>
       <c r="Z34" s="23">
@@ -5949,33 +5949,33 @@
         <v>10466</v>
       </c>
       <c r="AC34" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15817.333333333334</v>
       </c>
       <c r="AD34" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>105.80054167594193</v>
       </c>
       <c r="AE34" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>744.83581339863122</v>
       </c>
       <c r="AF34" s="14">
         <v>16.068000000000001</v>
       </c>
       <c r="AG34" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3647700701480971</v>
       </c>
       <c r="AH34" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.6720000000000006</v>
       </c>
       <c r="AI34" s="27">
         <v>343</v>
       </c>
       <c r="AJ34" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46845.481049562688</v>
       </c>
       <c r="AK34" s="11">
@@ -5988,15 +5988,15 @@
         <v>3793</v>
       </c>
       <c r="AN34" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8063</v>
       </c>
       <c r="AO34" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>78.321340639102914</v>
       </c>
       <c r="AP34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>501.80482947473234</v>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="6">
@@ -6051,45 +6051,45 @@
         <v>-5.847033339611988</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.902207549470468</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7724812499999998</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81.436575204711971</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.273972602739718</v>
       </c>
       <c r="S35" s="38">
-        <f>E35-E33</f>
-        <v>5.25</v>
+        <f t="shared" si="8"/>
+        <v>1.2300000000000004</v>
       </c>
       <c r="T35" s="37">
-        <f>D35</f>
+        <f t="shared" si="23"/>
         <v>-1.4</v>
       </c>
       <c r="U35" s="14">
         <v>20.864999999999998</v>
       </c>
       <c r="V35" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.7470333396119884</v>
       </c>
       <c r="W35" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="23">
         <v>335</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>62283.582089552241</v>
       </c>
       <c r="Z35" s="23">
@@ -6106,29 +6106,29 @@
         <v>18895.666666666668</v>
       </c>
       <c r="AD35" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>128.6385602974388</v>
       </c>
       <c r="AE35" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>905.61546449396928</v>
       </c>
       <c r="AF35" s="14">
         <v>16.111999999999998</v>
       </c>
       <c r="AG35" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.27383619616627186</v>
       </c>
       <c r="AH35" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AI35" s="27">
         <v>349</v>
       </c>
       <c r="AJ35" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46166.189111747844</v>
       </c>
       <c r="AK35" s="23">
@@ -6141,15 +6141,15 @@
         <v>4521</v>
       </c>
       <c r="AN35" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9605</v>
       </c>
       <c r="AO35" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>93.045032517035054</v>
       </c>
       <c r="AP35" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>596.13952333664361</v>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
         <f>C36-B36</f>
         <v>0.3100000000000005</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>4.4800000000000004</v>
       </c>
       <c r="F36" s="11">
@@ -6175,7 +6175,7 @@
         <v>23145.666666666668</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" ref="G36:G37" si="25">(F36*100/F35)-100</f>
+        <f t="shared" ref="G36:G37" si="26">(F36*100/F35)-100</f>
         <v>22.489768557719458</v>
       </c>
       <c r="H36" s="21">
@@ -6205,11 +6205,11 @@
         <v>-0.17063982746225914</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2796449999999999</v>
       </c>
       <c r="Q36" s="8">
@@ -6217,15 +6217,15 @@
         <v>99.751472489584842</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.93150684931507</v>
       </c>
       <c r="S36" s="38">
-        <f>E36-E34</f>
-        <v>0.38000000000000078</v>
+        <f t="shared" si="8"/>
+        <v>-0.84999999999999964</v>
       </c>
       <c r="T36" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>0.3100000000000005</v>
       </c>
       <c r="U36" s="14">
@@ -6282,7 +6282,7 @@
         <v>350</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>47660</v>
       </c>
       <c r="AK36" s="23">
@@ -6331,7 +6331,7 @@
         <v>23203.333333333332</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.24914670852713527</v>
       </c>
       <c r="H37" s="21">
@@ -6346,15 +6346,15 @@
         <f>AD37</f>
         <v>150.49899681748997</v>
       </c>
-      <c r="K37" s="6">
-        <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
-        <v>113.87693770648043</v>
+      <c r="K37" s="6" t="e">
+        <f ca="1">AVERAGE(OFFSET(#REF!,-14,0,14,1))</f>
+        <v>#REF!</v>
       </c>
       <c r="L37" s="14">
         <v>2.5</v>
       </c>
       <c r="M37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N37" s="14">
         <f>I37-L37</f>
@@ -6373,15 +6373,15 @@
         <v>99.999999999999986</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.999999999999986</v>
       </c>
       <c r="S37" s="38">
-        <f>E37-E35</f>
-        <v>-0.84999999999999964</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="T37" s="37">
-        <f>D37</f>
+        <f t="shared" si="23"/>
         <v>0.45000000000000018</v>
       </c>
       <c r="U37" s="14">
@@ -6438,7 +6438,7 @@
         <v>350</v>
       </c>
       <c r="AJ37" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>47660</v>
       </c>
       <c r="AK37" s="23">
@@ -6465,12 +6465,9 @@
       <c r="AQ37"/>
       <c r="AR37"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="S38" s="41"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C38:D43">
-    <sortCondition descending="1" ref="C38:C43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C38:D42">
+    <sortCondition descending="1" ref="C38:C42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D37">
@@ -6573,9 +6570,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S38">
+  <conditionalFormatting sqref="S2:S37">
     <cfRule type="cellIs" dxfId="1" priority="21" operator="between">
-      <formula>0.01</formula>
+      <formula>1</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6C48D-8AE3-43F5-BB94-9ABC03AAE208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F118CD-501F-46CF-BBF4-7150D7B0B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,11 +992,11 @@
       </c>
       <c r="Q2" s="8">
         <f>(F2*100/MAX($F$2:$F$37))</f>
-        <v>4.7933630225542307</v>
+        <v>4.8053055287526822</v>
       </c>
       <c r="R2" s="8">
         <f>(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.012328767123286</v>
+        <v>15.170965806838632</v>
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="37">
@@ -1133,36 +1133,36 @@
       </c>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q35" si="6">(F3*100/MAX($F$2:$F$37))</f>
-        <v>5.9931475362735238</v>
+        <v>6.008079266097325</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" ref="R3:R37" si="7">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.439269406392693</v>
+        <v>15.602417977942874</v>
       </c>
       <c r="S3" s="38">
-        <f t="shared" ref="S3:S37" si="8">E3-E2</f>
+        <f>E3-E2</f>
         <v>-2.4116666666666706</v>
       </c>
       <c r="T3" s="37">
-        <f t="shared" si="2"/>
+        <f>D3</f>
         <v>2.4315833333333403</v>
       </c>
       <c r="U3" s="4">
         <v>3.3811999999999998</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V35" si="9">(U3*100/U2)-100</f>
+        <f t="shared" ref="V3:V35" si="8">(U3*100/U2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" ref="W3:W35" si="10">U3-U2</f>
+        <f t="shared" ref="W3:W35" si="9">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="X3" s="1">
         <v>252</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y35" si="11">(U3*1000000000000)/(X3*1000000)</f>
+        <f t="shared" ref="Y3:Y35" si="10">(U3*1000000000000)/(X3*1000000)</f>
         <v>13417.460317460318</v>
       </c>
       <c r="Z3" s="8">
@@ -1175,7 +1175,7 @@
         <v>586</v>
       </c>
       <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC34" si="12">AVERAGE(Z3:AB3)</f>
+        <f t="shared" ref="AC3:AC34" si="11">AVERAGE(Z3:AB3)</f>
         <v>1390.61</v>
       </c>
       <c r="AD3" s="14">
@@ -1183,25 +1183,25 @@
         <v>58.420037130443205</v>
       </c>
       <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE35" si="13">AC3/U3</f>
+        <f t="shared" ref="AE3:AE35" si="12">AC3/U3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AF3" s="4">
         <v>3.2046329999999998</v>
       </c>
       <c r="AG3" s="4">
-        <f t="shared" ref="AG3:AG35" si="14">(AF3*100/AF2)-100</f>
+        <f t="shared" ref="AG3:AG35" si="13">(AF3*100/AF2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH35" si="15">AF3-AF2</f>
+        <f t="shared" ref="AH3:AH35" si="14">AF3-AF2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AI3" s="7">
         <v>318.44</v>
       </c>
       <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3:AJ37" si="16">((AF3*1000000000000)/(AI3*1000000))</f>
+        <f t="shared" ref="AJ3:AJ37" si="15">((AF3*1000000000000)/(AI3*1000000))</f>
         <v>10063.537872126617</v>
       </c>
       <c r="AK3" s="8">
@@ -1214,7 +1214,7 @@
         <v>479.54535718908153</v>
       </c>
       <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AK3:AM3)</f>
+        <f t="shared" ref="AN3:AN35" si="16">AVERAGE(AK3:AM3)</f>
         <v>1273.8484523963605</v>
       </c>
       <c r="AO3" s="4">
@@ -1222,7 +1222,7 @@
         <v>62.041849979271625</v>
       </c>
       <c r="AP3" s="8">
-        <f t="shared" ref="AP3:AP35" si="18">AN3/AF3</f>
+        <f t="shared" ref="AP3:AP35" si="17">AN3/AF3</f>
         <v>397.50213281719329</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G32" si="19">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="18">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="6">
@@ -1256,11 +1256,11 @@
         <v>3.4190999999999998</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" ref="I4:I32" si="20">(H4*100/H3)-100</f>
+        <f t="shared" ref="I4:I32" si="19">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J35" si="21">AD4</f>
+        <f t="shared" ref="J4:J35" si="20">AD4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="6">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="6"/>
-        <v>6.3383278264617173</v>
+        <v>6.354119561617007</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="7"/>
-        <v>15.612328767123284</v>
+        <v>15.777306077246092</v>
       </c>
       <c r="S4" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S4:S37" si="21">E4-E3</f>
         <v>-2.1658333333333335</v>
       </c>
       <c r="T4" s="37">
@@ -1305,18 +1305,18 @@
         <v>3.4190999999999998</v>
       </c>
       <c r="V4" s="14">
+        <f t="shared" si="8"/>
+        <v>1.1209038211285929</v>
+      </c>
+      <c r="W4" s="14">
         <f t="shared" si="9"/>
-        <v>1.1209038211285929</v>
-      </c>
-      <c r="W4" s="14">
-        <f t="shared" si="10"/>
         <v>3.7900000000000045E-2</v>
       </c>
       <c r="X4" s="1">
         <v>256</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13355.859375</v>
       </c>
       <c r="Z4" s="8">
@@ -1329,7 +1329,7 @@
         <v>676</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1470.7033333333336</v>
       </c>
       <c r="AD4" s="14">
@@ -1337,25 +1337,25 @@
         <v>61.099916201587703</v>
       </c>
       <c r="AE4" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>430.14341005917748</v>
       </c>
       <c r="AF4" s="4">
         <v>3.4331779999999998</v>
       </c>
       <c r="AG4" s="4">
+        <f t="shared" si="13"/>
+        <v>7.1317058770848263</v>
+      </c>
+      <c r="AH4" s="6">
         <f t="shared" si="14"/>
-        <v>7.1317058770848263</v>
-      </c>
-      <c r="AH4" s="6">
-        <f t="shared" si="15"/>
         <v>0.228545</v>
       </c>
       <c r="AI4" s="7">
         <v>319.95999999999998</v>
       </c>
       <c r="AJ4" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10730.022502812852</v>
       </c>
       <c r="AK4" s="8">
@@ -1368,7 +1368,7 @@
         <v>487.27290475096095</v>
       </c>
       <c r="AN4" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1294.0909682503204</v>
       </c>
       <c r="AO4" s="4">
@@ -1376,7 +1376,7 @@
         <v>58.832020155108296</v>
       </c>
       <c r="AP4" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>376.93675313377884</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.235844074603747</v>
       </c>
       <c r="H5" s="6">
@@ -1410,11 +1410,11 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="I5" s="39">
+        <f t="shared" si="19"/>
+        <v>1.6320084232692835</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" si="20"/>
-        <v>1.6320084232692835</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="21"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="6">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="6"/>
-        <v>7.17725901450941</v>
+        <v>7.1951409191065281</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="7"/>
-        <v>15.867123287671232</v>
+        <v>16.034793041391723</v>
       </c>
       <c r="S5" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.49916666666666654</v>
       </c>
       <c r="T5" s="37">
@@ -1459,18 +1459,18 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="V5" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6320084232692835</v>
+      </c>
+      <c r="W5" s="14">
         <f t="shared" si="9"/>
-        <v>1.6320084232692835</v>
-      </c>
-      <c r="W5" s="14">
-        <f t="shared" si="10"/>
         <v>5.5800000000000072E-2</v>
       </c>
       <c r="X5" s="1">
         <v>259</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13416.602316602317</v>
       </c>
       <c r="Z5" s="8">
@@ -1483,7 +1483,7 @@
         <v>776</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1665.3633333333335</v>
       </c>
       <c r="AD5" s="14">
@@ -1491,25 +1491,25 @@
         <v>68.075999788962761</v>
       </c>
       <c r="AE5" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>479.25503851429784</v>
       </c>
       <c r="AF5" s="4">
         <v>3.6517740000000001</v>
       </c>
       <c r="AG5" s="4">
+        <f t="shared" si="13"/>
+        <v>6.3671618541188479</v>
+      </c>
+      <c r="AH5" s="6">
         <f t="shared" si="14"/>
-        <v>6.3671618541188479</v>
-      </c>
-      <c r="AH5" s="6">
-        <f t="shared" si="15"/>
         <v>0.21859600000000023</v>
       </c>
       <c r="AI5" s="7">
         <v>320.72000000000003</v>
       </c>
       <c r="AJ5" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>11386.174856572712</v>
       </c>
       <c r="AK5" s="8">
@@ -1522,7 +1522,7 @@
         <v>729.72717760454884</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1750.9090592015164</v>
       </c>
       <c r="AO5" s="4">
@@ -1530,7 +1530,7 @@
         <v>74.835036286598012</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>479.46807748823346</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="6">
@@ -1568,7 +1568,7 @@
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="6">
@@ -1595,14 +1595,14 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="6"/>
-        <v>7.2467174256572351</v>
+        <v>7.2647723835995226</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="7"/>
-        <v>15.947031963470318</v>
+        <v>16.115546121544924</v>
       </c>
       <c r="S6" s="38">
-        <f t="shared" si="8"/>
+        <f>E6-E5</f>
         <v>1.1791666666666671</v>
       </c>
       <c r="T6" s="37">
@@ -1613,18 +1613,18 @@
         <v>3.4923999999999999</v>
       </c>
       <c r="V6" s="14">
+        <f t="shared" si="8"/>
+        <v>0.50361161472272897</v>
+      </c>
+      <c r="W6" s="14">
         <f t="shared" si="9"/>
-        <v>0.50361161472272897</v>
-      </c>
-      <c r="W6" s="14">
-        <f t="shared" si="10"/>
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="X6" s="1">
         <v>263</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13279.087452471484</v>
       </c>
       <c r="Z6" s="8">
@@ -1637,7 +1637,7 @@
         <v>751</v>
       </c>
       <c r="AC6" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1681.4800000000002</v>
       </c>
       <c r="AD6" s="14">
@@ -1645,25 +1645,25 @@
         <v>68.390387959309066</v>
       </c>
       <c r="AE6" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>481.46833123353576</v>
       </c>
       <c r="AF6" s="4">
         <v>3.7357990000000001</v>
       </c>
       <c r="AG6" s="4">
+        <f t="shared" si="13"/>
+        <v>2.3009364763536837</v>
+      </c>
+      <c r="AH6" s="6">
         <f t="shared" si="14"/>
-        <v>2.3009364763536837</v>
-      </c>
-      <c r="AH6" s="6">
-        <f t="shared" si="15"/>
         <v>8.4025000000000016E-2</v>
       </c>
       <c r="AI6" s="7">
         <v>321.48</v>
       </c>
       <c r="AJ6" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>11620.626477541371</v>
       </c>
       <c r="AK6" s="8">
@@ -1676,7 +1676,7 @@
         <v>651.25414844226009</v>
       </c>
       <c r="AN6" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1543.0847161474201</v>
       </c>
       <c r="AO6" s="4">
@@ -1684,7 +1684,7 @@
         <v>64.469090614788527</v>
       </c>
       <c r="AP6" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>413.05346356895006</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>34.48707884324125</v>
       </c>
       <c r="H7" s="6">
@@ -1718,11 +1718,11 @@
         <v>3.6478999999999999</v>
       </c>
       <c r="I7" s="39">
+        <f t="shared" si="19"/>
+        <v>4.4525254839079054</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="20"/>
-        <v>4.4525254839079054</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="21"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="6">
@@ -1749,14 +1749,14 @@
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="6"/>
-        <v>9.7458985777905482</v>
+        <v>9.7701801633135066</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="7"/>
-        <v>16.657077625570775</v>
+        <v>16.833094919477645</v>
       </c>
       <c r="S7" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.6349999999999998</v>
       </c>
       <c r="T7" s="37">
@@ -1767,18 +1767,18 @@
         <v>3.6478999999999999</v>
       </c>
       <c r="V7" s="14">
+        <f t="shared" si="8"/>
+        <v>4.4525254839079054</v>
+      </c>
+      <c r="W7" s="14">
         <f t="shared" si="9"/>
-        <v>4.4525254839079054</v>
-      </c>
-      <c r="W7" s="14">
-        <f t="shared" si="10"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="X7" s="1">
         <v>266</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>13713.90977443609</v>
       </c>
       <c r="Z7" s="8">
@@ -1791,7 +1791,7 @@
         <v>1052</v>
       </c>
       <c r="AC7" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2261.3733333333334</v>
       </c>
       <c r="AD7" s="14">
@@ -1799,25 +1799,25 @@
         <v>88.055539633844973</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>619.91099902226858</v>
       </c>
       <c r="AF7" s="4">
         <v>3.9374030000000002</v>
       </c>
       <c r="AG7" s="4">
+        <f t="shared" si="13"/>
+        <v>5.3965430152960749</v>
+      </c>
+      <c r="AH7" s="6">
         <f t="shared" si="14"/>
-        <v>5.3965430152960749</v>
-      </c>
-      <c r="AH7" s="6">
-        <f t="shared" si="15"/>
         <v>0.20160400000000012</v>
       </c>
       <c r="AI7" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ7" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12218.852408142999</v>
       </c>
       <c r="AK7" s="8">
@@ -1830,7 +1830,7 @@
         <v>677.3043143799506</v>
       </c>
       <c r="AN7" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1602.7681047933168</v>
       </c>
       <c r="AO7" s="4">
@@ -1838,7 +1838,7 @@
         <v>63.533985490317804</v>
       </c>
       <c r="AP7" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>407.06224503646609</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>24.987028531334957</v>
       </c>
       <c r="H8" s="6">
@@ -1872,11 +1872,11 @@
         <v>3.8245999999999998</v>
       </c>
       <c r="I8" s="39">
+        <f t="shared" si="19"/>
+        <v>4.8438827818744983</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="20"/>
-        <v>4.8438827818744983</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="21"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="6">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="6"/>
-        <v>12.181109036058039</v>
+        <v>12.211457868283482</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="7"/>
-        <v>17.463926940639269</v>
+        <v>17.648470305938815</v>
       </c>
       <c r="S8" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.538333333333334</v>
       </c>
       <c r="T8" s="37">
@@ -1921,18 +1921,18 @@
         <v>3.8245999999999998</v>
       </c>
       <c r="V8" s="14">
+        <f t="shared" si="8"/>
+        <v>4.8438827818744983</v>
+      </c>
+      <c r="W8" s="14">
         <f t="shared" si="9"/>
-        <v>4.8438827818744983</v>
-      </c>
-      <c r="W8" s="14">
-        <f t="shared" si="10"/>
         <v>0.17669999999999986</v>
       </c>
       <c r="X8" s="1">
         <v>269</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>14217.843866171004</v>
       </c>
       <c r="Z8" s="8">
@@ -1945,7 +1945,7 @@
         <v>1291</v>
       </c>
       <c r="AC8" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2826.4233333333336</v>
       </c>
       <c r="AD8" s="14">
@@ -1953,25 +1953,25 @@
         <v>104.97322259091465</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>739.01148704003913</v>
       </c>
       <c r="AF8" s="4">
         <v>4.0903450000000001</v>
       </c>
       <c r="AG8" s="4">
+        <f t="shared" si="13"/>
+        <v>3.8843369601740108</v>
+      </c>
+      <c r="AH8" s="6">
         <f t="shared" si="14"/>
-        <v>3.8843369601740108</v>
-      </c>
-      <c r="AH8" s="6">
-        <f t="shared" si="15"/>
         <v>0.15294199999999991</v>
       </c>
       <c r="AI8" s="7">
         <v>322.24</v>
       </c>
       <c r="AJ8" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12693.473808341609</v>
       </c>
       <c r="AK8" s="8">
@@ -1984,7 +1984,7 @@
         <v>912.27392328124427</v>
       </c>
       <c r="AN8" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2035.7579744270815</v>
       </c>
       <c r="AO8" s="4">
@@ -1992,7 +1992,7 @@
         <v>77.680404893902249</v>
       </c>
       <c r="AP8" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>497.69835415523175</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>23.2216924334288</v>
       </c>
       <c r="H9" s="6">
@@ -2026,11 +2026,11 @@
         <v>4.0461</v>
       </c>
       <c r="I9" s="39">
+        <f t="shared" si="19"/>
+        <v>5.7914553155885642</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="20"/>
-        <v>5.7914553155885642</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="21"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="6">
@@ -2057,14 +2057,14 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="6"/>
-        <v>15.00976871139204</v>
+        <v>15.047165056094011</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="7"/>
-        <v>18.475342465753425</v>
+        <v>18.670573577592176</v>
       </c>
       <c r="S9" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.16166666666666707</v>
       </c>
       <c r="T9" s="37">
@@ -2075,18 +2075,18 @@
         <v>4.0461</v>
       </c>
       <c r="V9" s="14">
+        <f t="shared" si="8"/>
+        <v>5.7914553155885642</v>
+      </c>
+      <c r="W9" s="14">
         <f t="shared" si="9"/>
-        <v>5.7914553155885642</v>
-      </c>
-      <c r="W9" s="14">
-        <f t="shared" si="10"/>
         <v>0.22150000000000025</v>
       </c>
       <c r="X9" s="1">
         <v>272</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>14875.367647058823</v>
       </c>
       <c r="Z9" s="8">
@@ -2099,7 +2099,7 @@
         <v>1570</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3482.7666666666664</v>
       </c>
       <c r="AD9" s="14">
@@ -2107,25 +2107,25 @@
         <v>122.26864739932878</v>
       </c>
       <c r="AE9" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>860.77127769127469</v>
       </c>
       <c r="AF9" s="4">
         <v>4.2673110000000003</v>
       </c>
       <c r="AG9" s="4">
+        <f t="shared" si="13"/>
+        <v>4.3264321224737756</v>
+      </c>
+      <c r="AH9" s="6">
         <f t="shared" si="14"/>
-        <v>4.3264321224737756</v>
-      </c>
-      <c r="AH9" s="6">
-        <f t="shared" si="15"/>
         <v>0.17696600000000018</v>
       </c>
       <c r="AI9" s="7">
         <v>323</v>
       </c>
       <c r="AJ9" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>13211.489164086688</v>
       </c>
       <c r="AK9" s="8">
@@ -2138,7 +2138,7 @@
         <v>1495.9794922493888</v>
       </c>
       <c r="AN9" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2905.9931640831296</v>
       </c>
       <c r="AO9" s="4">
@@ -2146,7 +2146,7 @@
         <v>106.28832648759899</v>
       </c>
       <c r="AP9" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>680.98930780604678</v>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20.61703817845968</v>
       </c>
       <c r="H10" s="6">
@@ -2180,11 +2180,11 @@
         <v>4.3923999999999994</v>
       </c>
       <c r="I10" s="39">
+        <f t="shared" si="19"/>
+        <v>8.5588591483156478</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="20"/>
-        <v>8.5588591483156478</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="21"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="6">
@@ -2211,14 +2211,14 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="6"/>
-        <v>18.104338457118235</v>
+        <v>18.149444820484756</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="7"/>
-        <v>20.056621004566207</v>
+        <v>20.268561672280928</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.10666666666666647</v>
       </c>
       <c r="T10" s="37">
@@ -2229,18 +2229,18 @@
         <v>4.3923999999999994</v>
       </c>
       <c r="V10" s="14">
+        <f t="shared" si="8"/>
+        <v>8.5588591483156478</v>
+      </c>
+      <c r="W10" s="14">
         <f t="shared" si="9"/>
-        <v>8.5588591483156478</v>
-      </c>
-      <c r="W10" s="14">
-        <f t="shared" si="10"/>
         <v>0.34629999999999939</v>
       </c>
       <c r="X10" s="1">
         <v>275</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15972.363636363634</v>
       </c>
       <c r="Z10" s="8">
@@ -2253,7 +2253,7 @@
         <v>2192</v>
       </c>
       <c r="AC10" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4200.8100000000004</v>
       </c>
       <c r="AD10" s="14">
@@ -2261,25 +2261,25 @@
         <v>135.84964163306873</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>956.38147709680379</v>
       </c>
       <c r="AF10" s="4">
         <v>4.4719610000000003</v>
       </c>
       <c r="AG10" s="4">
+        <f t="shared" si="13"/>
+        <v>4.7957601402850543</v>
+      </c>
+      <c r="AH10" s="6">
         <f t="shared" si="14"/>
-        <v>4.7957601402850543</v>
-      </c>
-      <c r="AH10" s="6">
-        <f t="shared" si="15"/>
         <v>0.20465</v>
       </c>
       <c r="AI10" s="7">
         <v>324.52</v>
       </c>
       <c r="AJ10" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>13780.232343152964</v>
       </c>
       <c r="AK10" s="8">
@@ -2292,7 +2292,7 @@
         <v>1965.7867345387713</v>
       </c>
       <c r="AN10" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3637.9289115129236</v>
       </c>
       <c r="AO10" s="4">
@@ -2300,7 +2300,7 @@
         <v>126.97010446122337</v>
       </c>
       <c r="AP10" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>813.49745928305799</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="6">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="6"/>
-        <v>20.162505387157019</v>
+        <v>20.21273960568573</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="7"/>
-        <v>21.258904109589036</v>
+        <v>21.483549443957362</v>
       </c>
       <c r="S11" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.38333333333333375</v>
       </c>
       <c r="T11" s="37">
@@ -2383,18 +2383,18 @@
         <v>4.6556999999999995</v>
       </c>
       <c r="V11" s="14">
+        <f t="shared" si="8"/>
+        <v>5.9944449503688162</v>
+      </c>
+      <c r="W11" s="14">
         <f t="shared" si="9"/>
-        <v>5.9944449503688162</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" si="10"/>
         <v>0.26330000000000009</v>
       </c>
       <c r="X11" s="1">
         <v>279</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16687.096774193546</v>
       </c>
       <c r="Z11" s="8">
@@ -2407,7 +2407,7 @@
         <v>1069</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4678.3733333333339</v>
       </c>
       <c r="AD11" s="14">
@@ -2415,25 +2415,25 @@
         <v>142.73721817700169</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1004.870015966092</v>
       </c>
       <c r="AF11" s="4">
         <v>4.7089470000000002</v>
       </c>
       <c r="AG11" s="4">
+        <f t="shared" si="13"/>
+        <v>5.299375374695785</v>
+      </c>
+      <c r="AH11" s="6">
         <f t="shared" si="14"/>
-        <v>5.299375374695785</v>
-      </c>
-      <c r="AH11" s="6">
-        <f t="shared" si="15"/>
         <v>0.23698599999999992</v>
       </c>
       <c r="AI11" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ11" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>14476.595548450565</v>
       </c>
       <c r="AK11" s="8">
@@ -2446,7 +2446,7 @@
         <v>3532.1003414965717</v>
       </c>
       <c r="AN11" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5482.7001138321903</v>
       </c>
       <c r="AO11" s="4">
@@ -2480,7 +2480,7 @@
         <v>4859.33</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.8679398537383207</v>
       </c>
       <c r="H12" s="6">
@@ -2488,11 +2488,11 @@
         <v>4.9643000000000006</v>
       </c>
       <c r="I12" s="39">
+        <f t="shared" si="19"/>
+        <v>6.6284339626694475</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="20"/>
-        <v>6.6284339626694475</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="21"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="6">
@@ -2519,14 +2519,14 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="6"/>
-        <v>20.942378968539003</v>
+        <v>20.9945562164264</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="7"/>
-        <v>22.668036529680368</v>
+        <v>22.907572331687515</v>
       </c>
       <c r="S12" s="38">
-        <f t="shared" si="8"/>
+        <f>E12-E11</f>
         <v>1.2658333333333331</v>
       </c>
       <c r="T12" s="37">
@@ -2537,18 +2537,18 @@
         <v>4.9643000000000006</v>
       </c>
       <c r="V12" s="14">
+        <f t="shared" si="8"/>
+        <v>6.6284339626694475</v>
+      </c>
+      <c r="W12" s="14">
         <f t="shared" si="9"/>
-        <v>6.6284339626694475</v>
-      </c>
-      <c r="W12" s="14">
-        <f t="shared" si="10"/>
         <v>0.3086000000000011</v>
       </c>
       <c r="X12" s="1">
         <v>285</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17418.596491228072</v>
       </c>
       <c r="Z12" s="8">
@@ -2561,7 +2561,7 @@
         <v>2470</v>
       </c>
       <c r="AC12" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4859.33</v>
       </c>
       <c r="AD12" s="14">
@@ -2569,25 +2569,25 @@
         <v>139.04190694284461</v>
       </c>
       <c r="AE12" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>978.85502487762608</v>
       </c>
       <c r="AF12" s="4">
         <v>4.9103279999999998</v>
       </c>
       <c r="AG12" s="4">
+        <f t="shared" si="13"/>
+        <v>4.2765611929800684</v>
+      </c>
+      <c r="AH12" s="6">
         <f t="shared" si="14"/>
-        <v>4.2765611929800684</v>
-      </c>
-      <c r="AH12" s="6">
-        <f t="shared" si="15"/>
         <v>0.20138099999999959</v>
       </c>
       <c r="AI12" s="7">
         <v>325.28000000000003</v>
       </c>
       <c r="AJ12" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>15095.696015740285</v>
       </c>
       <c r="AK12" s="8">
@@ -2600,7 +2600,7 @@
         <v>3386.0764499940415</v>
       </c>
       <c r="AN12" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5248.3588166646805</v>
       </c>
       <c r="AO12" s="4">
@@ -2608,7 +2608,7 @@
         <v>166.82390845070381</v>
       </c>
       <c r="AP12" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1068.8407814436594</v>
       </c>
     </row>
@@ -2642,11 +2642,11 @@
         <v>5.4420000000000002</v>
       </c>
       <c r="I13" s="39">
+        <f t="shared" si="19"/>
+        <v>9.6227061217090011</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="20"/>
-        <v>9.6227061217090011</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="21"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="6">
@@ -2673,14 +2673,14 @@
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="6"/>
-        <v>18.847248958482975</v>
+        <v>18.894206258910952</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="7"/>
-        <v>24.849315068493148</v>
+        <v>25.111900696783724</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-2.3483333333333327</v>
       </c>
       <c r="T13" s="37">
@@ -2691,18 +2691,18 @@
         <v>5.4420000000000002</v>
       </c>
       <c r="V13" s="14">
+        <f t="shared" si="8"/>
+        <v>9.6227061217090011</v>
+      </c>
+      <c r="W13" s="14">
         <f t="shared" si="9"/>
-        <v>9.6227061217090011</v>
-      </c>
-      <c r="W13" s="14">
-        <f t="shared" si="10"/>
         <v>0.47769999999999957</v>
       </c>
       <c r="X13" s="1">
         <v>285</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19094.736842105263</v>
       </c>
       <c r="Z13" s="8">
@@ -2715,7 +2715,7 @@
         <v>1950</v>
       </c>
       <c r="AC13" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4373.1899999999996</v>
       </c>
       <c r="AD13" s="14">
@@ -2723,25 +2723,25 @@
         <v>114.14769595068654</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>803.59977949283336</v>
       </c>
       <c r="AF13" s="4">
         <v>5.4467369999999997</v>
       </c>
       <c r="AG13" s="4">
+        <f t="shared" si="13"/>
+        <v>10.924097127523851</v>
+      </c>
+      <c r="AH13" s="6">
         <f t="shared" si="14"/>
-        <v>10.924097127523851</v>
-      </c>
-      <c r="AH13" s="6">
-        <f t="shared" si="15"/>
         <v>0.53640899999999991</v>
       </c>
       <c r="AI13" s="7">
         <v>326.04000000000002</v>
       </c>
       <c r="AJ13" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>16705.732425469268</v>
       </c>
       <c r="AK13" s="8">
@@ -2754,7 +2754,7 @@
         <v>2802.231073086672</v>
       </c>
       <c r="AN13" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4195.4103576955577</v>
       </c>
       <c r="AO13" s="4">
@@ -2762,7 +2762,7 @@
         <v>120.2218250422484</v>
       </c>
       <c r="AP13" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>770.26123304568546</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
         <v>5.7923</v>
       </c>
       <c r="I14" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="8">
@@ -2827,14 +2827,14 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="6"/>
-        <v>15.163956328113777</v>
+        <v>15.201736826187766</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="7"/>
-        <v>26.448858447488583</v>
+        <v>26.728346638364641</v>
       </c>
       <c r="S14" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-2.2208333333333332</v>
       </c>
       <c r="T14" s="37">
@@ -2845,18 +2845,18 @@
         <v>5.7923</v>
       </c>
       <c r="V14" s="14">
+        <f t="shared" si="8"/>
+        <v>6.4369717015803047</v>
+      </c>
+      <c r="W14" s="14">
         <f t="shared" si="9"/>
-        <v>6.4369717015803047</v>
-      </c>
-      <c r="W14" s="14">
-        <f t="shared" si="10"/>
         <v>0.35029999999999983</v>
       </c>
       <c r="X14" s="1">
         <v>287</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>20182.229965156796</v>
       </c>
       <c r="Z14" s="8">
@@ -2869,7 +2869,7 @@
         <v>1335</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3518.5433333333331</v>
       </c>
       <c r="AD14" s="14">
@@ -2877,25 +2877,25 @@
         <v>86.285773720493083</v>
       </c>
       <c r="AE14" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>607.45184699227127</v>
       </c>
       <c r="AF14" s="4">
         <v>5.8078250000000002</v>
       </c>
       <c r="AG14" s="4">
+        <f t="shared" si="13"/>
+        <v>6.629437037257361</v>
+      </c>
+      <c r="AH14" s="6">
         <f t="shared" si="14"/>
-        <v>6.629437037257361</v>
-      </c>
-      <c r="AH14" s="6">
-        <f t="shared" si="15"/>
         <v>0.36108800000000052</v>
       </c>
       <c r="AI14" s="7">
         <v>326.8</v>
       </c>
       <c r="AJ14" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17771.802325581397</v>
       </c>
       <c r="AK14" s="8">
@@ -2908,7 +2908,7 @@
         <v>2014.0328229692207</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2656.3442743230735</v>
       </c>
       <c r="AO14" s="4">
@@ -2916,7 +2916,7 @@
         <v>71.386504200603312</v>
       </c>
       <c r="AP14" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>457.37333241326542</v>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28.537282947583435</v>
       </c>
       <c r="H15" s="6">
@@ -2950,11 +2950,11 @@
         <v>6.0626999999999995</v>
       </c>
       <c r="I15" s="39">
+        <f t="shared" si="19"/>
+        <v>4.6682664917217664</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="20"/>
-        <v>4.6682664917217664</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="21"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="6">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="6"/>
-        <v>19.491337451515591</v>
+        <v>19.539899477223958</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="7"/>
-        <v>27.683561643835613</v>
+        <v>27.976097088274656</v>
       </c>
       <c r="S15" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.53916666666666679</v>
       </c>
       <c r="T15" s="37">
@@ -2999,18 +2999,18 @@
         <v>6.0626999999999995</v>
       </c>
       <c r="V15" s="14">
+        <f t="shared" si="8"/>
+        <v>4.6682664917217664</v>
+      </c>
+      <c r="W15" s="14">
         <f t="shared" si="9"/>
-        <v>4.6682664917217664</v>
-      </c>
-      <c r="W15" s="14">
-        <f t="shared" si="10"/>
         <v>0.27039999999999953</v>
       </c>
       <c r="X15" s="1">
         <v>290</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>20905.862068965518</v>
       </c>
       <c r="Z15" s="8">
@@ -3023,7 +3023,7 @@
         <v>2003</v>
       </c>
       <c r="AC15" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4522.6400000000003</v>
       </c>
       <c r="AD15" s="14">
@@ -3031,25 +3031,25 @@
         <v>105.96276486473926</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>745.97786464776436</v>
       </c>
       <c r="AF15" s="4">
         <v>6.1809219999999998</v>
       </c>
       <c r="AG15" s="4">
+        <f t="shared" si="13"/>
+        <v>6.4240399805434691</v>
+      </c>
+      <c r="AH15" s="6">
         <f t="shared" si="14"/>
-        <v>6.4240399805434691</v>
-      </c>
-      <c r="AH15" s="6">
-        <f t="shared" si="15"/>
         <v>0.37309699999999957</v>
       </c>
       <c r="AI15" s="7">
         <v>327.56</v>
       </c>
       <c r="AJ15" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>18869.58725119062</v>
       </c>
       <c r="AK15" s="8">
@@ -3062,7 +3062,7 @@
         <v>2733.2646902419569</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3418.4215634139855</v>
       </c>
       <c r="AO15" s="4">
@@ -3070,7 +3070,7 @@
         <v>86.32123243964989</v>
       </c>
       <c r="AP15" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>553.06013624083687</v>
       </c>
     </row>
@@ -3104,11 +3104,11 @@
         <v>6.4112</v>
       </c>
       <c r="I16" s="39">
+        <f t="shared" si="19"/>
+        <v>5.7482639747967141</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="20"/>
-        <v>5.7482639747967141</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="21"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="6">
@@ -3135,14 +3135,14 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="6"/>
-        <v>20.354848441315902</v>
+        <v>20.405561876233129</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="7"/>
-        <v>29.274885844748855</v>
+        <v>29.584236998754101</v>
       </c>
       <c r="S16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.22166666666666668</v>
       </c>
       <c r="T16" s="37">
@@ -3153,18 +3153,18 @@
         <v>6.4112</v>
       </c>
       <c r="V16" s="14">
+        <f t="shared" si="8"/>
+        <v>5.7482639747967141</v>
+      </c>
+      <c r="W16" s="14">
         <f t="shared" si="9"/>
-        <v>5.7482639747967141</v>
-      </c>
-      <c r="W16" s="14">
-        <f t="shared" si="10"/>
         <v>0.34850000000000048</v>
       </c>
       <c r="X16" s="1">
         <v>293</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>21881.228668941978</v>
       </c>
       <c r="Z16" s="8">
@@ -3177,7 +3177,7 @@
         <v>2175</v>
       </c>
       <c r="AC16" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4723.0033333333331</v>
       </c>
       <c r="AD16" s="14">
@@ -3185,25 +3185,25 @@
         <v>104.64205691649461</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>736.68008069212203</v>
       </c>
       <c r="AF16" s="4">
         <v>6.5681760000000002</v>
       </c>
       <c r="AG16" s="4">
+        <f t="shared" si="13"/>
+        <v>6.2653112270305229</v>
+      </c>
+      <c r="AH16" s="6">
         <f t="shared" si="14"/>
-        <v>6.2653112270305229</v>
-      </c>
-      <c r="AH16" s="6">
-        <f t="shared" si="15"/>
         <v>0.38725400000000043</v>
       </c>
       <c r="AI16" s="7">
         <v>329.08</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>19959.207487541022</v>
       </c>
       <c r="AK16" s="1">
@@ -3216,7 +3216,7 @@
         <v>2951</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3676</v>
       </c>
       <c r="AO16" s="4">
@@ -3224,7 +3224,7 @@
         <v>87.35263240686082</v>
       </c>
       <c r="AP16" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>559.66831583075725</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         <v>4723.5</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.0515907603988239E-2</v>
       </c>
       <c r="H17" s="6">
@@ -3258,11 +3258,11 @@
         <v>6.7104999999999997</v>
       </c>
       <c r="I17" s="39">
+        <f t="shared" si="19"/>
+        <v>4.6683928125779772</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="20"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="21"/>
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
@@ -3289,14 +3289,14 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="6"/>
-        <v>20.356988938370925</v>
+        <v>20.407707706266109</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="7"/>
-        <v>30.641552511415519</v>
+        <v>30.965345392459973</v>
       </c>
       <c r="S17" s="38">
-        <f t="shared" si="8"/>
+        <f>E17-E16</f>
         <v>1.8641666666666667</v>
       </c>
       <c r="T17" s="37">
@@ -3307,18 +3307,18 @@
         <v>6.7104999999999997</v>
       </c>
       <c r="V17" s="14">
+        <f t="shared" si="8"/>
+        <v>4.6683928125779772</v>
+      </c>
+      <c r="W17" s="14">
         <f t="shared" si="9"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="W17" s="14">
-        <f t="shared" si="10"/>
         <v>0.29929999999999968</v>
       </c>
       <c r="X17" s="1">
         <v>295</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>22747.457627118645</v>
       </c>
       <c r="Z17" s="8">
@@ -3331,7 +3331,7 @@
         <v>2205</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4723.5</v>
       </c>
       <c r="AD17" s="14">
@@ -3346,18 +3346,18 @@
         <v>7.1306700000000003</v>
       </c>
       <c r="AG17" s="4">
+        <f t="shared" si="13"/>
+        <v>8.5639300773913476</v>
+      </c>
+      <c r="AH17" s="6">
         <f t="shared" si="14"/>
-        <v>8.5639300773913476</v>
-      </c>
-      <c r="AH17" s="6">
-        <f t="shared" si="15"/>
         <v>0.56249400000000005</v>
       </c>
       <c r="AI17" s="7">
         <v>330.6</v>
       </c>
       <c r="AJ17" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>21568.874773139745</v>
       </c>
       <c r="AK17" s="1">
@@ -3370,7 +3370,7 @@
         <v>3578</v>
       </c>
       <c r="AN17" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4567</v>
       </c>
       <c r="AO17" s="4">
@@ -3378,7 +3378,7 @@
         <v>99.964534828797341</v>
       </c>
       <c r="AP17" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>640.47277464810452</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>5432.05</v>
       </c>
       <c r="G18" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.000529268550864</v>
       </c>
       <c r="H18" s="6">
@@ -3412,11 +3412,11 @@
         <v>7.0955000000000004</v>
       </c>
       <c r="I18" s="39">
+        <f t="shared" si="19"/>
+        <v>5.7372774010878658</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="20"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="21"/>
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
@@ -3443,14 +3443,14 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="6"/>
-        <v>23.410645022266916</v>
+        <v>23.46897187378487</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="7"/>
-        <v>32.399543378995432</v>
+        <v>32.741913155830382</v>
       </c>
       <c r="S18" s="38">
-        <f t="shared" si="8"/>
+        <f>E18-E17</f>
         <v>1.750833333333333</v>
       </c>
       <c r="T18" s="37">
@@ -3461,18 +3461,18 @@
         <v>7.0955000000000004</v>
       </c>
       <c r="V18" s="14">
+        <f t="shared" si="8"/>
+        <v>5.7372774010878658</v>
+      </c>
+      <c r="W18" s="14">
         <f t="shared" si="9"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="W18" s="14">
-        <f t="shared" si="10"/>
         <v>0.38500000000000068</v>
       </c>
       <c r="X18" s="1">
         <v>298</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23810.40268456376</v>
       </c>
       <c r="Z18" s="8">
@@ -3485,7 +3485,7 @@
         <v>2415</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5432.05</v>
       </c>
       <c r="AD18" s="14">
@@ -3500,18 +3500,18 @@
         <v>7.8016750000000004</v>
       </c>
       <c r="AG18" s="4">
+        <f t="shared" si="13"/>
+        <v>9.4101255562240311</v>
+      </c>
+      <c r="AH18" s="6">
         <f t="shared" si="14"/>
-        <v>9.4101255562240311</v>
-      </c>
-      <c r="AH18" s="6">
-        <f t="shared" si="15"/>
         <v>0.67100500000000007</v>
       </c>
       <c r="AI18" s="7">
         <v>331.36</v>
       </c>
       <c r="AJ18" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>23544.407894736843</v>
       </c>
       <c r="AK18" s="1">
@@ -3524,7 +3524,7 @@
         <v>4119</v>
       </c>
       <c r="AN18" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5418.666666666667</v>
       </c>
       <c r="AO18" s="4">
@@ -3532,7 +3532,7 @@
         <v>108.40513566015885</v>
       </c>
       <c r="AP18" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>694.55170417463773</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>5794.94</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.6805349729844181</v>
       </c>
       <c r="H19" s="6">
@@ -3566,11 +3566,11 @@
         <v>7.4917999999999996</v>
       </c>
       <c r="I19" s="39">
+        <f t="shared" si="19"/>
+        <v>5.5852300753998918</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="20"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="21"/>
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
@@ -3597,14 +3597,14 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="6"/>
-        <v>24.974601350380695</v>
+        <v>25.036824747612943</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="7"/>
-        <v>34.209132420091322</v>
+        <v>34.570624336671131</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.5000000000003268E-2</v>
       </c>
       <c r="T19" s="37">
@@ -3615,18 +3615,18 @@
         <v>7.4917999999999996</v>
       </c>
       <c r="V19" s="14">
+        <f t="shared" si="8"/>
+        <v>5.5852300753998918</v>
+      </c>
+      <c r="W19" s="14">
         <f t="shared" si="9"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="W19" s="14">
-        <f t="shared" si="10"/>
         <v>0.39629999999999921</v>
       </c>
       <c r="X19" s="1">
         <v>301</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>24889.70099667774</v>
       </c>
       <c r="Z19" s="8">
@@ -3639,7 +3639,7 @@
         <v>2652</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5794.94</v>
       </c>
       <c r="AD19" s="14">
@@ -3647,25 +3647,25 @@
         <v>109.87277908695326</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>773.50436477215089</v>
       </c>
       <c r="AF19" s="4">
         <v>8.6914390000000008</v>
       </c>
       <c r="AG19" s="4">
+        <f t="shared" si="13"/>
+        <v>11.404781665475682</v>
+      </c>
+      <c r="AH19" s="6">
         <f t="shared" si="14"/>
-        <v>11.404781665475682</v>
-      </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="15"/>
         <v>0.88976400000000044</v>
       </c>
       <c r="AI19" s="7">
         <v>332.12</v>
       </c>
       <c r="AJ19" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>26169.574250270991</v>
       </c>
       <c r="AK19" s="1">
@@ -3678,7 +3678,7 @@
         <v>4399</v>
       </c>
       <c r="AN19" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6026.666666666667</v>
       </c>
       <c r="AO19" s="4">
@@ -3686,7 +3686,7 @@
         <v>108.22578908104452</v>
       </c>
       <c r="AP19" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>693.40263064225223</v>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-35.251616065049859</v>
       </c>
       <c r="H20" s="6">
@@ -3720,11 +3720,11 @@
         <v>8.2623999999999995</v>
       </c>
       <c r="I20" s="39">
+        <f t="shared" si="19"/>
+        <v>10.285912597773574</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="20"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="21"/>
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
@@ -3751,14 +3751,14 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="6"/>
-        <v>16.170650768567732</v>
+        <v>16.210939412705038</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="7"/>
-        <v>37.727853881278534</v>
+        <v>38.126528540445761</v>
       </c>
       <c r="S20" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-3.0916666666666694</v>
       </c>
       <c r="T20" s="37">
@@ -3769,11 +3769,11 @@
         <v>8.2623999999999995</v>
       </c>
       <c r="V20" s="14">
+        <f t="shared" si="8"/>
+        <v>10.285912597773574</v>
+      </c>
+      <c r="W20" s="14">
         <f t="shared" si="9"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="W20" s="14">
-        <f t="shared" si="10"/>
         <v>0.77059999999999995</v>
       </c>
       <c r="X20" s="1">
@@ -3793,7 +3793,7 @@
         <v>1577</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3752.1299999999997</v>
       </c>
       <c r="AD20" s="14">
@@ -3801,25 +3801,25 @@
         <v>64.505835031423828</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>454.12107862122383</v>
       </c>
       <c r="AF20" s="4">
         <v>9.4237800000000007</v>
       </c>
       <c r="AG20" s="4">
+        <f t="shared" si="13"/>
+        <v>8.4260040253403332</v>
+      </c>
+      <c r="AH20" s="6">
         <f t="shared" si="14"/>
-        <v>8.4260040253403332</v>
-      </c>
-      <c r="AH20" s="6">
-        <f t="shared" si="15"/>
         <v>0.73234099999999991</v>
       </c>
       <c r="AI20" s="7">
         <v>333.64</v>
       </c>
       <c r="AJ20" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>28245.354274067857</v>
       </c>
       <c r="AK20" s="1">
@@ -3832,7 +3832,7 @@
         <v>2447</v>
       </c>
       <c r="AN20" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3491.3333333333335</v>
       </c>
       <c r="AO20" s="4">
@@ -3840,7 +3840,7 @@
         <v>57.824442188747952</v>
       </c>
       <c r="AP20" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>370.48120110330814</v>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
         <v>8.4457000000000004</v>
       </c>
       <c r="I21" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="8">
@@ -3905,14 +3905,14 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="6"/>
-        <v>19.84204855624192</v>
+        <v>19.891484367124153</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="7"/>
-        <v>38.564840182648403</v>
+        <v>38.972359374279002</v>
       </c>
       <c r="S21" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-1.7675000000000001</v>
       </c>
       <c r="T21" s="37">
@@ -3923,18 +3923,18 @@
         <v>8.4457000000000004</v>
       </c>
       <c r="V21" s="14">
+        <f t="shared" si="8"/>
+        <v>2.2184837335398981</v>
+      </c>
+      <c r="W21" s="14">
         <f t="shared" si="9"/>
-        <v>2.2184837335398981</v>
-      </c>
-      <c r="W21" s="14">
-        <f t="shared" si="10"/>
         <v>0.18330000000000091</v>
       </c>
       <c r="X21" s="1">
         <v>307</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>27510.423452768729</v>
       </c>
       <c r="Z21" s="8">
@@ -3947,7 +3947,7 @@
         <v>2269</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4604.0166666666664</v>
       </c>
       <c r="AD21" s="14">
@@ -3955,25 +3955,25 @@
         <v>77.433444255836108</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>545.13144756108625</v>
       </c>
       <c r="AF21" s="4">
         <v>9.3822489999999998</v>
       </c>
       <c r="AG21" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.4407042609229137</v>
+      </c>
+      <c r="AH21" s="6">
         <f t="shared" si="14"/>
-        <v>-0.4407042609229137</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="15"/>
         <v>-4.1531000000000873E-2</v>
       </c>
       <c r="AI21" s="7">
         <v>334.4</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>28056.96471291866</v>
       </c>
       <c r="AK21" s="1">
@@ -3986,7 +3986,7 @@
         <v>2964</v>
       </c>
       <c r="AN21" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4285.666666666667</v>
       </c>
       <c r="AO21" s="4">
@@ -3994,7 +3994,7 @@
         <v>71.294612105476091</v>
       </c>
       <c r="AP21" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>456.7845797597854</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
         <v>5162.17</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12.123182293721797</v>
       </c>
       <c r="H22" s="6">
@@ -4028,11 +4028,11 @@
         <v>8.825899999999999</v>
       </c>
       <c r="I22" s="39">
+        <f t="shared" si="19"/>
+        <v>4.5016990894774693</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="20"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="21"/>
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
@@ -4059,14 +4059,14 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="6"/>
-        <v>22.24753627352392</v>
+        <v>22.302965277877789</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="7"/>
-        <v>40.300913242009123</v>
+        <v>40.726777721378802</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.4999999999999986E-2</v>
       </c>
       <c r="T22" s="37">
@@ -4077,18 +4077,18 @@
         <v>8.825899999999999</v>
       </c>
       <c r="V22" s="14">
+        <f t="shared" si="8"/>
+        <v>4.5016990894774693</v>
+      </c>
+      <c r="W22" s="14">
         <f t="shared" si="9"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="W22" s="14">
-        <f t="shared" si="10"/>
         <v>0.38019999999999854</v>
       </c>
       <c r="X22" s="1">
         <v>309</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>28562.78317152103</v>
       </c>
       <c r="Z22" s="8">
@@ -4101,7 +4101,7 @@
         <v>2652</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5162.17</v>
       </c>
       <c r="AD22" s="14">
@@ -4109,25 +4109,25 @@
         <v>83.080794490183351</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>584.88879321089075</v>
       </c>
       <c r="AF22" s="4">
         <v>9.3207719999999998</v>
       </c>
       <c r="AG22" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.65524801143095601</v>
+      </c>
+      <c r="AH22" s="6">
         <f t="shared" si="14"/>
-        <v>-0.65524801143095601</v>
-      </c>
-      <c r="AH22" s="6">
-        <f t="shared" si="15"/>
         <v>-6.1477000000000004E-2</v>
       </c>
       <c r="AI22" s="3">
         <v>335</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>27823.200000000001</v>
       </c>
       <c r="AK22" s="1">
@@ -4140,7 +4140,7 @@
         <v>2792</v>
       </c>
       <c r="AN22" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4503.333333333333</v>
       </c>
       <c r="AO22" s="4">
@@ -4148,7 +4148,7 @@
         <v>75.409747341450469</v>
       </c>
       <c r="AP22" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>483.15025121667315</v>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.8294618994208633</v>
       </c>
       <c r="H23" s="6">
@@ -4182,11 +4182,11 @@
         <v>9.7302999999999997</v>
       </c>
       <c r="I23" s="39">
+        <f t="shared" si="19"/>
+        <v>10.247113608810437</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="20"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="21"/>
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
@@ -4213,14 +4213,14 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="6"/>
-        <v>23.099497198678353</v>
+        <v>23.15704883563518</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="7"/>
-        <v>44.43059360730593</v>
+        <v>44.900096903696188</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-7.333333333333332E-2</v>
       </c>
       <c r="T23" s="37">
@@ -4231,18 +4231,18 @@
         <v>9.7302999999999997</v>
       </c>
       <c r="V23" s="14">
+        <f t="shared" si="8"/>
+        <v>10.247113608810437</v>
+      </c>
+      <c r="W23" s="14">
         <f t="shared" si="9"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="W23" s="14">
-        <f t="shared" si="10"/>
         <v>0.90440000000000076</v>
       </c>
       <c r="X23" s="1">
         <v>311</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>31287.138263665594</v>
       </c>
       <c r="Z23" s="8">
@@ -4255,7 +4255,7 @@
         <v>2605</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5359.8533333333335</v>
       </c>
       <c r="AD23" s="14">
@@ -4263,25 +4263,25 @@
         <v>78.244535423399384</v>
       </c>
       <c r="AE23" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>550.84152938073169</v>
       </c>
       <c r="AF23" s="4">
         <v>9.5350470000000005</v>
       </c>
       <c r="AG23" s="4">
+        <f t="shared" si="13"/>
+        <v>2.2988975591292302</v>
+      </c>
+      <c r="AH23" s="6">
         <f t="shared" si="14"/>
-        <v>2.2988975591292302</v>
-      </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="15"/>
         <v>0.21427500000000066</v>
       </c>
       <c r="AI23" s="3">
         <v>334</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>28548.04491017964</v>
       </c>
       <c r="AK23" s="1">
@@ -4294,7 +4294,7 @@
         <v>2316</v>
       </c>
       <c r="AN23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3791</v>
       </c>
       <c r="AO23" s="4">
@@ -4302,7 +4302,7 @@
         <v>62.054920323264966</v>
       </c>
       <c r="AP23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>397.58587451115864</v>
       </c>
     </row>
@@ -4328,7 +4328,7 @@
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9.1394291883608645</v>
       </c>
       <c r="H24" s="6">
@@ -4336,11 +4336,11 @@
         <v>10.471200000000001</v>
       </c>
       <c r="I24" s="39">
+        <f t="shared" si="19"/>
+        <v>7.6143592694983795</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" si="20"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="21"/>
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
@@ -4367,14 +4367,14 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="6"/>
-        <v>25.210659388018961</v>
+        <v>25.2734709160822</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="7"/>
-        <v>47.813698630136983</v>
+        <v>48.318951594296543</v>
       </c>
       <c r="S24" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.8333333333333344E-2</v>
       </c>
       <c r="T24" s="37">
@@ -4385,18 +4385,18 @@
         <v>10.471200000000001</v>
       </c>
       <c r="V24" s="14">
+        <f t="shared" si="8"/>
+        <v>7.6143592694983795</v>
+      </c>
+      <c r="W24" s="14">
         <f t="shared" si="9"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="W24" s="14">
-        <f t="shared" si="10"/>
         <v>0.74090000000000167</v>
       </c>
       <c r="X24" s="1">
         <v>313</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>33454.313099041537</v>
       </c>
       <c r="Z24" s="8">
@@ -4409,7 +4409,7 @@
         <v>3019</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5849.7133333333331</v>
       </c>
       <c r="AD24" s="14">
@@ -4417,25 +4417,25 @@
         <v>79.353387328476117</v>
       </c>
       <c r="AE24" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>558.64784679247191</v>
       </c>
       <c r="AF24" s="4">
         <v>9.8079680000000007</v>
       </c>
       <c r="AG24" s="4">
+        <f t="shared" si="13"/>
+        <v>2.8622931800965432</v>
+      </c>
+      <c r="AH24" s="6">
         <f t="shared" si="14"/>
-        <v>2.8622931800965432</v>
-      </c>
-      <c r="AH24" s="6">
-        <f t="shared" si="15"/>
         <v>0.27292100000000019</v>
       </c>
       <c r="AI24" s="3">
         <v>335</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>29277.516417910447</v>
       </c>
       <c r="AK24" s="1">
@@ -4448,7 +4448,7 @@
         <v>2635</v>
       </c>
       <c r="AN24" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4629.333333333333</v>
       </c>
       <c r="AO24" s="4">
@@ -4456,7 +4456,7 @@
         <v>73.668985448397677</v>
       </c>
       <c r="AP24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>471.99718976788392</v>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28.785000290612544</v>
       </c>
       <c r="H25" s="6">
@@ -4490,11 +4490,11 @@
         <v>11.0656</v>
       </c>
       <c r="I25" s="39">
+        <f t="shared" si="19"/>
+        <v>5.6765222706088849</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="20"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="21"/>
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="6"/>
-        <v>32.467547766125563</v>
+        <v>32.548439592724343</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="7"/>
-        <v>50.527853881278531</v>
+        <v>51.061787642471515</v>
       </c>
       <c r="S25" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-3.2500000000000015E-2</v>
       </c>
       <c r="T25" s="37">
@@ -4539,18 +4539,18 @@
         <v>11.0656</v>
       </c>
       <c r="V25" s="14">
+        <f t="shared" si="8"/>
+        <v>5.6765222706088849</v>
+      </c>
+      <c r="W25" s="14">
         <f t="shared" si="9"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="W25" s="14">
-        <f t="shared" si="10"/>
         <v>0.59439999999999849</v>
       </c>
       <c r="X25" s="1">
         <v>316</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>35017.721518987339</v>
       </c>
       <c r="Z25" s="8">
@@ -4563,7 +4563,7 @@
         <v>4176</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7533.5533333333333</v>
       </c>
       <c r="AD25" s="14">
@@ -4571,25 +4571,25 @@
         <v>96.70573738213541</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>680.80839117023334</v>
       </c>
       <c r="AF25" s="4">
         <v>9.8494729999999997</v>
       </c>
       <c r="AG25" s="4">
+        <f t="shared" si="13"/>
+        <v>0.42317633989016201</v>
+      </c>
+      <c r="AH25" s="6">
         <f t="shared" si="14"/>
-        <v>0.42317633989016201</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="15"/>
         <v>4.1504999999999015E-2</v>
       </c>
       <c r="AI25" s="3">
         <v>336</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>29313.907738095237</v>
       </c>
       <c r="AK25" s="1">
@@ -4602,7 +4602,7 @@
         <v>3109</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5652</v>
       </c>
       <c r="AO25" s="4">
@@ -4610,7 +4610,7 @@
         <v>89.564196718928386</v>
       </c>
       <c r="AP25" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>573.83780837817415</v>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
         <v>8205.69</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.921907590309317</v>
       </c>
       <c r="H26" s="6">
@@ -4644,11 +4644,11 @@
         <v>11.732100000000001</v>
       </c>
       <c r="I26" s="39">
+        <f t="shared" si="19"/>
+        <v>6.023170908039333</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="20"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="21"/>
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
@@ -4675,14 +4675,14 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="6"/>
-        <v>35.364272374658817</v>
+        <v>35.452381295274854</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="7"/>
-        <v>53.571232876712322</v>
+        <v>54.137326380877681</v>
       </c>
       <c r="S26" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-1.8333333333333326E-2</v>
       </c>
       <c r="T26" s="37">
@@ -4693,18 +4693,18 @@
         <v>11.732100000000001</v>
       </c>
       <c r="V26" s="14">
+        <f t="shared" si="8"/>
+        <v>6.023170908039333</v>
+      </c>
+      <c r="W26" s="14">
         <f t="shared" si="9"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="W26" s="14">
-        <f t="shared" si="10"/>
         <v>0.66650000000000098</v>
       </c>
       <c r="X26" s="1">
         <v>319</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>36777.742946708466</v>
       </c>
       <c r="Z26" s="8">
@@ -4717,7 +4717,7 @@
         <v>4736</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8205.69</v>
       </c>
       <c r="AD26" s="14">
@@ -4725,25 +4725,25 @@
         <v>99.349729878631351</v>
       </c>
       <c r="AE26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>699.42209834556468</v>
       </c>
       <c r="AF26" s="4">
         <v>10.328136000000001</v>
       </c>
       <c r="AG26" s="4">
+        <f t="shared" si="13"/>
+        <v>4.8597828533567196</v>
+      </c>
+      <c r="AH26" s="6">
         <f t="shared" si="14"/>
-        <v>4.8597828533567196</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="15"/>
         <v>0.47866300000000095</v>
       </c>
       <c r="AI26" s="3">
         <v>337</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>30647.287833827893</v>
       </c>
       <c r="AK26" s="1">
@@ -4756,7 +4756,7 @@
         <v>3146</v>
       </c>
       <c r="AN26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5741</v>
       </c>
       <c r="AO26" s="4">
@@ -4764,7 +4764,7 @@
         <v>86.758268288348972</v>
       </c>
       <c r="AP26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>555.86022492345182</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-0.57699799366862692</v>
       </c>
       <c r="H27" s="6">
@@ -4798,11 +4798,11 @@
         <v>12.458</v>
       </c>
       <c r="I27" s="39">
+        <f t="shared" si="19"/>
+        <v>6.1872980966749225</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="20"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="21"/>
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
@@ -4829,14 +4829,14 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="6"/>
-        <v>35.160221232581527</v>
+        <v>35.247821766493367</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="7"/>
-        <v>56.885844748858446</v>
+        <v>57.48696414563242</v>
       </c>
       <c r="S27" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.3333333333333335E-2</v>
       </c>
       <c r="T27" s="37">
@@ -4847,18 +4847,18 @@
         <v>12.458</v>
       </c>
       <c r="V27" s="14">
+        <f t="shared" si="8"/>
+        <v>6.1872980966749225</v>
+      </c>
+      <c r="W27" s="14">
         <f t="shared" si="9"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="W27" s="14">
-        <f t="shared" si="10"/>
         <v>0.72589999999999932</v>
       </c>
       <c r="X27" s="1">
         <v>321</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>38809.968847352022</v>
       </c>
       <c r="Z27" s="8">
@@ -4871,7 +4871,7 @@
         <v>5007</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8158.3433333333332</v>
       </c>
       <c r="AD27" s="14">
@@ -4879,25 +4879,25 @@
         <v>93.02099752136877</v>
       </c>
       <c r="AE27" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>654.86782255043613</v>
       </c>
       <c r="AF27" s="4">
         <v>10.837680000000001</v>
       </c>
       <c r="AG27" s="4">
+        <f t="shared" si="13"/>
+        <v>4.9335523854449548</v>
+      </c>
+      <c r="AH27" s="6">
         <f t="shared" si="14"/>
-        <v>4.9335523854449548</v>
-      </c>
-      <c r="AH27" s="6">
-        <f t="shared" si="15"/>
         <v>0.509544</v>
       </c>
       <c r="AI27" s="3">
         <v>338</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>32064.142011834319</v>
       </c>
       <c r="AK27" s="1">
@@ -4910,7 +4910,7 @@
         <v>3267</v>
       </c>
       <c r="AN27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6215.666666666667</v>
       </c>
       <c r="AO27" s="4">
@@ -4918,7 +4918,7 @@
         <v>89.515175711904277</v>
       </c>
       <c r="AP27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>573.52373078617074</v>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.883826087240749</v>
       </c>
       <c r="H28" s="6">
@@ -4952,11 +4952,11 @@
         <v>13.275399999999999</v>
       </c>
       <c r="I28" s="39">
+        <f t="shared" si="19"/>
+        <v>6.5612457858404127</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="20"/>
-        <v>6.5612457858404127</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="21"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="6">
@@ -4983,14 +4983,14 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="6"/>
-        <v>39.338600775750614</v>
+        <v>39.436611604764025</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="7"/>
-        <v>60.61826484018264</v>
+        <v>61.258825158045326</v>
       </c>
       <c r="S28" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.26250000000000001</v>
       </c>
       <c r="T28" s="37">
@@ -5001,18 +5001,18 @@
         <v>13.275399999999999</v>
       </c>
       <c r="V28" s="14">
+        <f t="shared" si="8"/>
+        <v>6.5612457858404127</v>
+      </c>
+      <c r="W28" s="14">
         <f t="shared" si="9"/>
-        <v>6.5612457858404127</v>
-      </c>
-      <c r="W28" s="14">
-        <f t="shared" si="10"/>
         <v>0.81739999999999924</v>
       </c>
       <c r="X28" s="1">
         <v>323</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41100.309597523221</v>
       </c>
       <c r="Z28" s="8">
@@ -5025,7 +5025,7 @@
         <v>5383</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9127.8666666666668</v>
       </c>
       <c r="AD28" s="14">
@@ -5033,25 +5033,25 @@
         <v>97.667261980578346</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>687.57752434327153</v>
       </c>
       <c r="AF28" s="4">
         <v>11.392602</v>
       </c>
       <c r="AG28" s="4">
+        <f t="shared" si="13"/>
+        <v>5.1203025001660762</v>
+      </c>
+      <c r="AH28" s="6">
         <f t="shared" si="14"/>
-        <v>5.1203025001660762</v>
-      </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="15"/>
         <v>0.55492199999999947</v>
       </c>
       <c r="AI28" s="3">
         <v>339</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>33606.495575221241</v>
       </c>
       <c r="AK28" s="1">
@@ -5064,7 +5064,7 @@
         <v>3290</v>
       </c>
       <c r="AN28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6544.333333333333</v>
       </c>
       <c r="AO28" s="4">
@@ -5072,7 +5072,7 @@
         <v>89.657734811026771</v>
       </c>
       <c r="AP28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>574.4371069342485</v>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
         <v>11431.74</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>25.239997662834682</v>
       </c>
       <c r="H29" s="6">
@@ -5106,11 +5106,11 @@
         <v>13.8584</v>
       </c>
       <c r="I29" s="39">
+        <f t="shared" si="19"/>
+        <v>4.3915814212754469</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="20"/>
-        <v>4.3915814212754469</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="21"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="6">
@@ -5137,14 +5137,14 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="6"/>
-        <v>49.267662692141933</v>
+        <v>49.390411452107664</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="7"/>
-        <v>63.280365296803645</v>
+        <v>63.949056342577649</v>
       </c>
       <c r="S29" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.60666666666666669</v>
       </c>
       <c r="T29" s="37">
@@ -5155,18 +5155,18 @@
         <v>13.8584</v>
       </c>
       <c r="V29" s="14">
+        <f t="shared" si="8"/>
+        <v>4.3915814212754469</v>
+      </c>
+      <c r="W29" s="14">
         <f t="shared" si="9"/>
-        <v>4.3915814212754469</v>
-      </c>
-      <c r="W29" s="14">
-        <f t="shared" si="10"/>
         <v>0.58300000000000018</v>
       </c>
       <c r="X29" s="1">
         <v>325</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42641.230769230766</v>
       </c>
       <c r="Z29" s="8">
@@ -5179,7 +5179,7 @@
         <v>6903</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>11431.74</v>
       </c>
       <c r="AD29" s="14">
@@ -5187,25 +5187,25 @@
         <v>117.17274032683821</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>824.89609190094097</v>
       </c>
       <c r="AF29" s="4">
         <v>11.871539</v>
       </c>
       <c r="AG29" s="4">
+        <f t="shared" si="13"/>
+        <v>4.2039298836209724</v>
+      </c>
+      <c r="AH29" s="6">
         <f t="shared" si="14"/>
-        <v>4.2039298836209724</v>
-      </c>
-      <c r="AH29" s="6">
-        <f t="shared" si="15"/>
         <v>0.47893700000000017</v>
       </c>
       <c r="AI29" s="3">
         <v>340</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>34916.291176470586</v>
       </c>
       <c r="AK29" s="1">
@@ -5218,7 +5218,7 @@
         <v>3503</v>
       </c>
       <c r="AN29" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7244</v>
       </c>
       <c r="AO29" s="4">
@@ -5226,7 +5226,7 @@
         <v>95.239409506135544</v>
       </c>
       <c r="AP29" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>610.1988967058104</v>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
         <v>10822.82</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-5.3265732075781926</v>
       </c>
       <c r="H30" s="6">
@@ -5260,11 +5260,11 @@
         <v>14.4346</v>
       </c>
       <c r="I30" s="39">
+        <f t="shared" si="19"/>
+        <v>4.1577671304046646</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="20"/>
-        <v>4.1577671304046646</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="21"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="6">
@@ -5291,14 +5291,14 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="6"/>
-        <v>46.643384571182303</v>
+        <v>46.759595028587064</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="7"/>
-        <v>65.911415525114151</v>
+        <v>66.607909187393304</v>
       </c>
       <c r="S30" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="T30" s="37">
@@ -5309,18 +5309,18 @@
         <v>14.4346</v>
       </c>
       <c r="V30" s="14">
+        <f t="shared" si="8"/>
+        <v>4.1577671304046646</v>
+      </c>
+      <c r="W30" s="14">
         <f t="shared" si="9"/>
-        <v>4.1577671304046646</v>
-      </c>
-      <c r="W30" s="14">
-        <f t="shared" si="10"/>
         <v>0.57620000000000005</v>
       </c>
       <c r="X30" s="1">
         <v>326</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>44277.914110429447</v>
       </c>
       <c r="Z30" s="8">
@@ -5333,7 +5333,7 @@
         <v>6635</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>10822.82</v>
       </c>
       <c r="AD30" s="14">
@@ -5341,25 +5341,25 @@
         <v>106.50328975958021</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>749.78315990744466</v>
       </c>
       <c r="AF30" s="4">
         <v>12.363619</v>
       </c>
       <c r="AG30" s="4">
+        <f t="shared" si="13"/>
+        <v>4.1450396616647538</v>
+      </c>
+      <c r="AH30" s="6">
         <f t="shared" si="14"/>
-        <v>4.1450396616647538</v>
-      </c>
-      <c r="AH30" s="6">
-        <f t="shared" si="15"/>
         <v>0.49207999999999963</v>
       </c>
       <c r="AI30" s="3">
         <v>341</v>
       </c>
       <c r="AJ30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>36256.947214076245</v>
       </c>
       <c r="AK30" s="1">
@@ -5372,7 +5372,7 @@
         <v>3001</v>
       </c>
       <c r="AN30" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6096.333333333333</v>
       </c>
       <c r="AO30" s="4">
@@ -5380,7 +5380,7 @@
         <v>76.960586360258233</v>
       </c>
       <c r="AP30" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>493.08647681017453</v>
       </c>
     </row>
@@ -5414,11 +5414,11 @@
         <v>15.402100000000001</v>
       </c>
       <c r="I31" s="39">
+        <f t="shared" si="19"/>
+        <v>6.7026450334612662</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="20"/>
-        <v>6.7026450334612662</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="21"/>
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
@@ -5445,14 +5445,14 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="6"/>
-        <v>58.526705933055602</v>
+        <v>58.672523294497168</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="7"/>
-        <v>70.329223744292236</v>
+        <v>71.072400904434517</v>
       </c>
       <c r="S31" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.32666666666666644</v>
       </c>
       <c r="T31" s="37">
@@ -5463,18 +5463,18 @@
         <v>15.402100000000001</v>
       </c>
       <c r="V31" s="14">
+        <f t="shared" si="8"/>
+        <v>6.7026450334612662</v>
+      </c>
+      <c r="W31" s="14">
         <f t="shared" si="9"/>
-        <v>6.7026450334612662</v>
-      </c>
-      <c r="W31" s="14">
-        <f t="shared" si="10"/>
         <v>0.96750000000000114</v>
       </c>
       <c r="X31" s="1">
         <v>328</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>46957.621951219509</v>
       </c>
       <c r="Z31" s="8">
@@ -5487,7 +5487,7 @@
         <v>8972</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13580.146666666667</v>
       </c>
       <c r="AD31" s="14">
@@ -5495,25 +5495,25 @@
         <v>125.24253874865155</v>
       </c>
       <c r="AE31" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>881.70747279050693</v>
       </c>
       <c r="AF31" s="4">
         <v>12.995488999999999</v>
       </c>
       <c r="AG31" s="4">
+        <f t="shared" si="13"/>
+        <v>5.1107204128499859</v>
+      </c>
+      <c r="AH31" s="6">
         <f t="shared" si="14"/>
-        <v>5.1107204128499859</v>
-      </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="15"/>
         <v>0.63186999999999927</v>
       </c>
       <c r="AI31" s="3">
         <v>346</v>
       </c>
       <c r="AJ31" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>37559.216763005781</v>
       </c>
       <c r="AK31" s="1">
@@ -5526,7 +5526,7 @@
         <v>3745</v>
       </c>
       <c r="AN31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7657.333333333333</v>
       </c>
       <c r="AO31" s="4">
@@ -5534,7 +5534,7 @@
         <v>91.966615244527006</v>
       </c>
       <c r="AP31" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>589.23010387168449</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="6">
@@ -5568,7 +5568,7 @@
         <v>19.187999999999999</v>
       </c>
       <c r="I32" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="8">
@@ -5599,14 +5599,14 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="6"/>
-        <v>67.878867978738683</v>
+        <v>68.047985944093199</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="7"/>
-        <v>87.616438356164366</v>
+        <v>88.542291541691668</v>
       </c>
       <c r="S32" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-1.7824999999999998</v>
       </c>
       <c r="T32" s="37">
@@ -5617,18 +5617,18 @@
         <v>19.187999999999999</v>
       </c>
       <c r="V32" s="14">
+        <f t="shared" si="8"/>
+        <v>24.580414359080891</v>
+      </c>
+      <c r="W32" s="14">
         <f t="shared" si="9"/>
-        <v>24.580414359080891</v>
-      </c>
-      <c r="W32" s="14">
-        <f t="shared" si="10"/>
         <v>3.785899999999998</v>
       </c>
       <c r="X32" s="1">
         <v>330</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>58145.454545454544</v>
       </c>
       <c r="Z32" s="8">
@@ -5641,7 +5641,7 @@
         <v>12888</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15750.159999999998</v>
       </c>
       <c r="AD32" s="14">
@@ -5649,25 +5649,25 @@
         <v>116.59571796766917</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>820.83385449239097</v>
       </c>
       <c r="AF32" s="4">
         <v>14.492039</v>
       </c>
       <c r="AG32" s="4">
+        <f t="shared" si="13"/>
+        <v>11.515919100851079</v>
+      </c>
+      <c r="AH32" s="6">
         <f t="shared" si="14"/>
-        <v>11.515919100851079</v>
-      </c>
-      <c r="AH32" s="6">
-        <f t="shared" si="15"/>
         <v>1.4965500000000009</v>
       </c>
       <c r="AI32" s="3">
         <v>342</v>
       </c>
       <c r="AJ32" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>42374.383040935674</v>
       </c>
       <c r="AK32" s="1">
@@ -5680,7 +5680,7 @@
         <v>3552</v>
       </c>
       <c r="AN32" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7607</v>
       </c>
       <c r="AO32" s="4">
@@ -5688,7 +5688,7 @@
         <v>81.927404827859931</v>
       </c>
       <c r="AP32" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>524.90888273209862</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
@@ -5753,14 +5753,14 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="6"/>
-        <v>81.524206292199395</v>
+        <v>81.727321168829292</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="7"/>
-        <v>98.60273972602738</v>
+        <v>99.644686447325952</v>
       </c>
       <c r="S33" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.29583333333333334</v>
       </c>
       <c r="T33" s="37">
@@ -5771,18 +5771,18 @@
         <v>21.594000000000001</v>
       </c>
       <c r="V33" s="14">
+        <f t="shared" si="8"/>
+        <v>12.53908692933085</v>
+      </c>
+      <c r="W33" s="14">
         <f t="shared" si="9"/>
-        <v>12.53908692933085</v>
-      </c>
-      <c r="W33" s="14">
-        <f t="shared" si="10"/>
         <v>2.4060000000000024</v>
       </c>
       <c r="X33" s="23">
         <v>331</v>
       </c>
       <c r="Y33" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>65238.670694864049</v>
       </c>
       <c r="Z33" s="23">
@@ -5795,7 +5795,7 @@
         <v>15645</v>
       </c>
       <c r="AC33" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>18916.333333333332</v>
       </c>
       <c r="AD33" s="14">
@@ -5803,25 +5803,25 @@
         <v>124.43174801642429</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>875.99950603562706</v>
       </c>
       <c r="AF33" s="14">
         <v>15.396000000000001</v>
       </c>
       <c r="AG33" s="14">
+        <f t="shared" si="13"/>
+        <v>6.2376384717154139</v>
+      </c>
+      <c r="AH33" s="21">
         <f t="shared" si="14"/>
-        <v>6.2376384717154139</v>
-      </c>
-      <c r="AH33" s="21">
-        <f t="shared" si="15"/>
         <v>0.90396100000000068</v>
       </c>
       <c r="AI33" s="27">
         <v>342</v>
       </c>
       <c r="AJ33" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>45017.543859649122</v>
       </c>
       <c r="AK33" s="11">
@@ -5834,7 +5834,7 @@
         <v>4298</v>
       </c>
       <c r="AN33" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9138</v>
       </c>
       <c r="AO33" s="4">
@@ -5842,7 +5842,7 @@
         <v>92.637862840246456</v>
       </c>
       <c r="AP33" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>593.53078721745908</v>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="6">
@@ -5907,14 +5907,14 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="6"/>
-        <v>68.168366613992248</v>
+        <v>68.338205855667724</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="7"/>
-        <v>96.968036529680361</v>
+        <v>97.992709150477623</v>
       </c>
       <c r="S34" s="38">
-        <f t="shared" si="8"/>
+        <f>E34-E33</f>
         <v>4.0199999999999996</v>
       </c>
       <c r="T34" s="37">
@@ -5925,18 +5925,18 @@
         <v>21.236000000000001</v>
       </c>
       <c r="V34" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.6578679262758271</v>
+      </c>
+      <c r="W34" s="14">
         <f t="shared" si="9"/>
-        <v>-1.6578679262758271</v>
-      </c>
-      <c r="W34" s="14">
-        <f t="shared" si="10"/>
         <v>-0.35800000000000054</v>
       </c>
       <c r="X34" s="23">
         <v>332</v>
       </c>
       <c r="Y34" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>63963.855421686749</v>
       </c>
       <c r="Z34" s="23">
@@ -5949,7 +5949,7 @@
         <v>10466</v>
       </c>
       <c r="AC34" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15817.333333333334</v>
       </c>
       <c r="AD34" s="14">
@@ -5957,25 +5957,25 @@
         <v>105.80054167594193</v>
       </c>
       <c r="AE34" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>744.83581339863122</v>
       </c>
       <c r="AF34" s="14">
         <v>16.068000000000001</v>
       </c>
       <c r="AG34" s="14">
+        <f t="shared" si="13"/>
+        <v>4.3647700701480971</v>
+      </c>
+      <c r="AH34" s="21">
         <f t="shared" si="14"/>
-        <v>4.3647700701480971</v>
-      </c>
-      <c r="AH34" s="21">
-        <f t="shared" si="15"/>
         <v>0.6720000000000006</v>
       </c>
       <c r="AI34" s="27">
         <v>343</v>
       </c>
       <c r="AJ34" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>46845.481049562688</v>
       </c>
       <c r="AK34" s="11">
@@ -5988,7 +5988,7 @@
         <v>3793</v>
       </c>
       <c r="AN34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8063</v>
       </c>
       <c r="AO34" s="4">
@@ -5996,7 +5996,7 @@
         <v>78.321340639102914</v>
       </c>
       <c r="AP34" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>501.80482947473234</v>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="6">
@@ -6060,36 +6060,36 @@
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="6"/>
-        <v>81.436575204711971</v>
+        <v>81.639471751371744</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="7"/>
-        <v>95.273972602739718</v>
+        <v>96.280743851229758</v>
       </c>
       <c r="S35" s="38">
-        <f t="shared" si="8"/>
+        <f>E35-E34</f>
         <v>1.2300000000000004</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="23"/>
+        <f>D35</f>
         <v>-1.4</v>
       </c>
       <c r="U35" s="14">
         <v>20.864999999999998</v>
       </c>
       <c r="V35" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.7470333396119884</v>
+      </c>
+      <c r="W35" s="14">
         <f t="shared" si="9"/>
-        <v>-1.7470333396119884</v>
-      </c>
-      <c r="W35" s="14">
-        <f t="shared" si="10"/>
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="23">
         <v>335</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>62283.582089552241</v>
       </c>
       <c r="Z35" s="23">
@@ -6110,25 +6110,25 @@
         <v>128.6385602974388</v>
       </c>
       <c r="AE35" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>905.61546449396928</v>
       </c>
       <c r="AF35" s="14">
         <v>16.111999999999998</v>
       </c>
       <c r="AG35" s="14">
+        <f t="shared" si="13"/>
+        <v>0.27383619616627186</v>
+      </c>
+      <c r="AH35" s="21">
         <f t="shared" si="14"/>
-        <v>0.27383619616627186</v>
-      </c>
-      <c r="AH35" s="21">
-        <f t="shared" si="15"/>
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AI35" s="27">
         <v>349</v>
       </c>
       <c r="AJ35" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>46166.189111747844</v>
       </c>
       <c r="AK35" s="23">
@@ -6141,7 +6141,7 @@
         <v>4521</v>
       </c>
       <c r="AN35" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9605</v>
       </c>
       <c r="AO35" s="4">
@@ -6149,7 +6149,7 @@
         <v>93.045032517035054</v>
       </c>
       <c r="AP35" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>596.13952333664361</v>
       </c>
     </row>
@@ -6214,14 +6214,14 @@
       </c>
       <c r="Q36" s="8">
         <f>(F36*100/MAX($F$2:$F$37))</f>
-        <v>99.751472489584842</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="7"/>
-        <v>97.93150684931507</v>
+        <v>98.966360574039058</v>
       </c>
       <c r="S36" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.84999999999999964</v>
       </c>
       <c r="T36" s="37">
@@ -6282,7 +6282,7 @@
         <v>350</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>47660</v>
       </c>
       <c r="AK36" s="23">
@@ -6314,114 +6314,114 @@
         <v>2025</v>
       </c>
       <c r="B37" s="20">
-        <v>4.2699999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="C37" s="21">
-        <v>4.72</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="D37" s="21">
         <f>C37-B37</f>
-        <v>0.45000000000000018</v>
+        <v>-9.0999999999999748E-2</v>
       </c>
       <c r="E37" s="32">
-        <v>4.4800000000000004</v>
+        <v>4.33</v>
       </c>
       <c r="F37" s="11">
         <f>Monitor!AC37</f>
-        <v>23203.333333333332</v>
+        <v>19658.333333333332</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="26"/>
-        <v>0.24914670852713527</v>
+        <v>-15.066895171162358</v>
       </c>
       <c r="H37" s="21">
         <f>Monitor!U37</f>
-        <v>21.9</v>
+        <v>21.670999999999999</v>
       </c>
       <c r="I37" s="40">
         <f>(H37*100/H36)-100</f>
-        <v>2.1121835221709375</v>
+        <v>1.0444351191308812</v>
       </c>
       <c r="J37" s="11">
         <f>AD37</f>
-        <v>150.49899681748997</v>
-      </c>
-      <c r="K37" s="6" t="e">
-        <f ca="1">AVERAGE(OFFSET(#REF!,-14,0,14,1))</f>
-        <v>#REF!</v>
+        <v>128.85316293384679</v>
+      </c>
+      <c r="K37" s="6">
+        <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
+        <v>112.33080671479162</v>
       </c>
       <c r="L37" s="14">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="M37" s="11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N37" s="14">
         <f>I37-L37</f>
-        <v>-0.38781647782906248</v>
+        <v>-1.7755648808691187</v>
       </c>
       <c r="O37" s="21">
         <f>J37*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>3.3953996666437165</v>
+        <v>2.9070491878569626</v>
       </c>
       <c r="P37" s="6">
         <f>L37*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.08078125</v>
+        <v>1.2191212499999999</v>
       </c>
       <c r="Q37" s="8">
         <f>(F37*100/MAX($F$2:$F$37))</f>
-        <v>99.999999999999986</v>
+        <v>84.933104828837642</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" si="7"/>
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="S37" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-0.15000000000000036</v>
       </c>
       <c r="T37" s="37">
         <f t="shared" si="23"/>
-        <v>0.45000000000000018</v>
+        <v>-9.0999999999999748E-2</v>
       </c>
       <c r="U37" s="14">
-        <v>21.9</v>
+        <v>21.670999999999999</v>
       </c>
       <c r="V37" s="14">
         <f>(U37*100/U36)-100</f>
-        <v>2.1121835221709375</v>
+        <v>1.0444351191308812</v>
       </c>
       <c r="W37" s="14">
         <f>U37-U36</f>
-        <v>0.4529999999999994</v>
+        <v>0.2240000000000002</v>
       </c>
       <c r="X37" s="23">
         <v>341</v>
       </c>
       <c r="Y37" s="11">
         <f>(U37*1000000000000)/(X37*1000000)</f>
-        <v>64222.873900293256</v>
+        <v>63551.319648093842</v>
       </c>
       <c r="Z37" s="23">
-        <v>42528</v>
+        <v>38314</v>
       </c>
       <c r="AA37" s="23">
-        <v>5909</v>
+        <v>5074</v>
       </c>
       <c r="AB37" s="23">
-        <v>21173</v>
+        <v>15587</v>
       </c>
       <c r="AC37" s="11">
         <f>AVERAGE(Z37:AB37)</f>
-        <v>23203.333333333332</v>
+        <v>19658.333333333332</v>
       </c>
       <c r="AD37" s="14">
         <f>((AC37/U37)/100)*100/7.04</f>
-        <v>150.49899681748997</v>
+        <v>128.85316293384679</v>
       </c>
       <c r="AE37" s="28">
         <f>AC37/U37</f>
-        <v>1059.5129375951294</v>
+        <v>907.12626705428147</v>
       </c>
       <c r="AF37" s="14">
         <v>16.681000000000001</v>
@@ -6438,7 +6438,7 @@
         <v>350</v>
       </c>
       <c r="AJ37" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>47660</v>
       </c>
       <c r="AK37" s="23">
@@ -6572,7 +6572,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S37">
     <cfRule type="cellIs" dxfId="1" priority="21" operator="between">
-      <formula>1</formula>
+      <formula>0.5</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F118CD-501F-46CF-BBF4-7150D7B0B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227B8B2-E686-4082-B34F-043082816250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6424,43 +6424,43 @@
         <v>907.12626705428147</v>
       </c>
       <c r="AF37" s="14">
-        <v>16.681000000000001</v>
+        <v>16.858000000000001</v>
       </c>
       <c r="AG37" s="14">
         <f>(AF37*100/AF36)-100</f>
-        <v>0</v>
+        <v>1.0610874647802859</v>
       </c>
       <c r="AH37" s="21">
         <f>AF37-AF36</f>
-        <v>0</v>
+        <v>0.1769999999999996</v>
       </c>
       <c r="AI37" s="27">
         <v>350</v>
       </c>
       <c r="AJ37" s="11">
         <f t="shared" si="15"/>
-        <v>47660</v>
+        <v>48165.714285714283</v>
       </c>
       <c r="AK37" s="23">
-        <v>7380</v>
+        <v>7274</v>
       </c>
       <c r="AL37" s="23">
-        <v>19909</v>
+        <v>20641</v>
       </c>
       <c r="AM37" s="23">
-        <v>4869</v>
+        <v>4866</v>
       </c>
       <c r="AN37" s="8">
         <f>AVERAGE(AK37:AM37)</f>
-        <v>10719.333333333334</v>
+        <v>10927</v>
       </c>
       <c r="AO37" s="4">
         <f>((AN37/AF37)/100)*100/6.407</f>
-        <v>100.29769902800089</v>
+        <v>101.16730235013486</v>
       </c>
       <c r="AP37" s="11">
         <f>AN37/AF37</f>
-        <v>642.60735767240169</v>
+        <v>648.17890615731403</v>
       </c>
       <c r="AQ37"/>
       <c r="AR37"/>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227B8B2-E686-4082-B34F-043082816250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66CB45-1CCC-4CAE-B0C3-06FF3E1E5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1000,8 +1000,8 @@
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="37">
-        <f t="shared" ref="T2:T4" si="2">D2</f>
-        <v>1.2078055555555496</v>
+        <f>IF(D2&gt;0,-0.5,1)+IF(J2&gt;100,1,-0.5)+IF(M2&gt;100,1,-0.5)+IF(S2&gt;1,1,-0.5)+IF(L2&gt;I2,1,-0.5)</f>
+        <v>-2.5</v>
       </c>
       <c r="U2" s="4">
         <v>3.2876999999999996</v>
@@ -1065,7 +1065,7 @@
         <v>1104.5323505685974</v>
       </c>
       <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO16" si="3">((AN2/AF2)/100)*100/6.407</f>
+        <f t="shared" ref="AO2:AO16" si="2">((AN2/AF2)/100)*100/6.407</f>
         <v>57.851534760247603</v>
       </c>
       <c r="AP2" s="8">
@@ -1124,19 +1124,19 @@
         <v>-1.3560665510843366</v>
       </c>
       <c r="O3" s="21">
-        <f t="shared" ref="O3:O36" si="4">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <f t="shared" ref="O3:O36" si="3">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
         <v>1.3180112744443782</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P36" si="5">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" ref="P3:P36" si="4">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>1.8157125000000001</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q35" si="6">(F3*100/MAX($F$2:$F$37))</f>
+        <f t="shared" ref="Q3:Q35" si="5">(F3*100/MAX($F$2:$F$37))</f>
         <v>6.008079266097325</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R37" si="7">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <f t="shared" ref="R3:R37" si="6">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
         <v>15.602417977942874</v>
       </c>
       <c r="S3" s="38">
@@ -1144,8 +1144,8 @@
         <v>-2.4116666666666706</v>
       </c>
       <c r="T3" s="37">
-        <f>D3</f>
-        <v>2.4315833333333403</v>
+        <f t="shared" ref="T3:T37" si="7">IF(D3&gt;0,-0.5,1)+IF(J3&gt;100,1,-0.5)+IF(M3&gt;100,1,-0.5)+IF(S3&gt;1,1,-0.5)+IF(L3&gt;I3,1,-0.5)</f>
+        <v>-1</v>
       </c>
       <c r="U3" s="4">
         <v>3.3811999999999998</v>
@@ -1218,7 +1218,7 @@
         <v>1273.8484523963605</v>
       </c>
       <c r="AO3" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62.041849979271625</v>
       </c>
       <c r="AP3" s="8">
@@ -1278,28 +1278,28 @@
         <v>-1.8790961788714071</v>
       </c>
       <c r="O4" s="21">
+        <f t="shared" si="3"/>
+        <v>1.3784718801442566</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="4"/>
-        <v>1.3784718801442566</v>
-      </c>
-      <c r="P4" s="6">
+        <v>1.2969374999999999</v>
+      </c>
+      <c r="Q4" s="8">
         <f t="shared" si="5"/>
-        <v>1.2969374999999999</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>6.354119561617007</v>
+      </c>
+      <c r="R4" s="8">
         <f t="shared" si="6"/>
-        <v>6.354119561617007</v>
-      </c>
-      <c r="R4" s="8">
+        <v>15.777306077246092</v>
+      </c>
+      <c r="S4" s="38">
+        <f>E4-(AVERAGE(E2:E3))</f>
+        <v>-3.3716666666666688</v>
+      </c>
+      <c r="T4" s="37">
         <f t="shared" si="7"/>
-        <v>15.777306077246092</v>
-      </c>
-      <c r="S4" s="38">
-        <f t="shared" ref="S4:S37" si="21">E4-E3</f>
-        <v>-2.1658333333333335</v>
-      </c>
-      <c r="T4" s="37">
-        <f t="shared" si="2"/>
-        <v>3.4584999999999999</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="4">
         <v>3.4190999999999998</v>
@@ -1333,7 +1333,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" ref="AD4:AD35" si="22">((AC4/U4)/100)*100/7.04</f>
+        <f t="shared" ref="AD4:AD35" si="21">((AC4/U4)/100)*100/7.04</f>
         <v>61.099916201587703</v>
       </c>
       <c r="AE4" s="7">
@@ -1372,7 +1372,7 @@
         <v>1294.0909682503204</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58.832020155108296</v>
       </c>
       <c r="AP4" s="8">
@@ -1432,28 +1432,28 @@
         <v>-1.3679915767307165</v>
       </c>
       <c r="O5" s="21">
+        <f t="shared" si="3"/>
+        <v>1.5358589218384726</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="4"/>
-        <v>1.5358589218384726</v>
-      </c>
-      <c r="P5" s="6">
+        <v>1.2969374999999999</v>
+      </c>
+      <c r="Q5" s="8">
         <f t="shared" si="5"/>
-        <v>1.2969374999999999</v>
-      </c>
-      <c r="Q5" s="8">
+        <v>7.1951409191065281</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" si="6"/>
-        <v>7.1951409191065281</v>
-      </c>
-      <c r="R5" s="8">
+        <v>16.034793041391723</v>
+      </c>
+      <c r="S5" s="38">
+        <f t="shared" ref="S5:S37" si="22">E5-(AVERAGE(E3:E4))</f>
+        <v>-1.5820833333333333</v>
+      </c>
+      <c r="T5" s="37">
         <f t="shared" si="7"/>
-        <v>16.034793041391723</v>
-      </c>
-      <c r="S5" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.49916666666666654</v>
-      </c>
-      <c r="T5" s="37">
-        <f t="shared" ref="T5:T37" si="23">D5</f>
-        <v>2.7114999999999996</v>
+        <v>-1</v>
       </c>
       <c r="U5" s="4">
         <v>3.4748999999999999</v>
@@ -1487,7 +1487,7 @@
         <v>1665.3633333333335</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68.075999788962761</v>
       </c>
       <c r="AE5" s="7">
@@ -1526,7 +1526,7 @@
         <v>1750.9090592015164</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>74.835036286598012</v>
       </c>
       <c r="AP5" s="8">
@@ -1586,28 +1586,28 @@
         <v>-2.0963883852772711</v>
       </c>
       <c r="O6" s="21">
+        <f t="shared" si="3"/>
+        <v>1.5429518162189255</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="4"/>
-        <v>1.5429518162189255</v>
-      </c>
-      <c r="P6" s="6">
+        <v>1.1240125000000001</v>
+      </c>
+      <c r="Q6" s="8">
         <f t="shared" si="5"/>
-        <v>1.1240125000000001</v>
-      </c>
-      <c r="Q6" s="8">
+        <v>7.2647723835995226</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="6"/>
-        <v>7.2647723835995226</v>
-      </c>
-      <c r="R6" s="8">
+        <v>16.115546121544924</v>
+      </c>
+      <c r="S6" s="38">
+        <f t="shared" si="22"/>
+        <v>0.92958333333333387</v>
+      </c>
+      <c r="T6" s="37">
         <f t="shared" si="7"/>
-        <v>16.115546121544924</v>
-      </c>
-      <c r="S6" s="38">
-        <f>E6-E5</f>
-        <v>1.1791666666666671</v>
-      </c>
-      <c r="T6" s="37">
-        <f t="shared" si="23"/>
-        <v>2.6896666666666702</v>
+        <v>-1</v>
       </c>
       <c r="U6" s="4">
         <v>3.4923999999999999</v>
@@ -1641,7 +1641,7 @@
         <v>1681.4800000000002</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68.390387959309066</v>
       </c>
       <c r="AE6" s="7">
@@ -1680,7 +1680,7 @@
         <v>1543.0847161474201</v>
       </c>
       <c r="AO6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64.469090614788527</v>
       </c>
       <c r="AP6" s="8">
@@ -1740,28 +1740,28 @@
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="21">
+        <f t="shared" si="3"/>
+        <v>1.9866162316116109</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="4"/>
-        <v>1.9866162316116109</v>
-      </c>
-      <c r="P7" s="6">
+        <v>1.210475</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="5"/>
-        <v>1.210475</v>
-      </c>
-      <c r="Q7" s="8">
+        <v>9.7701801633135066</v>
+      </c>
+      <c r="R7" s="8">
         <f t="shared" si="6"/>
-        <v>9.7701801633135066</v>
-      </c>
-      <c r="R7" s="8">
+        <v>16.833094919477645</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" si="22"/>
+        <v>2.2245833333333334</v>
+      </c>
+      <c r="T7" s="37">
         <f t="shared" si="7"/>
-        <v>16.833094919477645</v>
-      </c>
-      <c r="S7" s="38">
-        <f t="shared" si="21"/>
-        <v>1.6349999999999998</v>
-      </c>
-      <c r="T7" s="37">
-        <f t="shared" si="23"/>
-        <v>0.84691666666667054</v>
+        <v>-1</v>
       </c>
       <c r="U7" s="4">
         <v>3.6478999999999999</v>
@@ -1834,7 +1834,7 @@
         <v>1602.7681047933168</v>
       </c>
       <c r="AO7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63.533985490317804</v>
       </c>
       <c r="AP7" s="8">
@@ -1894,28 +1894,28 @@
         <v>1.8438827818744983</v>
       </c>
       <c r="O8" s="21">
+        <f t="shared" si="3"/>
+        <v>2.3682951549766531</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="4"/>
-        <v>2.3682951549766531</v>
-      </c>
-      <c r="P8" s="6">
+        <v>1.2969374999999999</v>
+      </c>
+      <c r="Q8" s="8">
         <f t="shared" si="5"/>
-        <v>1.2969374999999999</v>
-      </c>
-      <c r="Q8" s="8">
+        <v>12.211457868283482</v>
+      </c>
+      <c r="R8" s="8">
         <f t="shared" si="6"/>
-        <v>12.211457868283482</v>
-      </c>
-      <c r="R8" s="8">
+        <v>17.648470305938815</v>
+      </c>
+      <c r="S8" s="38">
+        <f t="shared" si="22"/>
+        <v>0.2791666666666659</v>
+      </c>
+      <c r="T8" s="37">
         <f t="shared" si="7"/>
-        <v>17.648470305938815</v>
-      </c>
-      <c r="S8" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.538333333333334</v>
-      </c>
-      <c r="T8" s="37">
-        <f t="shared" si="23"/>
-        <v>1.3088333333333297</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="4">
         <v>3.8245999999999998</v>
@@ -1949,7 +1949,7 @@
         <v>2826.4233333333336</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>104.97322259091465</v>
       </c>
       <c r="AE8" s="7">
@@ -1988,7 +1988,7 @@
         <v>2035.7579744270815</v>
       </c>
       <c r="AO8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>77.680404893902249</v>
       </c>
       <c r="AP8" s="8">
@@ -2048,28 +2048,28 @@
         <v>3.4914553155885644</v>
       </c>
       <c r="O9" s="21">
+        <f t="shared" si="3"/>
+        <v>2.7584962916670621</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="4"/>
-        <v>2.7584962916670621</v>
-      </c>
-      <c r="P9" s="6">
+        <v>0.99431874999999992</v>
+      </c>
+      <c r="Q9" s="8">
         <f t="shared" si="5"/>
-        <v>0.99431874999999992</v>
-      </c>
-      <c r="Q9" s="8">
+        <v>15.047165056094011</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="6"/>
-        <v>15.047165056094011</v>
-      </c>
-      <c r="R9" s="8">
+        <v>18.670573577592176</v>
+      </c>
+      <c r="S9" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.10749999999999993</v>
+      </c>
+      <c r="T9" s="37">
         <f t="shared" si="7"/>
-        <v>18.670573577592176</v>
-      </c>
-      <c r="S9" s="38">
-        <f t="shared" si="21"/>
-        <v>0.16166666666666707</v>
-      </c>
-      <c r="T9" s="37">
-        <f t="shared" si="23"/>
-        <v>1.1079166666666698</v>
+        <v>-1</v>
       </c>
       <c r="U9" s="4">
         <v>4.0461</v>
@@ -2103,7 +2103,7 @@
         <v>3482.7666666666664</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>122.26864739932878</v>
       </c>
       <c r="AE9" s="7">
@@ -2142,7 +2142,7 @@
         <v>2905.9931640831296</v>
       </c>
       <c r="AO9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>106.28832648759899</v>
       </c>
       <c r="AP9" s="8">
@@ -2202,28 +2202,28 @@
         <v>6.9588591483156481</v>
       </c>
       <c r="O10" s="21">
+        <f t="shared" si="3"/>
+        <v>3.0648963625582448</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="4"/>
-        <v>3.0648963625582448</v>
-      </c>
-      <c r="P10" s="6">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q10" s="8">
         <f t="shared" si="5"/>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q10" s="8">
+        <v>18.149444820484756</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="6"/>
-        <v>18.149444820484756</v>
-      </c>
-      <c r="R10" s="8">
+        <v>20.268561672280928</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" si="22"/>
+        <v>-2.5833333333332931E-2</v>
+      </c>
+      <c r="T10" s="37">
         <f t="shared" si="7"/>
-        <v>20.268561672280928</v>
-      </c>
-      <c r="S10" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.10666666666666647</v>
-      </c>
-      <c r="T10" s="37">
-        <f t="shared" si="23"/>
-        <v>0.34233333333333071</v>
+        <v>-1</v>
       </c>
       <c r="U10" s="4">
         <v>4.3923999999999994</v>
@@ -2257,7 +2257,7 @@
         <v>4200.8100000000004</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>135.84964163306873</v>
       </c>
       <c r="AE10" s="7">
@@ -2296,7 +2296,7 @@
         <v>3637.9289115129236</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>126.97010446122337</v>
       </c>
       <c r="AP10" s="8">
@@ -2356,28 +2356,28 @@
         <v>3.794444950368816</v>
       </c>
       <c r="O11" s="21">
+        <f t="shared" si="3"/>
+        <v>3.2202866016680334</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="4"/>
-        <v>3.2202866016680334</v>
-      </c>
-      <c r="P11" s="6">
+        <v>0.95108750000000009</v>
+      </c>
+      <c r="Q11" s="8">
         <f t="shared" si="5"/>
-        <v>0.95108750000000009</v>
-      </c>
-      <c r="Q11" s="8">
+        <v>20.21273960568573</v>
+      </c>
+      <c r="R11" s="8">
         <f t="shared" si="6"/>
-        <v>20.21273960568573</v>
-      </c>
-      <c r="R11" s="8">
+        <v>21.483549443957362</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.43666666666666654</v>
+      </c>
+      <c r="T11" s="37">
         <f t="shared" si="7"/>
-        <v>21.483549443957362</v>
-      </c>
-      <c r="S11" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.38333333333333375</v>
-      </c>
-      <c r="T11" s="37">
-        <f t="shared" si="23"/>
-        <v>0.87708333333332966</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="4">
         <v>4.6556999999999995</v>
@@ -2450,7 +2450,7 @@
         <v>5482.7001138321903</v>
       </c>
       <c r="AO11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>181.72553898166194</v>
       </c>
       <c r="AP11" s="8">
@@ -2510,28 +2510,28 @@
         <v>3.2284339626694476</v>
       </c>
       <c r="O12" s="21">
+        <f t="shared" si="3"/>
+        <v>3.136916886268418</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="4"/>
-        <v>3.136916886268418</v>
-      </c>
-      <c r="P12" s="6">
+        <v>1.4698624999999998</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="5"/>
-        <v>1.4698624999999998</v>
-      </c>
-      <c r="Q12" s="8">
+        <v>20.9945562164264</v>
+      </c>
+      <c r="R12" s="8">
         <f t="shared" si="6"/>
-        <v>20.9945562164264</v>
-      </c>
-      <c r="R12" s="8">
+        <v>22.907572331687515</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" si="22"/>
+        <v>1.0741666666666658</v>
+      </c>
+      <c r="T12" s="37">
         <f t="shared" si="7"/>
-        <v>22.907572331687515</v>
-      </c>
-      <c r="S12" s="38">
-        <f>E12-E11</f>
-        <v>1.2658333333333331</v>
-      </c>
-      <c r="T12" s="37">
-        <f t="shared" si="23"/>
-        <v>-2.508333333332935E-2</v>
+        <v>3.5</v>
       </c>
       <c r="U12" s="4">
         <v>4.9643000000000006</v>
@@ -2565,7 +2565,7 @@
         <v>4859.33</v>
       </c>
       <c r="AD12" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>139.04190694284461</v>
       </c>
       <c r="AE12" s="7">
@@ -2604,7 +2604,7 @@
         <v>5248.3588166646805</v>
       </c>
       <c r="AO12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>166.82390845070381</v>
       </c>
       <c r="AP12" s="8">
@@ -2664,28 +2664,28 @@
         <v>6.8227061217090013</v>
       </c>
       <c r="O13" s="21">
+        <f t="shared" si="3"/>
+        <v>2.5752799485376223</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="4"/>
-        <v>2.5752799485376223</v>
-      </c>
-      <c r="P13" s="6">
+        <v>1.210475</v>
+      </c>
+      <c r="Q13" s="8">
         <f t="shared" si="5"/>
-        <v>1.210475</v>
-      </c>
-      <c r="Q13" s="8">
+        <v>18.894206258910952</v>
+      </c>
+      <c r="R13" s="8">
         <f t="shared" si="6"/>
-        <v>18.894206258910952</v>
-      </c>
-      <c r="R13" s="8">
+        <v>25.111900696783724</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" si="22"/>
+        <v>-1.7154166666666661</v>
+      </c>
+      <c r="T13" s="37">
         <f t="shared" si="7"/>
-        <v>25.111900696783724</v>
-      </c>
-      <c r="S13" s="38">
-        <f t="shared" si="21"/>
-        <v>-2.3483333333333327</v>
-      </c>
-      <c r="T13" s="37">
-        <f t="shared" si="23"/>
-        <v>1.6150000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="U13" s="4">
         <v>5.4420000000000002</v>
@@ -2719,7 +2719,7 @@
         <v>4373.1899999999996</v>
       </c>
       <c r="AD13" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>114.14769595068654</v>
       </c>
       <c r="AE13" s="7">
@@ -2758,7 +2758,7 @@
         <v>4195.4103576955577</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120.2218250422484</v>
       </c>
       <c r="AP13" s="8">
@@ -2818,28 +2818,28 @@
         <v>4.8369717015803051</v>
       </c>
       <c r="O14" s="21">
+        <f t="shared" si="3"/>
+        <v>1.9466886392734399</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="4"/>
-        <v>1.9466886392734399</v>
-      </c>
-      <c r="P14" s="6">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q14" s="8">
         <f t="shared" si="5"/>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q14" s="8">
+        <v>15.201736826187766</v>
+      </c>
+      <c r="R14" s="8">
         <f t="shared" si="6"/>
-        <v>15.201736826187766</v>
-      </c>
-      <c r="R14" s="8">
+        <v>26.728346638364641</v>
+      </c>
+      <c r="S14" s="38">
+        <f t="shared" si="22"/>
+        <v>-3.3949999999999996</v>
+      </c>
+      <c r="T14" s="37">
         <f t="shared" si="7"/>
-        <v>26.728346638364641</v>
-      </c>
-      <c r="S14" s="38">
-        <f t="shared" si="21"/>
-        <v>-2.2208333333333332</v>
-      </c>
-      <c r="T14" s="37">
-        <f t="shared" si="23"/>
-        <v>2.9116666666666595</v>
+        <v>-1</v>
       </c>
       <c r="U14" s="4">
         <v>5.7923</v>
@@ -2873,7 +2873,7 @@
         <v>3518.5433333333331</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>86.285773720493083</v>
       </c>
       <c r="AE14" s="7">
@@ -2912,7 +2912,7 @@
         <v>2656.3442743230735</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>71.386504200603312</v>
       </c>
       <c r="AP14" s="8">
@@ -2972,28 +2972,28 @@
         <v>2.3682664917217666</v>
       </c>
       <c r="O15" s="21">
+        <f t="shared" si="3"/>
+        <v>2.390620164297137</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" si="4"/>
-        <v>2.390620164297137</v>
-      </c>
-      <c r="P15" s="6">
+        <v>0.99431874999999992</v>
+      </c>
+      <c r="Q15" s="8">
         <f t="shared" si="5"/>
-        <v>0.99431874999999992</v>
-      </c>
-      <c r="Q15" s="8">
+        <v>19.539899477223958</v>
+      </c>
+      <c r="R15" s="8">
         <f t="shared" si="6"/>
-        <v>19.539899477223958</v>
-      </c>
-      <c r="R15" s="8">
+        <v>27.976097088274656</v>
+      </c>
+      <c r="S15" s="38">
+        <f t="shared" si="22"/>
+        <v>-1.6495833333333336</v>
+      </c>
+      <c r="T15" s="37">
         <f t="shared" si="7"/>
-        <v>27.976097088274656</v>
-      </c>
-      <c r="S15" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.53916666666666679</v>
-      </c>
-      <c r="T15" s="37">
-        <f t="shared" si="23"/>
-        <v>2.9130833333333301</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="4">
         <v>6.0626999999999995</v>
@@ -3027,7 +3027,7 @@
         <v>4522.6400000000003</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>105.96276486473926</v>
       </c>
       <c r="AE15" s="7">
@@ -3066,7 +3066,7 @@
         <v>3418.4215634139855</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>86.32123243964989</v>
       </c>
       <c r="AP15" s="8">
@@ -3126,28 +3126,28 @@
         <v>3.048263974796714</v>
       </c>
       <c r="O16" s="21">
+        <f t="shared" si="3"/>
+        <v>2.3608237442409838</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="4"/>
-        <v>2.3608237442409838</v>
-      </c>
-      <c r="P16" s="6">
+        <v>1.1672437500000001</v>
+      </c>
+      <c r="Q16" s="8">
         <f t="shared" si="5"/>
-        <v>1.1672437500000001</v>
-      </c>
-      <c r="Q16" s="8">
+        <v>20.405561876233129</v>
+      </c>
+      <c r="R16" s="8">
         <f t="shared" si="6"/>
-        <v>20.405561876233129</v>
-      </c>
-      <c r="R16" s="8">
+        <v>29.584236998754101</v>
+      </c>
+      <c r="S16" s="38">
+        <f t="shared" si="22"/>
+        <v>-4.7916666666666607E-2</v>
+      </c>
+      <c r="T16" s="37">
         <f t="shared" si="7"/>
-        <v>29.584236998754101</v>
-      </c>
-      <c r="S16" s="38">
-        <f t="shared" si="21"/>
-        <v>0.22166666666666668</v>
-      </c>
-      <c r="T16" s="37">
-        <f t="shared" si="23"/>
-        <v>2.6122499999999995</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="4">
         <v>6.4112</v>
@@ -3220,7 +3220,7 @@
         <v>3676</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>87.35263240686082</v>
       </c>
       <c r="AP16" s="8">
@@ -3266,7 +3266,7 @@
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:K33" ca="1" si="24">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K33" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="4">
@@ -3280,28 +3280,28 @@
         <v>1.2683928125779773</v>
       </c>
       <c r="O17" s="21">
+        <f t="shared" si="3"/>
+        <v>2.2557640781896975</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="4"/>
-        <v>2.2557640781896975</v>
-      </c>
-      <c r="P17" s="6">
+        <v>1.4698624999999998</v>
+      </c>
+      <c r="Q17" s="8">
         <f t="shared" si="5"/>
-        <v>1.4698624999999998</v>
-      </c>
-      <c r="Q17" s="8">
+        <v>20.407707706266109</v>
+      </c>
+      <c r="R17" s="8">
         <f t="shared" si="6"/>
-        <v>20.407707706266109</v>
-      </c>
-      <c r="R17" s="8">
+        <v>30.965345392459973</v>
+      </c>
+      <c r="S17" s="38">
+        <f t="shared" si="22"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="T17" s="37">
         <f t="shared" si="7"/>
-        <v>30.965345392459973</v>
-      </c>
-      <c r="S17" s="38">
-        <f>E17-E16</f>
-        <v>1.8641666666666667</v>
-      </c>
-      <c r="T17" s="37">
-        <f t="shared" si="23"/>
-        <v>0.73349999999999982</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="4">
         <v>6.7104999999999997</v>
@@ -3420,7 +3420,7 @@
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>106.36863617964786</v>
       </c>
       <c r="L18" s="4">
@@ -3434,28 +3434,28 @@
         <v>2.5372774010878656</v>
       </c>
       <c r="O18" s="21">
+        <f t="shared" si="3"/>
+        <v>2.4533832274948577</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="4"/>
-        <v>2.4533832274948577</v>
-      </c>
-      <c r="P18" s="6">
+        <v>1.3834</v>
+      </c>
+      <c r="Q18" s="8">
         <f t="shared" si="5"/>
-        <v>1.3834</v>
-      </c>
-      <c r="Q18" s="8">
+        <v>23.46897187378487</v>
+      </c>
+      <c r="R18" s="8">
         <f t="shared" si="6"/>
-        <v>23.46897187378487</v>
-      </c>
-      <c r="R18" s="8">
+        <v>32.741913155830382</v>
+      </c>
+      <c r="S18" s="38">
+        <f t="shared" si="22"/>
+        <v>2.6829166666666664</v>
+      </c>
+      <c r="T18" s="37">
         <f t="shared" si="7"/>
-        <v>32.741913155830382</v>
-      </c>
-      <c r="S18" s="38">
-        <f>E18-E17</f>
-        <v>1.750833333333333</v>
-      </c>
-      <c r="T18" s="37">
-        <f t="shared" si="23"/>
-        <v>-0.19591666666667074</v>
+        <v>2</v>
       </c>
       <c r="U18" s="4">
         <v>7.0955000000000004</v>
@@ -3528,7 +3528,7 @@
         <v>5418.666666666667</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" ref="AO18:AO35" si="25">((AN18/AF18)/100)*100/6.407</f>
+        <f t="shared" ref="AO18:AO35" si="24">((AN18/AF18)/100)*100/6.407</f>
         <v>108.40513566015885</v>
       </c>
       <c r="AP18" s="8">
@@ -3574,7 +3574,7 @@
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>109.35412041521862</v>
       </c>
       <c r="L19" s="4">
@@ -3588,28 +3588,28 @@
         <v>2.785230075399892</v>
       </c>
       <c r="O19" s="21">
+        <f t="shared" si="3"/>
+        <v>2.4788337821113307</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="4"/>
-        <v>2.4788337821113307</v>
-      </c>
-      <c r="P19" s="6">
+        <v>1.210475</v>
+      </c>
+      <c r="Q19" s="8">
         <f t="shared" si="5"/>
-        <v>1.210475</v>
-      </c>
-      <c r="Q19" s="8">
+        <v>25.036824747612943</v>
+      </c>
+      <c r="R19" s="8">
         <f t="shared" si="6"/>
-        <v>25.036824747612943</v>
-      </c>
-      <c r="R19" s="8">
+        <v>34.570624336671131</v>
+      </c>
+      <c r="S19" s="38">
+        <f t="shared" si="22"/>
+        <v>0.93041666666666956</v>
+      </c>
+      <c r="T19" s="37">
         <f t="shared" si="7"/>
-        <v>34.570624336671131</v>
-      </c>
-      <c r="S19" s="38">
-        <f t="shared" si="21"/>
-        <v>5.5000000000003268E-2</v>
-      </c>
-      <c r="T19" s="37">
-        <f t="shared" si="23"/>
-        <v>9.0749999999999886E-2</v>
+        <v>-1</v>
       </c>
       <c r="U19" s="4">
         <v>7.4917999999999996</v>
@@ -3643,7 +3643,7 @@
         <v>5794.94</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>109.87277908695326</v>
       </c>
       <c r="AE19" s="7">
@@ -3682,7 +3682,7 @@
         <v>6026.666666666667</v>
       </c>
       <c r="AO19" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>108.22578908104452</v>
       </c>
       <c r="AP19" s="8">
@@ -3728,7 +3728,7 @@
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>109.07665234894111</v>
       </c>
       <c r="L20" s="4">
@@ -3742,28 +3742,28 @@
         <v>6.4859125977735745</v>
       </c>
       <c r="O20" s="21">
+        <f t="shared" si="3"/>
+        <v>1.45531262927872</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="4"/>
-        <v>1.45531262927872</v>
-      </c>
-      <c r="P20" s="6">
+        <v>1.6427874999999998</v>
+      </c>
+      <c r="Q20" s="8">
         <f t="shared" si="5"/>
-        <v>1.6427874999999998</v>
-      </c>
-      <c r="Q20" s="8">
+        <v>16.210939412705038</v>
+      </c>
+      <c r="R20" s="8">
         <f t="shared" si="6"/>
-        <v>16.210939412705038</v>
-      </c>
-      <c r="R20" s="8">
+        <v>38.126528540445761</v>
+      </c>
+      <c r="S20" s="38">
+        <f t="shared" si="22"/>
+        <v>-3.0641666666666678</v>
+      </c>
+      <c r="T20" s="37">
         <f t="shared" si="7"/>
-        <v>38.126528540445761</v>
-      </c>
-      <c r="S20" s="38">
-        <f t="shared" si="21"/>
-        <v>-3.0916666666666694</v>
-      </c>
-      <c r="T20" s="37">
-        <f t="shared" si="23"/>
-        <v>2.0706666666666704</v>
+        <v>-2.5</v>
       </c>
       <c r="U20" s="4">
         <v>8.2623999999999995</v>
@@ -3797,7 +3797,7 @@
         <v>3752.1299999999997</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>64.505835031423828</v>
       </c>
       <c r="AE20" s="7">
@@ -3836,7 +3836,7 @@
         <v>3491.3333333333335</v>
       </c>
       <c r="AO20" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>57.824442188747952</v>
       </c>
       <c r="AP20" s="8">
@@ -3882,7 +3882,7 @@
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="4">
@@ -3896,28 +3896,28 @@
         <v>2.6184837335398981</v>
       </c>
       <c r="O21" s="21">
+        <f t="shared" si="3"/>
+        <v>1.7469717165768262</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="4"/>
-        <v>1.7469717165768262</v>
-      </c>
-      <c r="P21" s="6">
+        <v>-0.172925</v>
+      </c>
+      <c r="Q21" s="8">
         <f t="shared" si="5"/>
-        <v>-0.172925</v>
-      </c>
-      <c r="Q21" s="8">
+        <v>19.891484367124153</v>
+      </c>
+      <c r="R21" s="8">
         <f t="shared" si="6"/>
-        <v>19.891484367124153</v>
-      </c>
-      <c r="R21" s="8">
+        <v>38.972359374279002</v>
+      </c>
+      <c r="S21" s="38">
+        <f t="shared" si="22"/>
+        <v>-3.3133333333333348</v>
+      </c>
+      <c r="T21" s="37">
         <f t="shared" si="7"/>
-        <v>38.972359374279002</v>
-      </c>
-      <c r="S21" s="38">
-        <f t="shared" si="21"/>
-        <v>-1.7675000000000001</v>
-      </c>
-      <c r="T21" s="37">
-        <f t="shared" si="23"/>
-        <v>2.9947499999999971</v>
+        <v>-2.5</v>
       </c>
       <c r="U21" s="4">
         <v>8.4457000000000004</v>
@@ -3990,7 +3990,7 @@
         <v>4285.666666666667</v>
       </c>
       <c r="AO21" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>71.294612105476091</v>
       </c>
       <c r="AP21" s="8">
@@ -4036,7 +4036,7 @@
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>106.75418638617396</v>
       </c>
       <c r="L22" s="4">
@@ -4050,28 +4050,28 @@
         <v>2.9016990894774692</v>
       </c>
       <c r="O22" s="21">
+        <f t="shared" si="3"/>
+        <v>1.8743812774948729</v>
+      </c>
+      <c r="P22" s="6">
         <f t="shared" si="4"/>
-        <v>1.8743812774948729</v>
-      </c>
-      <c r="P22" s="6">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q22" s="8">
         <f t="shared" si="5"/>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q22" s="8">
+        <v>22.302965277877789</v>
+      </c>
+      <c r="R22" s="8">
         <f t="shared" si="6"/>
-        <v>22.302965277877789</v>
-      </c>
-      <c r="R22" s="8">
+        <v>40.726777721378802</v>
+      </c>
+      <c r="S22" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.86874999999999991</v>
+      </c>
+      <c r="T22" s="37">
         <f t="shared" si="7"/>
-        <v>40.726777721378802</v>
-      </c>
-      <c r="S22" s="38">
-        <f t="shared" si="21"/>
-        <v>1.4999999999999986E-2</v>
-      </c>
-      <c r="T22" s="37">
-        <f t="shared" si="23"/>
-        <v>2.9260833333333327</v>
+        <v>-2.5</v>
       </c>
       <c r="U22" s="4">
         <v>8.825899999999999</v>
@@ -4105,7 +4105,7 @@
         <v>5162.17</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>83.080794490183351</v>
       </c>
       <c r="AE22" s="7">
@@ -4144,7 +4144,7 @@
         <v>4503.333333333333</v>
       </c>
       <c r="AO22" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>75.409747341450469</v>
       </c>
       <c r="AP22" s="8">
@@ -4190,7 +4190,7 @@
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>103.60960695932185</v>
       </c>
       <c r="L23" s="4">
@@ -4204,28 +4204,28 @@
         <v>7.0471136088104371</v>
       </c>
       <c r="O23" s="21">
+        <f t="shared" si="3"/>
+        <v>1.7652707002125889</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="4"/>
-        <v>1.7652707002125889</v>
-      </c>
-      <c r="P23" s="6">
+        <v>1.3834</v>
+      </c>
+      <c r="Q23" s="8">
         <f t="shared" si="5"/>
-        <v>1.3834</v>
-      </c>
-      <c r="Q23" s="8">
+        <v>23.15704883563518</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="6"/>
-        <v>23.15704883563518</v>
-      </c>
-      <c r="R23" s="8">
+        <v>44.900096903696188</v>
+      </c>
+      <c r="S23" s="38">
+        <f t="shared" si="22"/>
+        <v>-6.5833333333333313E-2</v>
+      </c>
+      <c r="T23" s="37">
         <f t="shared" si="7"/>
-        <v>44.900096903696188</v>
-      </c>
-      <c r="S23" s="38">
-        <f t="shared" si="21"/>
-        <v>-7.333333333333332E-2</v>
-      </c>
-      <c r="T23" s="37">
-        <f t="shared" si="23"/>
-        <v>2.625833333333333</v>
+        <v>-2.5</v>
       </c>
       <c r="U23" s="4">
         <v>9.7302999999999997</v>
@@ -4259,7 +4259,7 @@
         <v>5359.8533333333335</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>78.244535423399384</v>
       </c>
       <c r="AE23" s="7">
@@ -4298,7 +4298,7 @@
         <v>3791</v>
       </c>
       <c r="AO23" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>62.054920323264966</v>
       </c>
       <c r="AP23" s="8">
@@ -4344,7 +4344,7 @@
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>99.57416022327952</v>
       </c>
       <c r="L24" s="4">
@@ -4362,24 +4362,24 @@
         <v>1.7902874476226769</v>
       </c>
       <c r="P24" s="6">
+        <f t="shared" si="4"/>
+        <v>0.90785625000000003</v>
+      </c>
+      <c r="Q24" s="8">
         <f t="shared" si="5"/>
-        <v>0.90785625000000003</v>
-      </c>
-      <c r="Q24" s="8">
+        <v>25.2734709160822</v>
+      </c>
+      <c r="R24" s="8">
         <f t="shared" si="6"/>
-        <v>25.2734709160822</v>
-      </c>
-      <c r="R24" s="8">
+        <v>48.318951594296543</v>
+      </c>
+      <c r="S24" s="38">
+        <f t="shared" si="22"/>
+        <v>1.6666666666666774E-3</v>
+      </c>
+      <c r="T24" s="37">
         <f t="shared" si="7"/>
-        <v>48.318951594296543</v>
-      </c>
-      <c r="S24" s="38">
-        <f t="shared" si="21"/>
-        <v>3.8333333333333344E-2</v>
-      </c>
-      <c r="T24" s="37">
-        <f t="shared" si="23"/>
-        <v>1.603083333333337</v>
+        <v>-2.5</v>
       </c>
       <c r="U24" s="4">
         <v>10.471200000000001</v>
@@ -4413,7 +4413,7 @@
         <v>5849.7133333333331</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>79.353387328476117</v>
       </c>
       <c r="AE24" s="7">
@@ -4452,7 +4452,7 @@
         <v>4629.333333333333</v>
       </c>
       <c r="AO24" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>73.668985448397677</v>
       </c>
       <c r="AP24" s="8">
@@ -4498,7 +4498,7 @@
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>96.286197309360503</v>
       </c>
       <c r="L25" s="4">
@@ -4512,28 +4512,28 @@
         <v>4.1765222706088849</v>
       </c>
       <c r="O25" s="21">
+        <f t="shared" si="3"/>
+        <v>2.1817728716692559</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="4"/>
-        <v>2.1817728716692559</v>
-      </c>
-      <c r="P25" s="6">
+        <v>0.64846874999999993</v>
+      </c>
+      <c r="Q25" s="8">
         <f t="shared" si="5"/>
-        <v>0.64846874999999993</v>
-      </c>
-      <c r="Q25" s="8">
+        <v>32.548439592724343</v>
+      </c>
+      <c r="R25" s="8">
         <f t="shared" si="6"/>
-        <v>32.548439592724343</v>
-      </c>
-      <c r="R25" s="8">
+        <v>51.061787642471515</v>
+      </c>
+      <c r="S25" s="38">
+        <f t="shared" si="22"/>
+        <v>-1.333333333333335E-2</v>
+      </c>
+      <c r="T25" s="37">
         <f t="shared" si="7"/>
-        <v>51.061787642471515</v>
-      </c>
-      <c r="S25" s="38">
-        <f t="shared" si="21"/>
-        <v>-3.2500000000000015E-2</v>
-      </c>
-      <c r="T25" s="37">
-        <f t="shared" si="23"/>
-        <v>2.2755000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="U25" s="4">
         <v>11.0656</v>
@@ -4567,7 +4567,7 @@
         <v>7533.5533333333333</v>
       </c>
       <c r="AD25" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>96.70573738213541</v>
       </c>
       <c r="AE25" s="7">
@@ -4606,7 +4606,7 @@
         <v>5652</v>
       </c>
       <c r="AO25" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>89.564196718928386</v>
       </c>
       <c r="AP25" s="8">
@@ -4652,7 +4652,7 @@
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>93.451041804773851</v>
       </c>
       <c r="L26" s="4">
@@ -4666,28 +4666,28 @@
         <v>4.4231709080393333</v>
       </c>
       <c r="O26" s="21">
+        <f t="shared" si="3"/>
+        <v>2.2414238423139157</v>
+      </c>
+      <c r="P26" s="6">
         <f t="shared" si="4"/>
-        <v>2.2414238423139157</v>
-      </c>
-      <c r="P26" s="6">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q26" s="8">
         <f t="shared" si="5"/>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q26" s="8">
+        <v>35.452381295274854</v>
+      </c>
+      <c r="R26" s="8">
         <f t="shared" si="6"/>
-        <v>35.452381295274854</v>
-      </c>
-      <c r="R26" s="8">
+        <v>54.137326380877681</v>
+      </c>
+      <c r="S26" s="38">
+        <f t="shared" si="22"/>
+        <v>-3.4583333333333327E-2</v>
+      </c>
+      <c r="T26" s="37">
         <f t="shared" si="7"/>
-        <v>54.137326380877681</v>
-      </c>
-      <c r="S26" s="38">
-        <f t="shared" si="21"/>
-        <v>-1.8333333333333326E-2</v>
-      </c>
-      <c r="T26" s="37">
-        <f t="shared" si="23"/>
-        <v>2.4159999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="U26" s="4">
         <v>11.732100000000001</v>
@@ -4721,7 +4721,7 @@
         <v>8205.69</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>99.349729878631351</v>
       </c>
       <c r="AE26" s="7">
@@ -4760,7 +4760,7 @@
         <v>5741</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>86.758268288348972</v>
       </c>
       <c r="AP26" s="8">
@@ -4806,7 +4806,7 @@
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>91.941991916965421</v>
       </c>
       <c r="L27" s="4">
@@ -4820,28 +4820,28 @@
         <v>6.0872980966749228</v>
       </c>
       <c r="O27" s="21">
+        <f t="shared" si="3"/>
+        <v>2.0986416564486783</v>
+      </c>
+      <c r="P27" s="6">
         <f t="shared" si="4"/>
-        <v>2.0986416564486783</v>
-      </c>
-      <c r="P27" s="6">
+        <v>4.3231249999999999E-2</v>
+      </c>
+      <c r="Q27" s="8">
         <f t="shared" si="5"/>
-        <v>4.3231249999999999E-2</v>
-      </c>
-      <c r="Q27" s="8">
+        <v>35.247821766493367</v>
+      </c>
+      <c r="R27" s="8">
         <f t="shared" si="6"/>
-        <v>35.247821766493367</v>
-      </c>
-      <c r="R27" s="8">
+        <v>57.48696414563242</v>
+      </c>
+      <c r="S27" s="38">
+        <f t="shared" si="22"/>
+        <v>3.4166666666666679E-2</v>
+      </c>
+      <c r="T27" s="37">
         <f t="shared" si="7"/>
-        <v>57.48696414563242</v>
-      </c>
-      <c r="S27" s="38">
-        <f t="shared" si="21"/>
-        <v>4.3333333333333335E-2</v>
-      </c>
-      <c r="T27" s="37">
-        <f t="shared" si="23"/>
-        <v>1.9219999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="U27" s="4">
         <v>12.458</v>
@@ -4875,7 +4875,7 @@
         <v>8158.3433333333332</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>93.02099752136877</v>
       </c>
       <c r="AE27" s="7">
@@ -4914,7 +4914,7 @@
         <v>6215.666666666667</v>
       </c>
       <c r="AO27" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>89.515175711904277</v>
       </c>
       <c r="AP27" s="8">
@@ -4974,28 +4974,28 @@
         <v>5.2612457858404129</v>
       </c>
       <c r="O28" s="21">
+        <f t="shared" si="3"/>
+        <v>2.2034657757421123</v>
+      </c>
+      <c r="P28" s="6">
         <f t="shared" si="4"/>
-        <v>2.2034657757421123</v>
-      </c>
-      <c r="P28" s="6">
+        <v>0.56200625000000004</v>
+      </c>
+      <c r="Q28" s="8">
         <f t="shared" si="5"/>
-        <v>0.56200625000000004</v>
-      </c>
-      <c r="Q28" s="8">
+        <v>39.436611604764025</v>
+      </c>
+      <c r="R28" s="8">
         <f t="shared" si="6"/>
-        <v>39.436611604764025</v>
-      </c>
-      <c r="R28" s="8">
+        <v>61.258825158045326</v>
+      </c>
+      <c r="S28" s="38">
+        <f t="shared" si="22"/>
+        <v>0.28416666666666668</v>
+      </c>
+      <c r="T28" s="37">
         <f t="shared" si="7"/>
-        <v>61.258825158045326</v>
-      </c>
-      <c r="S28" s="38">
-        <f t="shared" si="21"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="T28" s="37">
-        <f t="shared" si="23"/>
-        <v>1.363833333333333</v>
+        <v>-2.5</v>
       </c>
       <c r="U28" s="4">
         <v>13.275399999999999</v>
@@ -5029,7 +5029,7 @@
         <v>9127.8666666666668</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>97.667261980578346</v>
       </c>
       <c r="AE28" s="7">
@@ -5068,7 +5068,7 @@
         <v>6544.333333333333</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>89.657734811026771</v>
       </c>
       <c r="AP28" s="8">
@@ -5128,28 +5128,28 @@
         <v>2.2915814212754468</v>
       </c>
       <c r="O29" s="21">
+        <f t="shared" si="3"/>
+        <v>2.6435278098760189</v>
+      </c>
+      <c r="P29" s="6">
         <f t="shared" si="4"/>
-        <v>2.6435278098760189</v>
-      </c>
-      <c r="P29" s="6">
+        <v>0.90785625000000003</v>
+      </c>
+      <c r="Q29" s="8">
         <f t="shared" si="5"/>
-        <v>0.90785625000000003</v>
-      </c>
-      <c r="Q29" s="8">
+        <v>49.390411452107664</v>
+      </c>
+      <c r="R29" s="8">
         <f t="shared" si="6"/>
-        <v>49.390411452107664</v>
-      </c>
-      <c r="R29" s="8">
+        <v>63.949056342577649</v>
+      </c>
+      <c r="S29" s="38">
+        <f t="shared" si="22"/>
+        <v>0.73791666666666667</v>
+      </c>
+      <c r="T29" s="37">
         <f t="shared" si="7"/>
-        <v>63.949056342577649</v>
-      </c>
-      <c r="S29" s="38">
-        <f t="shared" si="21"/>
-        <v>0.60666666666666669</v>
-      </c>
-      <c r="T29" s="37">
-        <f t="shared" si="23"/>
-        <v>1.2396666666666598</v>
+        <v>-1</v>
       </c>
       <c r="U29" s="4">
         <v>13.8584</v>
@@ -5183,7 +5183,7 @@
         <v>11431.74</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>117.17274032683821</v>
       </c>
       <c r="AE29" s="7">
@@ -5222,7 +5222,7 @@
         <v>7244</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>95.239409506135544</v>
       </c>
       <c r="AP29" s="8">
@@ -5282,28 +5282,28 @@
         <v>1.7577671304046647</v>
       </c>
       <c r="O30" s="21">
+        <f t="shared" si="3"/>
+        <v>2.4028149169969257</v>
+      </c>
+      <c r="P30" s="6">
         <f t="shared" si="4"/>
-        <v>2.4028149169969257</v>
-      </c>
-      <c r="P30" s="6">
+        <v>1.03755</v>
+      </c>
+      <c r="Q30" s="8">
         <f t="shared" si="5"/>
-        <v>1.03755</v>
-      </c>
-      <c r="Q30" s="8">
+        <v>46.759595028587064</v>
+      </c>
+      <c r="R30" s="8">
         <f t="shared" si="6"/>
-        <v>46.759595028587064</v>
-      </c>
-      <c r="R30" s="8">
+        <v>66.607909187393304</v>
+      </c>
+      <c r="S30" s="38">
+        <f t="shared" si="22"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="T30" s="37">
         <f t="shared" si="7"/>
-        <v>66.607909187393304</v>
-      </c>
-      <c r="S30" s="38">
-        <f t="shared" si="21"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="T30" s="37">
-        <f t="shared" si="23"/>
-        <v>0.72425000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="U30" s="4">
         <v>14.4346</v>
@@ -5337,7 +5337,7 @@
         <v>10822.82</v>
       </c>
       <c r="AD30" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>106.50328975958021</v>
       </c>
       <c r="AE30" s="7">
@@ -5376,7 +5376,7 @@
         <v>6096.333333333333</v>
       </c>
       <c r="AO30" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>76.960586360258233</v>
       </c>
       <c r="AP30" s="8">
@@ -5422,7 +5422,7 @@
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>95.492697868497842</v>
       </c>
       <c r="L31" s="4">
@@ -5436,28 +5436,28 @@
         <v>4.9026450334612663</v>
       </c>
       <c r="O31" s="21">
+        <f t="shared" si="3"/>
+        <v>2.8255900923544544</v>
+      </c>
+      <c r="P31" s="6">
         <f t="shared" si="4"/>
-        <v>2.8255900923544544</v>
-      </c>
-      <c r="P31" s="6">
+        <v>0.77816249999999998</v>
+      </c>
+      <c r="Q31" s="8">
         <f t="shared" si="5"/>
-        <v>0.77816249999999998</v>
-      </c>
-      <c r="Q31" s="8">
+        <v>58.672523294497168</v>
+      </c>
+      <c r="R31" s="8">
         <f t="shared" si="6"/>
-        <v>58.672523294497168</v>
-      </c>
-      <c r="R31" s="8">
+        <v>71.072400904434517</v>
+      </c>
+      <c r="S31" s="38">
+        <f t="shared" si="22"/>
+        <v>0.74166666666666647</v>
+      </c>
+      <c r="T31" s="37">
         <f t="shared" si="7"/>
-        <v>71.072400904434517</v>
-      </c>
-      <c r="S31" s="38">
-        <f t="shared" si="21"/>
-        <v>0.32666666666666644</v>
-      </c>
-      <c r="T31" s="37">
-        <f t="shared" si="23"/>
-        <v>7.2499999999999787E-3</v>
+        <v>-1</v>
       </c>
       <c r="U31" s="4">
         <v>15.402100000000001</v>
@@ -5491,7 +5491,7 @@
         <v>13580.146666666667</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>125.24253874865155</v>
       </c>
       <c r="AE31" s="7">
@@ -5530,7 +5530,7 @@
         <v>7657.333333333333</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>91.966615244527006</v>
       </c>
       <c r="AP31" s="8">
@@ -5590,28 +5590,28 @@
         <v>23.410414359080889</v>
       </c>
       <c r="O32" s="21">
+        <f t="shared" si="3"/>
+        <v>2.6305096398722383</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="4"/>
-        <v>2.6305096398722383</v>
-      </c>
-      <c r="P32" s="6">
+        <v>0.50580562499999993</v>
+      </c>
+      <c r="Q32" s="8">
         <f t="shared" si="5"/>
-        <v>0.50580562499999993</v>
-      </c>
-      <c r="Q32" s="8">
+        <v>68.047985944093199</v>
+      </c>
+      <c r="R32" s="8">
         <f t="shared" si="6"/>
-        <v>68.047985944093199</v>
-      </c>
-      <c r="R32" s="8">
+        <v>88.542291541691668</v>
+      </c>
+      <c r="S32" s="38">
+        <f t="shared" si="22"/>
+        <v>-1.6191666666666666</v>
+      </c>
+      <c r="T32" s="37">
         <f t="shared" si="7"/>
-        <v>88.542291541691668</v>
-      </c>
-      <c r="S32" s="38">
-        <f t="shared" si="21"/>
-        <v>-1.7824999999999998</v>
-      </c>
-      <c r="T32" s="37">
-        <f t="shared" si="23"/>
-        <v>0.49908333333333299</v>
+        <v>-1</v>
       </c>
       <c r="U32" s="4">
         <v>19.187999999999999</v>
@@ -5645,7 +5645,7 @@
         <v>15750.159999999998</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>116.59571796766917</v>
       </c>
       <c r="AE32" s="7">
@@ -5684,7 +5684,7 @@
         <v>7607</v>
       </c>
       <c r="AO32" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>81.927404827859931</v>
       </c>
       <c r="AP32" s="8">
@@ -5730,7 +5730,7 @@
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="23"/>
         <v>97.093411293656871</v>
       </c>
       <c r="L33" s="14">
@@ -5744,28 +5744,28 @@
         <v>7.8390869293308496</v>
       </c>
       <c r="O33" s="21">
+        <f t="shared" si="3"/>
+        <v>2.8072978868239367</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="4"/>
-        <v>2.8072978868239367</v>
-      </c>
-      <c r="P33" s="6">
+        <v>2.0318687500000001</v>
+      </c>
+      <c r="Q33" s="8">
         <f t="shared" si="5"/>
-        <v>2.0318687500000001</v>
-      </c>
-      <c r="Q33" s="8">
+        <v>81.727321168829292</v>
+      </c>
+      <c r="R33" s="8">
         <f t="shared" si="6"/>
-        <v>81.727321168829292</v>
-      </c>
-      <c r="R33" s="8">
+        <v>99.644686447325952</v>
+      </c>
+      <c r="S33" s="38">
+        <f t="shared" si="22"/>
+        <v>-1.1870833333333333</v>
+      </c>
+      <c r="T33" s="37">
         <f t="shared" si="7"/>
-        <v>99.644686447325952</v>
-      </c>
-      <c r="S33" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.29583333333333334</v>
-      </c>
-      <c r="T33" s="37">
-        <f t="shared" si="23"/>
-        <v>1.3740000000000001</v>
+        <v>-1</v>
       </c>
       <c r="U33" s="14">
         <v>21.594000000000001</v>
@@ -5799,7 +5799,7 @@
         <v>18916.333333333332</v>
       </c>
       <c r="AD33" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>124.43174801642429</v>
       </c>
       <c r="AE33" s="7">
@@ -5838,7 +5838,7 @@
         <v>9138</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>92.637862840246456</v>
       </c>
       <c r="AP33" s="8">
@@ -5898,28 +5898,28 @@
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="21">
+        <f t="shared" si="3"/>
+        <v>2.3869602557740768</v>
+      </c>
+      <c r="P34" s="6">
         <f t="shared" si="4"/>
-        <v>2.3869602557740768</v>
-      </c>
-      <c r="P34" s="6">
+        <v>3.4584999999999999</v>
+      </c>
+      <c r="Q34" s="8">
         <f t="shared" si="5"/>
-        <v>3.4584999999999999</v>
-      </c>
-      <c r="Q34" s="8">
+        <v>68.338205855667724</v>
+      </c>
+      <c r="R34" s="8">
         <f t="shared" si="6"/>
-        <v>68.338205855667724</v>
-      </c>
-      <c r="R34" s="8">
+        <v>97.992709150477623</v>
+      </c>
+      <c r="S34" s="38">
+        <f t="shared" si="22"/>
+        <v>3.8720833333333329</v>
+      </c>
+      <c r="T34" s="37">
         <f t="shared" si="7"/>
-        <v>97.992709150477623</v>
-      </c>
-      <c r="S34" s="38">
-        <f>E34-E33</f>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="T34" s="37">
-        <f t="shared" si="23"/>
-        <v>-0.88999999999999968</v>
+        <v>5</v>
       </c>
       <c r="U34" s="14">
         <v>21.236000000000001</v>
@@ -5953,7 +5953,7 @@
         <v>15817.333333333334</v>
       </c>
       <c r="AD34" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>105.80054167594193</v>
       </c>
       <c r="AE34" s="28">
@@ -5992,7 +5992,7 @@
         <v>8063</v>
       </c>
       <c r="AO34" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>78.321340639102914</v>
       </c>
       <c r="AP34" s="11">
@@ -6051,28 +6051,28 @@
         <v>-5.847033339611988</v>
       </c>
       <c r="O35" s="21">
+        <f t="shared" si="3"/>
+        <v>2.902207549470468</v>
+      </c>
+      <c r="P35" s="6">
         <f t="shared" si="4"/>
-        <v>2.902207549470468</v>
-      </c>
-      <c r="P35" s="6">
+        <v>1.7724812499999998</v>
+      </c>
+      <c r="Q35" s="8">
         <f t="shared" si="5"/>
-        <v>1.7724812499999998</v>
-      </c>
-      <c r="Q35" s="8">
+        <v>81.639471751371744</v>
+      </c>
+      <c r="R35" s="8">
         <f t="shared" si="6"/>
-        <v>81.639471751371744</v>
-      </c>
-      <c r="R35" s="8">
+        <v>96.280743851229758</v>
+      </c>
+      <c r="S35" s="38">
+        <f t="shared" si="22"/>
+        <v>3.24</v>
+      </c>
+      <c r="T35" s="37">
         <f t="shared" si="7"/>
-        <v>96.280743851229758</v>
-      </c>
-      <c r="S35" s="38">
-        <f>E35-E34</f>
-        <v>1.2300000000000004</v>
-      </c>
-      <c r="T35" s="37">
-        <f>D35</f>
-        <v>-1.4</v>
+        <v>5</v>
       </c>
       <c r="U35" s="14">
         <v>20.864999999999998</v>
@@ -6106,7 +6106,7 @@
         <v>18895.666666666668</v>
       </c>
       <c r="AD35" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>128.6385602974388</v>
       </c>
       <c r="AE35" s="28">
@@ -6145,7 +6145,7 @@
         <v>9605</v>
       </c>
       <c r="AO35" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>93.045032517035054</v>
       </c>
       <c r="AP35" s="11">
@@ -6175,7 +6175,7 @@
         <v>23145.666666666668</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" ref="G36:G37" si="26">(F36*100/F35)-100</f>
+        <f t="shared" ref="G36:G37" si="25">(F36*100/F35)-100</f>
         <v>22.489768557719458</v>
       </c>
       <c r="H36" s="21">
@@ -6205,11 +6205,11 @@
         <v>-0.17063982746225914</v>
       </c>
       <c r="O36" s="21">
+        <f t="shared" si="3"/>
+        <v>3.4584999999999999</v>
+      </c>
+      <c r="P36" s="6">
         <f t="shared" si="4"/>
-        <v>3.4584999999999999</v>
-      </c>
-      <c r="P36" s="6">
-        <f t="shared" si="5"/>
         <v>1.2796449999999999</v>
       </c>
       <c r="Q36" s="8">
@@ -6217,16 +6217,16 @@
         <v>100.00000000000001</v>
       </c>
       <c r="R36" s="8">
+        <f t="shared" si="6"/>
+        <v>98.966360574039058</v>
+      </c>
+      <c r="S36" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.23499999999999943</v>
+      </c>
+      <c r="T36" s="37">
         <f t="shared" si="7"/>
-        <v>98.966360574039058</v>
-      </c>
-      <c r="S36" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.84999999999999964</v>
-      </c>
-      <c r="T36" s="37">
-        <f t="shared" si="23"/>
-        <v>0.3100000000000005</v>
+        <v>2</v>
       </c>
       <c r="U36" s="14">
         <v>21.446999999999999</v>
@@ -6331,7 +6331,7 @@
         <v>19658.333333333332</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-15.066895171162358</v>
       </c>
       <c r="H37" s="21">
@@ -6373,16 +6373,16 @@
         <v>84.933104828837642</v>
       </c>
       <c r="R37" s="8">
+        <f t="shared" si="6"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="S37" s="38">
+        <f t="shared" si="22"/>
+        <v>-0.57500000000000018</v>
+      </c>
+      <c r="T37" s="37">
         <f t="shared" si="7"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="S37" s="38">
-        <f t="shared" si="21"/>
-        <v>-0.15000000000000036</v>
-      </c>
-      <c r="T37" s="37">
-        <f t="shared" si="23"/>
-        <v>-9.0999999999999748E-2</v>
+        <v>3.5</v>
       </c>
       <c r="U37" s="14">
         <v>21.670999999999999</v>
@@ -6471,7 +6471,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D37">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6485,7 +6485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E37">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6497,7 +6497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6511,7 +6511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6523,7 +6523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J37">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6535,6 +6535,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J37">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6546,20 +6558,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L37">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M37">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6571,13 +6571,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S37">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="between">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="between">
+      <formula>1</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T37">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66CB45-1CCC-4CAE-B0C3-06FF3E1E5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D5009-110D-4D08-A004-99071B0D5B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -774,8 +774,8 @@
   <dimension ref="A1:AR37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP37" sqref="AP37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,11 +992,11 @@
       </c>
       <c r="Q2" s="8">
         <f>(F2*100/MAX($F$2:$F$37))</f>
-        <v>4.8053055287526822</v>
+        <v>4.8030228875773711</v>
       </c>
       <c r="R2" s="8">
         <f>(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.170965806838632</v>
+        <v>14.983593109105824</v>
       </c>
       <c r="S2" s="38"/>
       <c r="T2" s="37">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q35" si="5">(F3*100/MAX($F$2:$F$37))</f>
-        <v>6.008079266097325</v>
+        <v>6.0052252770980274</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" ref="R3:R37" si="6">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.602417977942874</v>
+        <v>15.409716525385106</v>
       </c>
       <c r="S3" s="38">
         <f>E3-E2</f>
@@ -1287,11 +1287,11 @@
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="5"/>
-        <v>6.354119561617007</v>
+        <v>6.3511011947603295</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="6"/>
-        <v>15.777306077246092</v>
+        <v>15.582444626743234</v>
       </c>
       <c r="S4" s="38">
         <f>E4-(AVERAGE(E2:E3))</f>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="5"/>
-        <v>7.1951409191065281</v>
+        <v>7.1917230459191019</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="6"/>
-        <v>16.034793041391723</v>
+        <v>15.836751435602954</v>
       </c>
       <c r="S5" s="38">
         <f t="shared" ref="S5:S37" si="22">E5-(AVERAGE(E3:E4))</f>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="5"/>
-        <v>7.2647723835995226</v>
+        <v>7.2613214337123946</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="6"/>
-        <v>16.115546121544924</v>
+        <v>15.916507155227421</v>
       </c>
       <c r="S6" s="38">
         <f t="shared" si="22"/>
@@ -1749,11 +1749,11 @@
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="5"/>
-        <v>9.7701801633135066</v>
+        <v>9.7655390816179644</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="6"/>
-        <v>16.833094919477645</v>
+        <v>16.625193692461945</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="22"/>
@@ -1903,11 +1903,11 @@
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="5"/>
-        <v>12.211457868283482</v>
+        <v>12.205657118180511</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="6"/>
-        <v>17.648470305938815</v>
+        <v>17.430498587184395</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="22"/>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="5"/>
-        <v>15.047165056094011</v>
+        <v>15.040017273643297</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="6"/>
-        <v>18.670573577592176</v>
+        <v>18.439978124145476</v>
       </c>
       <c r="S9" s="38">
         <f t="shared" si="22"/>
@@ -2211,11 +2211,11 @@
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="5"/>
-        <v>18.149444820484756</v>
+        <v>18.140823376997268</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="6"/>
-        <v>20.268561672280928</v>
+        <v>20.018229878771308</v>
       </c>
       <c r="S10" s="38">
         <f t="shared" si="22"/>
@@ -2365,11 +2365,11 @@
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="5"/>
-        <v>20.21273960568573</v>
+        <v>20.203138045199367</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="6"/>
-        <v>21.483549443957362</v>
+        <v>21.218211648892535</v>
       </c>
       <c r="S11" s="38">
         <f t="shared" si="22"/>
@@ -2519,11 +2519,11 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="5"/>
-        <v>20.9945562164264</v>
+        <v>20.984583273355405</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="6"/>
-        <v>22.907572331687515</v>
+        <v>22.624646796098812</v>
       </c>
       <c r="S12" s="38">
         <f t="shared" si="22"/>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="5"/>
-        <v>18.894206258910952</v>
+        <v>18.885231034979125</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="6"/>
-        <v>25.111900696783724</v>
+        <v>24.801750068362047</v>
       </c>
       <c r="S13" s="38">
         <f t="shared" si="22"/>
@@ -2827,11 +2827,11 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="5"/>
-        <v>15.201736826187766</v>
+        <v>15.194515618252481</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="6"/>
-        <v>26.728346638364641</v>
+        <v>26.39823170175919</v>
       </c>
       <c r="S14" s="38">
         <f t="shared" si="22"/>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="5"/>
-        <v>19.539899477223958</v>
+        <v>19.53061753274795</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="6"/>
-        <v>27.976097088274656</v>
+        <v>27.630571506699486</v>
       </c>
       <c r="S15" s="38">
         <f t="shared" si="22"/>
@@ -3135,11 +3135,11 @@
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="5"/>
-        <v>20.405561876233129</v>
+        <v>20.395868720310922</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="6"/>
-        <v>29.584236998754101</v>
+        <v>29.218849694649535</v>
       </c>
       <c r="S16" s="38">
         <f t="shared" si="22"/>
@@ -3289,11 +3289,11 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="5"/>
-        <v>20.407707706266109</v>
+        <v>20.398013531020585</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="6"/>
-        <v>30.965345392459973</v>
+        <v>30.582900373712519</v>
       </c>
       <c r="S17" s="38">
         <f t="shared" si="22"/>
@@ -3443,11 +3443,11 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="5"/>
-        <v>23.46897187378487</v>
+        <v>23.457823520944292</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="6"/>
-        <v>32.741913155830382</v>
+        <v>32.337526205450743</v>
       </c>
       <c r="S18" s="38">
         <f t="shared" si="22"/>
@@ -3597,11 +3597,11 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="5"/>
-        <v>25.036824747612943</v>
+        <v>25.02493162516194</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="6"/>
-        <v>34.570624336671131</v>
+        <v>34.143651444717896</v>
       </c>
       <c r="S19" s="38">
         <f t="shared" si="22"/>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="5"/>
-        <v>16.210939412705038</v>
+        <v>16.203238808118609</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="6"/>
-        <v>38.126528540445761</v>
+        <v>37.655637590010031</v>
       </c>
       <c r="S20" s="38">
         <f t="shared" si="22"/>
@@ -3905,11 +3905,11 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="5"/>
-        <v>19.891484367124153</v>
+        <v>19.882035410968761</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="6"/>
-        <v>38.972359374279002</v>
+        <v>38.49102178470514</v>
       </c>
       <c r="S21" s="38">
         <f t="shared" si="22"/>
@@ -4059,11 +4059,11 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="5"/>
-        <v>22.302965277877789</v>
+        <v>22.292370807542824</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="6"/>
-        <v>40.726777721378802</v>
+        <v>40.223771761917781</v>
       </c>
       <c r="S22" s="38">
         <f t="shared" si="22"/>
@@ -4213,11 +4213,11 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="5"/>
-        <v>23.15704883563518</v>
+        <v>23.146048654095292</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="6"/>
-        <v>44.900096903696188</v>
+        <v>44.34554735211011</v>
       </c>
       <c r="S23" s="38">
         <f t="shared" si="22"/>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="5"/>
-        <v>25.2734709160822</v>
+        <v>25.261465380739882</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="6"/>
-        <v>48.318951594296543</v>
+        <v>47.722176647525309</v>
       </c>
       <c r="S24" s="38">
         <f t="shared" si="22"/>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="5"/>
-        <v>32.548439592724343</v>
+        <v>32.532978263998849</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="6"/>
-        <v>51.061787642471515</v>
+        <v>50.431136632941396</v>
       </c>
       <c r="S25" s="38">
         <f t="shared" si="22"/>
@@ -4675,11 +4675,11 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="5"/>
-        <v>35.452381295274854</v>
+        <v>35.435540521088235</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="6"/>
-        <v>54.137326380877681</v>
+        <v>53.468690183210292</v>
       </c>
       <c r="S26" s="38">
         <f t="shared" si="22"/>
@@ -4829,11 +4829,11 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="5"/>
-        <v>35.247821766493367</v>
+        <v>35.231078163235928</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="6"/>
-        <v>57.48696414563242</v>
+        <v>56.776957433233079</v>
       </c>
       <c r="S27" s="38">
         <f t="shared" si="22"/>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="5"/>
-        <v>39.436611604764025</v>
+        <v>39.417878220814735</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="6"/>
-        <v>61.258825158045326</v>
+        <v>60.502233160149494</v>
       </c>
       <c r="S28" s="38">
         <f t="shared" si="22"/>
@@ -5137,11 +5137,11 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="5"/>
-        <v>49.390411452107664</v>
+        <v>49.366949762487401</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="6"/>
-        <v>63.949056342577649</v>
+        <v>63.159237991067364</v>
       </c>
       <c r="S29" s="38">
         <f t="shared" si="22"/>
@@ -5291,11 +5291,11 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="5"/>
-        <v>46.759595028587064</v>
+        <v>46.737383043040161</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="6"/>
-        <v>66.607909187393304</v>
+        <v>65.785252028074026</v>
       </c>
       <c r="S30" s="38">
         <f t="shared" si="22"/>
@@ -5445,11 +5445,11 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="5"/>
-        <v>58.672523294497168</v>
+        <v>58.6446523679286</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="6"/>
-        <v>71.072400904434517</v>
+        <v>70.194603955883707</v>
       </c>
       <c r="S31" s="38">
         <f t="shared" si="22"/>
@@ -5599,11 +5599,11 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="5"/>
-        <v>68.047985944093199</v>
+        <v>68.015661436591316</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="6"/>
-        <v>88.542291541691668</v>
+        <v>87.44872846595571</v>
       </c>
       <c r="S32" s="38">
         <f t="shared" si="22"/>
@@ -5753,11 +5753,11 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="5"/>
-        <v>81.727321168829292</v>
+        <v>81.688498632503226</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="6"/>
-        <v>99.644686447325952</v>
+        <v>98.414000546896389</v>
       </c>
       <c r="S33" s="38">
         <f t="shared" si="22"/>
@@ -5907,11 +5907,11 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="5"/>
-        <v>68.338205855667724</v>
+        <v>68.305743486397006</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="6"/>
-        <v>97.992709150477623</v>
+        <v>96.78242639686448</v>
       </c>
       <c r="S34" s="38">
         <f t="shared" si="22"/>
@@ -6060,11 +6060,11 @@
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="5"/>
-        <v>81.639471751371744</v>
+        <v>81.600690945731969</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="6"/>
-        <v>96.280743851229758</v>
+        <v>95.09160514082582</v>
       </c>
       <c r="S35" s="38">
         <f t="shared" si="22"/>
@@ -6214,11 +6214,11 @@
       </c>
       <c r="Q36" s="8">
         <f>(F36*100/MAX($F$2:$F$37))</f>
-        <v>100.00000000000001</v>
+        <v>99.952497480927022</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="6"/>
-        <v>98.966360574039058</v>
+        <v>97.744052502050877</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="22"/>
@@ -6314,63 +6314,63 @@
         <v>2025</v>
       </c>
       <c r="B37" s="20">
-        <v>4.09</v>
+        <v>4.24</v>
       </c>
       <c r="C37" s="21">
-        <v>3.9990000000000001</v>
+        <v>4.26</v>
       </c>
       <c r="D37" s="21">
         <f>C37-B37</f>
-        <v>-9.0999999999999748E-2</v>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="E37" s="32">
         <v>4.33</v>
       </c>
       <c r="F37" s="11">
         <f>Monitor!AC37</f>
-        <v>19658.333333333332</v>
+        <v>23156.666666666668</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="25"/>
-        <v>-15.066895171162358</v>
+        <v>4.7525094690158198E-2</v>
       </c>
       <c r="H37" s="21">
         <f>Monitor!U37</f>
-        <v>21.670999999999999</v>
+        <v>21.942</v>
       </c>
       <c r="I37" s="40">
         <f>(H37*100/H36)-100</f>
-        <v>1.0444351191308812</v>
+        <v>2.3080151070079751</v>
       </c>
       <c r="J37" s="11">
         <f>AD37</f>
-        <v>128.85316293384679</v>
+        <v>149.90881607985793</v>
       </c>
       <c r="K37" s="6">
         <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
-        <v>112.33080671479162</v>
+        <v>113.8347819395067</v>
       </c>
       <c r="L37" s="14">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="M37" s="11">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N37" s="14">
         <f>I37-L37</f>
-        <v>-1.7755648808691187</v>
+        <v>-0.29198489299202501</v>
       </c>
       <c r="O37" s="21">
         <f>J37*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.9070491878569626</v>
+        <v>3.3820846311804198</v>
       </c>
       <c r="P37" s="6">
         <f>L37*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.2191212499999999</v>
+        <v>1.1240125000000001</v>
       </c>
       <c r="Q37" s="8">
         <f>(F37*100/MAX($F$2:$F$37))</f>
-        <v>84.933104828837642</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" si="6"/>
@@ -6382,85 +6382,85 @@
       </c>
       <c r="T37" s="37">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="U37" s="14">
-        <v>21.670999999999999</v>
+        <v>21.942</v>
       </c>
       <c r="V37" s="14">
         <f>(U37*100/U36)-100</f>
-        <v>1.0444351191308812</v>
+        <v>2.3080151070079751</v>
       </c>
       <c r="W37" s="14">
         <f>U37-U36</f>
-        <v>0.2240000000000002</v>
+        <v>0.49500000000000099</v>
       </c>
       <c r="X37" s="23">
         <v>341</v>
       </c>
       <c r="Y37" s="11">
         <f>(U37*1000000000000)/(X37*1000000)</f>
-        <v>63551.319648093842</v>
+        <v>64346.041055718473</v>
       </c>
       <c r="Z37" s="23">
-        <v>38314</v>
+        <v>43260</v>
       </c>
       <c r="AA37" s="23">
-        <v>5074</v>
+        <v>6128</v>
       </c>
       <c r="AB37" s="23">
-        <v>15587</v>
+        <v>20082</v>
       </c>
       <c r="AC37" s="11">
         <f>AVERAGE(Z37:AB37)</f>
-        <v>19658.333333333332</v>
+        <v>23156.666666666668</v>
       </c>
       <c r="AD37" s="14">
         <f>((AC37/U37)/100)*100/7.04</f>
-        <v>128.85316293384679</v>
+        <v>149.90881607985793</v>
       </c>
       <c r="AE37" s="28">
         <f>AC37/U37</f>
-        <v>907.12626705428147</v>
+        <v>1055.3580652021999</v>
       </c>
       <c r="AF37" s="14">
-        <v>16.858000000000001</v>
+        <v>16.901</v>
       </c>
       <c r="AG37" s="14">
         <f>(AF37*100/AF36)-100</f>
-        <v>1.0610874647802859</v>
+        <v>1.3188657754331103</v>
       </c>
       <c r="AH37" s="21">
         <f>AF37-AF36</f>
-        <v>0.1769999999999996</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AI37" s="27">
         <v>350</v>
       </c>
       <c r="AJ37" s="11">
         <f t="shared" si="15"/>
-        <v>48165.714285714283</v>
+        <v>48288.571428571428</v>
       </c>
       <c r="AK37" s="23">
-        <v>7274</v>
+        <v>7559</v>
       </c>
       <c r="AL37" s="23">
-        <v>20641</v>
+        <v>23637</v>
       </c>
       <c r="AM37" s="23">
-        <v>4866</v>
+        <v>5245</v>
       </c>
       <c r="AN37" s="8">
         <f>AVERAGE(AK37:AM37)</f>
-        <v>10927</v>
+        <v>12147</v>
       </c>
       <c r="AO37" s="4">
         <f>((AN37/AF37)/100)*100/6.407</f>
-        <v>101.16730235013486</v>
+        <v>112.17650521970754</v>
       </c>
       <c r="AP37" s="11">
         <f>AN37/AF37</f>
-        <v>648.17890615731403</v>
+        <v>718.71486894266616</v>
       </c>
       <c r="AQ37"/>
       <c r="AR37"/>
